--- a/result/back_testing_m1.xlsx
+++ b/result/back_testing_m1.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\study\kra\result\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="4050" yWindow="45" windowWidth="21000" windowHeight="9915"/>
+    <workbookView xWindow="4056" yWindow="48" windowWidth="21000" windowHeight="9912"/>
   </bookViews>
   <sheets>
     <sheet name="1" sheetId="1" r:id="rId1"/>
@@ -20,12 +15,12 @@
     <sheet name="4nw" sheetId="4" r:id="rId6"/>
     <sheet name="2_1" sheetId="7" r:id="rId7"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="340" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="344" uniqueCount="54">
   <si>
     <t>train data</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -184,6 +179,18 @@
     <t>recent 1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>2016-02-06 - 2016-02-07</t>
+  </si>
+  <si>
+    <t>2016-08-06 - 2016-08-07</t>
+  </si>
+  <si>
+    <t>2016-09-17 - 2016-09-18</t>
+  </si>
+  <si>
+    <t>2016-11-19 - 2016-11-20</t>
+  </si>
 </sst>
 </file>
 
@@ -244,52 +251,17 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="8">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="3">
     <dxf>
       <fill>
         <patternFill>
@@ -367,7 +339,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -402,7 +374,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -611,27 +583,27 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:X47"/>
+  <dimension ref="B1:X51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="N19" sqref="N19"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="J7" sqref="J7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="2" max="2" width="25.125" customWidth="1"/>
-    <col min="3" max="3" width="7.375" customWidth="1"/>
-    <col min="4" max="4" width="6.75" customWidth="1"/>
-    <col min="5" max="5" width="6.875" customWidth="1"/>
-    <col min="6" max="7" width="6.25" customWidth="1"/>
+    <col min="2" max="2" width="25.09765625" customWidth="1"/>
+    <col min="3" max="3" width="7.3984375" customWidth="1"/>
+    <col min="4" max="4" width="6.69921875" customWidth="1"/>
+    <col min="5" max="5" width="6.8984375" customWidth="1"/>
+    <col min="6" max="7" width="6.19921875" customWidth="1"/>
     <col min="8" max="8" width="7" customWidth="1"/>
-    <col min="9" max="13" width="6.25" customWidth="1"/>
-    <col min="15" max="15" width="6.75" customWidth="1"/>
-    <col min="16" max="16" width="6.875" customWidth="1"/>
-    <col min="17" max="24" width="6.25" customWidth="1"/>
+    <col min="9" max="13" width="6.19921875" customWidth="1"/>
+    <col min="15" max="15" width="6.69921875" customWidth="1"/>
+    <col min="16" max="16" width="6.8984375" customWidth="1"/>
+    <col min="17" max="24" width="6.19921875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:24" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:24" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B1" t="s">
         <v>0</v>
       </c>
@@ -639,27 +611,27 @@
         <v>49</v>
       </c>
     </row>
-    <row r="3" spans="2:24" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:24" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B3" s="1"/>
-      <c r="C3" s="2" t="s">
+      <c r="C3" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="2"/>
-      <c r="E3" s="2"/>
-      <c r="F3" s="2"/>
-      <c r="G3" s="2"/>
-      <c r="H3" s="2"/>
-      <c r="I3" s="2"/>
+      <c r="D3" s="3"/>
+      <c r="E3" s="3"/>
+      <c r="F3" s="3"/>
+      <c r="G3" s="3"/>
+      <c r="H3" s="3"/>
+      <c r="I3" s="3"/>
       <c r="J3" s="1"/>
       <c r="K3" s="1"/>
       <c r="U3" s="1"/>
       <c r="V3" s="1"/>
     </row>
-    <row r="4" spans="2:24" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:24" x14ac:dyDescent="0.4">
       <c r="B4" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="C4" s="2" t="s">
         <v>2</v>
       </c>
       <c r="D4">
@@ -668,22 +640,22 @@
       <c r="E4">
         <v>1100</v>
       </c>
-      <c r="F4" s="3">
+      <c r="F4" s="2">
         <v>1200</v>
       </c>
-      <c r="G4" s="3">
+      <c r="G4" s="2">
         <v>1300</v>
       </c>
-      <c r="H4" s="3">
+      <c r="H4" s="2">
         <v>1400</v>
       </c>
-      <c r="I4" s="3">
+      <c r="I4" s="2">
         <v>1700</v>
       </c>
-      <c r="J4" s="3">
+      <c r="J4" s="2">
         <v>1800</v>
       </c>
-      <c r="K4" s="3">
+      <c r="K4" s="2">
         <v>1900</v>
       </c>
       <c r="L4">
@@ -698,22 +670,22 @@
       <c r="P4">
         <v>1100</v>
       </c>
-      <c r="Q4" s="3">
+      <c r="Q4" s="2">
         <v>1200</v>
       </c>
-      <c r="R4" s="3">
+      <c r="R4" s="2">
         <v>1300</v>
       </c>
-      <c r="S4" s="3">
+      <c r="S4" s="2">
         <v>1400</v>
       </c>
-      <c r="T4" s="3">
+      <c r="T4" s="2">
         <v>1700</v>
       </c>
-      <c r="U4" s="3">
+      <c r="U4" s="2">
         <v>1800</v>
       </c>
-      <c r="V4" s="3">
+      <c r="V4" s="2">
         <v>1900</v>
       </c>
       <c r="W4">
@@ -723,3121 +695,1461 @@
         <v>2300</v>
       </c>
     </row>
-    <row r="5" spans="2:24" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:24" x14ac:dyDescent="0.4">
       <c r="B5" t="s">
         <v>45</v>
       </c>
-      <c r="C5" s="3">
+      <c r="C5" s="2">
         <f>SUM(C6:C100)</f>
-        <v>31402</v>
+        <v>16870</v>
       </c>
       <c r="D5">
         <f t="shared" ref="D5:M5" si="0">SUM(D6:D100)</f>
-        <v>7942</v>
+        <v>0</v>
       </c>
       <c r="E5">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F5" s="3">
+      <c r="F5" s="2">
         <f t="shared" si="0"/>
-        <v>2153</v>
-      </c>
-      <c r="G5" s="3">
+        <v>8527</v>
+      </c>
+      <c r="G5" s="2">
         <f t="shared" ref="G5" si="1">SUM(G6:G100)</f>
-        <v>6470</v>
-      </c>
-      <c r="H5" s="3">
+        <v>0</v>
+      </c>
+      <c r="H5" s="2">
         <f t="shared" si="0"/>
-        <v>16119</v>
-      </c>
-      <c r="I5" s="3">
+        <v>1496</v>
+      </c>
+      <c r="I5" s="2">
         <f t="shared" si="0"/>
-        <v>3417</v>
-      </c>
-      <c r="J5" s="3">
+        <v>663</v>
+      </c>
+      <c r="J5" s="2">
         <f t="shared" si="0"/>
-        <v>220</v>
-      </c>
-      <c r="K5" s="3">
+        <v>0</v>
+      </c>
+      <c r="K5" s="2">
         <f t="shared" si="0"/>
-        <v>311</v>
+        <v>0</v>
       </c>
       <c r="L5">
         <f t="shared" si="0"/>
-        <v>-1381</v>
+        <v>0</v>
       </c>
       <c r="M5">
         <f t="shared" si="0"/>
-        <v>797</v>
+        <v>0</v>
       </c>
       <c r="N5">
         <f t="shared" ref="N5" si="2">SUM(D5:M5)</f>
-        <v>36048</v>
+        <v>10686</v>
       </c>
       <c r="O5">
         <f t="shared" ref="O5:X5" si="3">SUM(O6:O100)</f>
-        <v>-3730</v>
+        <v>0</v>
       </c>
       <c r="P5">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="Q5" s="3">
+      <c r="Q5" s="2">
         <f t="shared" si="3"/>
-        <v>8928</v>
-      </c>
-      <c r="R5" s="3">
+        <v>-2945</v>
+      </c>
+      <c r="R5" s="2">
         <f t="shared" si="3"/>
-        <v>5775</v>
-      </c>
-      <c r="S5" s="3">
+        <v>0</v>
+      </c>
+      <c r="S5" s="2">
         <f t="shared" si="3"/>
-        <v>6454</v>
-      </c>
-      <c r="T5" s="3">
+        <v>3811</v>
+      </c>
+      <c r="T5" s="2">
         <f t="shared" si="3"/>
-        <v>2884</v>
-      </c>
-      <c r="U5" s="3">
+        <v>95</v>
+      </c>
+      <c r="U5" s="2">
         <f t="shared" si="3"/>
-        <v>2846</v>
-      </c>
-      <c r="V5" s="3">
+        <v>0</v>
+      </c>
+      <c r="V5" s="2">
         <f t="shared" si="3"/>
-        <v>1552</v>
+        <v>0</v>
       </c>
       <c r="W5">
         <f t="shared" si="3"/>
-        <v>-1600</v>
+        <v>0</v>
       </c>
       <c r="X5">
         <f t="shared" si="3"/>
-        <v>-100</v>
-      </c>
-    </row>
-    <row r="6" spans="2:24" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="2:24" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B6" t="s">
         <v>3</v>
       </c>
       <c r="C6">
-        <v>3983</v>
-      </c>
-      <c r="D6">
-        <v>416</v>
-      </c>
-      <c r="E6">
-        <v>0</v>
+        <v>1564</v>
       </c>
       <c r="F6">
-        <v>1559</v>
-      </c>
-      <c r="G6">
-        <v>258</v>
+        <v>2729</v>
       </c>
       <c r="H6">
-        <v>2150</v>
+        <v>-600</v>
       </c>
       <c r="I6">
         <v>-200</v>
-      </c>
-      <c r="J6">
-        <v>-200</v>
-      </c>
-      <c r="K6">
-        <v>0</v>
-      </c>
-      <c r="L6">
-        <v>0</v>
-      </c>
-      <c r="M6">
-        <v>0</v>
       </c>
       <c r="N6">
         <f>SUM(D6:M6)</f>
-        <v>3983</v>
-      </c>
-      <c r="O6">
-        <v>-221</v>
-      </c>
-      <c r="P6">
-        <v>0</v>
+        <v>1929</v>
       </c>
       <c r="Q6">
-        <v>2575</v>
-      </c>
-      <c r="R6">
-        <v>258</v>
+        <v>2408</v>
       </c>
       <c r="S6">
-        <v>2150</v>
+        <v>-600</v>
       </c>
       <c r="T6">
-        <v>-200</v>
-      </c>
-      <c r="U6">
-        <v>68</v>
-      </c>
-      <c r="V6">
-        <v>0</v>
-      </c>
-      <c r="W6">
-        <v>0</v>
-      </c>
-      <c r="X6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="2:24" x14ac:dyDescent="0.3">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="7" spans="2:24" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B7" t="s">
         <v>4</v>
       </c>
       <c r="C7">
-        <v>1390</v>
-      </c>
-      <c r="D7">
-        <v>-400</v>
-      </c>
-      <c r="E7">
-        <v>0</v>
+        <v>-2007</v>
       </c>
       <c r="F7">
-        <v>842</v>
-      </c>
-      <c r="G7">
-        <v>1550</v>
+        <v>-700</v>
       </c>
       <c r="H7">
-        <v>-202</v>
+        <v>-207</v>
       </c>
       <c r="I7">
         <v>-200</v>
-      </c>
-      <c r="J7">
-        <v>-100</v>
-      </c>
-      <c r="K7">
-        <v>-100</v>
-      </c>
-      <c r="L7">
-        <v>0</v>
-      </c>
-      <c r="M7">
-        <v>0</v>
       </c>
       <c r="N7">
         <f t="shared" ref="N7:N47" si="4">SUM(D7:M7)</f>
-        <v>1390</v>
-      </c>
-      <c r="O7">
-        <v>-400</v>
-      </c>
-      <c r="P7">
-        <v>0</v>
+        <v>-1107</v>
       </c>
       <c r="Q7">
-        <v>842</v>
-      </c>
-      <c r="R7">
-        <v>1550</v>
+        <v>-700</v>
       </c>
       <c r="S7">
-        <v>-202</v>
+        <v>-207</v>
       </c>
       <c r="T7">
         <v>-200</v>
       </c>
-      <c r="U7">
-        <v>-100</v>
-      </c>
-      <c r="V7">
-        <v>-100</v>
-      </c>
-      <c r="W7">
-        <v>0</v>
-      </c>
-      <c r="X7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="2:24" x14ac:dyDescent="0.3">
+    </row>
+    <row r="8" spans="2:24" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B8" t="s">
         <v>5</v>
       </c>
       <c r="C8">
-        <v>2570</v>
-      </c>
-      <c r="D8">
-        <v>-200</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
+        <v>3762</v>
       </c>
       <c r="F8">
-        <v>2197</v>
-      </c>
-      <c r="G8">
-        <v>561</v>
+        <v>2045</v>
       </c>
       <c r="H8">
-        <v>104</v>
+        <v>321</v>
       </c>
       <c r="I8">
-        <v>108</v>
-      </c>
-      <c r="J8">
-        <v>-100</v>
-      </c>
-      <c r="K8">
-        <v>0</v>
-      </c>
-      <c r="L8">
-        <v>-100</v>
-      </c>
-      <c r="M8">
-        <v>0</v>
+        <v>103</v>
       </c>
       <c r="N8">
         <f t="shared" si="4"/>
-        <v>2570</v>
-      </c>
-      <c r="O8">
-        <v>-100</v>
-      </c>
-      <c r="P8">
-        <v>0</v>
+        <v>2469</v>
       </c>
       <c r="Q8">
-        <v>1551</v>
-      </c>
-      <c r="R8">
-        <v>-200</v>
+        <v>2045</v>
       </c>
       <c r="S8">
-        <v>-600</v>
+        <v>75</v>
       </c>
       <c r="T8">
         <v>-200</v>
       </c>
-      <c r="U8">
-        <v>-100</v>
-      </c>
-      <c r="V8">
-        <v>0</v>
-      </c>
-      <c r="W8">
-        <v>-100</v>
-      </c>
-      <c r="X8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="2:24" x14ac:dyDescent="0.3">
+    </row>
+    <row r="9" spans="2:24" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B9" t="s">
         <v>6</v>
       </c>
       <c r="C9">
-        <v>2967</v>
-      </c>
-      <c r="D9">
-        <v>-221</v>
-      </c>
-      <c r="E9">
-        <v>0</v>
+        <v>2535</v>
       </c>
       <c r="F9">
         <v>-700</v>
       </c>
-      <c r="G9">
-        <v>952</v>
-      </c>
       <c r="H9">
-        <v>34</v>
+        <v>21</v>
       </c>
       <c r="I9">
-        <v>2905</v>
-      </c>
-      <c r="J9">
-        <v>-2</v>
-      </c>
-      <c r="K9">
-        <v>0</v>
-      </c>
-      <c r="L9">
-        <v>0</v>
-      </c>
-      <c r="M9">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="N9">
         <f t="shared" si="4"/>
-        <v>2968</v>
-      </c>
-      <c r="O9">
-        <v>-300</v>
-      </c>
-      <c r="P9">
-        <v>0</v>
+        <v>-779</v>
       </c>
       <c r="Q9">
         <v>-700</v>
       </c>
-      <c r="R9">
-        <v>952</v>
-      </c>
       <c r="S9">
-        <v>34</v>
+        <v>21</v>
       </c>
       <c r="T9">
-        <v>2905</v>
-      </c>
-      <c r="U9">
-        <v>-2</v>
-      </c>
-      <c r="V9">
-        <v>0</v>
-      </c>
-      <c r="W9">
-        <v>0</v>
-      </c>
-      <c r="X9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="2:24" x14ac:dyDescent="0.3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="10" spans="2:24" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B10" t="s">
-        <v>7</v>
+        <v>50</v>
       </c>
       <c r="C10">
-        <v>1453</v>
-      </c>
-      <c r="D10">
-        <v>241</v>
-      </c>
-      <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>-374</v>
-      </c>
-      <c r="G10">
-        <v>1378</v>
+        <v>0</v>
       </c>
       <c r="H10">
-        <v>-12</v>
+        <v>0</v>
       </c>
       <c r="I10">
-        <v>-100</v>
-      </c>
-      <c r="J10">
-        <v>319</v>
-      </c>
-      <c r="K10">
-        <v>0</v>
-      </c>
-      <c r="L10">
-        <v>0</v>
-      </c>
-      <c r="M10">
         <v>0</v>
       </c>
       <c r="N10">
         <f t="shared" si="4"/>
-        <v>1452</v>
-      </c>
-      <c r="O10">
-        <v>241</v>
-      </c>
-      <c r="P10">
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>501</v>
-      </c>
-      <c r="R10">
-        <v>1378</v>
+        <v>0</v>
       </c>
       <c r="S10">
-        <v>-12</v>
+        <v>0</v>
       </c>
       <c r="T10">
-        <v>-100</v>
-      </c>
-      <c r="U10">
-        <v>319</v>
-      </c>
-      <c r="V10">
-        <v>0</v>
-      </c>
-      <c r="W10">
-        <v>0</v>
-      </c>
-      <c r="X10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="2:24" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="2:24" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B11" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C11">
-        <v>625</v>
-      </c>
-      <c r="D11">
-        <v>-152</v>
-      </c>
-      <c r="E11">
-        <v>0</v>
+        <v>2069</v>
       </c>
       <c r="F11">
-        <v>1511</v>
-      </c>
-      <c r="G11">
-        <v>-600</v>
+        <v>605</v>
       </c>
       <c r="H11">
-        <v>-400</v>
+        <v>-16</v>
       </c>
       <c r="I11">
-        <v>0</v>
-      </c>
-      <c r="J11">
-        <v>266</v>
-      </c>
-      <c r="K11">
-        <v>0</v>
-      </c>
-      <c r="L11">
-        <v>0</v>
-      </c>
-      <c r="M11">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="N11">
         <f t="shared" si="4"/>
-        <v>625</v>
-      </c>
-      <c r="O11">
-        <v>-152</v>
-      </c>
-      <c r="P11">
-        <v>0</v>
+        <v>489</v>
       </c>
       <c r="Q11">
-        <v>1760</v>
-      </c>
-      <c r="R11">
-        <v>-500</v>
+        <v>-222</v>
       </c>
       <c r="S11">
-        <v>-400</v>
+        <v>-16</v>
       </c>
       <c r="T11">
-        <v>0</v>
-      </c>
-      <c r="U11">
-        <v>-120</v>
-      </c>
-      <c r="V11">
-        <v>0</v>
-      </c>
-      <c r="W11">
-        <v>0</v>
-      </c>
-      <c r="X11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="2:24" x14ac:dyDescent="0.3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="12" spans="2:24" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B12" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C12">
-        <v>772</v>
-      </c>
-      <c r="D12">
-        <v>340</v>
-      </c>
-      <c r="E12">
-        <v>0</v>
+        <v>1275</v>
       </c>
       <c r="F12">
-        <v>-83</v>
-      </c>
-      <c r="G12">
-        <v>-300</v>
+        <v>2732</v>
       </c>
       <c r="H12">
         <v>-400</v>
       </c>
       <c r="I12">
-        <v>-100</v>
-      </c>
-      <c r="J12">
-        <v>-100</v>
-      </c>
-      <c r="K12">
-        <v>0</v>
-      </c>
-      <c r="L12">
-        <v>-100</v>
-      </c>
-      <c r="M12">
         <v>0</v>
       </c>
       <c r="N12">
         <f t="shared" si="4"/>
-        <v>-743</v>
-      </c>
-      <c r="O12">
-        <v>340</v>
-      </c>
-      <c r="P12">
-        <v>0</v>
+        <v>2332</v>
       </c>
       <c r="Q12">
-        <v>759</v>
-      </c>
-      <c r="R12">
-        <v>-200</v>
+        <v>-410</v>
       </c>
       <c r="S12">
-        <v>739</v>
+        <v>-400</v>
       </c>
       <c r="T12">
-        <v>-100</v>
-      </c>
-      <c r="U12">
-        <v>-100</v>
-      </c>
-      <c r="V12">
-        <v>0</v>
-      </c>
-      <c r="W12">
-        <v>-100</v>
-      </c>
-      <c r="X12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="2:24" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="2:24" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B13" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C13">
-        <v>1099</v>
-      </c>
-      <c r="D13">
-        <v>-300</v>
-      </c>
-      <c r="E13">
-        <v>0</v>
+        <v>-142</v>
       </c>
       <c r="F13">
-        <v>-600</v>
-      </c>
-      <c r="G13">
-        <v>67</v>
+        <v>92</v>
       </c>
       <c r="H13">
-        <v>2632</v>
+        <v>666</v>
       </c>
       <c r="I13">
-        <v>-300</v>
-      </c>
-      <c r="J13">
-        <v>-300</v>
-      </c>
-      <c r="K13">
-        <v>0</v>
-      </c>
-      <c r="L13">
-        <v>-100</v>
-      </c>
-      <c r="M13">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="N13">
         <f t="shared" si="4"/>
-        <v>1099</v>
-      </c>
-      <c r="O13">
+        <v>658</v>
+      </c>
+      <c r="Q13">
+        <v>92</v>
+      </c>
+      <c r="S13">
+        <v>666</v>
+      </c>
+      <c r="T13">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="14" spans="2:24" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B14" t="s">
+        <v>10</v>
+      </c>
+      <c r="C14">
+        <v>-2073</v>
+      </c>
+      <c r="F14">
+        <v>-600</v>
+      </c>
+      <c r="H14">
+        <v>-500</v>
+      </c>
+      <c r="I14">
         <v>-300</v>
-      </c>
-      <c r="P13">
-        <v>0</v>
-      </c>
-      <c r="Q13">
-        <v>10</v>
-      </c>
-      <c r="R13">
-        <v>-200</v>
-      </c>
-      <c r="S13">
-        <v>2632</v>
-      </c>
-      <c r="T13">
-        <v>-300</v>
-      </c>
-      <c r="U13">
-        <v>-50</v>
-      </c>
-      <c r="V13">
-        <v>0</v>
-      </c>
-      <c r="W13">
-        <v>-100</v>
-      </c>
-      <c r="X13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="2:24" x14ac:dyDescent="0.3">
-      <c r="B14" t="s">
-        <v>11</v>
-      </c>
-      <c r="C14">
-        <v>-847</v>
-      </c>
-      <c r="D14">
-        <v>-300</v>
-      </c>
-      <c r="E14">
-        <v>0</v>
-      </c>
-      <c r="F14">
-        <v>-500</v>
-      </c>
-      <c r="G14">
-        <v>953</v>
-      </c>
-      <c r="H14">
-        <v>-600</v>
-      </c>
-      <c r="I14">
-        <v>-200</v>
-      </c>
-      <c r="J14">
-        <v>-200</v>
-      </c>
-      <c r="K14">
-        <v>0</v>
-      </c>
-      <c r="L14">
-        <v>0</v>
-      </c>
-      <c r="M14">
-        <v>0</v>
       </c>
       <c r="N14">
         <f t="shared" si="4"/>
-        <v>-847</v>
-      </c>
-      <c r="O14">
-        <v>-200</v>
-      </c>
-      <c r="P14">
-        <v>0</v>
+        <v>-1400</v>
       </c>
       <c r="Q14">
-        <v>345</v>
-      </c>
-      <c r="R14">
-        <v>953</v>
+        <v>-9</v>
       </c>
       <c r="S14">
-        <v>-332</v>
+        <v>-500</v>
       </c>
       <c r="T14">
-        <v>-200</v>
-      </c>
-      <c r="U14">
-        <v>3205</v>
-      </c>
-      <c r="V14">
-        <v>0</v>
-      </c>
-      <c r="W14">
-        <v>0</v>
-      </c>
-      <c r="X14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="2:24" x14ac:dyDescent="0.3">
+        <v>-300</v>
+      </c>
+    </row>
+    <row r="15" spans="2:24" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B15" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C15">
-        <v>-14</v>
-      </c>
-      <c r="D15">
-        <v>177</v>
-      </c>
-      <c r="E15">
-        <v>0</v>
+        <v>-432</v>
       </c>
       <c r="F15">
-        <v>257</v>
-      </c>
-      <c r="G15">
-        <v>-500</v>
+        <v>88</v>
       </c>
       <c r="H15">
-        <v>341</v>
+        <v>-600</v>
       </c>
       <c r="I15">
-        <v>-91</v>
-      </c>
-      <c r="J15">
-        <v>-200</v>
-      </c>
-      <c r="K15">
-        <v>0</v>
-      </c>
-      <c r="L15">
-        <v>0</v>
-      </c>
-      <c r="M15">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="N15">
         <f t="shared" si="4"/>
-        <v>-16</v>
-      </c>
-      <c r="O15">
-        <v>277</v>
-      </c>
-      <c r="P15">
-        <v>0</v>
+        <v>-712</v>
       </c>
       <c r="Q15">
-        <v>257</v>
-      </c>
-      <c r="R15">
         <v>-500</v>
       </c>
       <c r="S15">
-        <v>-400</v>
+        <v>-600</v>
       </c>
       <c r="T15">
-        <v>-91</v>
-      </c>
-      <c r="U15">
-        <v>-200</v>
-      </c>
-      <c r="V15">
-        <v>0</v>
-      </c>
-      <c r="W15">
-        <v>0</v>
-      </c>
-      <c r="X15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="2:24" x14ac:dyDescent="0.3">
+        <v>-200</v>
+      </c>
+    </row>
+    <row r="16" spans="2:24" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B16" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C16">
-        <v>373</v>
-      </c>
-      <c r="D16">
-        <v>-91</v>
-      </c>
-      <c r="E16">
-        <v>0</v>
+        <v>396</v>
       </c>
       <c r="F16">
-        <v>189</v>
-      </c>
-      <c r="G16">
-        <v>292</v>
+        <v>-88</v>
       </c>
       <c r="H16">
-        <v>354</v>
+        <v>856</v>
       </c>
       <c r="I16">
-        <v>-100</v>
-      </c>
-      <c r="J16">
-        <v>-171</v>
-      </c>
-      <c r="K16">
-        <v>0</v>
-      </c>
-      <c r="L16">
-        <v>-100</v>
-      </c>
-      <c r="M16">
-        <v>0</v>
+        <v>-93</v>
       </c>
       <c r="N16">
         <f t="shared" si="4"/>
-        <v>373</v>
-      </c>
-      <c r="O16">
-        <v>-91</v>
-      </c>
-      <c r="P16">
-        <v>0</v>
+        <v>675</v>
       </c>
       <c r="Q16">
-        <v>287</v>
-      </c>
-      <c r="R16">
-        <v>530</v>
+        <v>233</v>
       </c>
       <c r="S16">
-        <v>354</v>
+        <v>856</v>
       </c>
       <c r="T16">
-        <v>-100</v>
-      </c>
-      <c r="U16">
-        <v>-171</v>
-      </c>
-      <c r="V16">
-        <v>0</v>
-      </c>
-      <c r="W16">
-        <v>-100</v>
-      </c>
-      <c r="X16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="2:24" x14ac:dyDescent="0.3">
+        <v>-93</v>
+      </c>
+    </row>
+    <row r="17" spans="2:20" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B17" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C17">
-        <v>-823</v>
-      </c>
-      <c r="D17">
-        <v>-400</v>
-      </c>
-      <c r="E17">
-        <v>0</v>
+        <v>-809</v>
       </c>
       <c r="F17">
-        <v>-462</v>
-      </c>
-      <c r="G17">
-        <v>-300</v>
+        <v>-700</v>
       </c>
       <c r="H17">
-        <v>490</v>
+        <v>326</v>
       </c>
       <c r="I17">
-        <v>-200</v>
-      </c>
-      <c r="J17">
-        <v>49</v>
-      </c>
-      <c r="K17">
-        <v>0</v>
-      </c>
-      <c r="L17">
-        <v>0</v>
-      </c>
-      <c r="M17">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="N17">
         <f t="shared" si="4"/>
-        <v>-823</v>
-      </c>
-      <c r="O17">
-        <v>-400</v>
-      </c>
-      <c r="P17">
-        <v>0</v>
+        <v>-474</v>
       </c>
       <c r="Q17">
         <v>-700</v>
       </c>
-      <c r="R17">
-        <v>-300</v>
-      </c>
       <c r="S17">
-        <v>340</v>
+        <v>326</v>
       </c>
       <c r="T17">
-        <v>-200</v>
-      </c>
-      <c r="U17">
-        <v>49</v>
-      </c>
-      <c r="V17">
-        <v>0</v>
-      </c>
-      <c r="W17">
-        <v>0</v>
-      </c>
-      <c r="X17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="2:24" x14ac:dyDescent="0.3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="18" spans="2:20" x14ac:dyDescent="0.4">
       <c r="B18" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C18">
-        <v>356</v>
-      </c>
-      <c r="D18">
-        <v>92</v>
-      </c>
-      <c r="E18">
-        <v>0</v>
+        <v>-52</v>
       </c>
       <c r="F18">
-        <v>-273</v>
-      </c>
-      <c r="G18">
-        <v>-400</v>
+        <v>-465</v>
       </c>
       <c r="H18">
-        <v>1238</v>
+        <v>700</v>
       </c>
       <c r="I18">
-        <v>-100</v>
-      </c>
-      <c r="J18">
-        <v>-300</v>
-      </c>
-      <c r="K18">
-        <v>0</v>
-      </c>
-      <c r="L18">
-        <v>0</v>
-      </c>
-      <c r="M18">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="N18">
         <f t="shared" si="4"/>
-        <v>257</v>
-      </c>
-      <c r="O18">
-        <v>-200</v>
-      </c>
-      <c r="P18">
-        <v>0</v>
+        <v>35</v>
       </c>
       <c r="Q18">
-        <v>-273</v>
-      </c>
-      <c r="R18">
-        <v>-400</v>
+        <v>-465</v>
       </c>
       <c r="S18">
-        <v>1238</v>
+        <v>304</v>
       </c>
       <c r="T18">
-        <v>-100</v>
-      </c>
-      <c r="U18">
-        <v>-200</v>
-      </c>
-      <c r="V18">
-        <v>0</v>
-      </c>
-      <c r="W18">
-        <v>0</v>
-      </c>
-      <c r="X18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="2:24" x14ac:dyDescent="0.3">
+        <v>-200</v>
+      </c>
+    </row>
+    <row r="19" spans="2:20" x14ac:dyDescent="0.4">
       <c r="B19" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C19">
-        <v>-121</v>
-      </c>
-      <c r="D19">
-        <v>3531</v>
-      </c>
-      <c r="E19">
-        <v>0</v>
+        <v>633</v>
       </c>
       <c r="F19">
-        <v>-800</v>
-      </c>
-      <c r="G19">
-        <v>157</v>
+        <v>-277</v>
       </c>
       <c r="H19">
-        <v>-300</v>
+        <v>1178</v>
       </c>
       <c r="I19">
-        <v>350</v>
-      </c>
-      <c r="J19">
-        <v>-100</v>
-      </c>
-      <c r="K19">
-        <v>0</v>
-      </c>
-      <c r="L19">
-        <v>-200</v>
-      </c>
-      <c r="M19">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="N19">
         <f t="shared" si="4"/>
-        <v>2638</v>
-      </c>
-      <c r="O19">
-        <v>878</v>
-      </c>
-      <c r="P19">
-        <v>0</v>
+        <v>801</v>
       </c>
       <c r="Q19">
-        <v>2432</v>
-      </c>
-      <c r="R19">
-        <v>1436</v>
+        <v>-277</v>
       </c>
       <c r="S19">
-        <v>-300</v>
+        <v>931</v>
       </c>
       <c r="T19">
-        <v>350</v>
-      </c>
-      <c r="U19">
-        <v>-100</v>
-      </c>
-      <c r="V19">
-        <v>0</v>
-      </c>
-      <c r="W19">
-        <v>-200</v>
-      </c>
-      <c r="X19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="2:24" x14ac:dyDescent="0.3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="20" spans="2:20" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B20" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C20">
-        <v>-586</v>
-      </c>
-      <c r="D20">
-        <v>-61</v>
-      </c>
-      <c r="E20">
-        <v>0</v>
+        <v>2380</v>
       </c>
       <c r="F20">
-        <v>-600</v>
-      </c>
-      <c r="G20">
-        <v>-411</v>
+        <v>1770</v>
       </c>
       <c r="H20">
-        <v>-400</v>
+        <v>32</v>
       </c>
       <c r="I20">
-        <v>-100</v>
-      </c>
-      <c r="J20">
-        <v>320</v>
-      </c>
-      <c r="K20">
-        <v>0</v>
-      </c>
-      <c r="L20">
-        <v>0</v>
-      </c>
-      <c r="M20">
-        <v>0</v>
+        <v>332</v>
       </c>
       <c r="N20">
         <f t="shared" si="4"/>
-        <v>-1252</v>
-      </c>
-      <c r="O20">
-        <v>-200</v>
-      </c>
-      <c r="P20">
-        <v>0</v>
+        <v>2134</v>
       </c>
       <c r="Q20">
+        <v>-800</v>
+      </c>
+      <c r="S20">
+        <v>32</v>
+      </c>
+      <c r="T20">
+        <v>-200</v>
+      </c>
+    </row>
+    <row r="21" spans="2:20" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B21" t="s">
+        <v>17</v>
+      </c>
+      <c r="C21">
+        <v>-733</v>
+      </c>
+      <c r="F21">
         <v>-600</v>
       </c>
-      <c r="R20">
-        <v>-271</v>
-      </c>
-      <c r="S20">
+      <c r="H21">
         <v>-400</v>
       </c>
-      <c r="T20">
-        <v>-100</v>
-      </c>
-      <c r="U20">
-        <v>48</v>
-      </c>
-      <c r="V20">
-        <v>0</v>
-      </c>
-      <c r="W20">
-        <v>0</v>
-      </c>
-      <c r="X20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="2:24" x14ac:dyDescent="0.3">
-      <c r="B21" t="s">
-        <v>18</v>
-      </c>
-      <c r="C21">
-        <v>-1377</v>
-      </c>
-      <c r="D21">
-        <v>-100</v>
-      </c>
-      <c r="E21">
-        <v>0</v>
-      </c>
-      <c r="F21">
-        <v>-700</v>
-      </c>
-      <c r="G21">
-        <v>-173</v>
-      </c>
-      <c r="H21">
-        <v>-202</v>
-      </c>
       <c r="I21">
         <v>-100</v>
-      </c>
-      <c r="J21">
-        <v>-101</v>
-      </c>
-      <c r="K21">
-        <v>0</v>
-      </c>
-      <c r="L21">
-        <v>0</v>
-      </c>
-      <c r="M21">
-        <v>0</v>
       </c>
       <c r="N21">
         <f t="shared" si="4"/>
-        <v>-1376</v>
-      </c>
-      <c r="O21">
-        <v>-100</v>
-      </c>
-      <c r="P21">
-        <v>0</v>
+        <v>-1100</v>
       </c>
       <c r="Q21">
-        <v>-700</v>
-      </c>
-      <c r="R21">
-        <v>-173</v>
+        <v>-224</v>
       </c>
       <c r="S21">
-        <v>-202</v>
+        <v>-400</v>
       </c>
       <c r="T21">
         <v>-100</v>
       </c>
-      <c r="U21">
-        <v>-101</v>
-      </c>
-      <c r="V21">
-        <v>0</v>
-      </c>
-      <c r="W21">
-        <v>0</v>
-      </c>
-      <c r="X21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="2:24" x14ac:dyDescent="0.3">
+    </row>
+    <row r="22" spans="2:20" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B22" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C22">
-        <v>1775</v>
-      </c>
-      <c r="D22">
-        <v>1385</v>
-      </c>
-      <c r="E22">
-        <v>0</v>
+        <v>-765</v>
       </c>
       <c r="F22">
-        <v>-600</v>
-      </c>
-      <c r="G22">
-        <v>-43</v>
+        <v>-484</v>
       </c>
       <c r="H22">
-        <v>999</v>
+        <v>-207</v>
       </c>
       <c r="I22">
-        <v>-200</v>
-      </c>
-      <c r="J22">
-        <v>1621</v>
-      </c>
-      <c r="K22">
-        <v>0</v>
-      </c>
-      <c r="L22">
-        <v>0</v>
-      </c>
-      <c r="M22">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="N22">
         <f t="shared" si="4"/>
-        <v>3162</v>
-      </c>
-      <c r="O22">
-        <v>-400</v>
-      </c>
-      <c r="P22">
-        <v>0</v>
+        <v>-791</v>
       </c>
       <c r="Q22">
+        <v>503</v>
+      </c>
+      <c r="S22">
+        <v>-207</v>
+      </c>
+      <c r="T22">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="23" spans="2:20" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B23" t="s">
+        <v>19</v>
+      </c>
+      <c r="C23">
+        <v>812</v>
+      </c>
+      <c r="F23">
         <v>-600</v>
       </c>
-      <c r="R22">
-        <v>-43</v>
-      </c>
-      <c r="S22">
-        <v>999</v>
-      </c>
-      <c r="T22">
-        <v>-100</v>
-      </c>
-      <c r="U22">
-        <v>-100</v>
-      </c>
-      <c r="V22">
-        <v>0</v>
-      </c>
-      <c r="W22">
-        <v>0</v>
-      </c>
-      <c r="X22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="2:24" x14ac:dyDescent="0.3">
-      <c r="B23" t="s">
-        <v>20</v>
-      </c>
-      <c r="C23">
-        <v>1741</v>
-      </c>
-      <c r="D23">
-        <v>28</v>
-      </c>
-      <c r="E23">
-        <v>0</v>
-      </c>
-      <c r="F23">
-        <v>-24</v>
-      </c>
-      <c r="G23">
-        <v>-152</v>
-      </c>
       <c r="H23">
-        <v>517</v>
+        <v>1856</v>
       </c>
       <c r="I23">
-        <v>1472</v>
-      </c>
-      <c r="J23">
-        <v>-100</v>
-      </c>
-      <c r="K23">
-        <v>0</v>
-      </c>
-      <c r="L23">
-        <v>0</v>
-      </c>
-      <c r="M23">
-        <v>0</v>
+        <v>223</v>
       </c>
       <c r="N23">
         <f t="shared" si="4"/>
-        <v>1741</v>
-      </c>
-      <c r="O23">
-        <v>-200</v>
-      </c>
-      <c r="P23">
-        <v>0</v>
+        <v>1479</v>
       </c>
       <c r="Q23">
-        <v>-24</v>
-      </c>
-      <c r="R23">
-        <v>-152</v>
+        <v>-600</v>
       </c>
       <c r="S23">
-        <v>160</v>
+        <v>1856</v>
       </c>
       <c r="T23">
-        <v>1472</v>
-      </c>
-      <c r="U23">
-        <v>-100</v>
-      </c>
-      <c r="V23">
-        <v>0</v>
-      </c>
-      <c r="W23">
-        <v>0</v>
-      </c>
-      <c r="X23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="2:24" x14ac:dyDescent="0.3">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="24" spans="2:20" x14ac:dyDescent="0.4">
       <c r="B24" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C24">
-        <v>1673</v>
-      </c>
-      <c r="D24">
-        <v>-3</v>
-      </c>
-      <c r="E24">
-        <v>0</v>
+        <v>1200</v>
       </c>
       <c r="F24">
-        <v>-600</v>
-      </c>
-      <c r="G24">
-        <v>1469</v>
+        <v>-595</v>
       </c>
       <c r="H24">
-        <v>224</v>
+        <v>632</v>
       </c>
       <c r="I24">
-        <v>-100</v>
-      </c>
-      <c r="J24">
-        <v>683</v>
-      </c>
-      <c r="K24">
-        <v>0</v>
-      </c>
-      <c r="L24">
-        <v>0</v>
-      </c>
-      <c r="M24">
-        <v>0</v>
+        <v>1617</v>
       </c>
       <c r="N24">
         <f t="shared" si="4"/>
-        <v>1673</v>
-      </c>
-      <c r="O24">
-        <v>-3</v>
-      </c>
-      <c r="P24">
-        <v>0</v>
+        <v>1654</v>
       </c>
       <c r="Q24">
-        <v>-185</v>
-      </c>
-      <c r="R24">
+        <v>-50</v>
+      </c>
+      <c r="S24">
+        <v>142</v>
+      </c>
+      <c r="T24">
+        <v>1617</v>
+      </c>
+    </row>
+    <row r="25" spans="2:20" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B25" t="s">
+        <v>21</v>
+      </c>
+      <c r="C25">
+        <v>-1658</v>
+      </c>
+      <c r="F25">
         <v>-600</v>
       </c>
-      <c r="S24">
-        <v>224</v>
-      </c>
-      <c r="T24">
-        <v>-100</v>
-      </c>
-      <c r="U24">
-        <v>683</v>
-      </c>
-      <c r="V24">
-        <v>0</v>
-      </c>
-      <c r="W24">
-        <v>0</v>
-      </c>
-      <c r="X24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="2:24" x14ac:dyDescent="0.3">
-      <c r="B25" t="s">
-        <v>22</v>
-      </c>
-      <c r="C25">
-        <v>-1413</v>
-      </c>
-      <c r="D25">
-        <v>180</v>
-      </c>
-      <c r="E25">
-        <v>0</v>
-      </c>
-      <c r="F25">
-        <v>-500</v>
-      </c>
-      <c r="G25">
-        <v>-600</v>
-      </c>
       <c r="H25">
-        <v>-400</v>
+        <v>213</v>
       </c>
       <c r="I25">
-        <v>-300</v>
-      </c>
-      <c r="J25">
-        <v>0</v>
-      </c>
-      <c r="K25">
-        <v>0</v>
-      </c>
-      <c r="L25">
-        <v>-100</v>
-      </c>
-      <c r="M25">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="N25">
         <f t="shared" si="4"/>
-        <v>-1720</v>
-      </c>
-      <c r="O25">
-        <v>290</v>
-      </c>
-      <c r="P25">
-        <v>0</v>
+        <v>-487</v>
       </c>
       <c r="Q25">
+        <v>-194</v>
+      </c>
+      <c r="S25">
+        <v>213</v>
+      </c>
+      <c r="T25">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="26" spans="2:20" x14ac:dyDescent="0.4">
+      <c r="B26" t="s">
+        <v>22</v>
+      </c>
+      <c r="C26">
+        <v>459</v>
+      </c>
+      <c r="F26">
+        <v>814</v>
+      </c>
+      <c r="H26">
         <v>-400</v>
       </c>
-      <c r="R25">
-        <v>-600</v>
-      </c>
-      <c r="S25">
-        <v>-400</v>
-      </c>
-      <c r="T25">
-        <v>-200</v>
-      </c>
-      <c r="U25">
-        <v>0</v>
-      </c>
-      <c r="V25">
-        <v>0</v>
-      </c>
-      <c r="W25">
-        <v>-100</v>
-      </c>
-      <c r="X25">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="2:24" x14ac:dyDescent="0.3">
-      <c r="B26" t="s">
-        <v>23</v>
-      </c>
-      <c r="C26">
-        <v>-1253</v>
-      </c>
-      <c r="D26">
-        <v>484</v>
-      </c>
-      <c r="E26">
-        <v>0</v>
-      </c>
-      <c r="F26">
-        <v>27</v>
-      </c>
-      <c r="G26">
-        <v>-600</v>
-      </c>
-      <c r="H26">
+      <c r="I26">
         <v>-300</v>
-      </c>
-      <c r="I26">
-        <v>-100</v>
-      </c>
-      <c r="J26">
-        <v>-100</v>
-      </c>
-      <c r="K26">
-        <v>0</v>
-      </c>
-      <c r="L26">
-        <v>119</v>
-      </c>
-      <c r="M26">
-        <v>0</v>
       </c>
       <c r="N26">
         <f t="shared" si="4"/>
-        <v>-470</v>
-      </c>
-      <c r="O26">
-        <v>-200</v>
-      </c>
-      <c r="P26">
-        <v>0</v>
+        <v>114</v>
       </c>
       <c r="Q26">
-        <v>-191</v>
-      </c>
-      <c r="R26">
-        <v>-600</v>
+        <v>-500</v>
       </c>
       <c r="S26">
+        <v>-400</v>
+      </c>
+      <c r="T26">
         <v>-300</v>
       </c>
-      <c r="T26">
-        <v>-100</v>
-      </c>
-      <c r="U26">
-        <v>-100</v>
-      </c>
-      <c r="V26">
-        <v>0</v>
-      </c>
-      <c r="W26">
-        <v>-100</v>
-      </c>
-      <c r="X26">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="2:24" x14ac:dyDescent="0.3">
+    </row>
+    <row r="27" spans="2:20" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B27" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C27">
-        <v>3157</v>
-      </c>
-      <c r="D27">
-        <v>1011</v>
-      </c>
-      <c r="E27">
-        <v>0</v>
+        <v>-1495</v>
       </c>
       <c r="F27">
-        <v>-31</v>
-      </c>
-      <c r="G27">
-        <v>1205</v>
+        <v>-212</v>
       </c>
       <c r="H27">
-        <v>233</v>
+        <v>-300</v>
       </c>
       <c r="I27">
-        <v>780</v>
-      </c>
-      <c r="J27">
-        <v>-100</v>
-      </c>
-      <c r="K27">
-        <v>-100</v>
-      </c>
-      <c r="L27">
-        <v>0</v>
-      </c>
-      <c r="M27">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="N27">
         <f t="shared" si="4"/>
-        <v>2998</v>
-      </c>
-      <c r="O27">
-        <v>-100</v>
-      </c>
-      <c r="P27">
-        <v>0</v>
+        <v>-612</v>
       </c>
       <c r="Q27">
-        <v>-31</v>
-      </c>
-      <c r="R27">
-        <v>1321</v>
+        <v>-212</v>
       </c>
       <c r="S27">
-        <v>233</v>
+        <v>-300</v>
       </c>
       <c r="T27">
-        <v>311</v>
-      </c>
-      <c r="U27">
-        <v>-100</v>
-      </c>
-      <c r="V27">
-        <v>696</v>
-      </c>
-      <c r="W27">
-        <v>0</v>
-      </c>
-      <c r="X27">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="2:24" x14ac:dyDescent="0.3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="28" spans="2:20" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B28" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C28">
-        <v>2677</v>
-      </c>
-      <c r="D28">
-        <v>1552</v>
-      </c>
-      <c r="E28">
-        <v>0</v>
+        <v>2627</v>
       </c>
       <c r="F28">
-        <v>2805</v>
-      </c>
-      <c r="G28">
-        <v>-96</v>
+        <v>-52</v>
       </c>
       <c r="H28">
-        <v>-200</v>
+        <v>220</v>
       </c>
       <c r="I28">
-        <v>133</v>
-      </c>
-      <c r="J28">
-        <v>0</v>
-      </c>
-      <c r="K28">
-        <v>0</v>
-      </c>
-      <c r="L28">
-        <v>-100</v>
-      </c>
-      <c r="M28">
-        <v>0</v>
+        <v>725</v>
       </c>
       <c r="N28">
         <f t="shared" si="4"/>
-        <v>4094</v>
-      </c>
-      <c r="O28">
-        <v>-200</v>
-      </c>
-      <c r="P28">
-        <v>0</v>
+        <v>893</v>
       </c>
       <c r="Q28">
-        <v>1489</v>
-      </c>
-      <c r="R28">
-        <v>-631</v>
+        <v>-52</v>
       </c>
       <c r="S28">
-        <v>-200</v>
+        <v>220</v>
       </c>
       <c r="T28">
-        <v>233</v>
-      </c>
-      <c r="U28">
-        <v>0</v>
-      </c>
-      <c r="V28">
-        <v>0</v>
-      </c>
-      <c r="W28">
-        <v>-100</v>
-      </c>
-      <c r="X28">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="2:24" x14ac:dyDescent="0.3">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="29" spans="2:20" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B29" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C29">
-        <v>4632</v>
-      </c>
-      <c r="D29">
-        <v>4386</v>
-      </c>
-      <c r="E29">
-        <v>0</v>
+        <v>2286</v>
       </c>
       <c r="F29">
-        <v>363</v>
-      </c>
-      <c r="G29">
-        <v>-500</v>
+        <v>2468</v>
       </c>
       <c r="H29">
-        <v>47</v>
+        <v>-200</v>
       </c>
       <c r="I29">
-        <v>-200</v>
-      </c>
-      <c r="J29">
-        <v>636</v>
-      </c>
-      <c r="K29">
-        <v>-100</v>
-      </c>
-      <c r="L29">
-        <v>0</v>
-      </c>
-      <c r="M29">
-        <v>0</v>
+        <v>543</v>
       </c>
       <c r="N29">
         <f t="shared" si="4"/>
-        <v>4632</v>
-      </c>
-      <c r="O29">
-        <v>-290</v>
-      </c>
-      <c r="P29">
-        <v>0</v>
+        <v>2811</v>
       </c>
       <c r="Q29">
-        <v>-64</v>
-      </c>
-      <c r="R29">
-        <v>-500</v>
+        <v>1148</v>
       </c>
       <c r="S29">
-        <v>47</v>
+        <v>-200</v>
       </c>
       <c r="T29">
-        <v>-200</v>
-      </c>
-      <c r="U29">
-        <v>636</v>
-      </c>
-      <c r="V29">
-        <v>-100</v>
-      </c>
-      <c r="W29">
-        <v>0</v>
-      </c>
-      <c r="X29">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="2:24" x14ac:dyDescent="0.3">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="30" spans="2:20" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B30" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C30">
-        <v>-1018</v>
-      </c>
-      <c r="D30">
-        <v>-500</v>
-      </c>
-      <c r="E30">
-        <v>0</v>
+        <v>3783</v>
       </c>
       <c r="F30">
-        <v>-400</v>
-      </c>
-      <c r="G30">
-        <v>-149</v>
+        <v>313</v>
       </c>
       <c r="H30">
-        <v>332</v>
+        <v>40</v>
       </c>
       <c r="I30">
-        <v>-200</v>
-      </c>
-      <c r="J30">
-        <v>-100</v>
-      </c>
-      <c r="K30">
-        <v>0</v>
-      </c>
-      <c r="L30">
-        <v>0</v>
-      </c>
-      <c r="M30">
-        <v>0</v>
+        <v>508</v>
       </c>
       <c r="N30">
         <f t="shared" si="4"/>
-        <v>-1017</v>
-      </c>
-      <c r="O30">
-        <v>-500</v>
-      </c>
-      <c r="P30">
-        <v>0</v>
+        <v>861</v>
       </c>
       <c r="Q30">
-        <v>-400</v>
-      </c>
-      <c r="R30">
         <v>-149</v>
       </c>
       <c r="S30">
-        <v>332</v>
+        <v>40</v>
       </c>
       <c r="T30">
-        <v>-100</v>
-      </c>
-      <c r="U30">
-        <v>-100</v>
-      </c>
-      <c r="V30">
-        <v>0</v>
-      </c>
-      <c r="W30">
-        <v>0</v>
-      </c>
-      <c r="X30">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="2:24" x14ac:dyDescent="0.3">
+        <v>-200</v>
+      </c>
+    </row>
+    <row r="31" spans="2:20" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B31" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C31">
-        <v>-1386</v>
-      </c>
-      <c r="D31">
-        <v>-400</v>
-      </c>
-      <c r="E31">
-        <v>0</v>
+        <v>-1567</v>
       </c>
       <c r="F31">
         <v>-400</v>
       </c>
-      <c r="G31">
-        <v>-86</v>
-      </c>
       <c r="H31">
-        <v>291</v>
+        <v>-200</v>
       </c>
       <c r="I31">
-        <v>-100</v>
-      </c>
-      <c r="J31">
-        <v>-100</v>
-      </c>
-      <c r="K31">
-        <v>0</v>
-      </c>
-      <c r="L31">
-        <v>-100</v>
-      </c>
-      <c r="M31">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="N31">
         <f t="shared" si="4"/>
-        <v>-895</v>
-      </c>
-      <c r="O31">
-        <v>-400</v>
-      </c>
-      <c r="P31">
-        <v>0</v>
+        <v>-800</v>
       </c>
       <c r="Q31">
         <v>-400</v>
       </c>
-      <c r="R31">
-        <v>-86</v>
-      </c>
       <c r="S31">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="T31">
-        <v>-100</v>
-      </c>
-      <c r="U31">
-        <v>-100</v>
-      </c>
-      <c r="V31">
-        <v>0</v>
-      </c>
-      <c r="W31">
-        <v>-100</v>
-      </c>
-      <c r="X31">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="2:24" x14ac:dyDescent="0.3">
+        <v>-200</v>
+      </c>
+    </row>
+    <row r="32" spans="2:20" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B32" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C32">
-        <v>796</v>
-      </c>
-      <c r="D32">
-        <v>207</v>
-      </c>
-      <c r="E32">
-        <v>0</v>
+        <v>-1220</v>
       </c>
       <c r="F32">
-        <v>-500</v>
-      </c>
-      <c r="G32">
-        <v>556</v>
+        <v>-400</v>
       </c>
       <c r="H32">
-        <v>1034</v>
+        <v>-200</v>
       </c>
       <c r="I32">
-        <v>-300</v>
-      </c>
-      <c r="J32">
-        <v>-100</v>
-      </c>
-      <c r="K32">
-        <v>0</v>
-      </c>
-      <c r="L32">
-        <v>-100</v>
-      </c>
-      <c r="M32">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="N32">
         <f t="shared" si="4"/>
-        <v>797</v>
-      </c>
-      <c r="O32">
-        <v>207</v>
-      </c>
-      <c r="P32">
-        <v>0</v>
+        <v>-700</v>
       </c>
       <c r="Q32">
+        <v>-400</v>
+      </c>
+      <c r="S32">
+        <v>-22</v>
+      </c>
+      <c r="T32">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="33" spans="2:20" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B33" t="s">
+        <v>29</v>
+      </c>
+      <c r="C33">
+        <v>564</v>
+      </c>
+      <c r="F33">
         <v>-500</v>
       </c>
-      <c r="R32">
-        <v>556</v>
-      </c>
-      <c r="S32">
-        <v>1034</v>
-      </c>
-      <c r="T32">
-        <v>-200</v>
-      </c>
-      <c r="U32">
-        <v>-100</v>
-      </c>
-      <c r="V32">
-        <v>0</v>
-      </c>
-      <c r="W32">
-        <v>-100</v>
-      </c>
-      <c r="X32">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="2:24" x14ac:dyDescent="0.3">
-      <c r="B33" t="s">
-        <v>30</v>
-      </c>
-      <c r="C33">
-        <v>-1302</v>
-      </c>
-      <c r="D33">
-        <v>80</v>
-      </c>
-      <c r="E33">
-        <v>0</v>
-      </c>
-      <c r="F33">
-        <v>-83</v>
-      </c>
-      <c r="G33">
-        <v>-600</v>
-      </c>
       <c r="H33">
+        <v>935</v>
+      </c>
+      <c r="I33">
         <v>-300</v>
-      </c>
-      <c r="I33">
-        <v>-200</v>
-      </c>
-      <c r="J33">
-        <v>-100</v>
-      </c>
-      <c r="K33">
-        <v>0</v>
-      </c>
-      <c r="L33">
-        <v>-100</v>
-      </c>
-      <c r="M33">
-        <v>0</v>
       </c>
       <c r="N33">
         <f t="shared" si="4"/>
-        <v>-1303</v>
-      </c>
-      <c r="O33">
-        <v>-380</v>
-      </c>
-      <c r="P33">
-        <v>0</v>
+        <v>135</v>
       </c>
       <c r="Q33">
-        <v>-83</v>
-      </c>
-      <c r="R33">
-        <v>-600</v>
+        <v>-500</v>
       </c>
       <c r="S33">
+        <v>935</v>
+      </c>
+      <c r="T33">
         <v>-300</v>
       </c>
-      <c r="T33">
-        <v>-200</v>
-      </c>
-      <c r="U33">
-        <v>-100</v>
-      </c>
-      <c r="V33">
-        <v>0</v>
-      </c>
-      <c r="W33">
-        <v>-100</v>
-      </c>
-      <c r="X33">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="2:24" x14ac:dyDescent="0.3">
+    </row>
+    <row r="34" spans="2:20" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B34" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C34">
-        <v>-2059</v>
-      </c>
-      <c r="D34">
-        <v>-500</v>
-      </c>
-      <c r="E34">
-        <v>0</v>
+        <v>170</v>
       </c>
       <c r="F34">
-        <v>-59</v>
-      </c>
-      <c r="G34">
-        <v>-900</v>
+        <v>1851</v>
       </c>
       <c r="H34">
-        <v>-100</v>
+        <v>-300</v>
       </c>
       <c r="I34">
         <v>-200</v>
-      </c>
-      <c r="J34">
-        <v>-100</v>
-      </c>
-      <c r="K34">
-        <v>-200</v>
-      </c>
-      <c r="L34">
-        <v>0</v>
-      </c>
-      <c r="M34">
-        <v>0</v>
       </c>
       <c r="N34">
         <f t="shared" si="4"/>
-        <v>-2059</v>
-      </c>
-      <c r="O34">
-        <v>-400</v>
-      </c>
-      <c r="P34">
-        <v>0</v>
+        <v>1351</v>
       </c>
       <c r="Q34">
-        <v>-59</v>
-      </c>
-      <c r="R34">
-        <v>-800</v>
+        <v>-88</v>
       </c>
       <c r="S34">
-        <v>-100</v>
+        <v>-300</v>
       </c>
       <c r="T34">
         <v>-200</v>
       </c>
-      <c r="U34">
-        <v>-100</v>
-      </c>
-      <c r="V34">
-        <v>-200</v>
-      </c>
-      <c r="W34">
-        <v>0</v>
-      </c>
-      <c r="X34">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="2:24" x14ac:dyDescent="0.3">
+    </row>
+    <row r="35" spans="2:20" x14ac:dyDescent="0.4">
       <c r="B35" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C35">
-        <v>-1689</v>
-      </c>
-      <c r="D35">
-        <v>-400</v>
-      </c>
-      <c r="E35">
-        <v>0</v>
+        <v>-2076</v>
       </c>
       <c r="F35">
-        <v>-561</v>
-      </c>
-      <c r="G35">
-        <v>-803</v>
+        <v>-76</v>
       </c>
       <c r="H35">
-        <v>276</v>
+        <v>-100</v>
       </c>
       <c r="I35">
-        <v>0</v>
-      </c>
-      <c r="J35">
-        <v>-200</v>
-      </c>
-      <c r="K35">
-        <v>0</v>
-      </c>
-      <c r="L35">
-        <v>0</v>
-      </c>
-      <c r="M35">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="N35">
         <f t="shared" si="4"/>
-        <v>-1688</v>
-      </c>
-      <c r="O35">
-        <v>781</v>
-      </c>
-      <c r="P35">
-        <v>0</v>
+        <v>-376</v>
       </c>
       <c r="Q35">
-        <v>-700</v>
-      </c>
-      <c r="R35">
-        <v>61</v>
+        <v>-76</v>
       </c>
       <c r="S35">
-        <v>276</v>
+        <v>-100</v>
       </c>
       <c r="T35">
-        <v>0</v>
-      </c>
-      <c r="U35">
-        <v>782</v>
-      </c>
-      <c r="V35">
-        <v>0</v>
-      </c>
-      <c r="W35">
-        <v>0</v>
-      </c>
-      <c r="X35">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="2:24" x14ac:dyDescent="0.3">
+        <v>-200</v>
+      </c>
+    </row>
+    <row r="36" spans="2:20" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B36" t="s">
-        <v>33</v>
+        <v>51</v>
       </c>
       <c r="C36">
-        <v>-508</v>
-      </c>
-      <c r="D36">
-        <v>-261</v>
-      </c>
-      <c r="E36">
         <v>0</v>
       </c>
       <c r="F36">
-        <v>300</v>
-      </c>
-      <c r="G36">
-        <v>-48</v>
+        <v>0</v>
       </c>
       <c r="H36">
-        <v>-200</v>
+        <v>0</v>
       </c>
       <c r="I36">
-        <v>56</v>
-      </c>
-      <c r="J36">
-        <v>0</v>
-      </c>
-      <c r="K36">
-        <v>0</v>
-      </c>
-      <c r="L36">
-        <v>0</v>
-      </c>
-      <c r="M36">
         <v>0</v>
       </c>
       <c r="N36">
         <f t="shared" si="4"/>
-        <v>-153</v>
-      </c>
-      <c r="O36">
-        <v>-400</v>
-      </c>
-      <c r="P36">
         <v>0</v>
       </c>
       <c r="Q36">
-        <v>300</v>
-      </c>
-      <c r="R36">
-        <v>-48</v>
+        <v>0</v>
       </c>
       <c r="S36">
-        <v>-200</v>
+        <v>0</v>
       </c>
       <c r="T36">
-        <v>-200</v>
-      </c>
-      <c r="U36">
-        <v>0</v>
-      </c>
-      <c r="V36">
-        <v>0</v>
-      </c>
-      <c r="W36">
-        <v>0</v>
-      </c>
-      <c r="X36">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="2:24" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="2:20" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B37" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C37">
-        <v>1038</v>
-      </c>
-      <c r="D37">
-        <v>354</v>
-      </c>
-      <c r="E37">
-        <v>0</v>
+        <v>-794</v>
       </c>
       <c r="F37">
-        <v>1884</v>
-      </c>
-      <c r="G37">
-        <v>-700</v>
+        <v>-564</v>
       </c>
       <c r="H37">
-        <v>-200</v>
+        <v>249</v>
       </c>
       <c r="I37">
-        <v>-100</v>
-      </c>
-      <c r="J37">
-        <v>-100</v>
-      </c>
-      <c r="K37">
-        <v>-100</v>
-      </c>
-      <c r="L37">
-        <v>0</v>
-      </c>
-      <c r="M37">
         <v>0</v>
       </c>
       <c r="N37">
         <f t="shared" si="4"/>
-        <v>1038</v>
-      </c>
-      <c r="O37">
-        <v>354</v>
-      </c>
-      <c r="P37">
-        <v>0</v>
+        <v>-315</v>
       </c>
       <c r="Q37">
-        <v>1884</v>
-      </c>
-      <c r="R37">
-        <v>-700</v>
+        <v>-506</v>
       </c>
       <c r="S37">
-        <v>-200</v>
+        <v>249</v>
       </c>
       <c r="T37">
-        <v>-100</v>
-      </c>
-      <c r="U37">
-        <v>-100</v>
-      </c>
-      <c r="V37">
-        <v>345</v>
-      </c>
-      <c r="W37">
-        <v>0</v>
-      </c>
-      <c r="X37">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="2:24" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="2:20" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B38" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C38">
-        <v>-1637</v>
-      </c>
-      <c r="D38">
-        <v>-400</v>
-      </c>
-      <c r="E38">
-        <v>0</v>
+        <v>47</v>
       </c>
       <c r="F38">
-        <v>-600</v>
-      </c>
-      <c r="G38">
-        <v>-515</v>
+        <v>282</v>
       </c>
       <c r="H38">
-        <v>78</v>
+        <v>-200</v>
       </c>
       <c r="I38">
-        <v>0</v>
-      </c>
-      <c r="J38">
-        <v>-100</v>
-      </c>
-      <c r="K38">
-        <v>0</v>
-      </c>
-      <c r="L38">
-        <v>-100</v>
-      </c>
-      <c r="M38">
-        <v>0</v>
+        <v>-300</v>
       </c>
       <c r="N38">
         <f t="shared" si="4"/>
-        <v>-1637</v>
-      </c>
-      <c r="O38">
-        <v>1543</v>
-      </c>
-      <c r="P38">
-        <v>0</v>
+        <v>-218</v>
       </c>
       <c r="Q38">
-        <v>-600</v>
-      </c>
-      <c r="R38">
-        <v>-515</v>
+        <v>282</v>
       </c>
       <c r="S38">
-        <v>-101</v>
+        <v>-200</v>
       </c>
       <c r="T38">
-        <v>0</v>
-      </c>
-      <c r="U38">
-        <v>-100</v>
-      </c>
-      <c r="V38">
-        <v>0</v>
-      </c>
-      <c r="W38">
-        <v>-100</v>
-      </c>
-      <c r="X38">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39" spans="2:24" x14ac:dyDescent="0.3">
+        <v>-300</v>
+      </c>
+    </row>
+    <row r="39" spans="2:20" x14ac:dyDescent="0.4">
       <c r="B39" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C39">
-        <v>3930</v>
-      </c>
-      <c r="D39">
-        <v>-200</v>
-      </c>
-      <c r="E39">
-        <v>0</v>
+        <v>567</v>
       </c>
       <c r="F39">
-        <v>586</v>
-      </c>
-      <c r="G39">
-        <v>3624</v>
+        <v>1444</v>
       </c>
       <c r="H39">
-        <v>-400</v>
+        <v>-200</v>
       </c>
       <c r="I39">
-        <v>620</v>
-      </c>
-      <c r="J39">
-        <v>-100</v>
-      </c>
-      <c r="K39">
-        <v>0</v>
-      </c>
-      <c r="L39">
-        <v>-100</v>
-      </c>
-      <c r="M39">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="N39">
         <f t="shared" si="4"/>
-        <v>4030</v>
-      </c>
-      <c r="O39">
-        <v>-200</v>
-      </c>
-      <c r="P39">
-        <v>0</v>
+        <v>1144</v>
       </c>
       <c r="Q39">
-        <v>-253</v>
-      </c>
-      <c r="R39">
-        <v>3624</v>
+        <v>1444</v>
       </c>
       <c r="S39">
-        <v>-400</v>
+        <v>-200</v>
       </c>
       <c r="T39">
-        <v>620</v>
-      </c>
-      <c r="U39">
-        <v>-100</v>
-      </c>
-      <c r="V39">
-        <v>0</v>
-      </c>
-      <c r="W39">
-        <v>-100</v>
-      </c>
-      <c r="X39">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="40" spans="2:24" x14ac:dyDescent="0.3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="40" spans="2:20" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B40" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C40">
-        <v>9728</v>
-      </c>
-      <c r="D40">
-        <v>-350</v>
-      </c>
-      <c r="E40">
-        <v>0</v>
+        <v>-1652</v>
       </c>
       <c r="F40">
         <v>-600</v>
       </c>
-      <c r="G40">
-        <v>-600</v>
-      </c>
       <c r="H40">
-        <v>10413</v>
+        <v>74</v>
       </c>
       <c r="I40">
-        <v>568</v>
-      </c>
-      <c r="J40">
-        <v>-200</v>
-      </c>
-      <c r="K40">
-        <v>498</v>
-      </c>
-      <c r="L40">
-        <v>0</v>
-      </c>
-      <c r="M40">
         <v>0</v>
       </c>
       <c r="N40">
         <f t="shared" si="4"/>
-        <v>9729</v>
-      </c>
-      <c r="O40">
-        <v>-500</v>
-      </c>
-      <c r="P40">
-        <v>0</v>
+        <v>-526</v>
       </c>
       <c r="Q40">
-        <v>123</v>
-      </c>
-      <c r="R40">
         <v>-600</v>
       </c>
       <c r="S40">
-        <v>-300</v>
+        <v>865</v>
       </c>
       <c r="T40">
-        <v>568</v>
-      </c>
-      <c r="U40">
-        <v>-200</v>
-      </c>
-      <c r="V40">
-        <v>498</v>
-      </c>
-      <c r="W40">
-        <v>0</v>
-      </c>
-      <c r="X40">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="41" spans="2:24" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="2:20" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B41" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C41">
-        <v>130</v>
-      </c>
-      <c r="D41">
-        <v>854</v>
-      </c>
-      <c r="E41">
-        <v>0</v>
+        <v>2894</v>
       </c>
       <c r="F41">
+        <v>559</v>
+      </c>
+      <c r="H41">
         <v>-400</v>
       </c>
-      <c r="G41">
-        <v>-37</v>
-      </c>
-      <c r="H41">
-        <v>-600</v>
-      </c>
       <c r="I41">
-        <v>0</v>
-      </c>
-      <c r="J41">
-        <v>0</v>
-      </c>
-      <c r="K41">
-        <v>413</v>
-      </c>
-      <c r="L41">
-        <v>0</v>
-      </c>
-      <c r="M41">
-        <v>0</v>
+        <v>86</v>
       </c>
       <c r="N41">
         <f t="shared" si="4"/>
-        <v>230</v>
-      </c>
-      <c r="O41">
-        <v>655</v>
-      </c>
-      <c r="P41">
-        <v>0</v>
+        <v>245</v>
       </c>
       <c r="Q41">
-        <v>-400</v>
-      </c>
-      <c r="R41">
-        <v>-37</v>
+        <v>-258</v>
       </c>
       <c r="S41">
-        <v>1762</v>
+        <v>330</v>
       </c>
       <c r="T41">
-        <v>0</v>
-      </c>
-      <c r="U41">
-        <v>0</v>
-      </c>
-      <c r="V41">
-        <v>413</v>
-      </c>
-      <c r="W41">
-        <v>0</v>
-      </c>
-      <c r="X41">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="2:24" x14ac:dyDescent="0.3">
+        <v>601</v>
+      </c>
+    </row>
+    <row r="42" spans="2:20" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B42" t="s">
-        <v>39</v>
+        <v>52</v>
       </c>
       <c r="C42">
-        <v>-1456</v>
-      </c>
-      <c r="D42">
-        <v>-260</v>
-      </c>
-      <c r="E42">
         <v>0</v>
       </c>
       <c r="F42">
-        <v>-500</v>
-      </c>
-      <c r="G42">
-        <v>-195</v>
+        <v>0</v>
       </c>
       <c r="H42">
-        <v>-201</v>
+        <v>0</v>
       </c>
       <c r="I42">
-        <v>-200</v>
-      </c>
-      <c r="J42">
-        <v>-100</v>
-      </c>
-      <c r="K42">
-        <v>0</v>
-      </c>
-      <c r="L42">
-        <v>0</v>
-      </c>
-      <c r="M42">
         <v>0</v>
       </c>
       <c r="N42">
         <f t="shared" si="4"/>
-        <v>-1456</v>
-      </c>
-      <c r="O42">
-        <v>-260</v>
-      </c>
-      <c r="P42">
         <v>0</v>
       </c>
       <c r="Q42">
-        <v>904</v>
-      </c>
-      <c r="R42">
-        <v>-195</v>
+        <v>0</v>
       </c>
       <c r="S42">
-        <v>-400</v>
+        <v>0</v>
       </c>
       <c r="T42">
-        <v>-200</v>
-      </c>
-      <c r="U42">
-        <v>-100</v>
-      </c>
-      <c r="V42">
-        <v>0</v>
-      </c>
-      <c r="W42">
-        <v>0</v>
-      </c>
-      <c r="X42">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="43" spans="2:24" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:20" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B43" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="C43">
-        <v>-716</v>
-      </c>
-      <c r="D43">
-        <v>-700</v>
-      </c>
-      <c r="E43">
-        <v>0</v>
+        <v>1463</v>
       </c>
       <c r="F43">
+        <v>-600</v>
+      </c>
+      <c r="H43">
         <v>-300</v>
       </c>
-      <c r="G43">
-        <v>-152</v>
-      </c>
-      <c r="H43">
-        <v>-281</v>
-      </c>
       <c r="I43">
-        <v>816</v>
-      </c>
-      <c r="J43">
-        <v>0</v>
-      </c>
-      <c r="K43">
-        <v>0</v>
-      </c>
-      <c r="L43">
-        <v>-100</v>
-      </c>
-      <c r="M43">
-        <v>0</v>
+        <v>546</v>
       </c>
       <c r="N43">
         <f t="shared" si="4"/>
-        <v>-717</v>
-      </c>
-      <c r="O43">
-        <v>-541</v>
-      </c>
-      <c r="P43">
-        <v>0</v>
+        <v>-354</v>
       </c>
       <c r="Q43">
+        <v>92</v>
+      </c>
+      <c r="S43">
         <v>-300</v>
       </c>
-      <c r="R43">
-        <v>-152</v>
-      </c>
-      <c r="S43">
-        <v>-281</v>
-      </c>
       <c r="T43">
-        <v>816</v>
-      </c>
-      <c r="U43">
-        <v>0</v>
-      </c>
-      <c r="V43">
-        <v>0</v>
-      </c>
-      <c r="W43">
-        <v>-100</v>
-      </c>
-      <c r="X43">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" spans="2:24" x14ac:dyDescent="0.3">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="44" spans="2:20" x14ac:dyDescent="0.4">
       <c r="B44" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="C44">
-        <v>-1340</v>
-      </c>
-      <c r="D44">
+        <v>931</v>
+      </c>
+      <c r="F44">
         <v>-500</v>
       </c>
-      <c r="E44">
-        <v>0</v>
-      </c>
-      <c r="F44">
-        <v>-36</v>
-      </c>
-      <c r="G44">
-        <v>-600</v>
-      </c>
       <c r="H44">
-        <v>-105</v>
+        <v>-385</v>
       </c>
       <c r="I44">
-        <v>0</v>
-      </c>
-      <c r="J44">
-        <v>-100</v>
-      </c>
-      <c r="K44">
-        <v>0</v>
-      </c>
-      <c r="L44">
-        <v>0</v>
-      </c>
-      <c r="M44">
         <v>0</v>
       </c>
       <c r="N44">
         <f t="shared" si="4"/>
-        <v>-1341</v>
-      </c>
-      <c r="O44">
+        <v>-885</v>
+      </c>
+      <c r="Q44">
         <v>-500</v>
       </c>
-      <c r="P44">
-        <v>0</v>
-      </c>
-      <c r="Q44">
-        <v>-36</v>
-      </c>
-      <c r="R44">
-        <v>-600</v>
-      </c>
       <c r="S44">
-        <v>-105</v>
+        <v>1610</v>
       </c>
       <c r="T44">
         <v>0</v>
       </c>
-      <c r="U44">
-        <v>-100</v>
-      </c>
-      <c r="V44">
-        <v>0</v>
-      </c>
-      <c r="W44">
-        <v>0</v>
-      </c>
-      <c r="X44">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="45" spans="2:24" x14ac:dyDescent="0.3">
+    </row>
+    <row r="45" spans="2:20" x14ac:dyDescent="0.4">
       <c r="B45" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="C45">
-        <v>3877</v>
-      </c>
-      <c r="D45">
-        <v>-353</v>
-      </c>
-      <c r="E45">
-        <v>0</v>
+        <v>-1665</v>
       </c>
       <c r="F45">
-        <v>1431</v>
-      </c>
-      <c r="G45">
-        <v>2264</v>
+        <v>-500</v>
       </c>
       <c r="H45">
-        <v>735</v>
+        <v>-400</v>
       </c>
       <c r="I45">
-        <v>-100</v>
-      </c>
-      <c r="J45">
-        <v>-100</v>
-      </c>
-      <c r="K45">
-        <v>0</v>
-      </c>
-      <c r="L45">
-        <v>0</v>
-      </c>
-      <c r="M45">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="N45">
         <f t="shared" si="4"/>
-        <v>3877</v>
-      </c>
-      <c r="O45">
-        <v>-353</v>
-      </c>
-      <c r="P45">
-        <v>0</v>
+        <v>-1100</v>
       </c>
       <c r="Q45">
-        <v>1620</v>
-      </c>
-      <c r="R45">
-        <v>2264</v>
+        <v>-500</v>
       </c>
       <c r="S45">
-        <v>735</v>
+        <v>-400</v>
       </c>
       <c r="T45">
-        <v>-100</v>
-      </c>
-      <c r="U45">
-        <v>-100</v>
-      </c>
-      <c r="V45">
-        <v>0</v>
-      </c>
-      <c r="W45">
-        <v>0</v>
-      </c>
-      <c r="X45">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="2:24" x14ac:dyDescent="0.3">
+        <v>-200</v>
+      </c>
+    </row>
+    <row r="46" spans="2:20" x14ac:dyDescent="0.4">
       <c r="B46" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="C46">
-        <v>-1513</v>
-      </c>
-      <c r="D46">
-        <v>-319</v>
-      </c>
-      <c r="E46">
-        <v>0</v>
+        <v>-1410</v>
       </c>
       <c r="F46">
-        <v>-400</v>
-      </c>
-      <c r="G46">
-        <v>-194</v>
+        <v>-300</v>
       </c>
       <c r="H46">
-        <v>-400</v>
+        <v>-283</v>
       </c>
       <c r="I46">
-        <v>-200</v>
-      </c>
-      <c r="J46">
-        <v>0</v>
-      </c>
-      <c r="K46">
-        <v>0</v>
-      </c>
-      <c r="L46">
-        <v>0</v>
-      </c>
-      <c r="M46">
-        <v>0</v>
+        <v>373</v>
       </c>
       <c r="N46">
         <f t="shared" si="4"/>
-        <v>-1513</v>
-      </c>
-      <c r="O46">
-        <v>-800</v>
-      </c>
-      <c r="P46">
-        <v>0</v>
+        <v>-210</v>
       </c>
       <c r="Q46">
-        <v>-400</v>
-      </c>
-      <c r="R46">
-        <v>-194</v>
+        <v>-300</v>
       </c>
       <c r="S46">
-        <v>-400</v>
+        <v>-283</v>
       </c>
       <c r="T46">
-        <v>-200</v>
-      </c>
-      <c r="U46">
-        <v>0</v>
-      </c>
-      <c r="V46">
-        <v>0</v>
-      </c>
-      <c r="W46">
-        <v>0</v>
-      </c>
-      <c r="X46">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="47" spans="2:24" x14ac:dyDescent="0.3">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="47" spans="2:20" x14ac:dyDescent="0.4">
       <c r="B47" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="C47">
-        <v>1718</v>
-      </c>
-      <c r="D47">
-        <v>-5</v>
-      </c>
-      <c r="E47">
-        <v>0</v>
+        <v>-1125</v>
       </c>
       <c r="F47">
-        <v>-112</v>
-      </c>
-      <c r="G47">
-        <v>1438</v>
+        <v>-46</v>
       </c>
       <c r="H47">
-        <v>-200</v>
+        <v>-113</v>
       </c>
       <c r="I47">
-        <v>-100</v>
-      </c>
-      <c r="J47">
-        <v>0</v>
-      </c>
-      <c r="K47">
-        <v>0</v>
-      </c>
-      <c r="L47">
-        <v>-100</v>
-      </c>
-      <c r="M47">
-        <v>797</v>
+        <v>0</v>
       </c>
       <c r="N47">
         <f t="shared" si="4"/>
-        <v>1718</v>
-      </c>
-      <c r="O47">
-        <v>-5</v>
-      </c>
-      <c r="P47">
-        <v>0</v>
+        <v>-159</v>
       </c>
       <c r="Q47">
-        <v>-112</v>
-      </c>
-      <c r="R47">
-        <v>1438</v>
+        <v>-46</v>
       </c>
       <c r="S47">
-        <v>-200</v>
+        <v>-113</v>
       </c>
       <c r="T47">
-        <v>-100</v>
-      </c>
-      <c r="U47">
-        <v>0</v>
-      </c>
-      <c r="V47">
-        <v>0</v>
-      </c>
-      <c r="W47">
-        <v>-100</v>
-      </c>
-      <c r="X47">
-        <v>-100</v>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:20" x14ac:dyDescent="0.4">
+      <c r="B48" t="s">
+        <v>42</v>
+      </c>
+      <c r="C48">
+        <v>4402</v>
+      </c>
+      <c r="F48">
+        <v>1480</v>
+      </c>
+      <c r="H48">
+        <v>688</v>
+      </c>
+      <c r="I48">
+        <v>-100</v>
+      </c>
+      <c r="Q48">
+        <v>262</v>
+      </c>
+      <c r="S48">
+        <v>688</v>
+      </c>
+      <c r="T48">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="49" spans="2:20" x14ac:dyDescent="0.4">
+      <c r="B49" t="s">
+        <v>43</v>
+      </c>
+      <c r="C49">
+        <v>1026</v>
+      </c>
+      <c r="F49">
+        <v>530</v>
+      </c>
+      <c r="H49">
+        <v>-400</v>
+      </c>
+      <c r="I49">
+        <v>-200</v>
+      </c>
+      <c r="Q49">
+        <v>-400</v>
+      </c>
+      <c r="S49">
+        <v>-400</v>
+      </c>
+      <c r="T49">
+        <v>-200</v>
+      </c>
+    </row>
+    <row r="50" spans="2:20" x14ac:dyDescent="0.4">
+      <c r="B50" t="s">
+        <v>44</v>
+      </c>
+      <c r="C50">
+        <v>700</v>
+      </c>
+      <c r="F50">
+        <v>-116</v>
+      </c>
+      <c r="H50">
+        <v>-200</v>
+      </c>
+      <c r="I50">
+        <v>-100</v>
+      </c>
+      <c r="Q50">
+        <v>-116</v>
+      </c>
+      <c r="S50">
+        <v>-200</v>
+      </c>
+      <c r="T50">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="51" spans="2:20" x14ac:dyDescent="0.4">
+      <c r="B51" t="s">
+        <v>53</v>
+      </c>
+      <c r="C51">
+        <v>0</v>
+      </c>
+      <c r="F51">
+        <v>0</v>
+      </c>
+      <c r="H51">
+        <v>0</v>
+      </c>
+      <c r="I51">
+        <v>0</v>
+      </c>
+      <c r="Q51">
+        <v>0</v>
+      </c>
+      <c r="S51">
+        <v>0</v>
+      </c>
+      <c r="T51">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -3846,7 +2158,7 @@
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="N1:N1048576">
-    <cfRule type="expression" dxfId="5" priority="1">
+    <cfRule type="expression" dxfId="2" priority="1">
       <formula>$N1&lt;&gt;$C1</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3863,14 +2175,14 @@
       <selection activeCell="N1" sqref="N1:N1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="2" max="2" width="25.125" customWidth="1"/>
-    <col min="3" max="13" width="6.25" customWidth="1"/>
-    <col min="15" max="24" width="6.25" customWidth="1"/>
+    <col min="2" max="2" width="25.09765625" customWidth="1"/>
+    <col min="3" max="13" width="6.19921875" customWidth="1"/>
+    <col min="15" max="24" width="6.19921875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:24" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:24" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B1" t="s">
         <v>0</v>
       </c>
@@ -3878,23 +2190,23 @@
         <v>47</v>
       </c>
     </row>
-    <row r="3" spans="2:24" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:24" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B3" s="1"/>
-      <c r="C3" s="2" t="s">
+      <c r="C3" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="2"/>
-      <c r="E3" s="2"/>
-      <c r="F3" s="2"/>
-      <c r="G3" s="2"/>
-      <c r="H3" s="2"/>
-      <c r="I3" s="2"/>
+      <c r="D3" s="3"/>
+      <c r="E3" s="3"/>
+      <c r="F3" s="3"/>
+      <c r="G3" s="3"/>
+      <c r="H3" s="3"/>
+      <c r="I3" s="3"/>
       <c r="J3" s="1"/>
       <c r="K3" s="1"/>
       <c r="U3" s="1"/>
       <c r="V3" s="1"/>
     </row>
-    <row r="4" spans="2:24" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:24" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B4" s="1" t="s">
         <v>46</v>
       </c>
@@ -3962,7 +2274,7 @@
         <v>2300</v>
       </c>
     </row>
-    <row r="5" spans="2:24" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:24" x14ac:dyDescent="0.4">
       <c r="B5" t="s">
         <v>45</v>
       </c>
@@ -4055,7 +2367,7 @@
         <v>-100</v>
       </c>
     </row>
-    <row r="6" spans="2:24" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:24" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B6" t="s">
         <v>3</v>
       </c>
@@ -4127,7 +2439,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="2:24" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:24" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B7" t="s">
         <v>4</v>
       </c>
@@ -4199,7 +2511,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="2:24" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:24" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B8" t="s">
         <v>5</v>
       </c>
@@ -4271,7 +2583,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="2:24" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:24" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B9" t="s">
         <v>6</v>
       </c>
@@ -4343,7 +2655,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="2:24" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:24" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B10" t="s">
         <v>7</v>
       </c>
@@ -4415,7 +2727,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="2:24" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:24" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B11" t="s">
         <v>8</v>
       </c>
@@ -4487,7 +2799,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="2:24" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:24" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B12" t="s">
         <v>9</v>
       </c>
@@ -4559,7 +2871,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="2:24" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:24" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B13" t="s">
         <v>10</v>
       </c>
@@ -4631,7 +2943,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="2:24" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:24" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B14" t="s">
         <v>11</v>
       </c>
@@ -4703,7 +3015,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="2:24" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:24" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B15" t="s">
         <v>12</v>
       </c>
@@ -4775,7 +3087,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="2:24" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:24" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B16" t="s">
         <v>13</v>
       </c>
@@ -4847,7 +3159,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="2:24" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:24" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B17" t="s">
         <v>14</v>
       </c>
@@ -4919,7 +3231,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="2:24" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:24" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B18" t="s">
         <v>15</v>
       </c>
@@ -4991,7 +3303,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="2:24" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:24" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B19" t="s">
         <v>16</v>
       </c>
@@ -5063,7 +3375,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="2:24" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:24" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B20" t="s">
         <v>17</v>
       </c>
@@ -5135,7 +3447,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="2:24" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:24" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B21" t="s">
         <v>18</v>
       </c>
@@ -5207,7 +3519,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="2:24" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:24" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B22" t="s">
         <v>19</v>
       </c>
@@ -5279,7 +3591,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="2:24" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:24" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B23" t="s">
         <v>20</v>
       </c>
@@ -5351,7 +3663,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="2:24" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:24" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B24" t="s">
         <v>21</v>
       </c>
@@ -5423,7 +3735,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="2:24" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:24" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B25" t="s">
         <v>22</v>
       </c>
@@ -5495,7 +3807,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="2:24" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:24" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B26" t="s">
         <v>23</v>
       </c>
@@ -5567,7 +3879,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="2:24" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:24" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B27" t="s">
         <v>24</v>
       </c>
@@ -5639,7 +3951,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="2:24" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:24" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B28" t="s">
         <v>25</v>
       </c>
@@ -5711,7 +4023,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="2:24" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:24" x14ac:dyDescent="0.4">
       <c r="B29" t="s">
         <v>26</v>
       </c>
@@ -5783,7 +4095,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="2:24" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:24" x14ac:dyDescent="0.4">
       <c r="B30" t="s">
         <v>27</v>
       </c>
@@ -5855,7 +4167,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="2:24" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:24" x14ac:dyDescent="0.4">
       <c r="B31" t="s">
         <v>28</v>
       </c>
@@ -5927,7 +4239,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="2:24" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:24" x14ac:dyDescent="0.4">
       <c r="B32" t="s">
         <v>29</v>
       </c>
@@ -5999,7 +4311,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="2:24" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:24" x14ac:dyDescent="0.4">
       <c r="B33" t="s">
         <v>30</v>
       </c>
@@ -6071,7 +4383,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="2:24" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:24" x14ac:dyDescent="0.4">
       <c r="B34" t="s">
         <v>31</v>
       </c>
@@ -6143,7 +4455,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="2:24" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:24" x14ac:dyDescent="0.4">
       <c r="B35" t="s">
         <v>32</v>
       </c>
@@ -6215,7 +4527,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="2:24" x14ac:dyDescent="0.3">
+    <row r="36" spans="2:24" x14ac:dyDescent="0.4">
       <c r="B36" t="s">
         <v>33</v>
       </c>
@@ -6287,7 +4599,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="2:24" x14ac:dyDescent="0.3">
+    <row r="37" spans="2:24" x14ac:dyDescent="0.4">
       <c r="B37" t="s">
         <v>34</v>
       </c>
@@ -6359,7 +4671,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="2:24" x14ac:dyDescent="0.3">
+    <row r="38" spans="2:24" x14ac:dyDescent="0.4">
       <c r="B38" t="s">
         <v>35</v>
       </c>
@@ -6431,7 +4743,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="2:24" x14ac:dyDescent="0.3">
+    <row r="39" spans="2:24" x14ac:dyDescent="0.4">
       <c r="B39" t="s">
         <v>36</v>
       </c>
@@ -6503,7 +4815,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="2:24" x14ac:dyDescent="0.3">
+    <row r="40" spans="2:24" x14ac:dyDescent="0.4">
       <c r="B40" t="s">
         <v>37</v>
       </c>
@@ -6575,7 +4887,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="2:24" x14ac:dyDescent="0.3">
+    <row r="41" spans="2:24" x14ac:dyDescent="0.4">
       <c r="B41" t="s">
         <v>38</v>
       </c>
@@ -6647,7 +4959,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="2:24" x14ac:dyDescent="0.3">
+    <row r="42" spans="2:24" x14ac:dyDescent="0.4">
       <c r="B42" t="s">
         <v>39</v>
       </c>
@@ -6719,7 +5031,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="2:24" x14ac:dyDescent="0.3">
+    <row r="43" spans="2:24" x14ac:dyDescent="0.4">
       <c r="B43" t="s">
         <v>40</v>
       </c>
@@ -6791,7 +5103,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="2:24" x14ac:dyDescent="0.3">
+    <row r="44" spans="2:24" x14ac:dyDescent="0.4">
       <c r="B44" t="s">
         <v>41</v>
       </c>
@@ -6863,7 +5175,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="2:24" x14ac:dyDescent="0.3">
+    <row r="45" spans="2:24" x14ac:dyDescent="0.4">
       <c r="B45" t="s">
         <v>42</v>
       </c>
@@ -6935,7 +5247,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="2:24" x14ac:dyDescent="0.3">
+    <row r="46" spans="2:24" x14ac:dyDescent="0.4">
       <c r="B46" t="s">
         <v>43</v>
       </c>
@@ -7007,7 +5319,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="2:24" x14ac:dyDescent="0.3">
+    <row r="47" spans="2:24" x14ac:dyDescent="0.4">
       <c r="B47" t="s">
         <v>44</v>
       </c>
@@ -7085,7 +5397,7 @@
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="N1:N1048576">
-    <cfRule type="expression" dxfId="3" priority="1">
+    <cfRule type="expression" dxfId="1" priority="1">
       <formula>$N1&lt;&gt;$C1</formula>
     </cfRule>
   </conditionalFormatting>
@@ -7102,21 +5414,21 @@
       <selection activeCell="M8" sqref="M8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="2" max="2" width="25.125" customWidth="1"/>
-    <col min="3" max="3" width="6.25" customWidth="1"/>
-    <col min="4" max="4" width="7.25" customWidth="1"/>
-    <col min="5" max="7" width="6.25" customWidth="1"/>
+    <col min="2" max="2" width="25.09765625" customWidth="1"/>
+    <col min="3" max="3" width="6.19921875" customWidth="1"/>
+    <col min="4" max="4" width="7.19921875" customWidth="1"/>
+    <col min="5" max="7" width="6.19921875" customWidth="1"/>
     <col min="8" max="8" width="7" customWidth="1"/>
-    <col min="9" max="13" width="6.25" customWidth="1"/>
-    <col min="15" max="15" width="7.25" customWidth="1"/>
-    <col min="16" max="18" width="6.25" customWidth="1"/>
+    <col min="9" max="13" width="6.19921875" customWidth="1"/>
+    <col min="15" max="15" width="7.19921875" customWidth="1"/>
+    <col min="16" max="18" width="6.19921875" customWidth="1"/>
     <col min="19" max="19" width="7" customWidth="1"/>
-    <col min="20" max="24" width="6.25" customWidth="1"/>
+    <col min="20" max="24" width="6.19921875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:24" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:24" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B1" t="s">
         <v>0</v>
       </c>
@@ -7124,23 +5436,23 @@
         <v>48</v>
       </c>
     </row>
-    <row r="3" spans="2:24" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:24" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B3" s="1"/>
-      <c r="C3" s="2" t="s">
+      <c r="C3" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="2"/>
-      <c r="E3" s="2"/>
-      <c r="F3" s="2"/>
-      <c r="G3" s="2"/>
-      <c r="H3" s="2"/>
-      <c r="I3" s="2"/>
+      <c r="D3" s="3"/>
+      <c r="E3" s="3"/>
+      <c r="F3" s="3"/>
+      <c r="G3" s="3"/>
+      <c r="H3" s="3"/>
+      <c r="I3" s="3"/>
       <c r="J3" s="1"/>
       <c r="K3" s="1"/>
       <c r="U3" s="1"/>
       <c r="V3" s="1"/>
     </row>
-    <row r="4" spans="2:24" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:24" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B4" s="1" t="s">
         <v>46</v>
       </c>
@@ -7156,10 +5468,10 @@
       <c r="F4">
         <v>1200</v>
       </c>
-      <c r="G4" s="3">
+      <c r="G4" s="2">
         <v>1300</v>
       </c>
-      <c r="H4" s="3">
+      <c r="H4" s="2">
         <v>1400</v>
       </c>
       <c r="I4">
@@ -7186,10 +5498,10 @@
       <c r="Q4">
         <v>1200</v>
       </c>
-      <c r="R4" s="3">
+      <c r="R4" s="2">
         <v>1300</v>
       </c>
-      <c r="S4" s="3">
+      <c r="S4" s="2">
         <v>1400</v>
       </c>
       <c r="T4">
@@ -7208,7 +5520,7 @@
         <v>2300</v>
       </c>
     </row>
-    <row r="5" spans="2:24" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:24" x14ac:dyDescent="0.4">
       <c r="B5" t="s">
         <v>45</v>
       </c>
@@ -7228,11 +5540,11 @@
         <f t="shared" si="0"/>
         <v>913</v>
       </c>
-      <c r="G5" s="3">
+      <c r="G5" s="2">
         <f t="shared" si="0"/>
         <v>9190</v>
       </c>
-      <c r="H5" s="3">
+      <c r="H5" s="2">
         <f t="shared" si="0"/>
         <v>4948</v>
       </c>
@@ -7272,11 +5584,11 @@
         <f t="shared" si="2"/>
         <v>7437</v>
       </c>
-      <c r="R5" s="3">
+      <c r="R5" s="2">
         <f t="shared" si="2"/>
         <v>9976</v>
       </c>
-      <c r="S5" s="3">
+      <c r="S5" s="2">
         <f t="shared" si="2"/>
         <v>10310</v>
       </c>
@@ -7301,7 +5613,7 @@
         <v>-100</v>
       </c>
     </row>
-    <row r="6" spans="2:24" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:24" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B6" t="s">
         <v>3</v>
       </c>
@@ -7373,7 +5685,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="2:24" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:24" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B7" t="s">
         <v>4</v>
       </c>
@@ -7445,7 +5757,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="2:24" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:24" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B8" t="s">
         <v>5</v>
       </c>
@@ -7517,7 +5829,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="2:24" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:24" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B9" t="s">
         <v>6</v>
       </c>
@@ -7589,7 +5901,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="2:24" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:24" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B10" t="s">
         <v>7</v>
       </c>
@@ -7661,7 +5973,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="2:24" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:24" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B11" t="s">
         <v>8</v>
       </c>
@@ -7733,7 +6045,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="2:24" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:24" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B12" t="s">
         <v>9</v>
       </c>
@@ -7805,7 +6117,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="2:24" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:24" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B13" t="s">
         <v>10</v>
       </c>
@@ -7877,7 +6189,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="2:24" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:24" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B14" t="s">
         <v>11</v>
       </c>
@@ -7949,7 +6261,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="2:24" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:24" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B15" t="s">
         <v>12</v>
       </c>
@@ -8021,7 +6333,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="2:24" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:24" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B16" t="s">
         <v>13</v>
       </c>
@@ -8093,7 +6405,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="2:24" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:24" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B17" t="s">
         <v>14</v>
       </c>
@@ -8165,7 +6477,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="2:24" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:24" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B18" t="s">
         <v>15</v>
       </c>
@@ -8237,7 +6549,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="2:24" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:24" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B19" t="s">
         <v>16</v>
       </c>
@@ -8309,7 +6621,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="2:24" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:24" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B20" t="s">
         <v>17</v>
       </c>
@@ -8381,7 +6693,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="2:24" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:24" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B21" t="s">
         <v>18</v>
       </c>
@@ -8453,7 +6765,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="2:24" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:24" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B22" t="s">
         <v>19</v>
       </c>
@@ -8525,7 +6837,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="2:24" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:24" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B23" t="s">
         <v>20</v>
       </c>
@@ -8597,7 +6909,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="2:24" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:24" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B24" t="s">
         <v>21</v>
       </c>
@@ -8669,7 +6981,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="2:24" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:24" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B25" t="s">
         <v>22</v>
       </c>
@@ -8741,7 +7053,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="2:24" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:24" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B26" t="s">
         <v>23</v>
       </c>
@@ -8813,7 +7125,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="2:24" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:24" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B27" t="s">
         <v>24</v>
       </c>
@@ -8885,7 +7197,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="2:24" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:24" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B28" t="s">
         <v>25</v>
       </c>
@@ -8957,7 +7269,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="2:24" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:24" x14ac:dyDescent="0.4">
       <c r="B29" t="s">
         <v>26</v>
       </c>
@@ -9029,7 +7341,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="2:24" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:24" x14ac:dyDescent="0.4">
       <c r="B30" t="s">
         <v>27</v>
       </c>
@@ -9101,7 +7413,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="2:24" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:24" x14ac:dyDescent="0.4">
       <c r="B31" t="s">
         <v>28</v>
       </c>
@@ -9173,7 +7485,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="2:24" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:24" x14ac:dyDescent="0.4">
       <c r="B32" t="s">
         <v>29</v>
       </c>
@@ -9245,7 +7557,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="2:24" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:24" x14ac:dyDescent="0.4">
       <c r="B33" t="s">
         <v>30</v>
       </c>
@@ -9317,7 +7629,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="2:24" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:24" x14ac:dyDescent="0.4">
       <c r="B34" t="s">
         <v>31</v>
       </c>
@@ -9389,7 +7701,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="2:24" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:24" x14ac:dyDescent="0.4">
       <c r="B35" t="s">
         <v>32</v>
       </c>
@@ -9461,7 +7773,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="2:24" x14ac:dyDescent="0.3">
+    <row r="36" spans="2:24" x14ac:dyDescent="0.4">
       <c r="B36" t="s">
         <v>33</v>
       </c>
@@ -9533,7 +7845,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="2:24" x14ac:dyDescent="0.3">
+    <row r="37" spans="2:24" x14ac:dyDescent="0.4">
       <c r="B37" t="s">
         <v>34</v>
       </c>
@@ -9605,7 +7917,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="2:24" x14ac:dyDescent="0.3">
+    <row r="38" spans="2:24" x14ac:dyDescent="0.4">
       <c r="B38" t="s">
         <v>35</v>
       </c>
@@ -9677,7 +7989,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="2:24" x14ac:dyDescent="0.3">
+    <row r="39" spans="2:24" x14ac:dyDescent="0.4">
       <c r="B39" t="s">
         <v>36</v>
       </c>
@@ -9749,7 +8061,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="2:24" x14ac:dyDescent="0.3">
+    <row r="40" spans="2:24" x14ac:dyDescent="0.4">
       <c r="B40" t="s">
         <v>37</v>
       </c>
@@ -9821,7 +8133,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="2:24" x14ac:dyDescent="0.3">
+    <row r="41" spans="2:24" x14ac:dyDescent="0.4">
       <c r="B41" t="s">
         <v>38</v>
       </c>
@@ -9893,7 +8205,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="2:24" x14ac:dyDescent="0.3">
+    <row r="42" spans="2:24" x14ac:dyDescent="0.4">
       <c r="B42" t="s">
         <v>39</v>
       </c>
@@ -9965,7 +8277,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="2:24" x14ac:dyDescent="0.3">
+    <row r="43" spans="2:24" x14ac:dyDescent="0.4">
       <c r="B43" t="s">
         <v>40</v>
       </c>
@@ -10037,7 +8349,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="2:24" x14ac:dyDescent="0.3">
+    <row r="44" spans="2:24" x14ac:dyDescent="0.4">
       <c r="B44" t="s">
         <v>41</v>
       </c>
@@ -10109,7 +8421,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="2:24" x14ac:dyDescent="0.3">
+    <row r="45" spans="2:24" x14ac:dyDescent="0.4">
       <c r="B45" t="s">
         <v>42</v>
       </c>
@@ -10181,7 +8493,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="2:24" x14ac:dyDescent="0.3">
+    <row r="46" spans="2:24" x14ac:dyDescent="0.4">
       <c r="B46" t="s">
         <v>43</v>
       </c>
@@ -10253,7 +8565,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="2:24" x14ac:dyDescent="0.3">
+    <row r="47" spans="2:24" x14ac:dyDescent="0.4">
       <c r="B47" t="s">
         <v>44</v>
       </c>
@@ -10331,7 +8643,7 @@
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="N1:N1048576">
-    <cfRule type="expression" dxfId="1" priority="1">
+    <cfRule type="expression" dxfId="0" priority="1">
       <formula>$N1&lt;&gt;$C1</formula>
     </cfRule>
   </conditionalFormatting>
@@ -10347,13 +8659,13 @@
       <selection activeCell="C4" sqref="C4:M5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="2" max="2" width="25.125" customWidth="1"/>
-    <col min="3" max="13" width="6.25" customWidth="1"/>
+    <col min="2" max="2" width="25.09765625" customWidth="1"/>
+    <col min="3" max="13" width="6.19921875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:13" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B1" t="s">
         <v>0</v>
       </c>
@@ -10361,21 +8673,21 @@
         <v>49</v>
       </c>
     </row>
-    <row r="3" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:13" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B3" s="1"/>
-      <c r="C3" s="2" t="s">
+      <c r="C3" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="2"/>
-      <c r="E3" s="2"/>
-      <c r="F3" s="2"/>
-      <c r="G3" s="2"/>
-      <c r="H3" s="2"/>
-      <c r="I3" s="2"/>
+      <c r="D3" s="3"/>
+      <c r="E3" s="3"/>
+      <c r="F3" s="3"/>
+      <c r="G3" s="3"/>
+      <c r="H3" s="3"/>
+      <c r="I3" s="3"/>
       <c r="J3" s="1"/>
       <c r="K3" s="1"/>
     </row>
-    <row r="4" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:13" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B4" s="1" t="s">
         <v>46</v>
       </c>
@@ -10413,7 +8725,7 @@
         <v>2300</v>
       </c>
     </row>
-    <row r="5" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:13" x14ac:dyDescent="0.4">
       <c r="B5" t="s">
         <v>45</v>
       </c>
@@ -10462,212 +8774,212 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:13" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B6" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:13" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B7" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:13" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B8" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:13" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B9" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="10" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:13" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B10" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="11" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:13" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B11" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="12" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:13" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B12" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="13" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:13" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B13" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="14" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:13" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B14" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="15" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:13" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B15" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="16" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:13" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B16" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="17" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:2" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B17" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="18" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:2" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B18" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="19" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:2" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B19" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="20" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:2" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B20" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="21" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:2" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B21" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="22" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:2" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B22" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="23" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:2" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B23" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="24" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:2" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B24" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="25" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:2" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B25" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="26" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:2" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B26" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="27" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:2" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B27" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="28" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:2" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B28" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="29" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B29" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="30" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B30" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="31" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B31" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="32" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B32" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="33" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B33" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="34" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B34" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="35" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B35" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="36" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="36" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B36" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="37" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="37" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B37" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="38" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="38" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B38" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="39" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="39" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B39" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="40" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="40" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B40" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="41" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="41" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B41" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="42" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="42" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B42" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="43" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="43" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B43" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="44" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="44" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B44" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="45" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="45" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B45" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="46" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="46" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B46" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="47" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="47" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B47" t="s">
         <v>44</v>
       </c>
@@ -10689,13 +9001,13 @@
       <selection activeCell="C4" sqref="C4:M5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="2" max="2" width="25.125" customWidth="1"/>
-    <col min="3" max="13" width="6.25" customWidth="1"/>
+    <col min="2" max="2" width="25.09765625" customWidth="1"/>
+    <col min="3" max="13" width="6.19921875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:13" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B1" t="s">
         <v>0</v>
       </c>
@@ -10703,21 +9015,21 @@
         <v>47</v>
       </c>
     </row>
-    <row r="3" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:13" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B3" s="1"/>
-      <c r="C3" s="2" t="s">
+      <c r="C3" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="2"/>
-      <c r="E3" s="2"/>
-      <c r="F3" s="2"/>
-      <c r="G3" s="2"/>
-      <c r="H3" s="2"/>
-      <c r="I3" s="2"/>
+      <c r="D3" s="3"/>
+      <c r="E3" s="3"/>
+      <c r="F3" s="3"/>
+      <c r="G3" s="3"/>
+      <c r="H3" s="3"/>
+      <c r="I3" s="3"/>
       <c r="J3" s="1"/>
       <c r="K3" s="1"/>
     </row>
-    <row r="4" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:13" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B4" s="1" t="s">
         <v>46</v>
       </c>
@@ -10755,7 +9067,7 @@
         <v>2300</v>
       </c>
     </row>
-    <row r="5" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:13" x14ac:dyDescent="0.4">
       <c r="B5" t="s">
         <v>45</v>
       </c>
@@ -10804,212 +9116,212 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:13" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B6" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:13" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B7" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:13" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B8" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:13" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B9" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="10" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:13" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B10" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="11" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:13" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B11" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="12" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:13" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B12" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="13" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:13" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B13" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="14" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:13" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B14" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="15" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:13" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B15" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="16" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:13" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B16" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="17" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:2" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B17" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="18" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:2" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B18" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="19" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:2" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B19" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="20" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:2" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B20" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="21" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:2" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B21" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="22" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:2" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B22" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="23" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:2" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B23" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="24" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:2" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B24" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="25" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:2" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B25" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="26" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:2" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B26" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="27" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:2" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B27" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="28" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:2" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B28" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="29" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B29" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="30" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B30" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="31" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B31" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="32" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B32" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="33" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B33" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="34" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B34" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="35" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B35" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="36" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="36" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B36" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="37" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="37" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B37" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="38" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="38" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B38" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="39" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="39" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B39" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="40" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="40" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B40" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="41" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="41" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B41" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="42" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="42" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B42" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="43" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="43" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B43" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="44" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="44" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B44" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="45" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="45" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B45" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="46" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="46" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B46" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="47" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="47" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B47" t="s">
         <v>44</v>
       </c>
@@ -11032,13 +9344,13 @@
       <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="2" max="2" width="25.125" customWidth="1"/>
-    <col min="3" max="13" width="6.25" customWidth="1"/>
+    <col min="2" max="2" width="25.09765625" customWidth="1"/>
+    <col min="3" max="13" width="6.19921875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:13" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B1" t="s">
         <v>0</v>
       </c>
@@ -11046,21 +9358,21 @@
         <v>48</v>
       </c>
     </row>
-    <row r="3" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:13" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B3" s="1"/>
-      <c r="C3" s="2" t="s">
+      <c r="C3" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="2"/>
-      <c r="E3" s="2"/>
-      <c r="F3" s="2"/>
-      <c r="G3" s="2"/>
-      <c r="H3" s="2"/>
-      <c r="I3" s="2"/>
+      <c r="D3" s="3"/>
+      <c r="E3" s="3"/>
+      <c r="F3" s="3"/>
+      <c r="G3" s="3"/>
+      <c r="H3" s="3"/>
+      <c r="I3" s="3"/>
       <c r="J3" s="1"/>
       <c r="K3" s="1"/>
     </row>
-    <row r="4" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:13" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B4" s="1" t="s">
         <v>46</v>
       </c>
@@ -11098,7 +9410,7 @@
         <v>2300</v>
       </c>
     </row>
-    <row r="5" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:13" x14ac:dyDescent="0.4">
       <c r="B5" t="s">
         <v>45</v>
       </c>
@@ -11147,212 +9459,212 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:13" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B6" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:13" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B7" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:13" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B8" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:13" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B9" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="10" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:13" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B10" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="11" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:13" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B11" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="12" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:13" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B12" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="13" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:13" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B13" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="14" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:13" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B14" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="15" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:13" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B15" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="16" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:13" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B16" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="17" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:2" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B17" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="18" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:2" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B18" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="19" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:2" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B19" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="20" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:2" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B20" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="21" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:2" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B21" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="22" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:2" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B22" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="23" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:2" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B23" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="24" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:2" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B24" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="25" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:2" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B25" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="26" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:2" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B26" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="27" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:2" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B27" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="28" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:2" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B28" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="29" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B29" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="30" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B30" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="31" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B31" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="32" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B32" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="33" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B33" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="34" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B34" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="35" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B35" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="36" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="36" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B36" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="37" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="37" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B37" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="38" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="38" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B38" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="39" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="39" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B39" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="40" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="40" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B40" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="41" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="41" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B41" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="42" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="42" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B42" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="43" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="43" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B43" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="44" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="44" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B44" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="45" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="45" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B45" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="46" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="46" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B46" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="47" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="47" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B47" t="s">
         <v>44</v>
       </c>
@@ -11374,18 +9686,18 @@
       <selection activeCell="L5" sqref="L5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="5.125" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="5.09765625" defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="2" max="2" width="24.625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="24.59765625" bestFit="1" customWidth="1"/>
     <col min="3" max="4" width="7" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.3984375" bestFit="1" customWidth="1"/>
     <col min="6" max="8" width="3.5" bestFit="1" customWidth="1"/>
-    <col min="9" max="28" width="6.25" customWidth="1"/>
-    <col min="29" max="29" width="7.125" customWidth="1"/>
-    <col min="30" max="68" width="6.25" customWidth="1"/>
+    <col min="9" max="28" width="6.19921875" customWidth="1"/>
+    <col min="29" max="29" width="7.09765625" customWidth="1"/>
+    <col min="30" max="68" width="6.19921875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:68" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:68" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B1" t="s">
         <v>0</v>
       </c>
@@ -11393,16 +9705,16 @@
         <v>49</v>
       </c>
     </row>
-    <row r="3" spans="2:68" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:68" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B3" s="1"/>
-      <c r="C3" s="2"/>
-      <c r="D3" s="2"/>
-      <c r="E3" s="2"/>
-      <c r="F3" s="2"/>
-      <c r="G3" s="2"/>
-      <c r="H3" s="2"/>
-    </row>
-    <row r="4" spans="2:68" x14ac:dyDescent="0.3">
+      <c r="C3" s="3"/>
+      <c r="D3" s="3"/>
+      <c r="E3" s="3"/>
+      <c r="F3" s="3"/>
+      <c r="G3" s="3"/>
+      <c r="H3" s="3"/>
+    </row>
+    <row r="4" spans="2:68" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B4" s="1" t="s">
         <v>46</v>
       </c>
@@ -11605,7 +9917,7 @@
         <v>2300</v>
       </c>
     </row>
-    <row r="5" spans="2:68" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:68" x14ac:dyDescent="0.4">
       <c r="B5" t="s">
         <v>45</v>
       </c>
@@ -11874,7 +10186,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="2:68" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:68" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B6" t="s">
         <v>3</v>
       </c>
@@ -12077,7 +10389,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="2:68" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:68" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B7" t="s">
         <v>4</v>
       </c>
@@ -12280,7 +10592,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="2:68" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:68" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B8" t="s">
         <v>5</v>
       </c>
@@ -12483,7 +10795,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="2:68" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:68" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B9" t="s">
         <v>6</v>
       </c>
@@ -12686,7 +10998,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="2:68" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:68" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B10" t="s">
         <v>7</v>
       </c>
@@ -12889,7 +11201,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="2:68" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:68" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B11" t="s">
         <v>8</v>
       </c>
@@ -13092,7 +11404,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="2:68" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:68" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B12" t="s">
         <v>9</v>
       </c>
@@ -13295,7 +11607,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="2:68" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:68" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B13" t="s">
         <v>10</v>
       </c>
@@ -13498,7 +11810,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="2:68" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:68" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B14" t="s">
         <v>11</v>
       </c>
@@ -13701,7 +12013,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="2:68" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:68" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B15" t="s">
         <v>12</v>
       </c>
@@ -13904,7 +12216,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="2:68" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:68" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B16" t="s">
         <v>13</v>
       </c>
@@ -14107,7 +12419,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="2:68" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:68" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B17" t="s">
         <v>14</v>
       </c>
@@ -14310,7 +12622,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="2:68" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:68" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B18" t="s">
         <v>15</v>
       </c>
@@ -14513,7 +12825,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="2:68" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:68" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B19" t="s">
         <v>16</v>
       </c>
@@ -14716,7 +13028,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="2:68" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:68" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B20" t="s">
         <v>17</v>
       </c>
@@ -14919,7 +13231,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="2:68" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:68" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B21" t="s">
         <v>18</v>
       </c>
@@ -15122,7 +13434,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="2:68" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:68" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B22" t="s">
         <v>19</v>
       </c>
@@ -15325,7 +13637,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="2:68" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:68" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B23" t="s">
         <v>20</v>
       </c>
@@ -15528,7 +13840,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="2:68" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:68" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B24" t="s">
         <v>21</v>
       </c>
@@ -15731,7 +14043,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="2:68" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:68" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B25" t="s">
         <v>22</v>
       </c>
@@ -15934,7 +14246,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="2:68" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:68" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B26" t="s">
         <v>23</v>
       </c>
@@ -16137,7 +14449,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="2:68" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:68" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B27" t="s">
         <v>24</v>
       </c>
@@ -16340,7 +14652,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="2:68" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:68" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B28" t="s">
         <v>25</v>
       </c>
@@ -16543,7 +14855,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="2:68" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:68" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B29" t="s">
         <v>26</v>
       </c>
@@ -16746,7 +15058,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="2:68" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:68" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B30" t="s">
         <v>27</v>
       </c>
@@ -16949,7 +15261,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="2:68" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:68" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B31" t="s">
         <v>28</v>
       </c>
@@ -17152,7 +15464,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="2:68" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:68" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B32" t="s">
         <v>29</v>
       </c>
@@ -17355,7 +15667,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="2:68" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:68" x14ac:dyDescent="0.4">
       <c r="B33" t="s">
         <v>30</v>
       </c>
@@ -17558,7 +15870,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="2:68" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:68" x14ac:dyDescent="0.4">
       <c r="B34" t="s">
         <v>31</v>
       </c>
@@ -17761,7 +16073,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="2:68" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:68" x14ac:dyDescent="0.4">
       <c r="B35" t="s">
         <v>32</v>
       </c>
@@ -17964,7 +16276,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="2:68" x14ac:dyDescent="0.3">
+    <row r="36" spans="2:68" x14ac:dyDescent="0.4">
       <c r="B36" t="s">
         <v>33</v>
       </c>
@@ -18167,7 +16479,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="2:68" x14ac:dyDescent="0.3">
+    <row r="37" spans="2:68" x14ac:dyDescent="0.4">
       <c r="B37" t="s">
         <v>34</v>
       </c>
@@ -18370,7 +16682,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="2:68" x14ac:dyDescent="0.3">
+    <row r="38" spans="2:68" x14ac:dyDescent="0.4">
       <c r="B38" t="s">
         <v>35</v>
       </c>
@@ -18573,7 +16885,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="2:68" x14ac:dyDescent="0.3">
+    <row r="39" spans="2:68" x14ac:dyDescent="0.4">
       <c r="B39" t="s">
         <v>36</v>
       </c>
@@ -18776,7 +17088,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="2:68" x14ac:dyDescent="0.3">
+    <row r="40" spans="2:68" x14ac:dyDescent="0.4">
       <c r="B40" t="s">
         <v>37</v>
       </c>
@@ -18979,7 +17291,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="2:68" x14ac:dyDescent="0.3">
+    <row r="41" spans="2:68" x14ac:dyDescent="0.4">
       <c r="B41" t="s">
         <v>38</v>
       </c>
@@ -19182,7 +17494,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="2:68" x14ac:dyDescent="0.3">
+    <row r="42" spans="2:68" x14ac:dyDescent="0.4">
       <c r="B42" t="s">
         <v>39</v>
       </c>
@@ -19385,7 +17697,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="2:68" x14ac:dyDescent="0.3">
+    <row r="43" spans="2:68" x14ac:dyDescent="0.4">
       <c r="B43" t="s">
         <v>40</v>
       </c>
@@ -19588,7 +17900,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="2:68" x14ac:dyDescent="0.3">
+    <row r="44" spans="2:68" x14ac:dyDescent="0.4">
       <c r="B44" t="s">
         <v>41</v>
       </c>
@@ -19791,7 +18103,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="2:68" x14ac:dyDescent="0.3">
+    <row r="45" spans="2:68" x14ac:dyDescent="0.4">
       <c r="B45" t="s">
         <v>42</v>
       </c>
@@ -19994,7 +18306,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="2:68" x14ac:dyDescent="0.3">
+    <row r="46" spans="2:68" x14ac:dyDescent="0.4">
       <c r="B46" t="s">
         <v>43</v>
       </c>
@@ -20197,7 +18509,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="2:68" x14ac:dyDescent="0.3">
+    <row r="47" spans="2:68" x14ac:dyDescent="0.4">
       <c r="B47" t="s">
         <v>44</v>
       </c>

--- a/result/back_testing_m1.xlsx
+++ b/result/back_testing_m1.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\study\kra\result\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="5835" yWindow="45" windowWidth="21000" windowHeight="9915"/>
+    <workbookView xWindow="5832" yWindow="48" windowWidth="21000" windowHeight="9912" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="1" sheetId="1" r:id="rId1"/>
@@ -21,7 +16,7 @@
     <sheet name="2_1" sheetId="7" r:id="rId7"/>
     <sheet name="Sheet1" sheetId="8" r:id="rId8"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
@@ -354,7 +349,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -389,7 +384,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -598,28 +593,28 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:X54"/>
+  <dimension ref="B1:X60"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="W18" sqref="W18"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6:C60"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="2" max="2" width="25.125" customWidth="1"/>
-    <col min="3" max="3" width="7.375" customWidth="1"/>
-    <col min="4" max="4" width="6.75" customWidth="1"/>
-    <col min="5" max="5" width="6.875" customWidth="1"/>
+    <col min="2" max="2" width="25.09765625" customWidth="1"/>
+    <col min="3" max="3" width="7.3984375" customWidth="1"/>
+    <col min="4" max="4" width="6.69921875" customWidth="1"/>
+    <col min="5" max="5" width="6.8984375" customWidth="1"/>
     <col min="6" max="6" width="7.5" customWidth="1"/>
-    <col min="7" max="7" width="7.375" customWidth="1"/>
+    <col min="7" max="7" width="7.3984375" customWidth="1"/>
     <col min="8" max="8" width="7" customWidth="1"/>
-    <col min="9" max="13" width="6.25" customWidth="1"/>
-    <col min="15" max="15" width="6.75" customWidth="1"/>
-    <col min="16" max="16" width="6.875" customWidth="1"/>
-    <col min="17" max="24" width="6.25" customWidth="1"/>
+    <col min="9" max="13" width="6.19921875" customWidth="1"/>
+    <col min="15" max="15" width="6.69921875" customWidth="1"/>
+    <col min="16" max="16" width="6.8984375" customWidth="1"/>
+    <col min="17" max="24" width="6.19921875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:24" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:24" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B1" t="s">
         <v>0</v>
       </c>
@@ -627,7 +622,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="3" spans="2:24" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:24" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B3" s="1"/>
       <c r="C3" s="3" t="s">
         <v>1</v>
@@ -643,7 +638,7 @@
       <c r="U3" s="1"/>
       <c r="V3" s="1"/>
     </row>
-    <row r="4" spans="2:24" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:24" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B4" s="1" t="s">
         <v>46</v>
       </c>
@@ -711,13 +706,13 @@
         <v>2300</v>
       </c>
     </row>
-    <row r="5" spans="2:24" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:24" x14ac:dyDescent="0.4">
       <c r="B5" t="s">
         <v>45</v>
       </c>
       <c r="C5" s="2">
         <f>SUM(C6:C100)</f>
-        <v>29721</v>
+        <v>-22586</v>
       </c>
       <c r="D5">
         <f t="shared" ref="D5:M5" si="0">SUM(D6:D100)</f>
@@ -804,12 +799,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="2:24" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:24" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B6" t="s">
         <v>51</v>
       </c>
       <c r="C6">
-        <v>777</v>
+        <v>-1314</v>
       </c>
       <c r="D6">
         <v>-81</v>
@@ -846,12 +841,12 @@
         <v>777</v>
       </c>
     </row>
-    <row r="7" spans="2:24" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:24" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B7" t="s">
         <v>52</v>
       </c>
       <c r="C7">
-        <v>2540</v>
+        <v>-1264</v>
       </c>
       <c r="D7">
         <v>368</v>
@@ -888,12 +883,12 @@
         <v>2540</v>
       </c>
     </row>
-    <row r="8" spans="2:24" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:24" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B8" t="s">
         <v>53</v>
       </c>
       <c r="C8">
-        <v>-1398</v>
+        <v>-181</v>
       </c>
       <c r="D8">
         <v>-600</v>
@@ -930,12 +925,12 @@
         <v>-1398</v>
       </c>
     </row>
-    <row r="9" spans="2:24" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:24" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B9" t="s">
         <v>54</v>
       </c>
       <c r="C9">
-        <v>-1912</v>
+        <v>-1480</v>
       </c>
       <c r="D9">
         <v>-500</v>
@@ -972,12 +967,12 @@
         <v>-1911</v>
       </c>
     </row>
-    <row r="10" spans="2:24" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:24" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B10" t="s">
         <v>55</v>
       </c>
       <c r="C10">
-        <v>2598</v>
+        <v>0</v>
       </c>
       <c r="D10">
         <v>392</v>
@@ -1014,12 +1009,12 @@
         <v>2598</v>
       </c>
     </row>
-    <row r="11" spans="2:24" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:24" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B11" t="s">
         <v>56</v>
       </c>
       <c r="C11">
-        <v>-1653</v>
+        <v>-520</v>
       </c>
       <c r="D11">
         <v>-53</v>
@@ -1056,12 +1051,12 @@
         <v>-1653</v>
       </c>
     </row>
-    <row r="12" spans="2:24" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:24" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B12" t="s">
         <v>3</v>
       </c>
       <c r="C12">
-        <v>1759</v>
+        <v>-1142</v>
       </c>
       <c r="D12">
         <v>-400</v>
@@ -1098,12 +1093,12 @@
         <v>1759</v>
       </c>
     </row>
-    <row r="13" spans="2:24" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:24" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B13" t="s">
         <v>4</v>
       </c>
       <c r="C13">
-        <v>-2002</v>
+        <v>312</v>
       </c>
       <c r="D13">
         <v>-400</v>
@@ -1140,12 +1135,12 @@
         <v>-2002</v>
       </c>
     </row>
-    <row r="14" spans="2:24" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:24" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B14" t="s">
         <v>5</v>
       </c>
       <c r="C14">
-        <v>4107</v>
+        <v>-973</v>
       </c>
       <c r="D14">
         <v>-200</v>
@@ -1182,12 +1177,12 @@
         <v>4107</v>
       </c>
     </row>
-    <row r="15" spans="2:24" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:24" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B15" t="s">
         <v>6</v>
       </c>
       <c r="C15">
-        <v>3601</v>
+        <v>-1692</v>
       </c>
       <c r="D15">
         <v>3290</v>
@@ -1224,12 +1219,12 @@
         <v>3601</v>
       </c>
     </row>
-    <row r="16" spans="2:24" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:24" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B16" t="s">
         <v>7</v>
       </c>
       <c r="C16">
-        <v>2487</v>
+        <v>0</v>
       </c>
       <c r="D16">
         <v>241</v>
@@ -1266,12 +1261,12 @@
         <v>2486</v>
       </c>
     </row>
-    <row r="17" spans="2:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B17" t="s">
         <v>8</v>
       </c>
       <c r="C17">
-        <v>2068</v>
+        <v>-223</v>
       </c>
       <c r="D17">
         <v>-152</v>
@@ -1308,12 +1303,12 @@
         <v>2068</v>
       </c>
     </row>
-    <row r="18" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B18" t="s">
         <v>9</v>
       </c>
       <c r="C18">
-        <v>-19</v>
+        <v>-1282</v>
       </c>
       <c r="D18">
         <v>-300</v>
@@ -1350,12 +1345,12 @@
         <v>-19</v>
       </c>
     </row>
-    <row r="19" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B19" t="s">
         <v>10</v>
       </c>
       <c r="C19">
-        <v>-2071</v>
+        <v>-1491</v>
       </c>
       <c r="D19">
         <v>-300</v>
@@ -1392,12 +1387,12 @@
         <v>-2071</v>
       </c>
     </row>
-    <row r="20" spans="2:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B20" t="s">
         <v>11</v>
       </c>
       <c r="C20">
-        <v>-238</v>
+        <v>-309</v>
       </c>
       <c r="D20">
         <v>-300</v>
@@ -1434,12 +1429,12 @@
         <v>-238</v>
       </c>
     </row>
-    <row r="21" spans="2:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B21" t="s">
         <v>12</v>
       </c>
       <c r="C21">
-        <v>477</v>
+        <v>-908</v>
       </c>
       <c r="D21">
         <v>178</v>
@@ -1476,12 +1471,12 @@
         <v>476</v>
       </c>
     </row>
-    <row r="22" spans="2:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B22" t="s">
         <v>13</v>
       </c>
       <c r="C22">
-        <v>-745</v>
+        <v>-1344</v>
       </c>
       <c r="D22">
         <v>-91</v>
@@ -1518,12 +1513,12 @@
         <v>-745</v>
       </c>
     </row>
-    <row r="23" spans="2:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B23" t="s">
         <v>14</v>
       </c>
       <c r="C23">
-        <v>21</v>
+        <v>-592</v>
       </c>
       <c r="D23">
         <v>-400</v>
@@ -1560,12 +1555,12 @@
         <v>21</v>
       </c>
     </row>
-    <row r="24" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B24" t="s">
         <v>15</v>
       </c>
       <c r="C24">
-        <v>722</v>
+        <v>-135</v>
       </c>
       <c r="D24">
         <v>66</v>
@@ -1602,12 +1597,12 @@
         <v>722</v>
       </c>
     </row>
-    <row r="25" spans="2:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B25" t="s">
         <v>16</v>
       </c>
       <c r="C25">
-        <v>3181</v>
+        <v>-1553</v>
       </c>
       <c r="D25">
         <v>772</v>
@@ -1644,12 +1639,12 @@
         <v>3180</v>
       </c>
     </row>
-    <row r="26" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B26" t="s">
         <v>17</v>
       </c>
       <c r="C26">
-        <v>-635</v>
+        <v>-732</v>
       </c>
       <c r="D26">
         <v>-61</v>
@@ -1686,12 +1681,12 @@
         <v>-636</v>
       </c>
     </row>
-    <row r="27" spans="2:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B27" t="s">
         <v>18</v>
       </c>
       <c r="C27">
-        <v>-742</v>
+        <v>-822</v>
       </c>
       <c r="D27">
         <v>-100</v>
@@ -1728,12 +1723,12 @@
         <v>-741</v>
       </c>
     </row>
-    <row r="28" spans="2:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B28" t="s">
         <v>19</v>
       </c>
       <c r="C28">
-        <v>972</v>
+        <v>-1025</v>
       </c>
       <c r="D28">
         <v>-400</v>
@@ -1770,12 +1765,12 @@
         <v>972</v>
       </c>
     </row>
-    <row r="29" spans="2:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B29" t="s">
         <v>20</v>
       </c>
       <c r="C29">
-        <v>1093</v>
+        <v>-920</v>
       </c>
       <c r="D29">
         <v>-200</v>
@@ -1812,12 +1807,12 @@
         <v>1092</v>
       </c>
     </row>
-    <row r="30" spans="2:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B30" t="s">
         <v>21</v>
       </c>
       <c r="C30">
-        <v>-1646</v>
+        <v>-977</v>
       </c>
       <c r="D30">
         <v>-270</v>
@@ -1854,12 +1849,12 @@
         <v>-1646</v>
       </c>
     </row>
-    <row r="31" spans="2:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B31" t="s">
         <v>22</v>
       </c>
       <c r="C31">
-        <v>632</v>
+        <v>-1016</v>
       </c>
       <c r="D31">
         <v>290</v>
@@ -1896,12 +1891,12 @@
         <v>631</v>
       </c>
     </row>
-    <row r="32" spans="2:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B32" t="s">
         <v>23</v>
       </c>
       <c r="C32">
-        <v>-1472</v>
+        <v>-406</v>
       </c>
       <c r="D32">
         <v>-300</v>
@@ -1938,12 +1933,12 @@
         <v>-1472</v>
       </c>
     </row>
-    <row r="33" spans="2:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B33" t="s">
         <v>24</v>
       </c>
       <c r="C33">
-        <v>2998</v>
+        <v>-431</v>
       </c>
       <c r="D33">
         <v>3554</v>
@@ -1980,12 +1975,12 @@
         <v>5541</v>
       </c>
     </row>
-    <row r="34" spans="2:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B34" t="s">
         <v>25</v>
       </c>
       <c r="C34">
-        <v>2677</v>
+        <v>575</v>
       </c>
       <c r="D34">
         <v>-300</v>
@@ -2022,12 +2017,12 @@
         <v>2676</v>
       </c>
     </row>
-    <row r="35" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:14" x14ac:dyDescent="0.4">
       <c r="B35" t="s">
         <v>26</v>
       </c>
       <c r="C35">
-        <v>5464</v>
+        <v>-1692</v>
       </c>
       <c r="D35">
         <v>4496</v>
@@ -2064,12 +2059,12 @@
         <v>5465</v>
       </c>
     </row>
-    <row r="36" spans="2:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="2:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B36" t="s">
         <v>27</v>
       </c>
       <c r="C36">
-        <v>-1549</v>
+        <v>95</v>
       </c>
       <c r="D36">
         <v>-500</v>
@@ -2106,12 +2101,12 @@
         <v>-1549</v>
       </c>
     </row>
-    <row r="37" spans="2:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="2:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B37" t="s">
         <v>28</v>
       </c>
       <c r="C37">
-        <v>-1200</v>
+        <v>-807</v>
       </c>
       <c r="D37">
         <v>83</v>
@@ -2148,12 +2143,12 @@
         <v>-1200</v>
       </c>
     </row>
-    <row r="38" spans="2:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="2:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B38" t="s">
         <v>29</v>
       </c>
       <c r="C38">
-        <v>796</v>
+        <v>61</v>
       </c>
       <c r="D38">
         <v>207</v>
@@ -2190,12 +2185,12 @@
         <v>797</v>
       </c>
     </row>
-    <row r="39" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="39" spans="2:14" x14ac:dyDescent="0.4">
       <c r="B39" t="s">
         <v>30</v>
       </c>
       <c r="C39">
-        <v>511</v>
+        <v>-580</v>
       </c>
       <c r="D39">
         <v>-380</v>
@@ -2232,12 +2227,12 @@
         <v>511</v>
       </c>
     </row>
-    <row r="40" spans="2:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="2:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B40" t="s">
         <v>31</v>
       </c>
       <c r="C40">
-        <v>-2059</v>
+        <v>232</v>
       </c>
       <c r="D40">
         <v>-500</v>
@@ -2274,12 +2269,12 @@
         <v>-2059</v>
       </c>
     </row>
-    <row r="41" spans="2:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="2:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B41" t="s">
         <v>32</v>
       </c>
       <c r="C41">
-        <v>-707</v>
+        <v>1492</v>
       </c>
       <c r="D41">
         <v>-400</v>
@@ -2316,12 +2311,12 @@
         <v>-706</v>
       </c>
     </row>
-    <row r="42" spans="2:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="2:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B42" t="s">
         <v>33</v>
       </c>
       <c r="C42">
-        <v>218</v>
+        <v>0</v>
       </c>
       <c r="D42">
         <v>-361</v>
@@ -2358,12 +2353,12 @@
         <v>218</v>
       </c>
     </row>
-    <row r="43" spans="2:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="2:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B43" t="s">
         <v>34</v>
       </c>
       <c r="C43">
-        <v>1038</v>
+        <v>3889</v>
       </c>
       <c r="D43">
         <v>354</v>
@@ -2400,12 +2395,12 @@
         <v>1038</v>
       </c>
     </row>
-    <row r="44" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="44" spans="2:14" x14ac:dyDescent="0.4">
       <c r="B44" t="s">
         <v>35</v>
       </c>
       <c r="C44">
-        <v>-1637</v>
+        <v>3750</v>
       </c>
       <c r="D44">
         <v>-400</v>
@@ -2442,12 +2437,12 @@
         <v>-1637</v>
       </c>
     </row>
-    <row r="45" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="45" spans="2:14" x14ac:dyDescent="0.4">
       <c r="B45" t="s">
         <v>36</v>
       </c>
       <c r="C45">
-        <v>3299</v>
+        <v>-686</v>
       </c>
       <c r="D45">
         <v>-300</v>
@@ -2484,12 +2479,12 @@
         <v>3298</v>
       </c>
     </row>
-    <row r="46" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="46" spans="2:14" x14ac:dyDescent="0.4">
       <c r="B46" t="s">
         <v>37</v>
       </c>
       <c r="C46">
-        <v>3169</v>
+        <v>484</v>
       </c>
       <c r="D46">
         <v>-500</v>
@@ -2526,12 +2521,12 @@
         <v>3169</v>
       </c>
     </row>
-    <row r="47" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="47" spans="2:14" x14ac:dyDescent="0.4">
       <c r="B47" t="s">
         <v>38</v>
       </c>
       <c r="C47">
-        <v>1110</v>
+        <v>-291</v>
       </c>
       <c r="D47">
         <v>655</v>
@@ -2568,12 +2563,12 @@
         <v>1110</v>
       </c>
     </row>
-    <row r="48" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="48" spans="2:14" x14ac:dyDescent="0.4">
       <c r="B48" t="s">
         <v>39</v>
       </c>
       <c r="C48">
-        <v>-1655</v>
+        <v>0</v>
       </c>
       <c r="D48">
         <v>-260</v>
@@ -2606,12 +2601,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="49" spans="2:13" x14ac:dyDescent="0.4">
       <c r="B49" t="s">
         <v>40</v>
       </c>
       <c r="C49">
-        <v>-1390</v>
+        <v>-852</v>
       </c>
       <c r="D49">
         <v>-700</v>
@@ -2644,12 +2639,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="50" spans="2:13" x14ac:dyDescent="0.4">
       <c r="B50" t="s">
         <v>41</v>
       </c>
       <c r="C50">
-        <v>-1102</v>
+        <v>-1346</v>
       </c>
       <c r="D50">
         <v>-262</v>
@@ -2682,12 +2677,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="51" spans="2:13" x14ac:dyDescent="0.4">
       <c r="B51" t="s">
         <v>42</v>
       </c>
       <c r="C51">
-        <v>5424</v>
+        <v>-761</v>
       </c>
       <c r="D51">
         <v>-353</v>
@@ -2720,12 +2715,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="52" spans="2:13" x14ac:dyDescent="0.4">
       <c r="B52" t="s">
         <v>43</v>
       </c>
       <c r="C52">
-        <v>993</v>
+        <v>-799</v>
       </c>
       <c r="D52">
         <v>1198</v>
@@ -2758,12 +2753,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="53" spans="2:13" x14ac:dyDescent="0.4">
       <c r="B53" t="s">
         <v>44</v>
       </c>
       <c r="C53">
-        <v>821</v>
+        <v>1109</v>
       </c>
       <c r="D53">
         <v>-5</v>
@@ -2796,12 +2791,12 @@
         <v>-100</v>
       </c>
     </row>
-    <row r="54" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="54" spans="2:13" x14ac:dyDescent="0.4">
       <c r="B54" t="s">
         <v>50</v>
       </c>
       <c r="C54">
-        <v>0</v>
+        <v>-991</v>
       </c>
       <c r="D54">
         <v>0</v>
@@ -2831,6 +2826,36 @@
         <v>0</v>
       </c>
       <c r="M54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="2:13" x14ac:dyDescent="0.4">
+      <c r="C55">
+        <v>-572</v>
+      </c>
+    </row>
+    <row r="56" spans="2:13" x14ac:dyDescent="0.4">
+      <c r="C56">
+        <v>-952</v>
+      </c>
+    </row>
+    <row r="57" spans="2:13" x14ac:dyDescent="0.4">
+      <c r="C57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="2:13" x14ac:dyDescent="0.4">
+      <c r="C58">
+        <v>-572</v>
+      </c>
+    </row>
+    <row r="59" spans="2:13" x14ac:dyDescent="0.4">
+      <c r="C59">
+        <v>-952</v>
+      </c>
+    </row>
+    <row r="60" spans="2:13" x14ac:dyDescent="0.4">
+      <c r="C60">
         <v>0</v>
       </c>
     </row>
@@ -2857,14 +2882,14 @@
       <selection activeCell="O6" sqref="O6:Y48"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="2" max="2" width="25.125" customWidth="1"/>
-    <col min="3" max="13" width="6.25" customWidth="1"/>
-    <col min="15" max="24" width="6.25" customWidth="1"/>
+    <col min="2" max="2" width="25.09765625" customWidth="1"/>
+    <col min="3" max="13" width="6.19921875" customWidth="1"/>
+    <col min="15" max="24" width="6.19921875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:24" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:24" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B1" t="s">
         <v>0</v>
       </c>
@@ -2872,7 +2897,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="3" spans="2:24" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:24" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B3" s="1"/>
       <c r="C3" s="3" t="s">
         <v>1</v>
@@ -2888,7 +2913,7 @@
       <c r="U3" s="1"/>
       <c r="V3" s="1"/>
     </row>
-    <row r="4" spans="2:24" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:24" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B4" s="1" t="s">
         <v>46</v>
       </c>
@@ -2956,7 +2981,7 @@
         <v>2300</v>
       </c>
     </row>
-    <row r="5" spans="2:24" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:24" x14ac:dyDescent="0.4">
       <c r="B5" t="s">
         <v>45</v>
       </c>
@@ -3049,7 +3074,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="2:24" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:24" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B6" t="s">
         <v>3</v>
       </c>
@@ -3058,7 +3083,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="2:24" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:24" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B7" t="s">
         <v>4</v>
       </c>
@@ -3067,7 +3092,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="2:24" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:24" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B8" t="s">
         <v>5</v>
       </c>
@@ -3076,7 +3101,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="2:24" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:24" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B9" t="s">
         <v>6</v>
       </c>
@@ -3085,7 +3110,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="2:24" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:24" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B10" t="s">
         <v>7</v>
       </c>
@@ -3094,7 +3119,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="2:24" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:24" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B11" t="s">
         <v>8</v>
       </c>
@@ -3103,7 +3128,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="2:24" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:24" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B12" t="s">
         <v>9</v>
       </c>
@@ -3112,7 +3137,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="2:24" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:24" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B13" t="s">
         <v>10</v>
       </c>
@@ -3121,7 +3146,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="2:24" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:24" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B14" t="s">
         <v>11</v>
       </c>
@@ -3130,7 +3155,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="2:24" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:24" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B15" t="s">
         <v>12</v>
       </c>
@@ -3139,7 +3164,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="2:24" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:24" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B16" t="s">
         <v>13</v>
       </c>
@@ -3148,7 +3173,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:14" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B17" t="s">
         <v>14</v>
       </c>
@@ -3157,7 +3182,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:14" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B18" t="s">
         <v>15</v>
       </c>
@@ -3166,7 +3191,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:14" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B19" t="s">
         <v>16</v>
       </c>
@@ -3175,7 +3200,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:14" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B20" t="s">
         <v>17</v>
       </c>
@@ -3184,7 +3209,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:14" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B21" t="s">
         <v>18</v>
       </c>
@@ -3193,7 +3218,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:14" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B22" t="s">
         <v>19</v>
       </c>
@@ -3202,7 +3227,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:14" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B23" t="s">
         <v>20</v>
       </c>
@@ -3211,7 +3236,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:14" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B24" t="s">
         <v>21</v>
       </c>
@@ -3220,7 +3245,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:14" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B25" t="s">
         <v>22</v>
       </c>
@@ -3229,7 +3254,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:14" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B26" t="s">
         <v>23</v>
       </c>
@@ -3238,7 +3263,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:14" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B27" t="s">
         <v>24</v>
       </c>
@@ -3247,7 +3272,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:14" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B28" t="s">
         <v>25</v>
       </c>
@@ -3256,7 +3281,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:14" x14ac:dyDescent="0.4">
       <c r="B29" t="s">
         <v>26</v>
       </c>
@@ -3265,7 +3290,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:14" x14ac:dyDescent="0.4">
       <c r="B30" t="s">
         <v>27</v>
       </c>
@@ -3274,7 +3299,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:14" x14ac:dyDescent="0.4">
       <c r="B31" t="s">
         <v>28</v>
       </c>
@@ -3283,7 +3308,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:14" x14ac:dyDescent="0.4">
       <c r="B32" t="s">
         <v>29</v>
       </c>
@@ -3292,7 +3317,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:14" x14ac:dyDescent="0.4">
       <c r="B33" t="s">
         <v>30</v>
       </c>
@@ -3301,7 +3326,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:14" x14ac:dyDescent="0.4">
       <c r="B34" t="s">
         <v>31</v>
       </c>
@@ -3310,7 +3335,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:14" x14ac:dyDescent="0.4">
       <c r="B35" t="s">
         <v>32</v>
       </c>
@@ -3319,7 +3344,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="36" spans="2:14" x14ac:dyDescent="0.4">
       <c r="B36" t="s">
         <v>33</v>
       </c>
@@ -3328,7 +3353,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="37" spans="2:14" x14ac:dyDescent="0.4">
       <c r="B37" t="s">
         <v>34</v>
       </c>
@@ -3337,7 +3362,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="38" spans="2:14" x14ac:dyDescent="0.4">
       <c r="B38" t="s">
         <v>35</v>
       </c>
@@ -3346,7 +3371,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="39" spans="2:14" x14ac:dyDescent="0.4">
       <c r="B39" t="s">
         <v>36</v>
       </c>
@@ -3355,7 +3380,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="40" spans="2:14" x14ac:dyDescent="0.4">
       <c r="B40" t="s">
         <v>37</v>
       </c>
@@ -3364,7 +3389,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="41" spans="2:14" x14ac:dyDescent="0.4">
       <c r="B41" t="s">
         <v>38</v>
       </c>
@@ -3373,7 +3398,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="42" spans="2:14" x14ac:dyDescent="0.4">
       <c r="B42" t="s">
         <v>39</v>
       </c>
@@ -3382,7 +3407,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="43" spans="2:14" x14ac:dyDescent="0.4">
       <c r="B43" t="s">
         <v>40</v>
       </c>
@@ -3391,7 +3416,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="44" spans="2:14" x14ac:dyDescent="0.4">
       <c r="B44" t="s">
         <v>41</v>
       </c>
@@ -3400,7 +3425,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="45" spans="2:14" x14ac:dyDescent="0.4">
       <c r="B45" t="s">
         <v>42</v>
       </c>
@@ -3409,7 +3434,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="46" spans="2:14" x14ac:dyDescent="0.4">
       <c r="B46" t="s">
         <v>43</v>
       </c>
@@ -3418,7 +3443,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="47" spans="2:14" x14ac:dyDescent="0.4">
       <c r="B47" t="s">
         <v>44</v>
       </c>
@@ -3450,21 +3475,21 @@
       <selection activeCell="O6" sqref="O6:Z50"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="2" max="2" width="25.125" customWidth="1"/>
-    <col min="3" max="3" width="6.25" customWidth="1"/>
-    <col min="4" max="4" width="7.25" customWidth="1"/>
-    <col min="5" max="7" width="6.25" customWidth="1"/>
+    <col min="2" max="2" width="25.09765625" customWidth="1"/>
+    <col min="3" max="3" width="6.19921875" customWidth="1"/>
+    <col min="4" max="4" width="7.19921875" customWidth="1"/>
+    <col min="5" max="7" width="6.19921875" customWidth="1"/>
     <col min="8" max="8" width="7" customWidth="1"/>
-    <col min="9" max="13" width="6.25" customWidth="1"/>
-    <col min="15" max="15" width="7.25" customWidth="1"/>
-    <col min="16" max="18" width="6.25" customWidth="1"/>
+    <col min="9" max="13" width="6.19921875" customWidth="1"/>
+    <col min="15" max="15" width="7.19921875" customWidth="1"/>
+    <col min="16" max="18" width="6.19921875" customWidth="1"/>
     <col min="19" max="19" width="7" customWidth="1"/>
-    <col min="20" max="24" width="6.25" customWidth="1"/>
+    <col min="20" max="24" width="6.19921875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:24" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:24" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B1" t="s">
         <v>0</v>
       </c>
@@ -3472,7 +3497,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="3" spans="2:24" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:24" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B3" s="1"/>
       <c r="C3" s="3" t="s">
         <v>1</v>
@@ -3488,7 +3513,7 @@
       <c r="U3" s="1"/>
       <c r="V3" s="1"/>
     </row>
-    <row r="4" spans="2:24" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:24" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B4" s="1" t="s">
         <v>46</v>
       </c>
@@ -3556,7 +3581,7 @@
         <v>2300</v>
       </c>
     </row>
-    <row r="5" spans="2:24" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:24" x14ac:dyDescent="0.4">
       <c r="B5" t="s">
         <v>45</v>
       </c>
@@ -3649,7 +3674,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="2:24" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:24" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B6" t="s">
         <v>3</v>
       </c>
@@ -3658,7 +3683,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="2:24" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:24" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B7" t="s">
         <v>4</v>
       </c>
@@ -3667,7 +3692,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="2:24" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:24" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B8" t="s">
         <v>5</v>
       </c>
@@ -3676,7 +3701,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="2:24" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:24" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B9" t="s">
         <v>6</v>
       </c>
@@ -3685,7 +3710,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="2:24" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:24" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B10" t="s">
         <v>7</v>
       </c>
@@ -3694,7 +3719,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="2:24" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:24" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B11" t="s">
         <v>8</v>
       </c>
@@ -3703,7 +3728,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="2:24" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:24" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B12" t="s">
         <v>9</v>
       </c>
@@ -3712,7 +3737,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="2:24" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:24" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B13" t="s">
         <v>10</v>
       </c>
@@ -3721,7 +3746,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="2:24" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:24" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B14" t="s">
         <v>11</v>
       </c>
@@ -3730,7 +3755,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="2:24" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:24" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B15" t="s">
         <v>12</v>
       </c>
@@ -3739,7 +3764,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="2:24" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:24" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B16" t="s">
         <v>13</v>
       </c>
@@ -3748,7 +3773,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:14" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B17" t="s">
         <v>14</v>
       </c>
@@ -3757,7 +3782,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:14" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B18" t="s">
         <v>15</v>
       </c>
@@ -3766,7 +3791,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:14" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B19" t="s">
         <v>16</v>
       </c>
@@ -3775,7 +3800,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:14" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B20" t="s">
         <v>17</v>
       </c>
@@ -3784,7 +3809,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:14" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B21" t="s">
         <v>18</v>
       </c>
@@ -3793,7 +3818,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:14" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B22" t="s">
         <v>19</v>
       </c>
@@ -3802,7 +3827,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:14" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B23" t="s">
         <v>20</v>
       </c>
@@ -3811,7 +3836,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:14" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B24" t="s">
         <v>21</v>
       </c>
@@ -3820,7 +3845,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:14" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B25" t="s">
         <v>22</v>
       </c>
@@ -3829,7 +3854,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:14" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B26" t="s">
         <v>23</v>
       </c>
@@ -3838,7 +3863,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:14" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B27" t="s">
         <v>24</v>
       </c>
@@ -3847,7 +3872,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:14" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B28" t="s">
         <v>25</v>
       </c>
@@ -3856,7 +3881,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:14" x14ac:dyDescent="0.4">
       <c r="B29" t="s">
         <v>26</v>
       </c>
@@ -3865,7 +3890,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:14" x14ac:dyDescent="0.4">
       <c r="B30" t="s">
         <v>27</v>
       </c>
@@ -3874,7 +3899,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:14" x14ac:dyDescent="0.4">
       <c r="B31" t="s">
         <v>28</v>
       </c>
@@ -3883,7 +3908,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:14" x14ac:dyDescent="0.4">
       <c r="B32" t="s">
         <v>29</v>
       </c>
@@ -3892,7 +3917,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:14" x14ac:dyDescent="0.4">
       <c r="B33" t="s">
         <v>30</v>
       </c>
@@ -3901,7 +3926,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:14" x14ac:dyDescent="0.4">
       <c r="B34" t="s">
         <v>31</v>
       </c>
@@ -3910,7 +3935,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:14" x14ac:dyDescent="0.4">
       <c r="B35" t="s">
         <v>32</v>
       </c>
@@ -3919,7 +3944,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="36" spans="2:14" x14ac:dyDescent="0.4">
       <c r="B36" t="s">
         <v>33</v>
       </c>
@@ -3928,7 +3953,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="37" spans="2:14" x14ac:dyDescent="0.4">
       <c r="B37" t="s">
         <v>34</v>
       </c>
@@ -3937,7 +3962,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="38" spans="2:14" x14ac:dyDescent="0.4">
       <c r="B38" t="s">
         <v>35</v>
       </c>
@@ -3946,7 +3971,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="39" spans="2:14" x14ac:dyDescent="0.4">
       <c r="B39" t="s">
         <v>36</v>
       </c>
@@ -3955,7 +3980,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="40" spans="2:14" x14ac:dyDescent="0.4">
       <c r="B40" t="s">
         <v>37</v>
       </c>
@@ -3964,7 +3989,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="41" spans="2:14" x14ac:dyDescent="0.4">
       <c r="B41" t="s">
         <v>38</v>
       </c>
@@ -3973,7 +3998,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="42" spans="2:14" x14ac:dyDescent="0.4">
       <c r="B42" t="s">
         <v>39</v>
       </c>
@@ -3982,7 +4007,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="43" spans="2:14" x14ac:dyDescent="0.4">
       <c r="B43" t="s">
         <v>40</v>
       </c>
@@ -3991,7 +4016,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="44" spans="2:14" x14ac:dyDescent="0.4">
       <c r="B44" t="s">
         <v>41</v>
       </c>
@@ -4000,7 +4025,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="45" spans="2:14" x14ac:dyDescent="0.4">
       <c r="B45" t="s">
         <v>42</v>
       </c>
@@ -4009,7 +4034,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="46" spans="2:14" x14ac:dyDescent="0.4">
       <c r="B46" t="s">
         <v>43</v>
       </c>
@@ -4018,7 +4043,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="47" spans="2:14" x14ac:dyDescent="0.4">
       <c r="B47" t="s">
         <v>44</v>
       </c>
@@ -4049,13 +4074,13 @@
       <selection activeCell="C4" sqref="C4:M5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="2" max="2" width="25.125" customWidth="1"/>
-    <col min="3" max="13" width="6.25" customWidth="1"/>
+    <col min="2" max="2" width="25.09765625" customWidth="1"/>
+    <col min="3" max="13" width="6.19921875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:13" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B1" t="s">
         <v>0</v>
       </c>
@@ -4063,7 +4088,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="3" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:13" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B3" s="1"/>
       <c r="C3" s="3" t="s">
         <v>1</v>
@@ -4077,7 +4102,7 @@
       <c r="J3" s="1"/>
       <c r="K3" s="1"/>
     </row>
-    <row r="4" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:13" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B4" s="1" t="s">
         <v>46</v>
       </c>
@@ -4115,7 +4140,7 @@
         <v>2300</v>
       </c>
     </row>
-    <row r="5" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:13" x14ac:dyDescent="0.4">
       <c r="B5" t="s">
         <v>45</v>
       </c>
@@ -4164,212 +4189,212 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:13" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B6" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:13" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B7" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:13" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B8" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:13" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B9" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="10" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:13" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B10" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="11" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:13" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B11" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="12" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:13" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B12" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="13" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:13" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B13" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="14" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:13" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B14" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="15" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:13" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B15" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="16" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:13" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B16" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="17" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:2" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B17" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="18" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:2" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B18" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="19" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:2" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B19" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="20" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:2" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B20" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="21" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:2" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B21" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="22" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:2" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B22" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="23" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:2" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B23" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="24" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:2" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B24" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="25" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:2" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B25" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="26" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:2" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B26" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="27" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:2" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B27" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="28" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:2" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B28" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="29" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B29" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="30" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B30" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="31" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B31" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="32" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B32" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="33" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B33" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="34" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B34" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="35" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B35" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="36" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="36" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B36" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="37" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="37" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B37" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="38" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="38" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B38" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="39" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="39" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B39" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="40" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="40" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B40" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="41" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="41" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B41" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="42" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="42" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B42" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="43" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="43" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B43" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="44" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="44" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B44" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="45" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="45" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B45" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="46" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="46" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B46" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="47" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="47" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B47" t="s">
         <v>44</v>
       </c>
@@ -4391,13 +4416,13 @@
       <selection activeCell="C4" sqref="C4:M5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="2" max="2" width="25.125" customWidth="1"/>
-    <col min="3" max="13" width="6.25" customWidth="1"/>
+    <col min="2" max="2" width="25.09765625" customWidth="1"/>
+    <col min="3" max="13" width="6.19921875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:13" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B1" t="s">
         <v>0</v>
       </c>
@@ -4405,7 +4430,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="3" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:13" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B3" s="1"/>
       <c r="C3" s="3" t="s">
         <v>1</v>
@@ -4419,7 +4444,7 @@
       <c r="J3" s="1"/>
       <c r="K3" s="1"/>
     </row>
-    <row r="4" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:13" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B4" s="1" t="s">
         <v>46</v>
       </c>
@@ -4457,7 +4482,7 @@
         <v>2300</v>
       </c>
     </row>
-    <row r="5" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:13" x14ac:dyDescent="0.4">
       <c r="B5" t="s">
         <v>45</v>
       </c>
@@ -4506,212 +4531,212 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:13" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B6" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:13" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B7" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:13" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B8" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:13" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B9" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="10" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:13" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B10" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="11" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:13" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B11" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="12" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:13" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B12" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="13" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:13" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B13" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="14" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:13" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B14" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="15" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:13" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B15" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="16" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:13" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B16" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="17" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:2" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B17" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="18" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:2" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B18" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="19" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:2" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B19" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="20" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:2" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B20" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="21" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:2" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B21" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="22" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:2" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B22" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="23" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:2" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B23" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="24" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:2" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B24" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="25" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:2" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B25" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="26" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:2" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B26" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="27" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:2" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B27" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="28" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:2" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B28" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="29" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B29" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="30" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B30" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="31" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B31" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="32" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B32" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="33" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B33" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="34" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B34" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="35" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B35" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="36" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="36" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B36" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="37" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="37" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B37" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="38" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="38" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B38" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="39" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="39" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B39" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="40" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="40" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B40" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="41" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="41" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B41" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="42" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="42" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B42" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="43" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="43" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B43" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="44" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="44" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B44" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="45" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="45" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B45" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="46" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="46" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B46" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="47" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="47" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B47" t="s">
         <v>44</v>
       </c>
@@ -4734,13 +4759,13 @@
       <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="2" max="2" width="25.125" customWidth="1"/>
-    <col min="3" max="13" width="6.25" customWidth="1"/>
+    <col min="2" max="2" width="25.09765625" customWidth="1"/>
+    <col min="3" max="13" width="6.19921875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:13" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B1" t="s">
         <v>0</v>
       </c>
@@ -4748,7 +4773,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="3" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:13" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B3" s="1"/>
       <c r="C3" s="3" t="s">
         <v>1</v>
@@ -4762,7 +4787,7 @@
       <c r="J3" s="1"/>
       <c r="K3" s="1"/>
     </row>
-    <row r="4" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:13" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B4" s="1" t="s">
         <v>46</v>
       </c>
@@ -4800,7 +4825,7 @@
         <v>2300</v>
       </c>
     </row>
-    <row r="5" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:13" x14ac:dyDescent="0.4">
       <c r="B5" t="s">
         <v>45</v>
       </c>
@@ -4849,212 +4874,212 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:13" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B6" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:13" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B7" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:13" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B8" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:13" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B9" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="10" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:13" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B10" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="11" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:13" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B11" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="12" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:13" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B12" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="13" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:13" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B13" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="14" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:13" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B14" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="15" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:13" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B15" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="16" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:13" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B16" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="17" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:2" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B17" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="18" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:2" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B18" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="19" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:2" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B19" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="20" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:2" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B20" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="21" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:2" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B21" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="22" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:2" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B22" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="23" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:2" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B23" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="24" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:2" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B24" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="25" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:2" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B25" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="26" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:2" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B26" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="27" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:2" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B27" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="28" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:2" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B28" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="29" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B29" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="30" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B30" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="31" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B31" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="32" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B32" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="33" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B33" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="34" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B34" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="35" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B35" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="36" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="36" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B36" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="37" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="37" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B37" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="38" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="38" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B38" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="39" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="39" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B39" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="40" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="40" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B40" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="41" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="41" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B41" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="42" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="42" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B42" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="43" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="43" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B43" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="44" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="44" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B44" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="45" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="45" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B45" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="46" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="46" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B46" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="47" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="47" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B47" t="s">
         <v>44</v>
       </c>
@@ -5076,18 +5101,18 @@
       <selection activeCell="L5" sqref="L5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="5.125" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="5.09765625" defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="2" max="2" width="24.625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="24.59765625" bestFit="1" customWidth="1"/>
     <col min="3" max="4" width="7" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.3984375" bestFit="1" customWidth="1"/>
     <col min="6" max="8" width="3.5" bestFit="1" customWidth="1"/>
-    <col min="9" max="28" width="6.25" customWidth="1"/>
-    <col min="29" max="29" width="7.125" customWidth="1"/>
-    <col min="30" max="68" width="6.25" customWidth="1"/>
+    <col min="9" max="28" width="6.19921875" customWidth="1"/>
+    <col min="29" max="29" width="7.09765625" customWidth="1"/>
+    <col min="30" max="68" width="6.19921875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:68" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:68" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B1" t="s">
         <v>0</v>
       </c>
@@ -5095,7 +5120,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="3" spans="2:68" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:68" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B3" s="1"/>
       <c r="C3" s="3"/>
       <c r="D3" s="3"/>
@@ -5104,7 +5129,7 @@
       <c r="G3" s="3"/>
       <c r="H3" s="3"/>
     </row>
-    <row r="4" spans="2:68" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:68" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B4" s="1" t="s">
         <v>46</v>
       </c>
@@ -5307,7 +5332,7 @@
         <v>2300</v>
       </c>
     </row>
-    <row r="5" spans="2:68" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:68" x14ac:dyDescent="0.4">
       <c r="B5" t="s">
         <v>45</v>
       </c>
@@ -5576,7 +5601,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="2:68" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:68" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B6" t="s">
         <v>3</v>
       </c>
@@ -5779,7 +5804,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="2:68" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:68" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B7" t="s">
         <v>4</v>
       </c>
@@ -5982,7 +6007,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="2:68" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:68" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B8" t="s">
         <v>5</v>
       </c>
@@ -6185,7 +6210,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="2:68" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:68" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B9" t="s">
         <v>6</v>
       </c>
@@ -6388,7 +6413,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="2:68" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:68" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B10" t="s">
         <v>7</v>
       </c>
@@ -6591,7 +6616,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="2:68" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:68" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B11" t="s">
         <v>8</v>
       </c>
@@ -6794,7 +6819,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="2:68" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:68" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B12" t="s">
         <v>9</v>
       </c>
@@ -6997,7 +7022,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="2:68" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:68" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B13" t="s">
         <v>10</v>
       </c>
@@ -7200,7 +7225,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="2:68" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:68" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B14" t="s">
         <v>11</v>
       </c>
@@ -7403,7 +7428,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="2:68" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:68" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B15" t="s">
         <v>12</v>
       </c>
@@ -7606,7 +7631,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="2:68" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:68" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B16" t="s">
         <v>13</v>
       </c>
@@ -7809,7 +7834,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="2:68" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:68" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B17" t="s">
         <v>14</v>
       </c>
@@ -8012,7 +8037,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="2:68" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:68" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B18" t="s">
         <v>15</v>
       </c>
@@ -8215,7 +8240,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="2:68" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:68" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B19" t="s">
         <v>16</v>
       </c>
@@ -8418,7 +8443,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="2:68" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:68" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B20" t="s">
         <v>17</v>
       </c>
@@ -8621,7 +8646,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="2:68" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:68" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B21" t="s">
         <v>18</v>
       </c>
@@ -8824,7 +8849,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="2:68" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:68" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B22" t="s">
         <v>19</v>
       </c>
@@ -9027,7 +9052,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="2:68" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:68" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B23" t="s">
         <v>20</v>
       </c>
@@ -9230,7 +9255,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="2:68" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:68" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B24" t="s">
         <v>21</v>
       </c>
@@ -9433,7 +9458,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="2:68" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:68" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B25" t="s">
         <v>22</v>
       </c>
@@ -9636,7 +9661,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="2:68" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:68" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B26" t="s">
         <v>23</v>
       </c>
@@ -9839,7 +9864,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="2:68" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:68" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B27" t="s">
         <v>24</v>
       </c>
@@ -10042,7 +10067,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="2:68" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:68" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B28" t="s">
         <v>25</v>
       </c>
@@ -10245,7 +10270,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="2:68" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:68" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B29" t="s">
         <v>26</v>
       </c>
@@ -10448,7 +10473,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="2:68" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:68" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B30" t="s">
         <v>27</v>
       </c>
@@ -10651,7 +10676,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="2:68" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:68" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B31" t="s">
         <v>28</v>
       </c>
@@ -10854,7 +10879,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="2:68" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:68" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B32" t="s">
         <v>29</v>
       </c>
@@ -11057,7 +11082,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="2:68" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:68" x14ac:dyDescent="0.4">
       <c r="B33" t="s">
         <v>30</v>
       </c>
@@ -11260,7 +11285,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="2:68" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:68" x14ac:dyDescent="0.4">
       <c r="B34" t="s">
         <v>31</v>
       </c>
@@ -11463,7 +11488,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="2:68" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:68" x14ac:dyDescent="0.4">
       <c r="B35" t="s">
         <v>32</v>
       </c>
@@ -11666,7 +11691,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="2:68" x14ac:dyDescent="0.3">
+    <row r="36" spans="2:68" x14ac:dyDescent="0.4">
       <c r="B36" t="s">
         <v>33</v>
       </c>
@@ -11869,7 +11894,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="2:68" x14ac:dyDescent="0.3">
+    <row r="37" spans="2:68" x14ac:dyDescent="0.4">
       <c r="B37" t="s">
         <v>34</v>
       </c>
@@ -12072,7 +12097,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="2:68" x14ac:dyDescent="0.3">
+    <row r="38" spans="2:68" x14ac:dyDescent="0.4">
       <c r="B38" t="s">
         <v>35</v>
       </c>
@@ -12275,7 +12300,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="2:68" x14ac:dyDescent="0.3">
+    <row r="39" spans="2:68" x14ac:dyDescent="0.4">
       <c r="B39" t="s">
         <v>36</v>
       </c>
@@ -12478,7 +12503,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="2:68" x14ac:dyDescent="0.3">
+    <row r="40" spans="2:68" x14ac:dyDescent="0.4">
       <c r="B40" t="s">
         <v>37</v>
       </c>
@@ -12681,7 +12706,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="2:68" x14ac:dyDescent="0.3">
+    <row r="41" spans="2:68" x14ac:dyDescent="0.4">
       <c r="B41" t="s">
         <v>38</v>
       </c>
@@ -12884,7 +12909,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="2:68" x14ac:dyDescent="0.3">
+    <row r="42" spans="2:68" x14ac:dyDescent="0.4">
       <c r="B42" t="s">
         <v>39</v>
       </c>
@@ -13087,7 +13112,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="2:68" x14ac:dyDescent="0.3">
+    <row r="43" spans="2:68" x14ac:dyDescent="0.4">
       <c r="B43" t="s">
         <v>40</v>
       </c>
@@ -13290,7 +13315,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="2:68" x14ac:dyDescent="0.3">
+    <row r="44" spans="2:68" x14ac:dyDescent="0.4">
       <c r="B44" t="s">
         <v>41</v>
       </c>
@@ -13493,7 +13518,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="2:68" x14ac:dyDescent="0.3">
+    <row r="45" spans="2:68" x14ac:dyDescent="0.4">
       <c r="B45" t="s">
         <v>42</v>
       </c>
@@ -13696,7 +13721,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="2:68" x14ac:dyDescent="0.3">
+    <row r="46" spans="2:68" x14ac:dyDescent="0.4">
       <c r="B46" t="s">
         <v>43</v>
       </c>
@@ -13899,7 +13924,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="2:68" x14ac:dyDescent="0.3">
+    <row r="47" spans="2:68" x14ac:dyDescent="0.4">
       <c r="B47" t="s">
         <v>44</v>
       </c>
@@ -14113,86 +14138,80 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:G49"/>
+  <dimension ref="B1:H58"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J17" sqref="J17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="1" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B1">
-        <v>777</v>
-      </c>
-      <c r="C1">
+    <row r="1" spans="2:8" ht="16.5" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="2:8" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="B2">
+        <f t="shared" ref="B2:H2" si="0">SUM(B3:B97)</f>
+        <v>42145</v>
+      </c>
+      <c r="C2">
+        <f t="shared" si="0"/>
+        <v>-6494</v>
+      </c>
+      <c r="D2">
+        <f t="shared" si="0"/>
+        <v>-35024</v>
+      </c>
+      <c r="E2">
+        <f t="shared" si="0"/>
+        <v>-41430</v>
+      </c>
+      <c r="F2">
+        <f t="shared" si="0"/>
+        <v>-50614</v>
+      </c>
+      <c r="G2">
+        <f t="shared" si="0"/>
+        <v>-5140</v>
+      </c>
+      <c r="H2">
+        <f t="shared" si="0"/>
+        <v>36128</v>
+      </c>
+    </row>
+    <row r="3" spans="2:8" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="B3">
+        <v>1477</v>
+      </c>
+      <c r="C3">
         <v>1150</v>
       </c>
-      <c r="D1">
+      <c r="D3">
         <v>962</v>
       </c>
-      <c r="E1">
+      <c r="E3">
         <v>-2400</v>
       </c>
-      <c r="F1">
+      <c r="F3">
         <v>1660</v>
       </c>
-      <c r="G1">
-        <v>-2400</v>
-      </c>
-    </row>
-    <row r="2" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B2">
-        <v>2540</v>
-      </c>
-      <c r="C2">
+      <c r="G3">
+        <v>-564</v>
+      </c>
+      <c r="H3">
+        <v>4623</v>
+      </c>
+    </row>
+    <row r="4" spans="2:8" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="B4">
+        <v>3040</v>
+      </c>
+      <c r="C4">
         <v>-60</v>
       </c>
-      <c r="D2">
+      <c r="D4">
         <v>-2000</v>
       </c>
-      <c r="E2">
+      <c r="E4">
         <v>-1970</v>
-      </c>
-      <c r="F2">
-        <v>-2300</v>
-      </c>
-      <c r="G2">
-        <v>-2300</v>
-      </c>
-    </row>
-    <row r="3" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B3">
-        <v>-1398</v>
-      </c>
-      <c r="C3">
-        <v>-440</v>
-      </c>
-      <c r="D3">
-        <v>-1550</v>
-      </c>
-      <c r="E3">
-        <v>-2300</v>
-      </c>
-      <c r="F3">
-        <v>-1880</v>
-      </c>
-      <c r="G3">
-        <v>-2300</v>
-      </c>
-    </row>
-    <row r="4" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B4">
-        <v>-1912</v>
-      </c>
-      <c r="C4">
-        <v>-700</v>
-      </c>
-      <c r="D4">
-        <v>-2300</v>
-      </c>
-      <c r="E4">
-        <v>3498</v>
       </c>
       <c r="F4">
         <v>-2300</v>
@@ -14200,399 +14219,459 @@
       <c r="G4">
         <v>-2300</v>
       </c>
-    </row>
-    <row r="5" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="H4">
+        <v>4116</v>
+      </c>
+    </row>
+    <row r="5" spans="2:8" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B5">
-        <v>2598</v>
+        <v>-898</v>
       </c>
       <c r="C5">
+        <v>-440</v>
+      </c>
+      <c r="D5">
+        <v>-1550</v>
+      </c>
+      <c r="E5">
+        <v>-2300</v>
+      </c>
+      <c r="F5">
+        <v>-1880</v>
+      </c>
+      <c r="G5">
+        <v>2730</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="2:8" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="B6">
+        <v>-1312</v>
+      </c>
+      <c r="C6">
+        <v>-700</v>
+      </c>
+      <c r="D6">
+        <v>-2300</v>
+      </c>
+      <c r="E6">
+        <v>3498</v>
+      </c>
+      <c r="F6">
+        <v>-2300</v>
+      </c>
+      <c r="G6">
+        <v>-2300</v>
+      </c>
+      <c r="H6">
+        <v>-20</v>
+      </c>
+    </row>
+    <row r="7" spans="2:8" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="B7">
+        <v>3098</v>
+      </c>
+      <c r="C7">
         <v>330</v>
       </c>
-      <c r="D5">
+      <c r="D7">
         <v>1780</v>
       </c>
-      <c r="E5">
+      <c r="E7">
         <v>-696</v>
       </c>
-      <c r="F5">
+      <c r="F7">
         <v>-2900</v>
       </c>
-      <c r="G5">
-        <v>-2900</v>
-      </c>
-    </row>
-    <row r="6" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B6">
-        <v>-1653</v>
-      </c>
-      <c r="C6">
+      <c r="G7">
+        <v>-2060</v>
+      </c>
+      <c r="H7">
+        <v>1139</v>
+      </c>
+    </row>
+    <row r="8" spans="2:8" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="B8">
+        <v>0</v>
+      </c>
+      <c r="C8">
+        <v>0</v>
+      </c>
+      <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
+        <v>0</v>
+      </c>
+      <c r="F8">
+        <v>0</v>
+      </c>
+      <c r="G8">
+        <v>0</v>
+      </c>
+      <c r="H8">
+        <v>-2138</v>
+      </c>
+    </row>
+    <row r="9" spans="2:8" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="B9">
+        <v>-1453</v>
+      </c>
+      <c r="C9">
         <v>-970</v>
       </c>
-      <c r="D6">
+      <c r="D9">
         <v>-1900</v>
       </c>
-      <c r="E6">
+      <c r="E9">
         <v>-380</v>
       </c>
-      <c r="F6">
+      <c r="F9">
         <v>-1900</v>
       </c>
-      <c r="G6">
+      <c r="G9">
         <v>-1900</v>
       </c>
-    </row>
-    <row r="7" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B7">
-        <v>1759</v>
-      </c>
-      <c r="C7">
+      <c r="H9">
+        <v>-796</v>
+      </c>
+    </row>
+    <row r="10" spans="2:8" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="B10">
+        <v>2339</v>
+      </c>
+      <c r="C10">
         <v>-380</v>
       </c>
-      <c r="D7">
+      <c r="D10">
         <v>-1230</v>
       </c>
-      <c r="E7">
+      <c r="E10">
         <v>280</v>
       </c>
-      <c r="F7">
+      <c r="F10">
         <v>-1070</v>
       </c>
-      <c r="G7">
+      <c r="G10">
+        <v>-320</v>
+      </c>
+      <c r="H10">
+        <v>5310</v>
+      </c>
+    </row>
+    <row r="11" spans="2:8" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="B11">
+        <v>-2002</v>
+      </c>
+      <c r="C11">
+        <v>-500</v>
+      </c>
+      <c r="D11">
+        <v>-1960</v>
+      </c>
+      <c r="E11">
+        <v>590</v>
+      </c>
+      <c r="F11">
+        <v>-1550</v>
+      </c>
+      <c r="G11">
+        <v>540</v>
+      </c>
+      <c r="H11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="2:8" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="B12">
+        <v>4407</v>
+      </c>
+      <c r="C12">
+        <v>850</v>
+      </c>
+      <c r="D12">
+        <v>-130</v>
+      </c>
+      <c r="E12">
         <v>-2300</v>
       </c>
-    </row>
-    <row r="8" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B8">
-        <v>-2002</v>
-      </c>
-      <c r="C8">
-        <v>-500</v>
-      </c>
-      <c r="D8">
-        <v>-1960</v>
-      </c>
-      <c r="E8">
-        <v>590</v>
-      </c>
-      <c r="F8">
-        <v>-1550</v>
-      </c>
-      <c r="G8">
+      <c r="F12">
+        <v>-240</v>
+      </c>
+      <c r="G12">
         <v>-2300</v>
       </c>
-    </row>
-    <row r="9" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B9">
-        <v>4107</v>
-      </c>
-      <c r="C9">
-        <v>850</v>
-      </c>
-      <c r="D9">
-        <v>-130</v>
-      </c>
-      <c r="E9">
-        <v>-2300</v>
-      </c>
-      <c r="F9">
-        <v>-240</v>
-      </c>
-      <c r="G9">
-        <v>-2300</v>
-      </c>
-    </row>
-    <row r="10" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B10">
-        <v>3601</v>
-      </c>
-      <c r="C10">
+      <c r="H12">
+        <v>-2122</v>
+      </c>
+    </row>
+    <row r="13" spans="2:8" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="B13">
+        <v>3881</v>
+      </c>
+      <c r="C13">
         <v>-1030</v>
       </c>
-      <c r="D10">
+      <c r="D13">
         <v>-650</v>
       </c>
-      <c r="E10">
+      <c r="E13">
         <v>-1400</v>
       </c>
-      <c r="F10">
+      <c r="F13">
         <v>-2400</v>
       </c>
-      <c r="G10">
-        <v>-2400</v>
-      </c>
-    </row>
-    <row r="11" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B11">
-        <v>2487</v>
-      </c>
-      <c r="C11">
+      <c r="G13">
+        <v>1956</v>
+      </c>
+      <c r="H13">
+        <v>1326</v>
+      </c>
+    </row>
+    <row r="14" spans="2:8" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="B14">
+        <v>0</v>
+      </c>
+      <c r="C14">
+        <v>0</v>
+      </c>
+      <c r="D14">
+        <v>0</v>
+      </c>
+      <c r="E14">
+        <v>0</v>
+      </c>
+      <c r="F14">
+        <v>0</v>
+      </c>
+      <c r="G14">
+        <v>0</v>
+      </c>
+      <c r="H14">
+        <v>4528</v>
+      </c>
+    </row>
+    <row r="15" spans="2:8" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="B15">
+        <v>2371</v>
+      </c>
+      <c r="C15">
         <v>600</v>
       </c>
-      <c r="D11">
+      <c r="D15">
         <v>-1540</v>
       </c>
-      <c r="E11">
+      <c r="E15">
         <v>-1770</v>
       </c>
-      <c r="F11">
+      <c r="F15">
         <v>-1760</v>
       </c>
-      <c r="G11">
-        <v>-2300</v>
-      </c>
-    </row>
-    <row r="12" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B12">
-        <v>2068</v>
-      </c>
-      <c r="C12">
+      <c r="G15">
+        <v>800</v>
+      </c>
+      <c r="H15">
+        <v>1030</v>
+      </c>
+    </row>
+    <row r="16" spans="2:8" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="B16">
+        <v>2248</v>
+      </c>
+      <c r="C16">
         <v>-510</v>
-      </c>
-      <c r="D12">
-        <v>-580</v>
-      </c>
-      <c r="E12">
-        <v>-2400</v>
-      </c>
-      <c r="F12">
-        <v>396</v>
-      </c>
-      <c r="G12">
-        <v>-2400</v>
-      </c>
-    </row>
-    <row r="13" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B13">
-        <v>-19</v>
-      </c>
-      <c r="C13">
-        <v>-1050</v>
-      </c>
-      <c r="D13">
-        <v>-2000</v>
-      </c>
-      <c r="E13">
-        <v>-2000</v>
-      </c>
-      <c r="F13">
-        <v>-2000</v>
-      </c>
-      <c r="G13">
-        <v>-2000</v>
-      </c>
-    </row>
-    <row r="14" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B14">
-        <v>-2071</v>
-      </c>
-      <c r="C14">
-        <v>-520</v>
-      </c>
-      <c r="D14">
-        <v>220</v>
-      </c>
-      <c r="E14">
-        <v>1120</v>
-      </c>
-      <c r="F14">
-        <v>1380</v>
-      </c>
-      <c r="G14">
-        <v>-2300</v>
-      </c>
-    </row>
-    <row r="15" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B15">
-        <v>-238</v>
-      </c>
-      <c r="C15">
-        <v>190</v>
-      </c>
-      <c r="D15">
-        <v>-460</v>
-      </c>
-      <c r="E15">
-        <v>-490</v>
-      </c>
-      <c r="F15">
-        <v>520</v>
-      </c>
-      <c r="G15">
-        <v>-2300</v>
-      </c>
-    </row>
-    <row r="16" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B16">
-        <v>477</v>
-      </c>
-      <c r="C16">
-        <v>-120</v>
       </c>
       <c r="D16">
         <v>-580</v>
       </c>
       <c r="E16">
+        <v>-2400</v>
+      </c>
+      <c r="F16">
+        <v>396</v>
+      </c>
+      <c r="G16">
+        <v>-2400</v>
+      </c>
+      <c r="H16">
+        <v>-3449</v>
+      </c>
+    </row>
+    <row r="17" spans="2:8" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="B17">
+        <v>281</v>
+      </c>
+      <c r="C17">
+        <v>-1050</v>
+      </c>
+      <c r="D17">
+        <v>-2000</v>
+      </c>
+      <c r="E17">
+        <v>-2000</v>
+      </c>
+      <c r="F17">
+        <v>-2000</v>
+      </c>
+      <c r="G17">
+        <v>1420</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="2:8" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="B18">
+        <v>-1471</v>
+      </c>
+      <c r="C18">
+        <v>-520</v>
+      </c>
+      <c r="D18">
+        <v>220</v>
+      </c>
+      <c r="E18">
+        <v>1120</v>
+      </c>
+      <c r="F18">
+        <v>1380</v>
+      </c>
+      <c r="G18">
+        <v>-360</v>
+      </c>
+      <c r="H18">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="19" spans="2:8" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="B19">
+        <v>62</v>
+      </c>
+      <c r="C19">
+        <v>190</v>
+      </c>
+      <c r="D19">
+        <v>-460</v>
+      </c>
+      <c r="E19">
+        <v>-490</v>
+      </c>
+      <c r="F19">
+        <v>520</v>
+      </c>
+      <c r="G19">
+        <v>-370</v>
+      </c>
+      <c r="H19">
+        <v>1178</v>
+      </c>
+    </row>
+    <row r="20" spans="2:8" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="B20">
+        <v>977</v>
+      </c>
+      <c r="C20">
+        <v>-120</v>
+      </c>
+      <c r="D20">
+        <v>-580</v>
+      </c>
+      <c r="E20">
         <v>-870</v>
       </c>
-      <c r="F16">
+      <c r="F20">
         <v>-1740</v>
       </c>
-      <c r="G16">
-        <v>-2300</v>
-      </c>
-    </row>
-    <row r="17" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B17">
-        <v>-745</v>
-      </c>
-      <c r="C17">
+      <c r="G20">
+        <v>2848</v>
+      </c>
+      <c r="H20">
+        <v>-2555</v>
+      </c>
+    </row>
+    <row r="21" spans="2:8" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="B21">
+        <v>-245</v>
+      </c>
+      <c r="C21">
         <v>-290</v>
       </c>
-      <c r="D17">
+      <c r="D21">
         <v>-1180</v>
       </c>
-      <c r="E17">
+      <c r="E21">
         <v>-590</v>
       </c>
-      <c r="F17">
+      <c r="F21">
         <v>-340</v>
       </c>
-      <c r="G17">
-        <v>-1010</v>
-      </c>
-    </row>
-    <row r="18" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B18">
-        <v>21</v>
-      </c>
-      <c r="C18">
+      <c r="G21">
+        <v>-390</v>
+      </c>
+      <c r="H21">
+        <v>3888</v>
+      </c>
+    </row>
+    <row r="22" spans="2:8" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="B22">
+        <v>121</v>
+      </c>
+      <c r="C22">
         <v>-540</v>
       </c>
-      <c r="D18">
+      <c r="D22">
         <v>-1470</v>
       </c>
-      <c r="E18">
+      <c r="E22">
         <v>-2200</v>
       </c>
-      <c r="F18">
+      <c r="F22">
         <v>-1060</v>
       </c>
-      <c r="G18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B19">
-        <v>722</v>
-      </c>
-      <c r="C19">
+      <c r="G22">
+        <v>-170</v>
+      </c>
+      <c r="H22">
+        <v>-1646</v>
+      </c>
+    </row>
+    <row r="23" spans="2:8" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="B23">
+        <v>922</v>
+      </c>
+      <c r="C23">
         <v>-540</v>
       </c>
-      <c r="D19">
+      <c r="D23">
         <v>-450</v>
       </c>
-      <c r="E19">
+      <c r="E23">
         <v>-1610</v>
       </c>
-      <c r="F19">
+      <c r="F23">
         <v>-2100</v>
       </c>
-      <c r="G19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B20">
-        <v>3181</v>
-      </c>
-      <c r="C20">
+      <c r="G23">
+        <v>0</v>
+      </c>
+      <c r="H23">
+        <v>-2428</v>
+      </c>
+    </row>
+    <row r="24" spans="2:8" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="B24">
+        <v>3261</v>
+      </c>
+      <c r="C24">
         <v>-430</v>
       </c>
-      <c r="D20">
+      <c r="D24">
         <v>-1690</v>
       </c>
-      <c r="E20">
+      <c r="E24">
         <v>-2200</v>
-      </c>
-      <c r="F20">
-        <v>-2200</v>
-      </c>
-      <c r="G20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B21">
-        <v>-635</v>
-      </c>
-      <c r="C21">
-        <v>-610</v>
-      </c>
-      <c r="D21">
-        <v>-2020</v>
-      </c>
-      <c r="E21">
-        <v>-1600</v>
-      </c>
-      <c r="F21">
-        <v>-1910</v>
-      </c>
-      <c r="G21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B22">
-        <v>-742</v>
-      </c>
-      <c r="C22">
-        <v>-480</v>
-      </c>
-      <c r="D22">
-        <v>1620</v>
-      </c>
-      <c r="E22">
-        <v>2686</v>
-      </c>
-      <c r="F22">
-        <v>650</v>
-      </c>
-      <c r="G22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B23">
-        <v>972</v>
-      </c>
-      <c r="C23">
-        <v>-120</v>
-      </c>
-      <c r="D23">
-        <v>-1000</v>
-      </c>
-      <c r="E23">
-        <v>-40</v>
-      </c>
-      <c r="F23">
-        <v>-880</v>
-      </c>
-      <c r="G23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B24">
-        <v>1093</v>
-      </c>
-      <c r="C24">
-        <v>-350</v>
-      </c>
-      <c r="D24">
-        <v>-1350</v>
-      </c>
-      <c r="E24">
-        <v>-1910</v>
       </c>
       <c r="F24">
         <v>-2200</v>
@@ -14600,509 +14679,741 @@
       <c r="G24">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="H24">
+        <v>-1681</v>
+      </c>
+    </row>
+    <row r="25" spans="2:8" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B25">
-        <v>-1646</v>
+        <v>-535</v>
       </c>
       <c r="C25">
+        <v>-610</v>
+      </c>
+      <c r="D25">
+        <v>-2020</v>
+      </c>
+      <c r="E25">
+        <v>-1600</v>
+      </c>
+      <c r="F25">
+        <v>-1910</v>
+      </c>
+      <c r="G25">
+        <v>0</v>
+      </c>
+      <c r="H25">
+        <v>-1474</v>
+      </c>
+    </row>
+    <row r="26" spans="2:8" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="B26">
+        <v>-342</v>
+      </c>
+      <c r="C26">
+        <v>-480</v>
+      </c>
+      <c r="D26">
+        <v>1620</v>
+      </c>
+      <c r="E26">
+        <v>2686</v>
+      </c>
+      <c r="F26">
+        <v>650</v>
+      </c>
+      <c r="G26">
+        <v>0</v>
+      </c>
+      <c r="H26">
+        <v>1106</v>
+      </c>
+    </row>
+    <row r="27" spans="2:8" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="B27">
+        <v>1072</v>
+      </c>
+      <c r="C27">
+        <v>-120</v>
+      </c>
+      <c r="D27">
+        <v>-1000</v>
+      </c>
+      <c r="E27">
+        <v>-40</v>
+      </c>
+      <c r="F27">
+        <v>-880</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+      <c r="H27">
+        <v>2253</v>
+      </c>
+    </row>
+    <row r="28" spans="2:8" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="B28">
+        <v>1273</v>
+      </c>
+      <c r="C28">
+        <v>-350</v>
+      </c>
+      <c r="D28">
+        <v>-1350</v>
+      </c>
+      <c r="E28">
+        <v>-1910</v>
+      </c>
+      <c r="F28">
+        <v>-2200</v>
+      </c>
+      <c r="G28">
+        <v>0</v>
+      </c>
+      <c r="H28">
+        <v>-2275</v>
+      </c>
+    </row>
+    <row r="29" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="B29">
+        <v>-1346</v>
+      </c>
+      <c r="C29">
         <v>-980</v>
       </c>
-      <c r="D25">
+      <c r="D29">
         <v>-1570</v>
       </c>
-      <c r="E25">
+      <c r="E29">
         <v>-800</v>
       </c>
-      <c r="F25">
+      <c r="F29">
         <v>-2200</v>
       </c>
-      <c r="G25">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B26">
-        <v>632</v>
-      </c>
-      <c r="C26">
+      <c r="G29">
+        <v>0</v>
+      </c>
+      <c r="H29">
+        <v>-2415</v>
+      </c>
+    </row>
+    <row r="30" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="B30">
+        <v>932</v>
+      </c>
+      <c r="C30">
         <v>390</v>
       </c>
-      <c r="D26">
+      <c r="D30">
         <v>-1690</v>
       </c>
-      <c r="E26">
+      <c r="E30">
         <v>-1760</v>
       </c>
-      <c r="F26">
+      <c r="F30">
         <v>-1370</v>
       </c>
-      <c r="G26">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B27">
-        <v>-1472</v>
-      </c>
-      <c r="C27">
+      <c r="G30">
+        <v>0</v>
+      </c>
+      <c r="H30">
+        <v>1482</v>
+      </c>
+    </row>
+    <row r="31" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="B31">
+        <v>-1072</v>
+      </c>
+      <c r="C31">
         <v>-440</v>
       </c>
-      <c r="D27">
+      <c r="D31">
         <v>340</v>
       </c>
-      <c r="E27">
+      <c r="E31">
         <v>-2200</v>
       </c>
-      <c r="F27">
+      <c r="F31">
         <v>-2200</v>
       </c>
-      <c r="G27">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B28">
-        <v>2998</v>
-      </c>
-      <c r="C28">
+      <c r="G31">
+        <v>0</v>
+      </c>
+      <c r="H31">
+        <v>-647</v>
+      </c>
+    </row>
+    <row r="32" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="B32">
+        <v>3098</v>
+      </c>
+      <c r="C32">
         <v>570</v>
       </c>
-      <c r="D28">
+      <c r="D32">
         <v>1750</v>
       </c>
-      <c r="E28">
+      <c r="E32">
         <v>-910</v>
       </c>
-      <c r="F28">
+      <c r="F32">
         <v>3276</v>
       </c>
-      <c r="G28">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B29">
-        <v>2677</v>
-      </c>
-      <c r="C29">
+      <c r="G32">
+        <v>0</v>
+      </c>
+      <c r="H32">
+        <v>-4239</v>
+      </c>
+    </row>
+    <row r="33" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="B33">
+        <v>2977</v>
+      </c>
+      <c r="C33">
         <v>410</v>
       </c>
-      <c r="D29">
+      <c r="D33">
         <v>40</v>
       </c>
-      <c r="E29">
-        <v>0</v>
-      </c>
-      <c r="F29">
+      <c r="E33">
+        <v>0</v>
+      </c>
+      <c r="F33">
         <v>-1070</v>
       </c>
-      <c r="G29">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B30">
-        <v>5464</v>
-      </c>
-      <c r="C30">
+      <c r="G33">
+        <v>0</v>
+      </c>
+      <c r="H33">
+        <v>-887</v>
+      </c>
+    </row>
+    <row r="34" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="B34">
+        <v>5744</v>
+      </c>
+      <c r="C34">
         <v>550</v>
       </c>
-      <c r="D30">
+      <c r="D34">
         <v>-760</v>
       </c>
-      <c r="E30">
-        <v>0</v>
-      </c>
-      <c r="F30">
+      <c r="E34">
+        <v>0</v>
+      </c>
+      <c r="F34">
         <v>-890</v>
       </c>
-      <c r="G30">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B31">
-        <v>-1549</v>
-      </c>
-      <c r="C31">
+      <c r="G34">
+        <v>0</v>
+      </c>
+      <c r="H34">
+        <v>-918</v>
+      </c>
+    </row>
+    <row r="35" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="B35">
+        <v>-1249</v>
+      </c>
+      <c r="C35">
         <v>-560</v>
       </c>
-      <c r="D31">
+      <c r="D35">
         <v>-1080</v>
       </c>
-      <c r="E31">
+      <c r="E35">
         <v>-2100</v>
       </c>
-      <c r="F31">
+      <c r="F35">
         <v>-600</v>
       </c>
-      <c r="G31">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B32">
+      <c r="G35">
+        <v>0</v>
+      </c>
+      <c r="H35">
+        <v>8896</v>
+      </c>
+    </row>
+    <row r="36" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="B36">
         <v>-1200</v>
       </c>
-      <c r="C32">
+      <c r="C36">
         <v>-80</v>
       </c>
-      <c r="D32">
+      <c r="D36">
         <v>-1760</v>
       </c>
-      <c r="E32">
+      <c r="E36">
         <v>1054</v>
       </c>
-      <c r="F32">
+      <c r="F36">
         <v>-1520</v>
       </c>
-      <c r="G32">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B33">
-        <v>796</v>
-      </c>
-      <c r="C33">
+      <c r="G36">
+        <v>0</v>
+      </c>
+      <c r="H36">
+        <v>6291</v>
+      </c>
+    </row>
+    <row r="37" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="B37">
+        <v>1096</v>
+      </c>
+      <c r="C37">
         <v>-900</v>
       </c>
-      <c r="D33">
+      <c r="D37">
         <v>-1540</v>
       </c>
-      <c r="E33">
+      <c r="E37">
         <v>-1790</v>
       </c>
-      <c r="F33">
+      <c r="F37">
         <v>-1160</v>
       </c>
-      <c r="G33">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B34">
-        <v>511</v>
-      </c>
-      <c r="C34">
+      <c r="G37">
+        <v>0</v>
+      </c>
+      <c r="H37">
+        <v>6771</v>
+      </c>
+    </row>
+    <row r="38" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="B38">
+        <v>491</v>
+      </c>
+      <c r="C38">
         <v>-290</v>
       </c>
-      <c r="D34">
+      <c r="D38">
         <v>-630</v>
       </c>
-      <c r="E34">
+      <c r="E38">
         <v>-2200</v>
       </c>
-      <c r="F34">
+      <c r="F38">
         <v>820</v>
       </c>
-      <c r="G34">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B35">
-        <v>-2059</v>
-      </c>
-      <c r="C35">
+      <c r="G38">
+        <v>0</v>
+      </c>
+      <c r="H38">
+        <v>-1455</v>
+      </c>
+    </row>
+    <row r="39" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="B39">
+        <v>-1859</v>
+      </c>
+      <c r="C39">
         <v>-170</v>
       </c>
-      <c r="D35">
+      <c r="D39">
         <v>-1920</v>
       </c>
-      <c r="E35">
+      <c r="E39">
         <v>828</v>
       </c>
-      <c r="F35">
+      <c r="F39">
         <v>-1760</v>
       </c>
-      <c r="G35">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B36">
+      <c r="G39">
+        <v>0</v>
+      </c>
+      <c r="H39">
+        <v>-2297</v>
+      </c>
+    </row>
+    <row r="40" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="B40">
+        <v>0</v>
+      </c>
+      <c r="C40">
+        <v>0</v>
+      </c>
+      <c r="D40">
+        <v>0</v>
+      </c>
+      <c r="E40">
+        <v>0</v>
+      </c>
+      <c r="F40">
+        <v>0</v>
+      </c>
+      <c r="G40">
+        <v>0</v>
+      </c>
+      <c r="H40">
+        <v>1768</v>
+      </c>
+    </row>
+    <row r="41" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="B41">
         <v>-707</v>
       </c>
-      <c r="C36">
+      <c r="C41">
         <v>2646</v>
       </c>
-      <c r="D36">
+      <c r="D41">
         <v>-2270</v>
       </c>
-      <c r="E36">
-        <v>0</v>
-      </c>
-      <c r="F36">
+      <c r="E41">
+        <v>0</v>
+      </c>
+      <c r="F41">
         <v>-2080</v>
       </c>
-      <c r="G36">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B37">
-        <v>218</v>
-      </c>
-      <c r="C37">
+      <c r="G41">
+        <v>0</v>
+      </c>
+      <c r="H41">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="42" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="B42">
+        <v>618</v>
+      </c>
+      <c r="C42">
         <v>720</v>
       </c>
-      <c r="D37">
+      <c r="D42">
         <v>-1850</v>
       </c>
-      <c r="E37">
+      <c r="E42">
         <v>-2300</v>
       </c>
-      <c r="F37">
+      <c r="F42">
         <v>-2300</v>
       </c>
-      <c r="G37">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B38">
-        <v>1038</v>
-      </c>
-      <c r="C38">
+      <c r="G42">
+        <v>0</v>
+      </c>
+      <c r="H42">
+        <v>-342</v>
+      </c>
+    </row>
+    <row r="43" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="B43">
+        <v>1118</v>
+      </c>
+      <c r="C43">
         <v>-870</v>
       </c>
-      <c r="D38">
+      <c r="D43">
         <v>806</v>
       </c>
-      <c r="E38">
+      <c r="E43">
         <v>2778</v>
       </c>
-      <c r="F38">
+      <c r="F43">
         <v>2002</v>
       </c>
-      <c r="G38">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B39">
+      <c r="G43">
+        <v>0</v>
+      </c>
+      <c r="H43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="B44">
         <v>-1637</v>
       </c>
-      <c r="C39">
+      <c r="C44">
         <v>-210</v>
       </c>
-      <c r="D39">
+      <c r="D44">
         <v>-220</v>
       </c>
-      <c r="E39">
+      <c r="E44">
         <v>-1740</v>
       </c>
-      <c r="F39">
+      <c r="F44">
         <v>572</v>
       </c>
-      <c r="G39">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="40" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B40">
-        <v>3299</v>
-      </c>
-      <c r="C40">
+      <c r="G44">
+        <v>0</v>
+      </c>
+      <c r="H44">
+        <v>-546</v>
+      </c>
+    </row>
+    <row r="45" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="B45">
+        <v>3479</v>
+      </c>
+      <c r="C45">
         <v>680</v>
       </c>
-      <c r="D40">
+      <c r="D45">
         <v>-2500</v>
       </c>
-      <c r="E40">
+      <c r="E45">
         <v>-2500</v>
       </c>
-      <c r="F40">
+      <c r="F45">
         <v>-2500</v>
       </c>
-      <c r="G40">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="41" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B41">
-        <v>3169</v>
-      </c>
-      <c r="C41">
+      <c r="G45">
+        <v>0</v>
+      </c>
+      <c r="H45">
+        <v>-433</v>
+      </c>
+    </row>
+    <row r="46" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="B46">
+        <v>0</v>
+      </c>
+      <c r="C46">
+        <v>0</v>
+      </c>
+      <c r="D46">
+        <v>0</v>
+      </c>
+      <c r="E46">
+        <v>0</v>
+      </c>
+      <c r="F46">
+        <v>0</v>
+      </c>
+      <c r="G46">
+        <v>0</v>
+      </c>
+      <c r="H46">
+        <v>-770</v>
+      </c>
+    </row>
+    <row r="47" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="B47">
+        <v>3649</v>
+      </c>
+      <c r="C47">
         <v>520</v>
       </c>
-      <c r="D41">
+      <c r="D47">
         <v>9868</v>
       </c>
-      <c r="E41">
+      <c r="E47">
         <v>-2600</v>
       </c>
-      <c r="F41">
+      <c r="F47">
         <v>-320</v>
       </c>
-      <c r="G41">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B42">
+      <c r="G47">
+        <v>0</v>
+      </c>
+      <c r="H47">
+        <v>-841</v>
+      </c>
+    </row>
+    <row r="48" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="B48">
         <v>1110</v>
       </c>
-      <c r="C42">
+      <c r="C48">
         <v>240</v>
       </c>
-      <c r="D42">
+      <c r="D48">
         <v>-2060</v>
       </c>
-      <c r="E42">
+      <c r="E48">
         <v>3912</v>
       </c>
-      <c r="F42">
+      <c r="F48">
         <v>-1860</v>
       </c>
-      <c r="G42">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="43" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B43">
+      <c r="G48">
+        <v>0</v>
+      </c>
+      <c r="H48">
+        <v>3413</v>
+      </c>
+    </row>
+    <row r="49" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="B49">
         <v>-1655</v>
       </c>
-      <c r="C43">
+      <c r="C49">
         <v>-270</v>
       </c>
-      <c r="D43">
+      <c r="D49">
         <v>-2200</v>
       </c>
-      <c r="E43">
+      <c r="E49">
         <v>420</v>
       </c>
-      <c r="F43">
+      <c r="F49">
         <v>-2200</v>
       </c>
-      <c r="G43">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B44">
-        <v>-1390</v>
-      </c>
-      <c r="C44">
+      <c r="G49">
+        <v>0</v>
+      </c>
+      <c r="H49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="B50">
+        <v>-1190</v>
+      </c>
+      <c r="C50">
         <v>-540</v>
       </c>
-      <c r="D44">
+      <c r="D50">
         <v>-1500</v>
       </c>
-      <c r="E44">
+      <c r="E50">
         <v>-1620</v>
       </c>
-      <c r="F44">
+      <c r="F50">
         <v>-1080</v>
       </c>
-      <c r="G44">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="45" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B45">
-        <v>-1102</v>
-      </c>
-      <c r="C45">
+      <c r="G50">
+        <v>0</v>
+      </c>
+      <c r="H50">
+        <v>10277</v>
+      </c>
+    </row>
+    <row r="51" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="B51">
+        <v>-902</v>
+      </c>
+      <c r="C51">
         <v>-230</v>
       </c>
-      <c r="D45">
+      <c r="D51">
         <v>1920</v>
       </c>
-      <c r="E45">
+      <c r="E51">
         <v>-1570</v>
       </c>
-      <c r="F45">
+      <c r="F51">
         <v>530</v>
       </c>
-      <c r="G45">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B46">
-        <v>5424</v>
-      </c>
-      <c r="C46">
+      <c r="G51">
+        <v>0</v>
+      </c>
+      <c r="H51">
+        <v>-2169</v>
+      </c>
+    </row>
+    <row r="52" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="B52">
+        <v>5804</v>
+      </c>
+      <c r="C52">
         <v>180</v>
       </c>
-      <c r="D46">
+      <c r="D52">
         <v>-1560</v>
       </c>
-      <c r="E46">
+      <c r="E52">
         <v>-2010</v>
       </c>
-      <c r="F46">
+      <c r="F52">
         <v>-1650</v>
       </c>
-      <c r="G46">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="47" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B47">
-        <v>993</v>
-      </c>
-      <c r="C47">
+      <c r="G52">
+        <v>0</v>
+      </c>
+      <c r="H52">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="53" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="B53">
+        <v>1173</v>
+      </c>
+      <c r="C53">
         <v>-730</v>
       </c>
-      <c r="D47">
+      <c r="D53">
         <v>-1190</v>
       </c>
-      <c r="E47">
+      <c r="E53">
         <v>-1700</v>
       </c>
-      <c r="F47">
+      <c r="F53">
         <v>-630</v>
       </c>
-      <c r="G47">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="48" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B48">
-        <v>821</v>
-      </c>
-      <c r="C48">
+      <c r="G53">
+        <v>0</v>
+      </c>
+      <c r="H53">
+        <v>-653</v>
+      </c>
+    </row>
+    <row r="54" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="B54">
+        <v>1101</v>
+      </c>
+      <c r="C54">
         <v>-610</v>
       </c>
-      <c r="D48">
+      <c r="D54">
         <v>-1990</v>
       </c>
-      <c r="E48">
+      <c r="E54">
         <v>-1670</v>
       </c>
-      <c r="F48">
+      <c r="F54">
         <v>-2300</v>
       </c>
-      <c r="G48">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B49">
-        <v>0</v>
-      </c>
-      <c r="C49">
-        <v>0</v>
-      </c>
-      <c r="D49">
-        <v>0</v>
-      </c>
-      <c r="E49">
-        <v>0</v>
-      </c>
-      <c r="F49">
-        <v>0</v>
-      </c>
-      <c r="G49">
+      <c r="G54">
+        <v>0</v>
+      </c>
+      <c r="H54">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="55" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="B55">
+        <v>0</v>
+      </c>
+      <c r="C55">
+        <v>0</v>
+      </c>
+      <c r="D55">
+        <v>0</v>
+      </c>
+      <c r="E55">
+        <v>0</v>
+      </c>
+      <c r="F55">
+        <v>0</v>
+      </c>
+      <c r="G55">
+        <v>0</v>
+      </c>
+      <c r="H55">
+        <v>3825</v>
+      </c>
+    </row>
+    <row r="56" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="H56">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="57" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="H57">
+        <v>-484</v>
+      </c>
+    </row>
+    <row r="58" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="H58">
         <v>0</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" r:id="rId1"/>
 </worksheet>
 </file>
--- a/result/back_testing_m1.xlsx
+++ b/result/back_testing_m1.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="9405" yWindow="45" windowWidth="21000" windowHeight="9915" activeTab="12"/>
+    <workbookView xWindow="11190" yWindow="45" windowWidth="21000" windowHeight="9915" activeTab="12"/>
   </bookViews>
   <sheets>
     <sheet name="y1_t0" sheetId="9" r:id="rId1"/>
@@ -25,13 +25,14 @@
     <sheet name="4nw" sheetId="4" r:id="rId11"/>
     <sheet name="2_1" sheetId="7" r:id="rId12"/>
     <sheet name="sum_best" sheetId="17" r:id="rId13"/>
+    <sheet name="Sheet11" sheetId="18" r:id="rId14"/>
   </sheets>
   <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="570" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="579" uniqueCount="79">
   <si>
     <t>train data</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -263,6 +264,42 @@
     <t>total bet</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>top1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>top1in3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>top2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>top2str</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>top2in3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>top3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10*2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6*5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3top2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -325,9 +362,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
@@ -339,6 +373,9 @@
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -505,7 +542,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1060,11 +1096,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="77308464"/>
-        <c:axId val="77310032"/>
+        <c:axId val="255251880"/>
+        <c:axId val="255252272"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="77308464"/>
+        <c:axId val="255251880"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1106,7 +1142,7 @@
             <a:endParaRPr lang="ko-KR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="77310032"/>
+        <c:crossAx val="255252272"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1114,7 +1150,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="77310032"/>
+        <c:axId val="255252272"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1165,7 +1201,7 @@
             <a:endParaRPr lang="ko-KR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="77308464"/>
+        <c:crossAx val="255251880"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1179,7 +1215,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1261,7 +1296,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1476,11 +1510,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="563625448"/>
-        <c:axId val="563624272"/>
+        <c:axId val="255253448"/>
+        <c:axId val="255253840"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="563625448"/>
+        <c:axId val="255253448"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1522,7 +1556,7 @@
             <a:endParaRPr lang="ko-KR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="563624272"/>
+        <c:crossAx val="255253840"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1530,7 +1564,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="563624272"/>
+        <c:axId val="255253840"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1581,7 +1615,7 @@
             <a:endParaRPr lang="ko-KR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="563625448"/>
+        <c:crossAx val="255253448"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1645,7 +1679,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2200,11 +2233,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="433972272"/>
-        <c:axId val="433972664"/>
+        <c:axId val="255255800"/>
+        <c:axId val="255256192"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="433972272"/>
+        <c:axId val="255255800"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2246,7 +2279,7 @@
             <a:endParaRPr lang="ko-KR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="433972664"/>
+        <c:crossAx val="255256192"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2254,7 +2287,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="433972664"/>
+        <c:axId val="255256192"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2305,7 +2338,7 @@
             <a:endParaRPr lang="ko-KR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="433972272"/>
+        <c:crossAx val="255255800"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2319,7 +2352,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2401,7 +2433,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2956,11 +2987,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="542704944"/>
-        <c:axId val="542705728"/>
+        <c:axId val="597860664"/>
+        <c:axId val="597861056"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="542704944"/>
+        <c:axId val="597860664"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3002,7 +3033,7 @@
             <a:endParaRPr lang="ko-KR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="542705728"/>
+        <c:crossAx val="597861056"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3010,7 +3041,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="542705728"/>
+        <c:axId val="597861056"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3061,7 +3092,7 @@
             <a:endParaRPr lang="ko-KR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="542704944"/>
+        <c:crossAx val="597860664"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3075,7 +3106,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3157,7 +3187,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3712,11 +3741,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="558352672"/>
-        <c:axId val="558353064"/>
+        <c:axId val="597863016"/>
+        <c:axId val="597863408"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="558352672"/>
+        <c:axId val="597863016"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3758,7 +3787,7 @@
             <a:endParaRPr lang="ko-KR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="558353064"/>
+        <c:crossAx val="597863408"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3766,7 +3795,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="558353064"/>
+        <c:axId val="597863408"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3817,7 +3846,7 @@
             <a:endParaRPr lang="ko-KR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="558352672"/>
+        <c:crossAx val="597863016"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3831,7 +3860,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3966,7 +3994,7 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>sum_best!$K$4:$K$52</c:f>
+              <c:f>sum_best!$L$4:$L$52</c:f>
               <c:numCache>
                 <c:formatCode>0_ </c:formatCode>
                 <c:ptCount val="49"/>
@@ -3974,148 +4002,148 @@
                   <c:v>12042</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-241.33333333333334</c:v>
+                  <c:v>-486.33333333333331</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>-672.16666666666663</c:v>
+                  <c:v>-688.83333333333337</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>-106.66666666666667</c:v>
+                  <c:v>93.333333333333329</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>-59.666666666666671</c:v>
+                  <c:v>-499.66666666666669</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1533.6666666666665</c:v>
+                  <c:v>2682.3333333333335</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>-626.5</c:v>
+                  <c:v>-726.5</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1328.6666666666667</c:v>
+                  <c:v>1433.6666666666665</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>6395.8333333333339</c:v>
+                  <c:v>8104.833333333333</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>201.66666666666666</c:v>
+                  <c:v>-53.333333333333336</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>4863.166666666667</c:v>
+                  <c:v>5447.833333333333</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>256.66666666666669</c:v>
+                  <c:v>1857.3333333333335</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>7513.8333333333339</c:v>
+                  <c:v>4467.5</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>2259.3333333333335</c:v>
+                  <c:v>3016</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>-649</c:v>
+                  <c:v>-825.66666666666663</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>1427</c:v>
+                  <c:v>810.33333333333337</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>-387.83333333333331</c:v>
+                  <c:v>158.83333333333334</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>-880.5</c:v>
+                  <c:v>-922.16666666666663</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>-740.5</c:v>
+                  <c:v>-760.5</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>874.33333333333337</c:v>
+                  <c:v>627.66666666666663</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>1124.1666666666667</c:v>
+                  <c:v>1380.8333333333333</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>243.83333333333334</c:v>
+                  <c:v>515.5</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>-1109.6666666666665</c:v>
+                  <c:v>-1078</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>-592.66666666666663</c:v>
+                  <c:v>-480.99999999999994</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>662.83333333333326</c:v>
+                  <c:v>1014.1666666666667</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>-91.833333333333329</c:v>
+                  <c:v>646.5</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>-371.5</c:v>
+                  <c:v>188.5</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>9617.8333333333321</c:v>
+                  <c:v>10160.166666666668</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>-611.33333333333337</c:v>
+                  <c:v>-339.66666666666663</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>5850.333333333333</c:v>
+                  <c:v>5703.333333333333</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>1302</c:v>
+                  <c:v>1357</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>2378.1666666666665</c:v>
+                  <c:v>2045.8333333333333</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>-54.500000000000007</c:v>
+                  <c:v>35.5</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>220.66666666666666</c:v>
+                  <c:v>685</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>156.66666666666666</c:v>
+                  <c:v>785</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>400.5</c:v>
+                  <c:v>-34.166666666666664</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>-533</c:v>
+                  <c:v>-834.66666666666663</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>-17.5</c:v>
+                  <c:v>214.16666666666666</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>2859.1666666666665</c:v>
+                  <c:v>2152.5</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>323.83333333333331</c:v>
+                  <c:v>885.5</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>684.5</c:v>
+                  <c:v>539.5</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>10674.5</c:v>
+                  <c:v>11052.833333333334</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>57.833333333333336</c:v>
+                  <c:v>-157.16666666666669</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>-119.16666666666667</c:v>
+                  <c:v>-865.83333333333337</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>564.66666666666663</c:v>
+                  <c:v>374.66666666666669</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>-833.83333333333326</c:v>
+                  <c:v>-653.83333333333326</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>-1209</c:v>
+                  <c:v>-1257.3333333333335</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>-30.166666666666668</c:v>
+                  <c:v>253.16666666666669</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>-718.83333333333337</c:v>
+                  <c:v>-580.5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4131,11 +4159,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="124626776"/>
-        <c:axId val="124627168"/>
+        <c:axId val="255258152"/>
+        <c:axId val="255257760"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="124626776"/>
+        <c:axId val="255258152"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4177,7 +4205,7 @@
             <a:endParaRPr lang="ko-KR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="124627168"/>
+        <c:crossAx val="255257760"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4185,7 +4213,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="124627168"/>
+        <c:axId val="255257760"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4236,7 +4264,7 @@
             <a:endParaRPr lang="ko-KR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="124626776"/>
+        <c:crossAx val="255258152"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -7790,13 +7818,13 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>9</xdr:col>
+      <xdr:col>10</xdr:col>
       <xdr:colOff>581024</xdr:colOff>
       <xdr:row>12</xdr:row>
       <xdr:rowOff>100012</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>21</xdr:col>
+      <xdr:col>22</xdr:col>
       <xdr:colOff>304799</xdr:colOff>
       <xdr:row>25</xdr:row>
       <xdr:rowOff>119062</xdr:rowOff>
@@ -8269,123 +8297,123 @@
       <c r="A4" t="s">
         <v>57</v>
       </c>
-      <c r="B4" s="3">
+      <c r="B4" s="2">
         <f>SUM(B5:B99)</f>
         <v>-5230</v>
       </c>
-      <c r="C4" s="3">
+      <c r="C4" s="2">
         <f>SUM(C5:C99)</f>
         <v>29045</v>
       </c>
-      <c r="D4" s="3">
+      <c r="D4" s="2">
         <f>SUM(D5:D99)</f>
         <v>27754</v>
       </c>
-      <c r="E4" s="3">
+      <c r="E4" s="2">
         <f t="shared" ref="E4:AE4" si="0">SUM(E5:E99)</f>
         <v>-4064</v>
       </c>
-      <c r="F4" s="3">
+      <c r="F4" s="2">
         <f t="shared" si="0"/>
         <v>5735</v>
       </c>
-      <c r="G4" s="3">
+      <c r="G4" s="2">
         <f t="shared" si="0"/>
         <v>3972</v>
       </c>
-      <c r="H4" s="3">
+      <c r="H4" s="2">
         <f t="shared" si="0"/>
         <v>6080</v>
       </c>
-      <c r="I4" s="3">
+      <c r="I4" s="2">
         <f t="shared" si="0"/>
         <v>15640</v>
       </c>
-      <c r="J4" s="3">
+      <c r="J4" s="2">
         <f t="shared" si="0"/>
         <v>-564</v>
       </c>
-      <c r="K4" s="3">
+      <c r="K4" s="2">
         <f t="shared" si="0"/>
         <v>-1482</v>
       </c>
-      <c r="L4" s="3">
+      <c r="L4" s="2">
         <f t="shared" si="0"/>
         <v>11656</v>
       </c>
-      <c r="M4" s="3">
+      <c r="M4" s="2">
         <f t="shared" si="0"/>
         <v>9751</v>
       </c>
-      <c r="N4" s="3">
+      <c r="N4" s="2">
         <f t="shared" si="0"/>
         <v>-2220</v>
       </c>
-      <c r="O4" s="3">
+      <c r="O4" s="2">
         <f t="shared" si="0"/>
         <v>982</v>
       </c>
-      <c r="P4" s="3">
+      <c r="P4" s="2">
         <f t="shared" si="0"/>
         <v>11485</v>
       </c>
-      <c r="Q4" s="3">
+      <c r="Q4" s="2">
         <f t="shared" si="0"/>
         <v>-1606</v>
       </c>
-      <c r="R4" s="3">
+      <c r="R4" s="2">
         <f t="shared" si="0"/>
         <v>523</v>
       </c>
-      <c r="S4" s="3">
+      <c r="S4" s="2">
         <f t="shared" si="0"/>
         <v>-2581</v>
       </c>
-      <c r="T4" s="3">
+      <c r="T4" s="2">
         <f t="shared" si="0"/>
         <v>-3212</v>
       </c>
-      <c r="U4" s="3">
+      <c r="U4" s="2">
         <f t="shared" si="0"/>
         <v>-1503</v>
       </c>
-      <c r="V4" s="3">
+      <c r="V4" s="2">
         <f t="shared" si="0"/>
         <v>7238</v>
       </c>
-      <c r="W4" s="3">
+      <c r="W4" s="2">
         <f t="shared" si="0"/>
         <v>792</v>
       </c>
-      <c r="X4" s="3">
+      <c r="X4" s="2">
         <f t="shared" si="0"/>
         <v>-487</v>
       </c>
-      <c r="Y4" s="3">
+      <c r="Y4" s="2">
         <f t="shared" si="0"/>
         <v>-25</v>
       </c>
-      <c r="Z4" s="3">
+      <c r="Z4" s="2">
         <f t="shared" si="0"/>
         <v>452</v>
       </c>
-      <c r="AA4" s="3">
+      <c r="AA4" s="2">
         <f t="shared" si="0"/>
         <v>-782</v>
       </c>
-      <c r="AB4" s="3">
+      <c r="AB4" s="2">
         <f t="shared" si="0"/>
         <v>-1321</v>
       </c>
-      <c r="AC4" s="3">
+      <c r="AC4" s="2">
         <f t="shared" si="0"/>
         <v>-200</v>
       </c>
-      <c r="AD4" s="3">
+      <c r="AD4" s="2">
         <f t="shared" si="0"/>
         <v>-200</v>
       </c>
-      <c r="AE4" s="3">
+      <c r="AE4" s="2">
         <f t="shared" si="0"/>
         <v>-200</v>
       </c>
@@ -13048,7 +13076,7 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="A1:XFD1048576">
-    <cfRule type="expression" dxfId="21" priority="1">
+    <cfRule type="expression" dxfId="20" priority="1">
       <formula>A1&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -13076,7 +13104,7 @@
     <col min="11" max="11" width="6.25" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="6.5" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="5.5" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="6.25" style="4" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="6.25" style="3" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="5.5" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="6.5" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="6.25" bestFit="1" customWidth="1"/>
@@ -13104,7 +13132,7 @@
       <c r="K2">
         <v>1300</v>
       </c>
-      <c r="N2" s="4">
+      <c r="N2" s="3">
         <v>1400</v>
       </c>
       <c r="Q2">
@@ -13160,7 +13188,7 @@
       <c r="M3" t="s">
         <v>56</v>
       </c>
-      <c r="N3" s="4" t="s">
+      <c r="N3" s="3" t="s">
         <v>54</v>
       </c>
       <c r="O3" t="s">
@@ -13219,123 +13247,123 @@
       <c r="A4" t="s">
         <v>57</v>
       </c>
-      <c r="B4" s="3">
+      <c r="B4" s="2">
         <f>SUM(B5:B99)</f>
         <v>0</v>
       </c>
-      <c r="C4" s="3">
+      <c r="C4" s="2">
         <f>SUM(C5:C99)</f>
         <v>0</v>
       </c>
-      <c r="D4" s="3">
+      <c r="D4" s="2">
         <f>SUM(D5:D99)</f>
         <v>0</v>
       </c>
-      <c r="E4" s="3">
+      <c r="E4" s="2">
         <f t="shared" ref="E4:AE4" si="0">SUM(E5:E99)</f>
         <v>0</v>
       </c>
-      <c r="F4" s="3">
+      <c r="F4" s="2">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G4" s="3">
+      <c r="G4" s="2">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H4" s="3">
+      <c r="H4" s="2">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I4" s="3">
+      <c r="I4" s="2">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="J4" s="3">
+      <c r="J4" s="2">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="K4" s="3">
+      <c r="K4" s="2">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="L4" s="3">
+      <c r="L4" s="2">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="M4" s="3">
+      <c r="M4" s="2">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="N4" s="5">
+      <c r="N4" s="4">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="O4" s="3">
+      <c r="O4" s="2">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="P4" s="3">
+      <c r="P4" s="2">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="Q4" s="3">
+      <c r="Q4" s="2">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="R4" s="3">
+      <c r="R4" s="2">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="S4" s="3">
+      <c r="S4" s="2">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="T4" s="3">
+      <c r="T4" s="2">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="U4" s="3">
+      <c r="U4" s="2">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="V4" s="3">
+      <c r="V4" s="2">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="W4" s="3">
+      <c r="W4" s="2">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="X4" s="3">
+      <c r="X4" s="2">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="Y4" s="3">
+      <c r="Y4" s="2">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="Z4" s="3">
+      <c r="Z4" s="2">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="AA4" s="3">
+      <c r="AA4" s="2">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="AB4" s="3">
+      <c r="AB4" s="2">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="AC4" s="3">
+      <c r="AC4" s="2">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="AD4" s="3">
+      <c r="AD4" s="2">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="AE4" s="3">
+      <c r="AE4" s="2">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -13612,7 +13640,7 @@
     <col min="11" max="11" width="6.25" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="6.5" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="5.5" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="6.25" style="4" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="6.25" style="3" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="5.5" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="6.5" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="6.25" bestFit="1" customWidth="1"/>
@@ -13640,7 +13668,7 @@
       <c r="K2">
         <v>1300</v>
       </c>
-      <c r="N2" s="4">
+      <c r="N2" s="3">
         <v>1400</v>
       </c>
       <c r="Q2">
@@ -13696,7 +13724,7 @@
       <c r="M3" t="s">
         <v>56</v>
       </c>
-      <c r="N3" s="4" t="s">
+      <c r="N3" s="3" t="s">
         <v>54</v>
       </c>
       <c r="O3" t="s">
@@ -13755,123 +13783,123 @@
       <c r="A4" t="s">
         <v>57</v>
       </c>
-      <c r="B4" s="3">
+      <c r="B4" s="2">
         <f>SUM(B5:B99)</f>
         <v>0</v>
       </c>
-      <c r="C4" s="3">
+      <c r="C4" s="2">
         <f>SUM(C5:C99)</f>
         <v>0</v>
       </c>
-      <c r="D4" s="3">
+      <c r="D4" s="2">
         <f>SUM(D5:D99)</f>
         <v>0</v>
       </c>
-      <c r="E4" s="3">
+      <c r="E4" s="2">
         <f t="shared" ref="E4:AE4" si="0">SUM(E5:E99)</f>
         <v>0</v>
       </c>
-      <c r="F4" s="3">
+      <c r="F4" s="2">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G4" s="3">
+      <c r="G4" s="2">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H4" s="3">
+      <c r="H4" s="2">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I4" s="3">
+      <c r="I4" s="2">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="J4" s="3">
+      <c r="J4" s="2">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="K4" s="3">
+      <c r="K4" s="2">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="L4" s="3">
+      <c r="L4" s="2">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="M4" s="3">
+      <c r="M4" s="2">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="N4" s="5">
+      <c r="N4" s="4">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="O4" s="3">
+      <c r="O4" s="2">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="P4" s="3">
+      <c r="P4" s="2">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="Q4" s="3">
+      <c r="Q4" s="2">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="R4" s="3">
+      <c r="R4" s="2">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="S4" s="3">
+      <c r="S4" s="2">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="T4" s="3">
+      <c r="T4" s="2">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="U4" s="3">
+      <c r="U4" s="2">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="V4" s="3">
+      <c r="V4" s="2">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="W4" s="3">
+      <c r="W4" s="2">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="X4" s="3">
+      <c r="X4" s="2">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="Y4" s="3">
+      <c r="Y4" s="2">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="Z4" s="3">
+      <c r="Z4" s="2">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="AA4" s="3">
+      <c r="AA4" s="2">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="AB4" s="3">
+      <c r="AB4" s="2">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="AC4" s="3">
+      <c r="AC4" s="2">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="AD4" s="3">
+      <c r="AD4" s="2">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="AE4" s="3">
+      <c r="AE4" s="2">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -14156,12 +14184,12 @@
     </row>
     <row r="3" spans="2:68" x14ac:dyDescent="0.3">
       <c r="B3" s="1"/>
-      <c r="C3" s="2"/>
-      <c r="D3" s="2"/>
-      <c r="E3" s="2"/>
-      <c r="F3" s="2"/>
-      <c r="G3" s="2"/>
-      <c r="H3" s="2"/>
+      <c r="C3" s="6"/>
+      <c r="D3" s="6"/>
+      <c r="E3" s="6"/>
+      <c r="F3" s="6"/>
+      <c r="G3" s="6"/>
+      <c r="H3" s="6"/>
     </row>
     <row r="4" spans="2:68" x14ac:dyDescent="0.3">
       <c r="B4" s="1" t="s">
@@ -23172,57 +23200,63 @@
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N52"/>
+  <dimension ref="A1:T53"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="U11" sqref="U11"/>
+      <selection activeCell="J13" sqref="J13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="11" max="12" width="9" style="6"/>
+    <col min="12" max="13" width="9" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>68</v>
       </c>
-      <c r="B1" s="6">
-        <f>$J$1*(B3/$J$2)</f>
-        <v>13.386177208584957</v>
-      </c>
-      <c r="C1" s="6">
-        <f t="shared" ref="C1:G1" si="0">$J$1*(C3/$J$2)</f>
-        <v>6.0724416376997308</v>
-      </c>
-      <c r="D1" s="6">
+      <c r="B1" s="5">
+        <f>$K$1*(B3/$K$2)</f>
+        <v>12.552858242767744</v>
+      </c>
+      <c r="C1" s="5">
+        <f t="shared" ref="C1:G1" si="0">$K$1*(C3/$K$2)</f>
+        <v>5.694418793189052</v>
+      </c>
+      <c r="D1" s="5">
         <f t="shared" si="0"/>
-        <v>22.707519637408144</v>
-      </c>
-      <c r="E1" s="6">
+        <v>21.293926608893376</v>
+      </c>
+      <c r="E1" s="5">
         <f t="shared" si="0"/>
-        <v>5.4056266193987668</v>
-      </c>
-      <c r="F1" s="6">
+        <v>11.29433436391416</v>
+      </c>
+      <c r="F1" s="5">
         <f t="shared" si="0"/>
-        <v>22.082140765238652</v>
-      </c>
-      <c r="G1" s="6">
+        <v>20.707478946648852</v>
+      </c>
+      <c r="G1" s="5">
         <f t="shared" si="0"/>
-        <v>30.346094131669748</v>
-      </c>
-      <c r="I1" t="s">
+        <v>28.456983044586813</v>
+      </c>
+      <c r="J1" t="s">
         <v>69</v>
       </c>
-      <c r="J1">
+      <c r="K1">
         <v>100</v>
       </c>
-      <c r="N1">
-        <f>1+L52/(J1*1000)</f>
-        <v>1.651605</v>
-      </c>
-    </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O1">
+        <f>1+M52/(K1*1000)</f>
+        <v>1.6948616666666672</v>
+      </c>
+      <c r="R1" t="s">
+        <v>70</v>
+      </c>
+      <c r="S1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20" x14ac:dyDescent="0.3">
       <c r="B2" t="s">
         <v>62</v>
       </c>
@@ -23241,21 +23275,30 @@
       <c r="G2" t="s">
         <v>67</v>
       </c>
-      <c r="I2" t="s">
+      <c r="H2" t="s">
+        <v>78</v>
+      </c>
+      <c r="J2" t="s">
         <v>57</v>
       </c>
-      <c r="J2">
+      <c r="K2">
         <f>SUM(B3:G3)</f>
-        <v>390963</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
+        <v>416917</v>
+      </c>
+      <c r="R2" t="s">
+        <v>71</v>
+      </c>
+      <c r="S2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20" x14ac:dyDescent="0.3">
       <c r="B3">
         <f>SUM(B4:B101)</f>
         <v>52335</v>
       </c>
       <c r="C3">
-        <f t="shared" ref="C3:G3" si="1">SUM(C4:C101)</f>
+        <f t="shared" ref="C3:H3" si="1">SUM(C4:C101)</f>
         <v>23741</v>
       </c>
       <c r="D3">
@@ -23264,7 +23307,7 @@
       </c>
       <c r="E3">
         <f t="shared" si="1"/>
-        <v>21134</v>
+        <v>47088</v>
       </c>
       <c r="F3">
         <f t="shared" si="1"/>
@@ -23274,8 +23317,18 @@
         <f t="shared" si="1"/>
         <v>118642</v>
       </c>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="H3">
+        <f t="shared" si="1"/>
+        <v>56426</v>
+      </c>
+      <c r="R3" t="s">
+        <v>72</v>
+      </c>
+      <c r="S3">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20" x14ac:dyDescent="0.3">
       <c r="B4">
         <v>-959</v>
       </c>
@@ -23294,12 +23347,18 @@
       <c r="G4">
         <v>-1952</v>
       </c>
-      <c r="K4" s="6">
-        <f>SUM(B4:G4)/600*$J$1</f>
+      <c r="L4" s="5">
+        <f>SUM(B4:G4)/600*$K$1</f>
         <v>12042</v>
       </c>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="R4" t="s">
+        <v>74</v>
+      </c>
+      <c r="S4">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20" x14ac:dyDescent="0.3">
       <c r="B5">
         <v>2181</v>
       </c>
@@ -23310,7 +23369,7 @@
         <v>-1930</v>
       </c>
       <c r="E5">
-        <v>650</v>
+        <v>-820</v>
       </c>
       <c r="F5">
         <v>-1680</v>
@@ -23318,16 +23377,25 @@
       <c r="G5">
         <v>-1288</v>
       </c>
-      <c r="K5" s="6">
-        <f t="shared" ref="K5:K52" si="2">SUM(B5:G5)/600*$J$1</f>
-        <v>-241.33333333333334</v>
-      </c>
-      <c r="L5" s="6">
-        <f>SUM(K$4:K5)</f>
-        <v>11800.666666666666</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="L5" s="5">
+        <f t="shared" ref="L5:L52" si="2">SUM(B5:G5)/600*$K$1</f>
+        <v>-486.33333333333331</v>
+      </c>
+      <c r="M5" s="5">
+        <f>SUM(L$4:L5)</f>
+        <v>11555.666666666666</v>
+      </c>
+      <c r="R5" t="s">
+        <v>73</v>
+      </c>
+      <c r="S5">
+        <v>20</v>
+      </c>
+      <c r="T5" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20" x14ac:dyDescent="0.3">
       <c r="B6">
         <v>3487</v>
       </c>
@@ -23338,7 +23406,7 @@
         <v>-2300</v>
       </c>
       <c r="E6">
-        <v>-1810</v>
+        <v>-1910</v>
       </c>
       <c r="F6">
         <v>-2300</v>
@@ -23346,16 +23414,29 @@
       <c r="G6">
         <v>-1082</v>
       </c>
-      <c r="K6" s="6">
+      <c r="L6" s="5">
         <f t="shared" si="2"/>
-        <v>-672.16666666666663</v>
-      </c>
-      <c r="L6" s="6">
-        <f>SUM(K$4:K6)</f>
-        <v>11128.5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
+        <v>-688.83333333333337</v>
+      </c>
+      <c r="M6" s="5">
+        <f>SUM(L$4:L6)</f>
+        <v>10866.833333333332</v>
+      </c>
+      <c r="N6" s="5">
+        <f>SUM($L$5:L6)</f>
+        <v>-1175.1666666666667</v>
+      </c>
+      <c r="R6" t="s">
+        <v>75</v>
+      </c>
+      <c r="S6">
+        <v>30</v>
+      </c>
+      <c r="T6" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20" x14ac:dyDescent="0.3">
       <c r="B7">
         <v>-1090</v>
       </c>
@@ -23366,7 +23447,7 @@
         <v>-33</v>
       </c>
       <c r="E7">
-        <v>-490</v>
+        <v>710</v>
       </c>
       <c r="F7">
         <v>598</v>
@@ -23374,16 +23455,28 @@
       <c r="G7">
         <v>676</v>
       </c>
-      <c r="K7" s="6">
+      <c r="L7" s="5">
         <f t="shared" si="2"/>
-        <v>-106.66666666666667</v>
-      </c>
-      <c r="L7" s="6">
-        <f>SUM(K$4:K7)</f>
-        <v>11021.833333333334</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
+        <v>93.333333333333329</v>
+      </c>
+      <c r="M7" s="5">
+        <f>SUM(L$4:L7)</f>
+        <v>10960.166666666666</v>
+      </c>
+      <c r="N7" s="5">
+        <f>SUM($L$5:L7)</f>
+        <v>-1081.8333333333335</v>
+      </c>
+      <c r="O7" s="5">
+        <f>SUM($L$6:L7)</f>
+        <v>-595.5</v>
+      </c>
+      <c r="S7">
+        <f>SUM(S1:S6)</f>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20" x14ac:dyDescent="0.3">
       <c r="B8">
         <v>7907</v>
       </c>
@@ -23394,7 +23487,7 @@
         <v>-2900</v>
       </c>
       <c r="E8">
-        <v>330</v>
+        <v>-2310</v>
       </c>
       <c r="F8">
         <v>-2900</v>
@@ -23402,16 +23495,28 @@
       <c r="G8">
         <v>-1730</v>
       </c>
-      <c r="K8" s="6">
+      <c r="L8" s="5">
         <f t="shared" si="2"/>
-        <v>-59.666666666666671</v>
-      </c>
-      <c r="L8" s="6">
-        <f>SUM(K$4:K8)</f>
-        <v>10962.166666666668</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
+        <v>-499.66666666666669</v>
+      </c>
+      <c r="M8" s="5">
+        <f>SUM(L$4:L8)</f>
+        <v>10460.5</v>
+      </c>
+      <c r="N8" s="5">
+        <f>SUM($L$5:L8)</f>
+        <v>-1581.5000000000002</v>
+      </c>
+      <c r="O8" s="5">
+        <f>SUM($L$6:L8)</f>
+        <v>-1095.1666666666667</v>
+      </c>
+      <c r="P8" s="5">
+        <f>SUM($L$7:L8)</f>
+        <v>-406.33333333333337</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20" x14ac:dyDescent="0.3">
       <c r="B9">
         <v>-1651</v>
       </c>
@@ -23422,7 +23527,7 @@
         <v>3963</v>
       </c>
       <c r="E9">
-        <v>1330</v>
+        <v>8222</v>
       </c>
       <c r="F9">
         <v>1640</v>
@@ -23430,16 +23535,28 @@
       <c r="G9">
         <v>2686</v>
       </c>
-      <c r="K9" s="6">
+      <c r="L9" s="5">
         <f t="shared" si="2"/>
-        <v>1533.6666666666665</v>
-      </c>
-      <c r="L9" s="6">
-        <f>SUM(K$4:K9)</f>
-        <v>12495.833333333334</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
+        <v>2682.3333333333335</v>
+      </c>
+      <c r="M9" s="5">
+        <f>SUM(L$4:L9)</f>
+        <v>13142.833333333334</v>
+      </c>
+      <c r="N9" s="5">
+        <f>SUM($L$5:L9)</f>
+        <v>1100.8333333333333</v>
+      </c>
+      <c r="O9" s="5">
+        <f>SUM($L$6:L9)</f>
+        <v>1587.1666666666667</v>
+      </c>
+      <c r="P9" s="5">
+        <f>SUM($L$7:L9)</f>
+        <v>2276</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.3">
       <c r="B10">
         <v>3964</v>
       </c>
@@ -23450,7 +23567,7 @@
         <v>-2300</v>
       </c>
       <c r="E10">
-        <v>-840</v>
+        <v>-1440</v>
       </c>
       <c r="F10">
         <v>-2300</v>
@@ -23458,16 +23575,28 @@
       <c r="G10">
         <v>-2300</v>
       </c>
-      <c r="K10" s="6">
+      <c r="L10" s="5">
         <f t="shared" si="2"/>
-        <v>-626.5</v>
-      </c>
-      <c r="L10" s="6">
-        <f>SUM(K$4:K10)</f>
-        <v>11869.333333333334</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
+        <v>-726.5</v>
+      </c>
+      <c r="M10" s="5">
+        <f>SUM(L$4:L10)</f>
+        <v>12416.333333333334</v>
+      </c>
+      <c r="N10" s="5">
+        <f>SUM($L$5:L10)</f>
+        <v>374.33333333333326</v>
+      </c>
+      <c r="O10" s="5">
+        <f>SUM($L$6:L10)</f>
+        <v>860.66666666666674</v>
+      </c>
+      <c r="P10" s="5">
+        <f>SUM($L$7:L10)</f>
+        <v>1549.5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.3">
       <c r="B11">
         <v>1409</v>
       </c>
@@ -23478,7 +23607,7 @@
         <v>2730</v>
       </c>
       <c r="E11">
-        <v>-390</v>
+        <v>240</v>
       </c>
       <c r="F11">
         <v>2827</v>
@@ -23486,16 +23615,28 @@
       <c r="G11">
         <v>1014</v>
       </c>
-      <c r="K11" s="6">
+      <c r="L11" s="5">
         <f t="shared" si="2"/>
-        <v>1328.6666666666667</v>
-      </c>
-      <c r="L11" s="6">
-        <f>SUM(K$4:K11)</f>
-        <v>13198</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
+        <v>1433.6666666666665</v>
+      </c>
+      <c r="M11" s="5">
+        <f>SUM(L$4:L11)</f>
+        <v>13850</v>
+      </c>
+      <c r="N11" s="5">
+        <f>SUM($L$5:L11)</f>
+        <v>1807.9999999999998</v>
+      </c>
+      <c r="O11" s="5">
+        <f>SUM($L$6:L11)</f>
+        <v>2294.333333333333</v>
+      </c>
+      <c r="P11" s="5">
+        <f>SUM($L$7:L11)</f>
+        <v>2983.1666666666665</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.3">
       <c r="B12">
         <v>1616</v>
       </c>
@@ -23506,7 +23647,7 @@
         <v>11164</v>
       </c>
       <c r="E12">
-        <v>-1980</v>
+        <v>8274</v>
       </c>
       <c r="F12">
         <v>8335</v>
@@ -23514,16 +23655,28 @@
       <c r="G12">
         <v>17962</v>
       </c>
-      <c r="K12" s="6">
+      <c r="L12" s="5">
         <f t="shared" si="2"/>
-        <v>6395.8333333333339</v>
-      </c>
-      <c r="L12" s="6">
-        <f>SUM(K$4:K12)</f>
-        <v>19593.833333333336</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
+        <v>8104.833333333333</v>
+      </c>
+      <c r="M12" s="5">
+        <f>SUM(L$4:L12)</f>
+        <v>21954.833333333332</v>
+      </c>
+      <c r="N12" s="5">
+        <f>SUM($L$5:L12)</f>
+        <v>9912.8333333333321</v>
+      </c>
+      <c r="O12" s="5">
+        <f>SUM($L$6:L12)</f>
+        <v>10399.166666666666</v>
+      </c>
+      <c r="P12" s="5">
+        <f>SUM($L$7:L12)</f>
+        <v>11088</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.3">
       <c r="B13">
         <v>6141</v>
       </c>
@@ -23534,7 +23687,7 @@
         <v>-1980</v>
       </c>
       <c r="E13">
-        <v>110</v>
+        <v>-1420</v>
       </c>
       <c r="F13">
         <v>-2081</v>
@@ -23542,16 +23695,28 @@
       <c r="G13">
         <v>-314</v>
       </c>
-      <c r="K13" s="6">
+      <c r="L13" s="5">
         <f t="shared" si="2"/>
-        <v>201.66666666666666</v>
-      </c>
-      <c r="L13" s="6">
-        <f>SUM(K$4:K13)</f>
-        <v>19795.500000000004</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
+        <v>-53.333333333333336</v>
+      </c>
+      <c r="M13" s="5">
+        <f>SUM(L$4:L13)</f>
+        <v>21901.5</v>
+      </c>
+      <c r="N13" s="5">
+        <f>SUM($L$5:L13)</f>
+        <v>9859.4999999999982</v>
+      </c>
+      <c r="O13" s="5">
+        <f>SUM($L$6:L13)</f>
+        <v>10345.833333333332</v>
+      </c>
+      <c r="P13" s="5">
+        <f>SUM($L$7:L13)</f>
+        <v>11034.666666666666</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.3">
       <c r="B14">
         <v>-940</v>
       </c>
@@ -23562,7 +23727,7 @@
         <v>-1860</v>
       </c>
       <c r="E14">
-        <v>1166</v>
+        <v>4674</v>
       </c>
       <c r="F14">
         <v>-1916</v>
@@ -23570,16 +23735,28 @@
       <c r="G14">
         <v>31710</v>
       </c>
-      <c r="K14" s="6">
+      <c r="L14" s="5">
         <f t="shared" si="2"/>
-        <v>4863.166666666667</v>
-      </c>
-      <c r="L14" s="6">
-        <f>SUM(K$4:K14)</f>
-        <v>24658.666666666672</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
+        <v>5447.833333333333</v>
+      </c>
+      <c r="M14" s="5">
+        <f>SUM(L$4:L14)</f>
+        <v>27349.333333333332</v>
+      </c>
+      <c r="N14" s="5">
+        <f>SUM($L$5:L14)</f>
+        <v>15307.333333333332</v>
+      </c>
+      <c r="O14" s="5">
+        <f>SUM($L$6:L14)</f>
+        <v>15793.666666666664</v>
+      </c>
+      <c r="P14" s="5">
+        <f>SUM($L$7:L14)</f>
+        <v>16482.5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.3">
       <c r="B15">
         <v>3205</v>
       </c>
@@ -23590,7 +23767,7 @@
         <v>-822</v>
       </c>
       <c r="E15">
-        <v>-1320</v>
+        <v>8284</v>
       </c>
       <c r="F15">
         <v>-1132</v>
@@ -23598,16 +23775,28 @@
       <c r="G15">
         <v>-20</v>
       </c>
-      <c r="K15" s="6">
+      <c r="L15" s="5">
         <f t="shared" si="2"/>
-        <v>256.66666666666669</v>
-      </c>
-      <c r="L15" s="6">
-        <f>SUM(K$4:K15)</f>
-        <v>24915.333333333339</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
+        <v>1857.3333333333335</v>
+      </c>
+      <c r="M15" s="5">
+        <f>SUM(L$4:L15)</f>
+        <v>29206.666666666664</v>
+      </c>
+      <c r="N15" s="5">
+        <f>SUM($L$5:L15)</f>
+        <v>17164.666666666664</v>
+      </c>
+      <c r="O15" s="5">
+        <f>SUM($L$6:L15)</f>
+        <v>17650.999999999996</v>
+      </c>
+      <c r="P15" s="5">
+        <f>SUM($L$7:L15)</f>
+        <v>18339.833333333332</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.3">
       <c r="B16">
         <v>2139</v>
       </c>
@@ -23618,7 +23807,7 @@
         <v>-553</v>
       </c>
       <c r="E16">
-        <v>17698</v>
+        <v>-580</v>
       </c>
       <c r="F16">
         <v>-633</v>
@@ -23626,16 +23815,28 @@
       <c r="G16">
         <v>22951</v>
       </c>
-      <c r="K16" s="6">
+      <c r="L16" s="5">
         <f t="shared" si="2"/>
-        <v>7513.8333333333339</v>
-      </c>
-      <c r="L16" s="6">
-        <f>SUM(K$4:K16)</f>
-        <v>32429.166666666672</v>
-      </c>
-    </row>
-    <row r="17" spans="2:12" x14ac:dyDescent="0.3">
+        <v>4467.5</v>
+      </c>
+      <c r="M16" s="5">
+        <f>SUM(L$4:L16)</f>
+        <v>33674.166666666664</v>
+      </c>
+      <c r="N16" s="5">
+        <f>SUM($L$5:L16)</f>
+        <v>21632.166666666664</v>
+      </c>
+      <c r="O16" s="5">
+        <f>SUM($L$6:L16)</f>
+        <v>22118.499999999996</v>
+      </c>
+      <c r="P16" s="5">
+        <f>SUM($L$7:L16)</f>
+        <v>22807.333333333332</v>
+      </c>
+    </row>
+    <row r="17" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B17">
         <v>7378</v>
       </c>
@@ -23646,7 +23847,7 @@
         <v>2716</v>
       </c>
       <c r="E17">
-        <v>-1230</v>
+        <v>3310</v>
       </c>
       <c r="F17">
         <v>1909</v>
@@ -23654,16 +23855,28 @@
       <c r="G17">
         <v>1360</v>
       </c>
-      <c r="K17" s="6">
+      <c r="L17" s="5">
         <f t="shared" si="2"/>
-        <v>2259.3333333333335</v>
-      </c>
-      <c r="L17" s="6">
-        <f>SUM(K$4:K17)</f>
-        <v>34688.500000000007</v>
-      </c>
-    </row>
-    <row r="18" spans="2:12" x14ac:dyDescent="0.3">
+        <v>3016</v>
+      </c>
+      <c r="M17" s="5">
+        <f>SUM(L$4:L17)</f>
+        <v>36690.166666666664</v>
+      </c>
+      <c r="N17" s="5">
+        <f>SUM($L$5:L17)</f>
+        <v>24648.166666666664</v>
+      </c>
+      <c r="O17" s="5">
+        <f>SUM($L$6:L17)</f>
+        <v>25134.499999999996</v>
+      </c>
+      <c r="P17" s="5">
+        <f>SUM($L$7:L17)</f>
+        <v>25823.333333333332</v>
+      </c>
+    </row>
+    <row r="18" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B18">
         <v>581</v>
       </c>
@@ -23674,7 +23887,7 @@
         <v>-2300</v>
       </c>
       <c r="E18">
-        <v>1710</v>
+        <v>650</v>
       </c>
       <c r="F18">
         <v>-2300</v>
@@ -23682,16 +23895,28 @@
       <c r="G18">
         <v>-1456</v>
       </c>
-      <c r="K18" s="6">
+      <c r="L18" s="5">
         <f t="shared" si="2"/>
-        <v>-649</v>
-      </c>
-      <c r="L18" s="6">
-        <f>SUM(K$4:K18)</f>
-        <v>34039.500000000007</v>
-      </c>
-    </row>
-    <row r="19" spans="2:12" x14ac:dyDescent="0.3">
+        <v>-825.66666666666663</v>
+      </c>
+      <c r="M18" s="5">
+        <f>SUM(L$4:L18)</f>
+        <v>35864.5</v>
+      </c>
+      <c r="N18" s="5">
+        <f>SUM($L$5:L18)</f>
+        <v>23822.499999999996</v>
+      </c>
+      <c r="O18" s="5">
+        <f>SUM($L$6:L18)</f>
+        <v>24308.833333333328</v>
+      </c>
+      <c r="P18" s="5">
+        <f>SUM($L$7:L18)</f>
+        <v>24997.666666666664</v>
+      </c>
+    </row>
+    <row r="19" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B19">
         <v>1832</v>
       </c>
@@ -23702,7 +23927,7 @@
         <v>-2300</v>
       </c>
       <c r="E19">
-        <v>2700</v>
+        <v>-1000</v>
       </c>
       <c r="F19">
         <v>-2300</v>
@@ -23710,16 +23935,28 @@
       <c r="G19">
         <v>8386</v>
       </c>
-      <c r="K19" s="6">
+      <c r="L19" s="5">
         <f t="shared" si="2"/>
-        <v>1427</v>
-      </c>
-      <c r="L19" s="6">
-        <f>SUM(K$4:K19)</f>
-        <v>35466.500000000007</v>
-      </c>
-    </row>
-    <row r="20" spans="2:12" x14ac:dyDescent="0.3">
+        <v>810.33333333333337</v>
+      </c>
+      <c r="M19" s="5">
+        <f>SUM(L$4:L19)</f>
+        <v>36674.833333333336</v>
+      </c>
+      <c r="N19" s="5">
+        <f>SUM($L$5:L19)</f>
+        <v>24632.833333333328</v>
+      </c>
+      <c r="O19" s="5">
+        <f>SUM($L$6:L19)</f>
+        <v>25119.166666666661</v>
+      </c>
+      <c r="P19" s="5">
+        <f>SUM($L$7:L19)</f>
+        <v>25807.999999999996</v>
+      </c>
+    </row>
+    <row r="20" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B20">
         <v>1942</v>
       </c>
@@ -23730,7 +23967,7 @@
         <v>-775</v>
       </c>
       <c r="E20">
-        <v>-2120</v>
+        <v>1160</v>
       </c>
       <c r="F20">
         <v>-1053</v>
@@ -23738,16 +23975,28 @@
       <c r="G20">
         <v>4</v>
       </c>
-      <c r="K20" s="6">
+      <c r="L20" s="5">
         <f t="shared" si="2"/>
-        <v>-387.83333333333331</v>
-      </c>
-      <c r="L20" s="6">
-        <f>SUM(K$4:K20)</f>
-        <v>35078.666666666672</v>
-      </c>
-    </row>
-    <row r="21" spans="2:12" x14ac:dyDescent="0.3">
+        <v>158.83333333333334</v>
+      </c>
+      <c r="M20" s="5">
+        <f>SUM(L$4:L20)</f>
+        <v>36833.666666666672</v>
+      </c>
+      <c r="N20" s="5">
+        <f>SUM($L$5:L20)</f>
+        <v>24791.666666666661</v>
+      </c>
+      <c r="O20" s="5">
+        <f>SUM($L$6:L20)</f>
+        <v>25277.999999999993</v>
+      </c>
+      <c r="P20" s="5">
+        <f>SUM($L$7:L20)</f>
+        <v>25966.833333333328</v>
+      </c>
+    </row>
+    <row r="21" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B21">
         <v>-523</v>
       </c>
@@ -23758,7 +24007,7 @@
         <v>-1890</v>
       </c>
       <c r="E21">
-        <v>-1400</v>
+        <v>-1650</v>
       </c>
       <c r="F21">
         <v>-1895</v>
@@ -23766,16 +24015,28 @@
       <c r="G21">
         <v>-154</v>
       </c>
-      <c r="K21" s="6">
+      <c r="L21" s="5">
         <f t="shared" si="2"/>
-        <v>-880.5</v>
-      </c>
-      <c r="L21" s="6">
-        <f>SUM(K$4:K21)</f>
-        <v>34198.166666666672</v>
-      </c>
-    </row>
-    <row r="22" spans="2:12" x14ac:dyDescent="0.3">
+        <v>-922.16666666666663</v>
+      </c>
+      <c r="M21" s="5">
+        <f>SUM(L$4:L21)</f>
+        <v>35911.500000000007</v>
+      </c>
+      <c r="N21" s="5">
+        <f>SUM($L$5:L21)</f>
+        <v>23869.499999999993</v>
+      </c>
+      <c r="O21" s="5">
+        <f>SUM($L$6:L21)</f>
+        <v>24355.833333333325</v>
+      </c>
+      <c r="P21" s="5">
+        <f>SUM($L$7:L21)</f>
+        <v>25044.666666666661</v>
+      </c>
+    </row>
+    <row r="22" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B22">
         <v>-12</v>
       </c>
@@ -23786,7 +24047,7 @@
         <v>-2100</v>
       </c>
       <c r="E22">
-        <v>580</v>
+        <v>460</v>
       </c>
       <c r="F22">
         <v>-2100</v>
@@ -23794,16 +24055,28 @@
       <c r="G22">
         <v>-1384</v>
       </c>
-      <c r="K22" s="6">
+      <c r="L22" s="5">
         <f t="shared" si="2"/>
-        <v>-740.5</v>
-      </c>
-      <c r="L22" s="6">
-        <f>SUM(K$4:K22)</f>
-        <v>33457.666666666672</v>
-      </c>
-    </row>
-    <row r="23" spans="2:12" x14ac:dyDescent="0.3">
+        <v>-760.5</v>
+      </c>
+      <c r="M22" s="5">
+        <f>SUM(L$4:L22)</f>
+        <v>35151.000000000007</v>
+      </c>
+      <c r="N22" s="5">
+        <f>SUM($L$5:L22)</f>
+        <v>23108.999999999993</v>
+      </c>
+      <c r="O22" s="5">
+        <f>SUM($L$6:L22)</f>
+        <v>23595.333333333325</v>
+      </c>
+      <c r="P22" s="5">
+        <f>SUM($L$7:L22)</f>
+        <v>24284.166666666661</v>
+      </c>
+    </row>
+    <row r="23" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B23">
         <v>2158</v>
       </c>
@@ -23814,7 +24087,7 @@
         <v>1191</v>
       </c>
       <c r="E23">
-        <v>570</v>
+        <v>-910</v>
       </c>
       <c r="F23">
         <v>11</v>
@@ -23822,16 +24095,28 @@
       <c r="G23">
         <v>1978</v>
       </c>
-      <c r="K23" s="6">
+      <c r="L23" s="5">
         <f t="shared" si="2"/>
-        <v>874.33333333333337</v>
-      </c>
-      <c r="L23" s="6">
-        <f>SUM(K$4:K23)</f>
-        <v>34332.000000000007</v>
-      </c>
-    </row>
-    <row r="24" spans="2:12" x14ac:dyDescent="0.3">
+        <v>627.66666666666663</v>
+      </c>
+      <c r="M23" s="5">
+        <f>SUM(L$4:L23)</f>
+        <v>35778.666666666672</v>
+      </c>
+      <c r="N23" s="5">
+        <f>SUM($L$5:L23)</f>
+        <v>23736.666666666661</v>
+      </c>
+      <c r="O23" s="5">
+        <f>SUM($L$6:L23)</f>
+        <v>24222.999999999993</v>
+      </c>
+      <c r="P23" s="5">
+        <f>SUM($L$7:L23)</f>
+        <v>24911.833333333328</v>
+      </c>
+    </row>
+    <row r="24" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B24">
         <v>-863</v>
       </c>
@@ -23842,7 +24127,7 @@
         <v>2789</v>
       </c>
       <c r="E24">
-        <v>950</v>
+        <v>2490</v>
       </c>
       <c r="F24">
         <v>3087</v>
@@ -23850,16 +24135,28 @@
       <c r="G24">
         <v>-26</v>
       </c>
-      <c r="K24" s="6">
+      <c r="L24" s="5">
         <f t="shared" si="2"/>
-        <v>1124.1666666666667</v>
-      </c>
-      <c r="L24" s="6">
-        <f>SUM(K$4:K24)</f>
-        <v>35456.166666666672</v>
-      </c>
-    </row>
-    <row r="25" spans="2:12" x14ac:dyDescent="0.3">
+        <v>1380.8333333333333</v>
+      </c>
+      <c r="M24" s="5">
+        <f>SUM(L$4:L24)</f>
+        <v>37159.500000000007</v>
+      </c>
+      <c r="N24" s="5">
+        <f>SUM($L$5:L24)</f>
+        <v>25117.499999999993</v>
+      </c>
+      <c r="O24" s="5">
+        <f>SUM($L$6:L24)</f>
+        <v>25603.833333333325</v>
+      </c>
+      <c r="P24" s="5">
+        <f>SUM($L$7:L24)</f>
+        <v>26292.666666666661</v>
+      </c>
+    </row>
+    <row r="25" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B25">
         <v>2348</v>
       </c>
@@ -23870,7 +24167,7 @@
         <v>-2200</v>
       </c>
       <c r="E25">
-        <v>-510</v>
+        <v>1120</v>
       </c>
       <c r="F25">
         <v>-2200</v>
@@ -23878,16 +24175,28 @@
       <c r="G25">
         <v>3347</v>
       </c>
-      <c r="K25" s="6">
+      <c r="L25" s="5">
         <f t="shared" si="2"/>
-        <v>243.83333333333334</v>
-      </c>
-      <c r="L25" s="6">
-        <f>SUM(K$4:K25)</f>
-        <v>35700.000000000007</v>
-      </c>
-    </row>
-    <row r="26" spans="2:12" x14ac:dyDescent="0.3">
+        <v>515.5</v>
+      </c>
+      <c r="M25" s="5">
+        <f>SUM(L$4:L25)</f>
+        <v>37675.000000000007</v>
+      </c>
+      <c r="N25" s="5">
+        <f>SUM($L$5:L25)</f>
+        <v>25632.999999999993</v>
+      </c>
+      <c r="O25" s="5">
+        <f>SUM($L$6:L25)</f>
+        <v>26119.333333333325</v>
+      </c>
+      <c r="P25" s="5">
+        <f>SUM($L$7:L25)</f>
+        <v>26808.166666666661</v>
+      </c>
+    </row>
+    <row r="26" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B26">
         <v>-791</v>
       </c>
@@ -23898,7 +24207,7 @@
         <v>-1591</v>
       </c>
       <c r="E26">
-        <v>-900</v>
+        <v>-710</v>
       </c>
       <c r="F26">
         <v>-1583</v>
@@ -23906,16 +24215,28 @@
       <c r="G26">
         <v>-2072</v>
       </c>
-      <c r="K26" s="6">
+      <c r="L26" s="5">
         <f t="shared" si="2"/>
-        <v>-1109.6666666666665</v>
-      </c>
-      <c r="L26" s="6">
-        <f>SUM(K$4:K26)</f>
-        <v>34590.333333333343</v>
-      </c>
-    </row>
-    <row r="27" spans="2:12" x14ac:dyDescent="0.3">
+        <v>-1078</v>
+      </c>
+      <c r="M26" s="5">
+        <f>SUM(L$4:L26)</f>
+        <v>36597.000000000007</v>
+      </c>
+      <c r="N26" s="5">
+        <f>SUM($L$5:L26)</f>
+        <v>24554.999999999993</v>
+      </c>
+      <c r="O26" s="5">
+        <f>SUM($L$6:L26)</f>
+        <v>25041.333333333325</v>
+      </c>
+      <c r="P26" s="5">
+        <f>SUM($L$7:L26)</f>
+        <v>25730.166666666661</v>
+      </c>
+    </row>
+    <row r="27" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B27">
         <v>26</v>
       </c>
@@ -23926,7 +24247,7 @@
         <v>-197</v>
       </c>
       <c r="E27">
-        <v>-1020</v>
+        <v>-350</v>
       </c>
       <c r="F27">
         <v>-192</v>
@@ -23934,16 +24255,28 @@
       <c r="G27">
         <v>-1320</v>
       </c>
-      <c r="K27" s="6">
+      <c r="L27" s="5">
         <f t="shared" si="2"/>
-        <v>-592.66666666666663</v>
-      </c>
-      <c r="L27" s="6">
-        <f>SUM(K$4:K27)</f>
-        <v>33997.666666666679</v>
-      </c>
-    </row>
-    <row r="28" spans="2:12" x14ac:dyDescent="0.3">
+        <v>-480.99999999999994</v>
+      </c>
+      <c r="M27" s="5">
+        <f>SUM(L$4:L27)</f>
+        <v>36116.000000000007</v>
+      </c>
+      <c r="N27" s="5">
+        <f>SUM($L$5:L27)</f>
+        <v>24073.999999999993</v>
+      </c>
+      <c r="O27" s="5">
+        <f>SUM($L$6:L27)</f>
+        <v>24560.333333333325</v>
+      </c>
+      <c r="P27" s="5">
+        <f>SUM($L$7:L27)</f>
+        <v>25249.166666666661</v>
+      </c>
+    </row>
+    <row r="28" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B28">
         <v>37</v>
       </c>
@@ -23954,7 +24287,7 @@
         <v>1966</v>
       </c>
       <c r="E28">
-        <v>-1140</v>
+        <v>968</v>
       </c>
       <c r="F28">
         <v>2283</v>
@@ -23962,16 +24295,28 @@
       <c r="G28">
         <v>-392</v>
       </c>
-      <c r="K28" s="6">
+      <c r="L28" s="5">
         <f t="shared" si="2"/>
-        <v>662.83333333333326</v>
-      </c>
-      <c r="L28" s="6">
-        <f>SUM(K$4:K28)</f>
-        <v>34660.500000000015</v>
-      </c>
-    </row>
-    <row r="29" spans="2:12" x14ac:dyDescent="0.3">
+        <v>1014.1666666666667</v>
+      </c>
+      <c r="M28" s="5">
+        <f>SUM(L$4:L28)</f>
+        <v>37130.166666666672</v>
+      </c>
+      <c r="N28" s="5">
+        <f>SUM($L$5:L28)</f>
+        <v>25088.166666666661</v>
+      </c>
+      <c r="O28" s="5">
+        <f>SUM($L$6:L28)</f>
+        <v>25574.499999999993</v>
+      </c>
+      <c r="P28" s="5">
+        <f>SUM($L$7:L28)</f>
+        <v>26263.333333333328</v>
+      </c>
+    </row>
+    <row r="29" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B29">
         <v>395</v>
       </c>
@@ -23982,7 +24327,7 @@
         <v>-1176</v>
       </c>
       <c r="E29">
-        <v>-1040</v>
+        <v>3390</v>
       </c>
       <c r="F29">
         <v>-919</v>
@@ -23990,16 +24335,28 @@
       <c r="G29">
         <v>2250</v>
       </c>
-      <c r="K29" s="6">
+      <c r="L29" s="5">
         <f t="shared" si="2"/>
-        <v>-91.833333333333329</v>
-      </c>
-      <c r="L29" s="6">
-        <f>SUM(K$4:K29)</f>
-        <v>34568.666666666679</v>
-      </c>
-    </row>
-    <row r="30" spans="2:12" x14ac:dyDescent="0.3">
+        <v>646.5</v>
+      </c>
+      <c r="M29" s="5">
+        <f>SUM(L$4:L29)</f>
+        <v>37776.666666666672</v>
+      </c>
+      <c r="N29" s="5">
+        <f>SUM($L$5:L29)</f>
+        <v>25734.666666666661</v>
+      </c>
+      <c r="O29" s="5">
+        <f>SUM($L$6:L29)</f>
+        <v>26220.999999999993</v>
+      </c>
+      <c r="P29" s="5">
+        <f>SUM($L$7:L29)</f>
+        <v>26909.833333333328</v>
+      </c>
+    </row>
+    <row r="30" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B30">
         <v>-1407</v>
       </c>
@@ -24010,7 +24367,7 @@
         <v>-713</v>
       </c>
       <c r="E30">
-        <v>-760</v>
+        <v>2600</v>
       </c>
       <c r="F30">
         <v>-897</v>
@@ -24018,16 +24375,28 @@
       <c r="G30">
         <v>1038</v>
       </c>
-      <c r="K30" s="6">
+      <c r="L30" s="5">
         <f t="shared" si="2"/>
-        <v>-371.5</v>
-      </c>
-      <c r="L30" s="6">
-        <f>SUM(K$4:K30)</f>
-        <v>34197.166666666679</v>
-      </c>
-    </row>
-    <row r="31" spans="2:12" x14ac:dyDescent="0.3">
+        <v>188.5</v>
+      </c>
+      <c r="M30" s="5">
+        <f>SUM(L$4:L30)</f>
+        <v>37965.166666666672</v>
+      </c>
+      <c r="N30" s="5">
+        <f>SUM($L$5:L30)</f>
+        <v>25923.166666666661</v>
+      </c>
+      <c r="O30" s="5">
+        <f>SUM($L$6:L30)</f>
+        <v>26409.499999999993</v>
+      </c>
+      <c r="P30" s="5">
+        <f>SUM($L$7:L30)</f>
+        <v>27098.333333333328</v>
+      </c>
+    </row>
+    <row r="31" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B31">
         <v>3669</v>
       </c>
@@ -24038,7 +24407,7 @@
         <v>24679</v>
       </c>
       <c r="E31">
-        <v>-20</v>
+        <v>3234</v>
       </c>
       <c r="F31">
         <v>30195</v>
@@ -24046,16 +24415,28 @@
       <c r="G31">
         <v>-2144</v>
       </c>
-      <c r="K31" s="6">
+      <c r="L31" s="5">
         <f t="shared" si="2"/>
-        <v>9617.8333333333321</v>
-      </c>
-      <c r="L31" s="6">
-        <f>SUM(K$4:K31)</f>
-        <v>43815.000000000015</v>
-      </c>
-    </row>
-    <row r="32" spans="2:12" x14ac:dyDescent="0.3">
+        <v>10160.166666666668</v>
+      </c>
+      <c r="M31" s="5">
+        <f>SUM(L$4:L31)</f>
+        <v>48125.333333333343</v>
+      </c>
+      <c r="N31" s="5">
+        <f>SUM($L$5:L31)</f>
+        <v>36083.333333333328</v>
+      </c>
+      <c r="O31" s="5">
+        <f>SUM($L$6:L31)</f>
+        <v>36569.666666666657</v>
+      </c>
+      <c r="P31" s="5">
+        <f>SUM($L$7:L31)</f>
+        <v>37258.5</v>
+      </c>
+    </row>
+    <row r="32" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B32">
         <v>-1292</v>
       </c>
@@ -24066,7 +24447,7 @@
         <v>-82</v>
       </c>
       <c r="E32">
-        <v>-520</v>
+        <v>1110</v>
       </c>
       <c r="F32">
         <v>-252</v>
@@ -24074,16 +24455,31 @@
       <c r="G32">
         <v>-1944</v>
       </c>
-      <c r="K32" s="6">
+      <c r="H32">
+        <v>-1287</v>
+      </c>
+      <c r="L32" s="5">
         <f t="shared" si="2"/>
-        <v>-611.33333333333337</v>
-      </c>
-      <c r="L32" s="6">
-        <f>SUM(K$4:K32)</f>
-        <v>43203.666666666679</v>
-      </c>
-    </row>
-    <row r="33" spans="2:12" x14ac:dyDescent="0.3">
+        <v>-339.66666666666663</v>
+      </c>
+      <c r="M32" s="5">
+        <f>SUM(L$4:L32)</f>
+        <v>47785.666666666679</v>
+      </c>
+      <c r="N32" s="5">
+        <f>SUM($L$5:L32)</f>
+        <v>35743.666666666664</v>
+      </c>
+      <c r="O32" s="5">
+        <f>SUM($L$6:L32)</f>
+        <v>36229.999999999993</v>
+      </c>
+      <c r="P32" s="5">
+        <f>SUM($L$7:L32)</f>
+        <v>36918.833333333336</v>
+      </c>
+    </row>
+    <row r="33" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B33">
         <v>1443</v>
       </c>
@@ -24094,7 +24490,7 @@
         <v>12559</v>
       </c>
       <c r="E33">
-        <v>1242</v>
+        <v>360</v>
       </c>
       <c r="F33">
         <v>20656</v>
@@ -24102,16 +24498,31 @@
       <c r="G33">
         <v>-780</v>
       </c>
-      <c r="K33" s="6">
+      <c r="H33">
+        <v>-598</v>
+      </c>
+      <c r="L33" s="5">
         <f t="shared" si="2"/>
-        <v>5850.333333333333</v>
-      </c>
-      <c r="L33" s="6">
-        <f>SUM(K$4:K33)</f>
-        <v>49054.000000000015</v>
-      </c>
-    </row>
-    <row r="34" spans="2:12" x14ac:dyDescent="0.3">
+        <v>5703.333333333333</v>
+      </c>
+      <c r="M33" s="5">
+        <f>SUM(L$4:L33)</f>
+        <v>53489.000000000015</v>
+      </c>
+      <c r="N33" s="5">
+        <f>SUM($L$5:L33)</f>
+        <v>41447</v>
+      </c>
+      <c r="O33" s="5">
+        <f>SUM($L$6:L33)</f>
+        <v>41933.333333333328</v>
+      </c>
+      <c r="P33" s="5">
+        <f>SUM($L$7:L33)</f>
+        <v>42622.166666666672</v>
+      </c>
+    </row>
+    <row r="34" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B34">
         <v>-217</v>
       </c>
@@ -24122,7 +24533,7 @@
         <v>193</v>
       </c>
       <c r="E34">
-        <v>1870</v>
+        <v>2200</v>
       </c>
       <c r="F34">
         <v>208</v>
@@ -24130,16 +24541,31 @@
       <c r="G34">
         <v>5284</v>
       </c>
-      <c r="K34" s="6">
+      <c r="H34">
+        <v>10459</v>
+      </c>
+      <c r="L34" s="5">
         <f t="shared" si="2"/>
-        <v>1302</v>
-      </c>
-      <c r="L34" s="6">
-        <f>SUM(K$4:K34)</f>
-        <v>50356.000000000015</v>
-      </c>
-    </row>
-    <row r="35" spans="2:12" x14ac:dyDescent="0.3">
+        <v>1357</v>
+      </c>
+      <c r="M34" s="5">
+        <f>SUM(L$4:L34)</f>
+        <v>54846.000000000015</v>
+      </c>
+      <c r="N34" s="5">
+        <f>SUM($L$5:L34)</f>
+        <v>42804</v>
+      </c>
+      <c r="O34" s="5">
+        <f>SUM($L$6:L34)</f>
+        <v>43290.333333333328</v>
+      </c>
+      <c r="P34" s="5">
+        <f>SUM($L$7:L34)</f>
+        <v>43979.166666666672</v>
+      </c>
+    </row>
+    <row r="35" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B35">
         <v>-1732</v>
       </c>
@@ -24150,7 +24576,7 @@
         <v>5103</v>
       </c>
       <c r="E35">
-        <v>3274</v>
+        <v>1280</v>
       </c>
       <c r="F35">
         <v>7606</v>
@@ -24158,16 +24584,31 @@
       <c r="G35">
         <v>-362</v>
       </c>
-      <c r="K35" s="6">
+      <c r="H35">
+        <v>1375</v>
+      </c>
+      <c r="L35" s="5">
         <f t="shared" si="2"/>
-        <v>2378.1666666666665</v>
-      </c>
-      <c r="L35" s="6">
-        <f>SUM(K$4:K35)</f>
-        <v>52734.166666666679</v>
-      </c>
-    </row>
-    <row r="36" spans="2:12" x14ac:dyDescent="0.3">
+        <v>2045.8333333333333</v>
+      </c>
+      <c r="M35" s="5">
+        <f>SUM(L$4:L35)</f>
+        <v>56891.83333333335</v>
+      </c>
+      <c r="N35" s="5">
+        <f>SUM($L$5:L35)</f>
+        <v>44849.833333333336</v>
+      </c>
+      <c r="O35" s="5">
+        <f>SUM($L$6:L35)</f>
+        <v>45336.166666666664</v>
+      </c>
+      <c r="P35" s="5">
+        <f>SUM($L$7:L35)</f>
+        <v>46025.000000000007</v>
+      </c>
+    </row>
+    <row r="36" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B36">
         <v>198</v>
       </c>
@@ -24178,7 +24619,7 @@
         <v>116</v>
       </c>
       <c r="E36">
-        <v>120</v>
+        <v>660</v>
       </c>
       <c r="F36">
         <v>487</v>
@@ -24186,16 +24627,31 @@
       <c r="G36">
         <v>-1384</v>
       </c>
-      <c r="K36" s="6">
+      <c r="H36">
+        <v>-1188</v>
+      </c>
+      <c r="L36" s="5">
         <f t="shared" si="2"/>
-        <v>-54.500000000000007</v>
-      </c>
-      <c r="L36" s="6">
-        <f>SUM(K$4:K36)</f>
-        <v>52679.666666666679</v>
-      </c>
-    </row>
-    <row r="37" spans="2:12" x14ac:dyDescent="0.3">
+        <v>35.5</v>
+      </c>
+      <c r="M36" s="5">
+        <f>SUM(L$4:L36)</f>
+        <v>56927.33333333335</v>
+      </c>
+      <c r="N36" s="5">
+        <f>SUM($L$5:L36)</f>
+        <v>44885.333333333336</v>
+      </c>
+      <c r="O36" s="5">
+        <f>SUM($L$6:L36)</f>
+        <v>45371.666666666664</v>
+      </c>
+      <c r="P36" s="5">
+        <f>SUM($L$7:L36)</f>
+        <v>46060.500000000007</v>
+      </c>
+    </row>
+    <row r="37" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B37">
         <v>-1785</v>
       </c>
@@ -24206,7 +24662,7 @@
         <v>904</v>
       </c>
       <c r="E37">
-        <v>574</v>
+        <v>3360</v>
       </c>
       <c r="F37">
         <v>702</v>
@@ -24214,16 +24670,31 @@
       <c r="G37">
         <v>80</v>
       </c>
-      <c r="K37" s="6">
+      <c r="H37">
+        <v>-154</v>
+      </c>
+      <c r="L37" s="5">
         <f t="shared" si="2"/>
-        <v>220.66666666666666</v>
-      </c>
-      <c r="L37" s="6">
-        <f>SUM(K$4:K37)</f>
-        <v>52900.333333333343</v>
-      </c>
-    </row>
-    <row r="38" spans="2:12" x14ac:dyDescent="0.3">
+        <v>685</v>
+      </c>
+      <c r="M37" s="5">
+        <f>SUM(L$4:L37)</f>
+        <v>57612.33333333335</v>
+      </c>
+      <c r="N37" s="5">
+        <f>SUM($L$5:L37)</f>
+        <v>45570.333333333336</v>
+      </c>
+      <c r="O37" s="5">
+        <f>SUM($L$6:L37)</f>
+        <v>46056.666666666664</v>
+      </c>
+      <c r="P37" s="5">
+        <f>SUM($L$7:L37)</f>
+        <v>46745.500000000007</v>
+      </c>
+    </row>
+    <row r="38" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B38">
         <v>2816</v>
       </c>
@@ -24234,7 +24705,7 @@
         <v>-507</v>
       </c>
       <c r="E38">
-        <v>-1640</v>
+        <v>2130</v>
       </c>
       <c r="F38">
         <v>-745</v>
@@ -24242,16 +24713,31 @@
       <c r="G38">
         <v>1021</v>
       </c>
-      <c r="K38" s="6">
+      <c r="H38">
+        <v>-2213</v>
+      </c>
+      <c r="L38" s="5">
         <f t="shared" si="2"/>
-        <v>156.66666666666666</v>
-      </c>
-      <c r="L38" s="6">
-        <f>SUM(K$4:K38)</f>
-        <v>53057.000000000007</v>
-      </c>
-    </row>
-    <row r="39" spans="2:12" x14ac:dyDescent="0.3">
+        <v>785</v>
+      </c>
+      <c r="M38" s="5">
+        <f>SUM(L$4:L38)</f>
+        <v>58397.33333333335</v>
+      </c>
+      <c r="N38" s="5">
+        <f>SUM($L$5:L38)</f>
+        <v>46355.333333333336</v>
+      </c>
+      <c r="O38" s="5">
+        <f>SUM($L$6:L38)</f>
+        <v>46841.666666666664</v>
+      </c>
+      <c r="P38" s="5">
+        <f>SUM($L$7:L38)</f>
+        <v>47530.500000000007</v>
+      </c>
+    </row>
+    <row r="39" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B39">
         <v>-281</v>
       </c>
@@ -24262,7 +24748,7 @@
         <v>-848</v>
       </c>
       <c r="E39">
-        <v>1738</v>
+        <v>-870</v>
       </c>
       <c r="F39">
         <v>-726</v>
@@ -24270,16 +24756,31 @@
       <c r="G39">
         <v>3585</v>
       </c>
-      <c r="K39" s="6">
+      <c r="H39">
+        <v>1539</v>
+      </c>
+      <c r="L39" s="5">
         <f t="shared" si="2"/>
-        <v>400.5</v>
-      </c>
-      <c r="L39" s="6">
-        <f>SUM(K$4:K39)</f>
-        <v>53457.500000000007</v>
-      </c>
-    </row>
-    <row r="40" spans="2:12" x14ac:dyDescent="0.3">
+        <v>-34.166666666666664</v>
+      </c>
+      <c r="M39" s="5">
+        <f>SUM(L$4:L39)</f>
+        <v>58363.166666666686</v>
+      </c>
+      <c r="N39" s="5">
+        <f>SUM($L$5:L39)</f>
+        <v>46321.166666666672</v>
+      </c>
+      <c r="O39" s="5">
+        <f>SUM($L$6:L39)</f>
+        <v>46807.5</v>
+      </c>
+      <c r="P39" s="5">
+        <f>SUM($L$7:L39)</f>
+        <v>47496.333333333343</v>
+      </c>
+    </row>
+    <row r="40" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B40">
         <v>-26</v>
       </c>
@@ -24290,7 +24791,7 @@
         <v>-2300</v>
       </c>
       <c r="E40">
-        <v>270</v>
+        <v>-1540</v>
       </c>
       <c r="F40">
         <v>-2300</v>
@@ -24298,16 +24799,31 @@
       <c r="G40">
         <v>574</v>
       </c>
-      <c r="K40" s="6">
+      <c r="H40">
+        <v>210</v>
+      </c>
+      <c r="L40" s="5">
         <f t="shared" si="2"/>
-        <v>-533</v>
-      </c>
-      <c r="L40" s="6">
-        <f>SUM(K$4:K40)</f>
-        <v>52924.500000000007</v>
-      </c>
-    </row>
-    <row r="41" spans="2:12" x14ac:dyDescent="0.3">
+        <v>-834.66666666666663</v>
+      </c>
+      <c r="M40" s="5">
+        <f>SUM(L$4:L40)</f>
+        <v>57528.500000000022</v>
+      </c>
+      <c r="N40" s="5">
+        <f>SUM($L$5:L40)</f>
+        <v>45486.500000000007</v>
+      </c>
+      <c r="O40" s="5">
+        <f>SUM($L$6:L40)</f>
+        <v>45972.833333333336</v>
+      </c>
+      <c r="P40" s="5">
+        <f>SUM($L$7:L40)</f>
+        <v>46661.666666666679</v>
+      </c>
+    </row>
+    <row r="41" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B41">
         <v>990</v>
       </c>
@@ -24318,7 +24834,7 @@
         <v>853</v>
       </c>
       <c r="E41">
-        <v>-1230</v>
+        <v>160</v>
       </c>
       <c r="F41">
         <v>577</v>
@@ -24326,16 +24842,31 @@
       <c r="G41">
         <v>-1498</v>
       </c>
-      <c r="K41" s="6">
+      <c r="H41">
+        <v>-2020</v>
+      </c>
+      <c r="L41" s="5">
         <f t="shared" si="2"/>
-        <v>-17.5</v>
-      </c>
-      <c r="L41" s="6">
-        <f>SUM(K$4:K41)</f>
-        <v>52907.000000000007</v>
-      </c>
-    </row>
-    <row r="42" spans="2:12" x14ac:dyDescent="0.3">
+        <v>214.16666666666666</v>
+      </c>
+      <c r="M41" s="5">
+        <f>SUM(L$4:L41)</f>
+        <v>57742.666666666686</v>
+      </c>
+      <c r="N41" s="5">
+        <f>SUM($L$5:L41)</f>
+        <v>45700.666666666672</v>
+      </c>
+      <c r="O41" s="5">
+        <f>SUM($L$6:L41)</f>
+        <v>46187</v>
+      </c>
+      <c r="P41" s="5">
+        <f>SUM($L$7:L41)</f>
+        <v>46875.833333333343</v>
+      </c>
+    </row>
+    <row r="42" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B42">
         <v>-1817</v>
       </c>
@@ -24346,7 +24877,7 @@
         <v>-523</v>
       </c>
       <c r="E42">
-        <v>3690</v>
+        <v>-550</v>
       </c>
       <c r="F42">
         <v>-541</v>
@@ -24354,16 +24885,32 @@
       <c r="G42">
         <v>15263</v>
       </c>
-      <c r="K42" s="6">
+      <c r="H42">
+        <v>1815</v>
+      </c>
+      <c r="L42" s="5">
         <f t="shared" si="2"/>
-        <v>2859.1666666666665</v>
-      </c>
-      <c r="L42" s="6">
-        <f>SUM(K$4:K42)</f>
-        <v>55766.166666666672</v>
-      </c>
-    </row>
-    <row r="43" spans="2:12" x14ac:dyDescent="0.3">
+        <v>2152.5</v>
+      </c>
+      <c r="M42" s="5">
+        <f>SUM(L$4:L42)</f>
+        <v>59895.166666666686</v>
+      </c>
+      <c r="N42" s="5">
+        <f>SUM($L$5:L42)</f>
+        <v>47853.166666666672</v>
+      </c>
+      <c r="O42" s="5">
+        <f>SUM($L$6:L42)</f>
+        <v>48339.5</v>
+      </c>
+      <c r="P42" s="5">
+        <f>SUM($L$7:L42)</f>
+        <v>49028.333333333343</v>
+      </c>
+      <c r="R42" s="5"/>
+    </row>
+    <row r="43" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B43">
         <v>2440</v>
       </c>
@@ -24374,7 +24921,7 @@
         <v>-1202</v>
       </c>
       <c r="E43">
-        <v>-1590</v>
+        <v>1780</v>
       </c>
       <c r="F43">
         <v>-1314</v>
@@ -24382,16 +24929,31 @@
       <c r="G43">
         <v>2244</v>
       </c>
-      <c r="K43" s="6">
+      <c r="H43">
+        <v>205</v>
+      </c>
+      <c r="L43" s="5">
         <f t="shared" si="2"/>
-        <v>323.83333333333331</v>
-      </c>
-      <c r="L43" s="6">
-        <f>SUM(K$4:K43)</f>
-        <v>56090.000000000007</v>
-      </c>
-    </row>
-    <row r="44" spans="2:12" x14ac:dyDescent="0.3">
+        <v>885.5</v>
+      </c>
+      <c r="M43" s="5">
+        <f>SUM(L$4:L43)</f>
+        <v>60780.666666666686</v>
+      </c>
+      <c r="N43" s="5">
+        <f>SUM($L$5:L43)</f>
+        <v>48738.666666666672</v>
+      </c>
+      <c r="O43" s="5">
+        <f>SUM($L$6:L43)</f>
+        <v>49225</v>
+      </c>
+      <c r="P43" s="5">
+        <f>SUM($L$7:L43)</f>
+        <v>49913.833333333343</v>
+      </c>
+    </row>
+    <row r="44" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B44">
         <v>4577</v>
       </c>
@@ -24402,7 +24964,7 @@
         <v>233</v>
       </c>
       <c r="E44">
-        <v>-450</v>
+        <v>-1320</v>
       </c>
       <c r="F44">
         <v>260</v>
@@ -24410,16 +24972,31 @@
       <c r="G44">
         <v>-726</v>
       </c>
-      <c r="K44" s="6">
+      <c r="H44">
+        <v>-2050</v>
+      </c>
+      <c r="L44" s="5">
         <f t="shared" si="2"/>
-        <v>684.5</v>
-      </c>
-      <c r="L44" s="6">
-        <f>SUM(K$4:K44)</f>
-        <v>56774.500000000007</v>
-      </c>
-    </row>
-    <row r="45" spans="2:12" x14ac:dyDescent="0.3">
+        <v>539.5</v>
+      </c>
+      <c r="M44" s="5">
+        <f>SUM(L$4:L44)</f>
+        <v>61320.166666666686</v>
+      </c>
+      <c r="N44" s="5">
+        <f>SUM($L$5:L44)</f>
+        <v>49278.166666666672</v>
+      </c>
+      <c r="O44" s="5">
+        <f>SUM($L$6:L44)</f>
+        <v>49764.5</v>
+      </c>
+      <c r="P44" s="5">
+        <f>SUM($L$7:L44)</f>
+        <v>50453.333333333343</v>
+      </c>
+    </row>
+    <row r="45" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B45">
         <v>2391</v>
       </c>
@@ -24430,7 +25007,7 @@
         <v>22159</v>
       </c>
       <c r="E45">
-        <v>330</v>
+        <v>2600</v>
       </c>
       <c r="F45">
         <v>17366</v>
@@ -24438,16 +25015,31 @@
       <c r="G45">
         <v>21654</v>
       </c>
-      <c r="K45" s="6">
+      <c r="H45">
+        <v>51983</v>
+      </c>
+      <c r="L45" s="5">
         <f t="shared" si="2"/>
-        <v>10674.5</v>
-      </c>
-      <c r="L45" s="6">
-        <f>SUM(K$4:K45)</f>
-        <v>67449</v>
-      </c>
-    </row>
-    <row r="46" spans="2:12" x14ac:dyDescent="0.3">
+        <v>11052.833333333334</v>
+      </c>
+      <c r="M45" s="5">
+        <f>SUM(L$4:L45)</f>
+        <v>72373.000000000015</v>
+      </c>
+      <c r="N45" s="5">
+        <f>SUM($L$5:L45)</f>
+        <v>60331.000000000007</v>
+      </c>
+      <c r="O45" s="5">
+        <f>SUM($L$6:L45)</f>
+        <v>60817.333333333336</v>
+      </c>
+      <c r="P45" s="5">
+        <f>SUM($L$7:L45)</f>
+        <v>61506.166666666679</v>
+      </c>
+    </row>
+    <row r="46" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B46">
         <v>-848</v>
       </c>
@@ -24458,7 +25050,7 @@
         <v>553</v>
       </c>
       <c r="E46">
-        <v>-120</v>
+        <v>-1410</v>
       </c>
       <c r="F46">
         <v>1635</v>
@@ -24466,16 +25058,31 @@
       <c r="G46">
         <v>-1062</v>
       </c>
-      <c r="K46" s="6">
+      <c r="H46">
+        <v>-947</v>
+      </c>
+      <c r="L46" s="5">
         <f t="shared" si="2"/>
-        <v>57.833333333333336</v>
-      </c>
-      <c r="L46" s="6">
-        <f>SUM(K$4:K46)</f>
-        <v>67506.833333333328</v>
-      </c>
-    </row>
-    <row r="47" spans="2:12" x14ac:dyDescent="0.3">
+        <v>-157.16666666666669</v>
+      </c>
+      <c r="M46" s="5">
+        <f>SUM(L$4:L46)</f>
+        <v>72215.833333333343</v>
+      </c>
+      <c r="N46" s="5">
+        <f>SUM($L$5:L46)</f>
+        <v>60173.833333333343</v>
+      </c>
+      <c r="O46" s="5">
+        <f>SUM($L$6:L46)</f>
+        <v>60660.166666666672</v>
+      </c>
+      <c r="P46" s="5">
+        <f>SUM($L$7:L46)</f>
+        <v>61349.000000000015</v>
+      </c>
+    </row>
+    <row r="47" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B47">
         <v>-1037</v>
       </c>
@@ -24486,7 +25093,7 @@
         <v>-1372</v>
       </c>
       <c r="E47">
-        <v>3610</v>
+        <v>-870</v>
       </c>
       <c r="F47">
         <v>-1504</v>
@@ -24494,16 +25101,31 @@
       <c r="G47">
         <v>-486</v>
       </c>
-      <c r="K47" s="6">
+      <c r="H47">
+        <v>-1520</v>
+      </c>
+      <c r="L47" s="5">
         <f t="shared" si="2"/>
-        <v>-119.16666666666667</v>
-      </c>
-      <c r="L47" s="6">
-        <f>SUM(K$4:K47)</f>
-        <v>67387.666666666657</v>
-      </c>
-    </row>
-    <row r="48" spans="2:12" x14ac:dyDescent="0.3">
+        <v>-865.83333333333337</v>
+      </c>
+      <c r="M47" s="5">
+        <f>SUM(L$4:L47)</f>
+        <v>71350.000000000015</v>
+      </c>
+      <c r="N47" s="5">
+        <f>SUM($L$5:L47)</f>
+        <v>59308.000000000007</v>
+      </c>
+      <c r="O47" s="5">
+        <f>SUM($L$6:L47)</f>
+        <v>59794.333333333336</v>
+      </c>
+      <c r="P47" s="5">
+        <f>SUM($L$7:L47)</f>
+        <v>60483.166666666679</v>
+      </c>
+    </row>
+    <row r="48" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B48">
         <v>-794</v>
       </c>
@@ -24514,7 +25136,7 @@
         <v>-853</v>
       </c>
       <c r="E48">
-        <v>2080</v>
+        <v>940</v>
       </c>
       <c r="F48">
         <v>-725</v>
@@ -24522,16 +25144,31 @@
       <c r="G48">
         <v>1748</v>
       </c>
-      <c r="K48" s="6">
+      <c r="H48">
+        <v>809</v>
+      </c>
+      <c r="L48" s="5">
         <f t="shared" si="2"/>
-        <v>564.66666666666663</v>
-      </c>
-      <c r="L48" s="6">
-        <f>SUM(K$4:K48)</f>
-        <v>67952.333333333328</v>
-      </c>
-    </row>
-    <row r="49" spans="2:12" x14ac:dyDescent="0.3">
+        <v>374.66666666666669</v>
+      </c>
+      <c r="M48" s="5">
+        <f>SUM(L$4:L48)</f>
+        <v>71724.666666666686</v>
+      </c>
+      <c r="N48" s="5">
+        <f>SUM($L$5:L48)</f>
+        <v>59682.666666666672</v>
+      </c>
+      <c r="O48" s="5">
+        <f>SUM($L$6:L48)</f>
+        <v>60169</v>
+      </c>
+      <c r="P48" s="5">
+        <f>SUM($L$7:L48)</f>
+        <v>60857.833333333343</v>
+      </c>
+    </row>
+    <row r="49" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B49">
         <v>734</v>
       </c>
@@ -24542,7 +25179,7 @@
         <v>-1860</v>
       </c>
       <c r="E49">
-        <v>-240</v>
+        <v>840</v>
       </c>
       <c r="F49">
         <v>-1881</v>
@@ -24550,16 +25187,31 @@
       <c r="G49">
         <v>-1464</v>
       </c>
-      <c r="K49" s="6">
+      <c r="H49">
+        <v>1845</v>
+      </c>
+      <c r="L49" s="5">
         <f t="shared" si="2"/>
-        <v>-833.83333333333326</v>
-      </c>
-      <c r="L49" s="6">
-        <f>SUM(K$4:K49)</f>
-        <v>67118.5</v>
-      </c>
-    </row>
-    <row r="50" spans="2:12" x14ac:dyDescent="0.3">
+        <v>-653.83333333333326</v>
+      </c>
+      <c r="M49" s="5">
+        <f>SUM(L$4:L49)</f>
+        <v>71070.833333333358</v>
+      </c>
+      <c r="N49" s="5">
+        <f>SUM($L$5:L49)</f>
+        <v>59028.833333333336</v>
+      </c>
+      <c r="O49" s="5">
+        <f>SUM($L$6:L49)</f>
+        <v>59515.166666666664</v>
+      </c>
+      <c r="P49" s="5">
+        <f>SUM($L$7:L49)</f>
+        <v>60204.000000000007</v>
+      </c>
+    </row>
+    <row r="50" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B50">
         <v>-1874</v>
       </c>
@@ -24570,7 +25222,7 @@
         <v>-1701</v>
       </c>
       <c r="E50">
-        <v>-1140</v>
+        <v>-1430</v>
       </c>
       <c r="F50">
         <v>-1733</v>
@@ -24578,16 +25230,31 @@
       <c r="G50">
         <v>-1386</v>
       </c>
-      <c r="K50" s="6">
+      <c r="H50">
+        <v>-1411</v>
+      </c>
+      <c r="L50" s="5">
         <f t="shared" si="2"/>
-        <v>-1209</v>
-      </c>
-      <c r="L50" s="6">
-        <f>SUM(K$4:K50)</f>
-        <v>65909.5</v>
-      </c>
-    </row>
-    <row r="51" spans="2:12" x14ac:dyDescent="0.3">
+        <v>-1257.3333333333335</v>
+      </c>
+      <c r="M50" s="5">
+        <f>SUM(L$4:L50)</f>
+        <v>69813.500000000029</v>
+      </c>
+      <c r="N50" s="5">
+        <f>SUM($L$5:L50)</f>
+        <v>57771.5</v>
+      </c>
+      <c r="O50" s="5">
+        <f>SUM($L$6:L50)</f>
+        <v>58257.833333333328</v>
+      </c>
+      <c r="P50" s="5">
+        <f>SUM($L$7:L50)</f>
+        <v>58946.666666666672</v>
+      </c>
+    </row>
+    <row r="51" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B51">
         <v>3289</v>
       </c>
@@ -24598,7 +25265,7 @@
         <v>-1900</v>
       </c>
       <c r="E51">
-        <v>-890</v>
+        <v>810</v>
       </c>
       <c r="F51">
         <v>-1946</v>
@@ -24606,16 +25273,31 @@
       <c r="G51">
         <v>853</v>
       </c>
-      <c r="K51" s="6">
+      <c r="H51">
+        <v>-886</v>
+      </c>
+      <c r="L51" s="5">
         <f t="shared" si="2"/>
-        <v>-30.166666666666668</v>
-      </c>
-      <c r="L51" s="6">
-        <f>SUM(K$4:K51)</f>
-        <v>65879.333333333328</v>
-      </c>
-    </row>
-    <row r="52" spans="2:12" x14ac:dyDescent="0.3">
+        <v>253.16666666666669</v>
+      </c>
+      <c r="M51" s="5">
+        <f>SUM(L$4:L51)</f>
+        <v>70066.666666666701</v>
+      </c>
+      <c r="N51" s="5">
+        <f>SUM($L$5:L51)</f>
+        <v>58024.666666666664</v>
+      </c>
+      <c r="O51" s="5">
+        <f>SUM($L$6:L51)</f>
+        <v>58510.999999999993</v>
+      </c>
+      <c r="P51" s="5">
+        <f>SUM($L$7:L51)</f>
+        <v>59199.833333333336</v>
+      </c>
+    </row>
+    <row r="52" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B52">
         <v>981</v>
       </c>
@@ -24626,7 +25308,7 @@
         <v>-1651</v>
       </c>
       <c r="E52">
-        <v>-1220</v>
+        <v>-390</v>
       </c>
       <c r="F52">
         <v>-1628</v>
@@ -24634,24 +25316,1790 @@
       <c r="G52">
         <v>-300</v>
       </c>
-      <c r="K52" s="6">
+      <c r="H52">
+        <v>460</v>
+      </c>
+      <c r="L52" s="5">
         <f t="shared" si="2"/>
-        <v>-718.83333333333337</v>
-      </c>
-      <c r="L52" s="6">
-        <f>SUM(K$4:K52)</f>
-        <v>65160.499999999993</v>
-      </c>
+        <v>-580.5</v>
+      </c>
+      <c r="M52" s="5">
+        <f>SUM(L$4:L52)</f>
+        <v>69486.166666666701</v>
+      </c>
+      <c r="N52" s="5">
+        <f>SUM($L$5:L52)</f>
+        <v>57444.166666666664</v>
+      </c>
+      <c r="O52" s="5">
+        <f>SUM($L$6:L52)</f>
+        <v>57930.499999999993</v>
+      </c>
+      <c r="P52" s="5">
+        <f>SUM($L$7:L52)</f>
+        <v>58619.333333333336</v>
+      </c>
+    </row>
+    <row r="53" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="N53" s="5"/>
+      <c r="P53" s="5"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="B1:G1048576">
-    <cfRule type="expression" dxfId="1" priority="1">
+  <conditionalFormatting sqref="B1:G1048576 H2:I2">
+    <cfRule type="expression" dxfId="2" priority="2">
       <formula>B1&gt;20000</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="H3">
+    <cfRule type="expression" dxfId="1" priority="1">
+      <formula>H3&gt;20000</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="C3:AA24"/>
+  <sheetViews>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="L3" sqref="L3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="3" spans="3:27" x14ac:dyDescent="0.3">
+      <c r="C3">
+        <f>SUM(C4:C94)</f>
+        <v>-28762</v>
+      </c>
+      <c r="D3">
+        <f t="shared" ref="D3:AA3" si="0">SUM(D4:D94)</f>
+        <v>-22644</v>
+      </c>
+      <c r="E3">
+        <f t="shared" si="0"/>
+        <v>-6100</v>
+      </c>
+      <c r="F3">
+        <f t="shared" si="0"/>
+        <v>-19579</v>
+      </c>
+      <c r="G3">
+        <f t="shared" si="0"/>
+        <v>-13505</v>
+      </c>
+      <c r="H3">
+        <f t="shared" si="0"/>
+        <v>285384</v>
+      </c>
+      <c r="I3">
+        <f t="shared" si="0"/>
+        <v>-8518</v>
+      </c>
+      <c r="J3">
+        <f t="shared" si="0"/>
+        <v>-33204</v>
+      </c>
+      <c r="K3">
+        <f t="shared" si="0"/>
+        <v>-24498</v>
+      </c>
+      <c r="L3">
+        <f t="shared" si="0"/>
+        <v>-43244</v>
+      </c>
+      <c r="M3">
+        <f t="shared" si="0"/>
+        <v>-7023</v>
+      </c>
+      <c r="N3">
+        <f t="shared" si="0"/>
+        <v>-33508</v>
+      </c>
+      <c r="O3">
+        <f t="shared" si="0"/>
+        <v>-29760</v>
+      </c>
+      <c r="P3">
+        <f t="shared" si="0"/>
+        <v>-45570</v>
+      </c>
+      <c r="Q3">
+        <f t="shared" si="0"/>
+        <v>82625</v>
+      </c>
+      <c r="R3">
+        <f t="shared" si="0"/>
+        <v>15562</v>
+      </c>
+      <c r="S3">
+        <f t="shared" si="0"/>
+        <v>1291</v>
+      </c>
+      <c r="T3">
+        <f t="shared" si="0"/>
+        <v>-28508</v>
+      </c>
+      <c r="U3">
+        <f t="shared" si="0"/>
+        <v>2715</v>
+      </c>
+      <c r="V3">
+        <f t="shared" si="0"/>
+        <v>-41356</v>
+      </c>
+      <c r="W3">
+        <f t="shared" si="0"/>
+        <v>1290153</v>
+      </c>
+      <c r="X3">
+        <f t="shared" si="0"/>
+        <v>-17420</v>
+      </c>
+      <c r="Y3">
+        <f t="shared" si="0"/>
+        <v>-26508</v>
+      </c>
+      <c r="Z3">
+        <f t="shared" si="0"/>
+        <v>1394</v>
+      </c>
+      <c r="AA3">
+        <f t="shared" si="0"/>
+        <v>-6016</v>
+      </c>
+    </row>
+    <row r="4" spans="3:27" x14ac:dyDescent="0.3">
+      <c r="C4">
+        <v>-2100</v>
+      </c>
+      <c r="D4">
+        <v>296</v>
+      </c>
+      <c r="E4">
+        <v>-2100</v>
+      </c>
+      <c r="F4">
+        <v>-2100</v>
+      </c>
+      <c r="G4">
+        <v>-2100</v>
+      </c>
+      <c r="H4">
+        <v>-2100</v>
+      </c>
+      <c r="I4">
+        <v>-2100</v>
+      </c>
+      <c r="J4">
+        <v>-2100</v>
+      </c>
+      <c r="K4">
+        <v>696</v>
+      </c>
+      <c r="L4">
+        <v>-2100</v>
+      </c>
+      <c r="M4">
+        <v>-2100</v>
+      </c>
+      <c r="N4">
+        <v>-2100</v>
+      </c>
+      <c r="O4">
+        <v>5596</v>
+      </c>
+      <c r="P4">
+        <v>-2100</v>
+      </c>
+      <c r="Q4">
+        <v>-312</v>
+      </c>
+      <c r="R4">
+        <v>-2100</v>
+      </c>
+      <c r="S4">
+        <v>-2100</v>
+      </c>
+      <c r="T4">
+        <v>-2100</v>
+      </c>
+      <c r="U4">
+        <v>-2100</v>
+      </c>
+      <c r="V4">
+        <v>-2100</v>
+      </c>
+      <c r="W4">
+        <v>-2100</v>
+      </c>
+      <c r="X4">
+        <v>-2100</v>
+      </c>
+      <c r="Y4">
+        <v>-2100</v>
+      </c>
+      <c r="Z4">
+        <v>-2100</v>
+      </c>
+      <c r="AA4">
+        <v>-1287</v>
+      </c>
+    </row>
+    <row r="5" spans="3:27" x14ac:dyDescent="0.3">
+      <c r="C5">
+        <v>-1110</v>
+      </c>
+      <c r="D5">
+        <v>-760</v>
+      </c>
+      <c r="E5">
+        <v>-2200</v>
+      </c>
+      <c r="F5">
+        <v>-2200</v>
+      </c>
+      <c r="G5">
+        <v>-2200</v>
+      </c>
+      <c r="H5">
+        <v>-2200</v>
+      </c>
+      <c r="I5">
+        <v>-2200</v>
+      </c>
+      <c r="J5">
+        <v>-2200</v>
+      </c>
+      <c r="K5">
+        <v>3468</v>
+      </c>
+      <c r="L5">
+        <v>-116</v>
+      </c>
+      <c r="M5">
+        <v>-2200</v>
+      </c>
+      <c r="N5">
+        <v>-2200</v>
+      </c>
+      <c r="O5">
+        <v>-2200</v>
+      </c>
+      <c r="P5">
+        <v>-2200</v>
+      </c>
+      <c r="Q5">
+        <v>18375</v>
+      </c>
+      <c r="R5">
+        <v>-2200</v>
+      </c>
+      <c r="S5">
+        <v>-2200</v>
+      </c>
+      <c r="T5">
+        <v>-2200</v>
+      </c>
+      <c r="U5">
+        <v>-2200</v>
+      </c>
+      <c r="V5">
+        <v>-2200</v>
+      </c>
+      <c r="W5">
+        <v>-2200</v>
+      </c>
+      <c r="X5">
+        <v>-2200</v>
+      </c>
+      <c r="Y5">
+        <v>-2200</v>
+      </c>
+      <c r="Z5">
+        <v>-2200</v>
+      </c>
+      <c r="AA5">
+        <v>-598</v>
+      </c>
+    </row>
+    <row r="6" spans="3:27" x14ac:dyDescent="0.3">
+      <c r="C6">
+        <v>-2100</v>
+      </c>
+      <c r="D6">
+        <v>5112</v>
+      </c>
+      <c r="E6">
+        <v>-2100</v>
+      </c>
+      <c r="F6">
+        <v>-2100</v>
+      </c>
+      <c r="G6">
+        <v>24343</v>
+      </c>
+      <c r="H6">
+        <v>238824</v>
+      </c>
+      <c r="I6">
+        <v>-2100</v>
+      </c>
+      <c r="J6">
+        <v>-2100</v>
+      </c>
+      <c r="K6">
+        <v>-2100</v>
+      </c>
+      <c r="L6">
+        <v>-2100</v>
+      </c>
+      <c r="M6">
+        <v>-2100</v>
+      </c>
+      <c r="N6">
+        <v>6528</v>
+      </c>
+      <c r="O6">
+        <v>3680</v>
+      </c>
+      <c r="P6">
+        <v>-2100</v>
+      </c>
+      <c r="Q6">
+        <v>-2100</v>
+      </c>
+      <c r="R6">
+        <v>-2100</v>
+      </c>
+      <c r="S6">
+        <v>-2100</v>
+      </c>
+      <c r="T6">
+        <v>-2100</v>
+      </c>
+      <c r="U6">
+        <v>-2100</v>
+      </c>
+      <c r="V6">
+        <v>-2100</v>
+      </c>
+      <c r="W6">
+        <v>-2100</v>
+      </c>
+      <c r="X6">
+        <v>-2100</v>
+      </c>
+      <c r="Y6">
+        <v>6632</v>
+      </c>
+      <c r="Z6">
+        <v>-2100</v>
+      </c>
+    </row>
+    <row r="7" spans="3:27" x14ac:dyDescent="0.3">
+      <c r="C7">
+        <v>2000</v>
+      </c>
+      <c r="D7">
+        <v>-2000</v>
+      </c>
+      <c r="E7">
+        <v>-2000</v>
+      </c>
+      <c r="F7">
+        <v>-2000</v>
+      </c>
+      <c r="G7">
+        <v>-2000</v>
+      </c>
+      <c r="H7">
+        <v>-2000</v>
+      </c>
+      <c r="I7">
+        <v>-2000</v>
+      </c>
+      <c r="J7">
+        <v>-2000</v>
+      </c>
+      <c r="K7">
+        <v>-910</v>
+      </c>
+      <c r="L7">
+        <v>-2000</v>
+      </c>
+      <c r="M7">
+        <v>-2000</v>
+      </c>
+      <c r="N7">
+        <v>-2000</v>
+      </c>
+      <c r="O7">
+        <v>180</v>
+      </c>
+      <c r="P7">
+        <v>-1060</v>
+      </c>
+      <c r="Q7">
+        <v>71191</v>
+      </c>
+      <c r="R7">
+        <v>-2000</v>
+      </c>
+      <c r="S7">
+        <v>-2000</v>
+      </c>
+      <c r="T7">
+        <v>-2000</v>
+      </c>
+      <c r="U7">
+        <v>-2000</v>
+      </c>
+      <c r="V7">
+        <v>-2000</v>
+      </c>
+      <c r="W7">
+        <v>-2000</v>
+      </c>
+      <c r="X7">
+        <v>-2000</v>
+      </c>
+      <c r="Y7">
+        <v>-2000</v>
+      </c>
+      <c r="Z7">
+        <v>-2000</v>
+      </c>
+      <c r="AA7">
+        <v>1375</v>
+      </c>
+    </row>
+    <row r="8" spans="3:27" x14ac:dyDescent="0.3">
+      <c r="C8">
+        <v>-2200</v>
+      </c>
+      <c r="D8">
+        <v>-2200</v>
+      </c>
+      <c r="E8">
+        <v>-1240</v>
+      </c>
+      <c r="F8">
+        <v>-2200</v>
+      </c>
+      <c r="G8">
+        <v>-2200</v>
+      </c>
+      <c r="H8">
+        <v>-2200</v>
+      </c>
+      <c r="I8">
+        <v>-1200</v>
+      </c>
+      <c r="J8">
+        <v>2588</v>
+      </c>
+      <c r="K8">
+        <v>-2200</v>
+      </c>
+      <c r="L8">
+        <v>-2200</v>
+      </c>
+      <c r="M8">
+        <v>-2200</v>
+      </c>
+      <c r="N8">
+        <v>-2200</v>
+      </c>
+      <c r="O8">
+        <v>-2200</v>
+      </c>
+      <c r="P8">
+        <v>-2200</v>
+      </c>
+      <c r="Q8">
+        <v>9956</v>
+      </c>
+      <c r="R8">
+        <v>-2200</v>
+      </c>
+      <c r="S8">
+        <v>-2200</v>
+      </c>
+      <c r="T8">
+        <v>-2200</v>
+      </c>
+      <c r="U8">
+        <v>-2200</v>
+      </c>
+      <c r="V8">
+        <v>-2200</v>
+      </c>
+      <c r="W8">
+        <v>-2200</v>
+      </c>
+      <c r="X8">
+        <v>-2200</v>
+      </c>
+      <c r="Y8">
+        <v>-2200</v>
+      </c>
+      <c r="Z8">
+        <v>-2200</v>
+      </c>
+      <c r="AA8">
+        <v>-1188</v>
+      </c>
+    </row>
+    <row r="9" spans="3:27" x14ac:dyDescent="0.3">
+      <c r="C9">
+        <v>-2200</v>
+      </c>
+      <c r="D9">
+        <v>-2200</v>
+      </c>
+      <c r="E9">
+        <v>-2200</v>
+      </c>
+      <c r="F9">
+        <v>-2200</v>
+      </c>
+      <c r="G9">
+        <v>-2200</v>
+      </c>
+      <c r="H9">
+        <v>-2200</v>
+      </c>
+      <c r="I9">
+        <v>-2200</v>
+      </c>
+      <c r="J9">
+        <v>-2200</v>
+      </c>
+      <c r="K9">
+        <v>-2200</v>
+      </c>
+      <c r="L9">
+        <v>-2200</v>
+      </c>
+      <c r="M9">
+        <v>-2200</v>
+      </c>
+      <c r="N9">
+        <v>-2200</v>
+      </c>
+      <c r="O9">
+        <v>-2200</v>
+      </c>
+      <c r="P9">
+        <v>-1010</v>
+      </c>
+      <c r="Q9">
+        <v>-2200</v>
+      </c>
+      <c r="R9">
+        <v>-2200</v>
+      </c>
+      <c r="S9">
+        <v>-2200</v>
+      </c>
+      <c r="T9">
+        <v>-2200</v>
+      </c>
+      <c r="U9">
+        <v>24867</v>
+      </c>
+      <c r="V9">
+        <v>-2200</v>
+      </c>
+      <c r="W9">
+        <v>-2200</v>
+      </c>
+      <c r="X9">
+        <v>-2200</v>
+      </c>
+      <c r="Y9">
+        <v>-2200</v>
+      </c>
+      <c r="Z9">
+        <v>8980</v>
+      </c>
+      <c r="AA9">
+        <v>-154</v>
+      </c>
+    </row>
+    <row r="10" spans="3:27" x14ac:dyDescent="0.3">
+      <c r="C10">
+        <v>-2500</v>
+      </c>
+      <c r="D10">
+        <v>-2500</v>
+      </c>
+      <c r="E10">
+        <v>-2500</v>
+      </c>
+      <c r="F10">
+        <v>-2500</v>
+      </c>
+      <c r="G10">
+        <v>-2500</v>
+      </c>
+      <c r="H10">
+        <v>1256</v>
+      </c>
+      <c r="I10">
+        <v>-2500</v>
+      </c>
+      <c r="J10">
+        <v>-2500</v>
+      </c>
+      <c r="K10">
+        <v>-2500</v>
+      </c>
+      <c r="L10">
+        <v>-2500</v>
+      </c>
+      <c r="M10">
+        <v>-2500</v>
+      </c>
+      <c r="N10">
+        <v>-2500</v>
+      </c>
+      <c r="O10">
+        <v>-2500</v>
+      </c>
+      <c r="P10">
+        <v>-2500</v>
+      </c>
+      <c r="Q10">
+        <v>-2500</v>
+      </c>
+      <c r="R10">
+        <v>-2500</v>
+      </c>
+      <c r="S10">
+        <v>-2500</v>
+      </c>
+      <c r="T10">
+        <v>-2500</v>
+      </c>
+      <c r="U10">
+        <v>-2500</v>
+      </c>
+      <c r="V10">
+        <v>-2500</v>
+      </c>
+      <c r="W10">
+        <v>-2500</v>
+      </c>
+      <c r="X10">
+        <v>-2500</v>
+      </c>
+      <c r="Y10">
+        <v>-2500</v>
+      </c>
+      <c r="Z10">
+        <v>-2500</v>
+      </c>
+      <c r="AA10">
+        <v>-2213</v>
+      </c>
+    </row>
+    <row r="11" spans="3:27" x14ac:dyDescent="0.3">
+      <c r="C11">
+        <v>-2600</v>
+      </c>
+      <c r="D11">
+        <v>-2600</v>
+      </c>
+      <c r="E11">
+        <v>-2600</v>
+      </c>
+      <c r="F11">
+        <v>-2600</v>
+      </c>
+      <c r="G11">
+        <v>2508</v>
+      </c>
+      <c r="H11">
+        <v>56297</v>
+      </c>
+      <c r="I11">
+        <v>6636</v>
+      </c>
+      <c r="J11">
+        <v>-2600</v>
+      </c>
+      <c r="K11">
+        <v>2900</v>
+      </c>
+      <c r="L11">
+        <v>-2600</v>
+      </c>
+      <c r="M11">
+        <v>-2600</v>
+      </c>
+      <c r="N11">
+        <v>-2600</v>
+      </c>
+      <c r="O11">
+        <v>-2600</v>
+      </c>
+      <c r="P11">
+        <v>-2600</v>
+      </c>
+      <c r="Q11">
+        <v>-820</v>
+      </c>
+      <c r="R11">
+        <v>6828</v>
+      </c>
+      <c r="S11">
+        <v>-2600</v>
+      </c>
+      <c r="T11">
+        <v>-2600</v>
+      </c>
+      <c r="U11">
+        <v>-2600</v>
+      </c>
+      <c r="V11">
+        <v>-2600</v>
+      </c>
+      <c r="W11">
+        <v>-2600</v>
+      </c>
+      <c r="X11">
+        <v>-2600</v>
+      </c>
+      <c r="Y11">
+        <v>-2600</v>
+      </c>
+      <c r="Z11">
+        <v>-2600</v>
+      </c>
+      <c r="AA11">
+        <v>1539</v>
+      </c>
+    </row>
+    <row r="12" spans="3:27" x14ac:dyDescent="0.3">
+      <c r="C12">
+        <v>-2200</v>
+      </c>
+      <c r="D12">
+        <v>-2200</v>
+      </c>
+      <c r="E12">
+        <v>-1650</v>
+      </c>
+      <c r="F12">
+        <v>-2200</v>
+      </c>
+      <c r="G12">
+        <v>-2200</v>
+      </c>
+      <c r="H12">
+        <v>-2200</v>
+      </c>
+      <c r="I12">
+        <v>4628</v>
+      </c>
+      <c r="J12">
+        <v>-2200</v>
+      </c>
+      <c r="K12">
+        <v>-2200</v>
+      </c>
+      <c r="L12">
+        <v>-2200</v>
+      </c>
+      <c r="M12">
+        <v>-2200</v>
+      </c>
+      <c r="N12">
+        <v>-2200</v>
+      </c>
+      <c r="O12">
+        <v>-2200</v>
+      </c>
+      <c r="P12">
+        <v>-2200</v>
+      </c>
+      <c r="Q12">
+        <v>-2200</v>
+      </c>
+      <c r="R12">
+        <v>-2200</v>
+      </c>
+      <c r="S12">
+        <v>46791</v>
+      </c>
+      <c r="T12">
+        <v>-2200</v>
+      </c>
+      <c r="U12">
+        <v>-2200</v>
+      </c>
+      <c r="V12">
+        <v>-2200</v>
+      </c>
+      <c r="W12">
+        <v>-2200</v>
+      </c>
+      <c r="X12">
+        <v>-2200</v>
+      </c>
+      <c r="Y12">
+        <v>-2200</v>
+      </c>
+      <c r="Z12">
+        <v>-2200</v>
+      </c>
+      <c r="AA12">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="13" spans="3:27" x14ac:dyDescent="0.3">
+      <c r="C13">
+        <v>-2400</v>
+      </c>
+      <c r="D13">
+        <v>-2400</v>
+      </c>
+      <c r="E13">
+        <v>-2400</v>
+      </c>
+      <c r="F13">
+        <v>-2400</v>
+      </c>
+      <c r="G13">
+        <v>-2400</v>
+      </c>
+      <c r="H13">
+        <v>-2400</v>
+      </c>
+      <c r="I13">
+        <v>-2400</v>
+      </c>
+      <c r="J13">
+        <v>-2400</v>
+      </c>
+      <c r="K13">
+        <v>-2400</v>
+      </c>
+      <c r="L13">
+        <v>-2400</v>
+      </c>
+      <c r="M13">
+        <v>-2400</v>
+      </c>
+      <c r="N13">
+        <v>-2400</v>
+      </c>
+      <c r="O13">
+        <v>-116</v>
+      </c>
+      <c r="P13">
+        <v>-2400</v>
+      </c>
+      <c r="Q13">
+        <v>1044</v>
+      </c>
+      <c r="R13">
+        <v>-2400</v>
+      </c>
+      <c r="S13">
+        <v>-2400</v>
+      </c>
+      <c r="T13">
+        <v>-2400</v>
+      </c>
+      <c r="U13">
+        <v>-2400</v>
+      </c>
+      <c r="V13">
+        <v>-2400</v>
+      </c>
+      <c r="W13">
+        <v>-2400</v>
+      </c>
+      <c r="X13">
+        <v>-2400</v>
+      </c>
+      <c r="Y13">
+        <v>-2400</v>
+      </c>
+      <c r="Z13">
+        <v>-2400</v>
+      </c>
+      <c r="AA13">
+        <v>-2020</v>
+      </c>
+    </row>
+    <row r="14" spans="3:27" x14ac:dyDescent="0.3">
+      <c r="C14">
+        <v>-2400</v>
+      </c>
+      <c r="D14">
+        <v>-2400</v>
+      </c>
+      <c r="E14">
+        <v>37690</v>
+      </c>
+      <c r="F14">
+        <v>-2400</v>
+      </c>
+      <c r="G14">
+        <v>-2400</v>
+      </c>
+      <c r="H14">
+        <v>27107</v>
+      </c>
+      <c r="I14">
+        <v>-2400</v>
+      </c>
+      <c r="J14">
+        <v>-2400</v>
+      </c>
+      <c r="K14">
+        <v>-2400</v>
+      </c>
+      <c r="L14">
+        <v>-2400</v>
+      </c>
+      <c r="M14">
+        <v>-2400</v>
+      </c>
+      <c r="N14">
+        <v>-2400</v>
+      </c>
+      <c r="O14">
+        <v>-2400</v>
+      </c>
+      <c r="P14">
+        <v>-2400</v>
+      </c>
+      <c r="Q14">
+        <v>-2400</v>
+      </c>
+      <c r="R14">
+        <v>-2400</v>
+      </c>
+      <c r="S14">
+        <v>-2400</v>
+      </c>
+      <c r="T14">
+        <v>-2400</v>
+      </c>
+      <c r="U14">
+        <v>10476</v>
+      </c>
+      <c r="V14">
+        <v>-2400</v>
+      </c>
+      <c r="W14">
+        <v>-2400</v>
+      </c>
+      <c r="X14">
+        <v>-2400</v>
+      </c>
+      <c r="Y14">
+        <v>-2400</v>
+      </c>
+      <c r="Z14">
+        <v>-2400</v>
+      </c>
+      <c r="AA14">
+        <v>1815</v>
+      </c>
+    </row>
+    <row r="15" spans="3:27" x14ac:dyDescent="0.3">
+      <c r="C15">
+        <v>-2500</v>
+      </c>
+      <c r="D15">
+        <v>-2500</v>
+      </c>
+      <c r="E15">
+        <v>-2500</v>
+      </c>
+      <c r="F15">
+        <v>-2500</v>
+      </c>
+      <c r="G15">
+        <v>-2500</v>
+      </c>
+      <c r="H15">
+        <v>-2500</v>
+      </c>
+      <c r="I15">
+        <v>-2500</v>
+      </c>
+      <c r="J15">
+        <v>-2500</v>
+      </c>
+      <c r="K15">
+        <v>-2500</v>
+      </c>
+      <c r="L15">
+        <v>-128</v>
+      </c>
+      <c r="M15">
+        <v>17359</v>
+      </c>
+      <c r="N15">
+        <v>-2500</v>
+      </c>
+      <c r="O15">
+        <v>-2500</v>
+      </c>
+      <c r="P15">
+        <v>-2500</v>
+      </c>
+      <c r="Q15">
+        <v>-2500</v>
+      </c>
+      <c r="R15">
+        <v>23567</v>
+      </c>
+      <c r="S15">
+        <v>-2500</v>
+      </c>
+      <c r="T15">
+        <v>-2500</v>
+      </c>
+      <c r="U15">
+        <v>1376</v>
+      </c>
+      <c r="V15">
+        <v>-2500</v>
+      </c>
+      <c r="W15">
+        <v>-2500</v>
+      </c>
+      <c r="X15">
+        <v>-2500</v>
+      </c>
+      <c r="Y15">
+        <v>-2500</v>
+      </c>
+      <c r="Z15">
+        <v>-2500</v>
+      </c>
+      <c r="AA15">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="16" spans="3:27" x14ac:dyDescent="0.3">
+      <c r="C16">
+        <v>-2400</v>
+      </c>
+      <c r="D16">
+        <v>-2400</v>
+      </c>
+      <c r="E16">
+        <v>-2400</v>
+      </c>
+      <c r="F16">
+        <v>-2400</v>
+      </c>
+      <c r="G16">
+        <v>-2400</v>
+      </c>
+      <c r="H16">
+        <v>-2400</v>
+      </c>
+      <c r="I16">
+        <v>-2400</v>
+      </c>
+      <c r="J16">
+        <v>-2400</v>
+      </c>
+      <c r="K16">
+        <v>-2400</v>
+      </c>
+      <c r="L16">
+        <v>-2400</v>
+      </c>
+      <c r="M16">
+        <v>-2400</v>
+      </c>
+      <c r="N16">
+        <v>-2400</v>
+      </c>
+      <c r="O16">
+        <v>-2400</v>
+      </c>
+      <c r="P16">
+        <v>-2400</v>
+      </c>
+      <c r="Q16">
+        <v>-2400</v>
+      </c>
+      <c r="R16">
+        <v>-2400</v>
+      </c>
+      <c r="S16">
+        <v>-2400</v>
+      </c>
+      <c r="T16">
+        <v>2692</v>
+      </c>
+      <c r="U16">
+        <v>-2400</v>
+      </c>
+      <c r="V16">
+        <v>-2400</v>
+      </c>
+      <c r="W16">
+        <v>-2400</v>
+      </c>
+      <c r="X16">
+        <v>-2400</v>
+      </c>
+      <c r="Y16">
+        <v>-2400</v>
+      </c>
+      <c r="Z16">
+        <v>-2400</v>
+      </c>
+      <c r="AA16">
+        <v>-2050</v>
+      </c>
+    </row>
+    <row r="17" spans="3:27" x14ac:dyDescent="0.3">
+      <c r="C17">
+        <v>6168</v>
+      </c>
+      <c r="D17">
+        <v>-2200</v>
+      </c>
+      <c r="E17">
+        <v>-2200</v>
+      </c>
+      <c r="F17">
+        <v>-2200</v>
+      </c>
+      <c r="G17">
+        <v>-2200</v>
+      </c>
+      <c r="H17">
+        <v>-2200</v>
+      </c>
+      <c r="I17">
+        <v>-1000</v>
+      </c>
+      <c r="J17">
+        <v>-2200</v>
+      </c>
+      <c r="K17">
+        <v>764</v>
+      </c>
+      <c r="L17">
+        <v>-2200</v>
+      </c>
+      <c r="M17">
+        <v>-2200</v>
+      </c>
+      <c r="N17">
+        <v>-2200</v>
+      </c>
+      <c r="O17">
+        <v>-2200</v>
+      </c>
+      <c r="P17">
+        <v>-2200</v>
+      </c>
+      <c r="Q17">
+        <v>-2200</v>
+      </c>
+      <c r="R17">
+        <v>-2200</v>
+      </c>
+      <c r="S17">
+        <v>-2200</v>
+      </c>
+      <c r="T17">
+        <v>-2200</v>
+      </c>
+      <c r="U17">
+        <v>-2200</v>
+      </c>
+      <c r="V17">
+        <v>-2200</v>
+      </c>
+      <c r="W17">
+        <v>1316858</v>
+      </c>
+      <c r="X17">
+        <v>-2200</v>
+      </c>
+      <c r="Y17">
+        <v>10260</v>
+      </c>
+      <c r="Z17">
+        <v>-2200</v>
+      </c>
+    </row>
+    <row r="18" spans="3:27" x14ac:dyDescent="0.3">
+      <c r="C18">
+        <v>-2200</v>
+      </c>
+      <c r="D18">
+        <v>-2200</v>
+      </c>
+      <c r="E18">
+        <v>-2200</v>
+      </c>
+      <c r="F18">
+        <v>-2200</v>
+      </c>
+      <c r="G18">
+        <v>444</v>
+      </c>
+      <c r="H18">
+        <v>-2200</v>
+      </c>
+      <c r="I18">
+        <v>740</v>
+      </c>
+      <c r="J18">
+        <v>-2200</v>
+      </c>
+      <c r="K18">
+        <v>-2200</v>
+      </c>
+      <c r="L18">
+        <v>-2200</v>
+      </c>
+      <c r="M18">
+        <v>-2200</v>
+      </c>
+      <c r="N18">
+        <v>-2200</v>
+      </c>
+      <c r="O18">
+        <v>-2200</v>
+      </c>
+      <c r="P18">
+        <v>-2200</v>
+      </c>
+      <c r="Q18">
+        <v>13011</v>
+      </c>
+      <c r="R18">
+        <v>380</v>
+      </c>
+      <c r="S18">
+        <v>-2200</v>
+      </c>
+      <c r="T18">
+        <v>-2200</v>
+      </c>
+      <c r="U18">
+        <v>-2200</v>
+      </c>
+      <c r="V18">
+        <v>-2200</v>
+      </c>
+      <c r="W18">
+        <v>-2200</v>
+      </c>
+      <c r="X18">
+        <v>-2200</v>
+      </c>
+      <c r="Y18">
+        <v>-2200</v>
+      </c>
+      <c r="Z18">
+        <v>-2200</v>
+      </c>
+      <c r="AA18">
+        <v>-947</v>
+      </c>
+    </row>
+    <row r="19" spans="3:27" x14ac:dyDescent="0.3">
+      <c r="C19">
+        <v>-2200</v>
+      </c>
+      <c r="D19">
+        <v>-1080</v>
+      </c>
+      <c r="E19">
+        <v>-2200</v>
+      </c>
+      <c r="F19">
+        <v>364</v>
+      </c>
+      <c r="G19">
+        <v>-2200</v>
+      </c>
+      <c r="H19">
+        <v>-2200</v>
+      </c>
+      <c r="I19">
+        <v>-2200</v>
+      </c>
+      <c r="J19">
+        <v>-2200</v>
+      </c>
+      <c r="K19">
+        <v>-356</v>
+      </c>
+      <c r="L19">
+        <v>-2200</v>
+      </c>
+      <c r="M19">
+        <v>-2200</v>
+      </c>
+      <c r="N19">
+        <v>-2200</v>
+      </c>
+      <c r="O19">
+        <v>-2200</v>
+      </c>
+      <c r="P19">
+        <v>-2200</v>
+      </c>
+      <c r="Q19">
+        <v>-2200</v>
+      </c>
+      <c r="R19">
+        <v>-2200</v>
+      </c>
+      <c r="S19">
+        <v>-2200</v>
+      </c>
+      <c r="T19">
+        <v>-2200</v>
+      </c>
+      <c r="U19">
+        <v>4396</v>
+      </c>
+      <c r="V19">
+        <v>-2200</v>
+      </c>
+      <c r="W19">
+        <v>-2200</v>
+      </c>
+      <c r="X19">
+        <v>-2200</v>
+      </c>
+      <c r="Y19">
+        <v>-2200</v>
+      </c>
+      <c r="Z19">
+        <v>-2200</v>
+      </c>
+      <c r="AA19">
+        <v>-1520</v>
+      </c>
+    </row>
+    <row r="20" spans="3:27" x14ac:dyDescent="0.3">
+      <c r="C20">
+        <v>396</v>
+      </c>
+      <c r="D20">
+        <v>-2200</v>
+      </c>
+      <c r="E20">
+        <v>-2200</v>
+      </c>
+      <c r="F20">
+        <v>21947</v>
+      </c>
+      <c r="G20">
+        <v>-2200</v>
+      </c>
+      <c r="H20">
+        <v>-2200</v>
+      </c>
+      <c r="I20">
+        <v>1650</v>
+      </c>
+      <c r="J20">
+        <v>-2200</v>
+      </c>
+      <c r="K20">
+        <v>-2200</v>
+      </c>
+      <c r="L20">
+        <v>-2200</v>
+      </c>
+      <c r="M20">
+        <v>7684</v>
+      </c>
+      <c r="N20">
+        <v>-2200</v>
+      </c>
+      <c r="O20">
+        <v>-2200</v>
+      </c>
+      <c r="P20">
+        <v>-2200</v>
+      </c>
+      <c r="Q20">
+        <v>-2200</v>
+      </c>
+      <c r="R20">
+        <v>-2200</v>
+      </c>
+      <c r="S20">
+        <v>-2200</v>
+      </c>
+      <c r="T20">
+        <v>-2200</v>
+      </c>
+      <c r="U20">
+        <v>-2200</v>
+      </c>
+      <c r="V20">
+        <v>-2200</v>
+      </c>
+      <c r="W20">
+        <v>16595</v>
+      </c>
+      <c r="X20">
+        <v>-2200</v>
+      </c>
+      <c r="Y20">
+        <v>-2200</v>
+      </c>
+      <c r="Z20">
+        <v>-2200</v>
+      </c>
+      <c r="AA20">
+        <v>809</v>
+      </c>
+    </row>
+    <row r="21" spans="3:27" x14ac:dyDescent="0.3">
+      <c r="C21">
+        <v>-2200</v>
+      </c>
+      <c r="D21">
+        <v>-540</v>
+      </c>
+      <c r="E21">
+        <v>-2200</v>
+      </c>
+      <c r="F21">
+        <v>-2200</v>
+      </c>
+      <c r="G21">
+        <v>-2200</v>
+      </c>
+      <c r="H21">
+        <v>-2200</v>
+      </c>
+      <c r="I21">
+        <v>-2200</v>
+      </c>
+      <c r="J21">
+        <v>7508</v>
+      </c>
+      <c r="K21">
+        <v>-420</v>
+      </c>
+      <c r="L21">
+        <v>-2200</v>
+      </c>
+      <c r="M21">
+        <v>6684</v>
+      </c>
+      <c r="N21">
+        <v>-2200</v>
+      </c>
+      <c r="O21">
+        <v>-2200</v>
+      </c>
+      <c r="P21">
+        <v>-2200</v>
+      </c>
+      <c r="Q21">
+        <v>-2200</v>
+      </c>
+      <c r="R21">
+        <v>-2200</v>
+      </c>
+      <c r="S21">
+        <v>-2200</v>
+      </c>
+      <c r="T21">
+        <v>-2200</v>
+      </c>
+      <c r="U21">
+        <v>-2200</v>
+      </c>
+      <c r="V21">
+        <v>588</v>
+      </c>
+      <c r="W21">
+        <v>-2200</v>
+      </c>
+      <c r="X21">
+        <v>14988</v>
+      </c>
+      <c r="Y21">
+        <v>-2200</v>
+      </c>
+      <c r="Z21">
+        <v>35714</v>
+      </c>
+      <c r="AA21">
+        <v>1845</v>
+      </c>
+    </row>
+    <row r="22" spans="3:27" x14ac:dyDescent="0.3">
+      <c r="C22">
+        <v>584</v>
+      </c>
+      <c r="D22">
+        <v>-2300</v>
+      </c>
+      <c r="E22">
+        <v>-2300</v>
+      </c>
+      <c r="F22">
+        <v>-2300</v>
+      </c>
+      <c r="G22">
+        <v>-2300</v>
+      </c>
+      <c r="H22">
+        <v>-2300</v>
+      </c>
+      <c r="I22">
+        <v>-2300</v>
+      </c>
+      <c r="J22">
+        <v>-2300</v>
+      </c>
+      <c r="K22">
+        <v>-2300</v>
+      </c>
+      <c r="L22">
+        <v>-2300</v>
+      </c>
+      <c r="M22">
+        <v>-2300</v>
+      </c>
+      <c r="N22">
+        <v>-2300</v>
+      </c>
+      <c r="O22">
+        <v>-2300</v>
+      </c>
+      <c r="P22">
+        <v>-2300</v>
+      </c>
+      <c r="Q22">
+        <v>-2300</v>
+      </c>
+      <c r="R22">
+        <v>-2300</v>
+      </c>
+      <c r="S22">
+        <v>-2300</v>
+      </c>
+      <c r="T22">
+        <v>-2300</v>
+      </c>
+      <c r="U22">
+        <v>-2300</v>
+      </c>
+      <c r="V22">
+        <v>-2300</v>
+      </c>
+      <c r="W22">
+        <v>-2300</v>
+      </c>
+      <c r="X22">
+        <v>10792</v>
+      </c>
+      <c r="Y22">
+        <v>-2300</v>
+      </c>
+      <c r="Z22">
+        <v>-2300</v>
+      </c>
+      <c r="AA22">
+        <v>-1411</v>
+      </c>
+    </row>
+    <row r="23" spans="3:27" x14ac:dyDescent="0.3">
+      <c r="C23">
+        <v>-2300</v>
+      </c>
+      <c r="D23">
+        <v>-2300</v>
+      </c>
+      <c r="E23">
+        <v>-2300</v>
+      </c>
+      <c r="F23">
+        <v>-890</v>
+      </c>
+      <c r="G23">
+        <v>-2300</v>
+      </c>
+      <c r="H23">
+        <v>-2300</v>
+      </c>
+      <c r="I23">
+        <v>1768</v>
+      </c>
+      <c r="J23">
+        <v>-2300</v>
+      </c>
+      <c r="K23">
+        <v>-2300</v>
+      </c>
+      <c r="L23">
+        <v>-2300</v>
+      </c>
+      <c r="M23">
+        <v>-250</v>
+      </c>
+      <c r="N23">
+        <v>3264</v>
+      </c>
+      <c r="O23">
+        <v>-2300</v>
+      </c>
+      <c r="P23">
+        <v>-2300</v>
+      </c>
+      <c r="Q23">
+        <v>-2300</v>
+      </c>
+      <c r="R23">
+        <v>-2300</v>
+      </c>
+      <c r="S23">
+        <v>-2300</v>
+      </c>
+      <c r="T23">
+        <v>11800</v>
+      </c>
+      <c r="U23">
+        <v>-2300</v>
+      </c>
+      <c r="V23">
+        <v>-2300</v>
+      </c>
+      <c r="W23">
+        <v>-2300</v>
+      </c>
+      <c r="X23">
+        <v>-2300</v>
+      </c>
+      <c r="Y23">
+        <v>-2300</v>
+      </c>
+      <c r="Z23">
+        <v>-2300</v>
+      </c>
+      <c r="AA23">
+        <v>-886</v>
+      </c>
+    </row>
+    <row r="24" spans="3:27" x14ac:dyDescent="0.3">
+      <c r="C24">
+        <v>-2300</v>
+      </c>
+      <c r="D24">
+        <v>8928</v>
+      </c>
+      <c r="E24">
+        <v>-2300</v>
+      </c>
+      <c r="F24">
+        <v>-2300</v>
+      </c>
+      <c r="G24">
+        <v>-2300</v>
+      </c>
+      <c r="H24">
+        <v>-2300</v>
+      </c>
+      <c r="I24">
+        <v>7760</v>
+      </c>
+      <c r="J24">
+        <v>-2300</v>
+      </c>
+      <c r="K24">
+        <v>-740</v>
+      </c>
+      <c r="L24">
+        <v>-2300</v>
+      </c>
+      <c r="M24">
+        <v>-2300</v>
+      </c>
+      <c r="N24">
+        <v>-2300</v>
+      </c>
+      <c r="O24">
+        <v>-2300</v>
+      </c>
+      <c r="P24">
+        <v>-2300</v>
+      </c>
+      <c r="Q24">
+        <v>-120</v>
+      </c>
+      <c r="R24">
+        <v>22887</v>
+      </c>
+      <c r="S24">
+        <v>-2300</v>
+      </c>
+      <c r="T24">
+        <v>-2300</v>
+      </c>
+      <c r="U24">
+        <v>-2300</v>
+      </c>
+      <c r="V24">
+        <v>1256</v>
+      </c>
+      <c r="W24">
+        <v>-2300</v>
+      </c>
+      <c r="X24">
+        <v>-2300</v>
+      </c>
+      <c r="Y24">
+        <v>-2300</v>
+      </c>
+      <c r="Z24">
+        <v>-2300</v>
+      </c>
+      <c r="AA24">
+        <v>460</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <conditionalFormatting sqref="C4:Z25">
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
@@ -24675,7 +27123,7 @@
     <col min="11" max="11" width="6.25" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="6.5" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="5.5" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="6.25" style="4" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="6.25" style="3" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="5.5" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="6.5" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="6.25" bestFit="1" customWidth="1"/>
@@ -24703,7 +27151,7 @@
       <c r="K2">
         <v>1300</v>
       </c>
-      <c r="N2" s="4">
+      <c r="N2" s="3">
         <v>1400</v>
       </c>
       <c r="Q2">
@@ -24759,7 +27207,7 @@
       <c r="M3" t="s">
         <v>56</v>
       </c>
-      <c r="N3" s="4" t="s">
+      <c r="N3" s="3" t="s">
         <v>54</v>
       </c>
       <c r="O3" t="s">
@@ -24818,123 +27266,123 @@
       <c r="A4" t="s">
         <v>57</v>
       </c>
-      <c r="B4" s="3">
+      <c r="B4" s="2">
         <f>SUM(B5:B99)</f>
         <v>5559</v>
       </c>
-      <c r="C4" s="3">
+      <c r="C4" s="2">
         <f>SUM(C5:C99)</f>
         <v>41116</v>
       </c>
-      <c r="D4" s="3">
+      <c r="D4" s="2">
         <f>SUM(D5:D99)</f>
         <v>18743</v>
       </c>
-      <c r="E4" s="3">
+      <c r="E4" s="2">
         <f t="shared" ref="E4:AE4" si="0">SUM(E5:E99)</f>
         <v>-942</v>
       </c>
-      <c r="F4" s="3">
+      <c r="F4" s="2">
         <f t="shared" si="0"/>
         <v>-2871</v>
       </c>
-      <c r="G4" s="3">
+      <c r="G4" s="2">
         <f t="shared" si="0"/>
         <v>1814</v>
       </c>
-      <c r="H4" s="3">
+      <c r="H4" s="2">
         <f t="shared" si="0"/>
         <v>8779</v>
       </c>
-      <c r="I4" s="3">
+      <c r="I4" s="2">
         <f t="shared" si="0"/>
         <v>13485</v>
       </c>
-      <c r="J4" s="3">
+      <c r="J4" s="2">
         <f t="shared" si="0"/>
         <v>4762</v>
       </c>
-      <c r="K4" s="3">
+      <c r="K4" s="2">
         <f t="shared" si="0"/>
         <v>4112</v>
       </c>
-      <c r="L4" s="3">
+      <c r="L4" s="2">
         <f t="shared" si="0"/>
         <v>16528</v>
       </c>
-      <c r="M4" s="3">
+      <c r="M4" s="2">
         <f t="shared" si="0"/>
         <v>9095</v>
       </c>
-      <c r="N4" s="5">
+      <c r="N4" s="4">
         <f t="shared" si="0"/>
         <v>-3691</v>
       </c>
-      <c r="O4" s="3">
+      <c r="O4" s="2">
         <f t="shared" si="0"/>
         <v>6164</v>
       </c>
-      <c r="P4" s="3">
+      <c r="P4" s="2">
         <f t="shared" si="0"/>
         <v>5412</v>
       </c>
-      <c r="Q4" s="3">
+      <c r="Q4" s="2">
         <f t="shared" si="0"/>
         <v>-1861</v>
       </c>
-      <c r="R4" s="3">
+      <c r="R4" s="2">
         <f t="shared" si="0"/>
         <v>2429</v>
       </c>
-      <c r="S4" s="3">
+      <c r="S4" s="2">
         <f t="shared" si="0"/>
         <v>-144</v>
       </c>
-      <c r="T4" s="3">
+      <c r="T4" s="2">
         <f t="shared" si="0"/>
         <v>-2314</v>
       </c>
-      <c r="U4" s="3">
+      <c r="U4" s="2">
         <f t="shared" si="0"/>
         <v>8451</v>
       </c>
-      <c r="V4" s="3">
+      <c r="V4" s="2">
         <f t="shared" si="0"/>
         <v>-3074</v>
       </c>
-      <c r="W4" s="3">
+      <c r="W4" s="2">
         <f t="shared" si="0"/>
         <v>-45</v>
       </c>
-      <c r="X4" s="3">
+      <c r="X4" s="2">
         <f t="shared" si="0"/>
         <v>111</v>
       </c>
-      <c r="Y4" s="3">
+      <c r="Y4" s="2">
         <f t="shared" si="0"/>
         <v>241</v>
       </c>
-      <c r="Z4" s="3">
+      <c r="Z4" s="2">
         <f t="shared" si="0"/>
         <v>1499</v>
       </c>
-      <c r="AA4" s="3">
+      <c r="AA4" s="2">
         <f t="shared" si="0"/>
         <v>-460</v>
       </c>
-      <c r="AB4" s="3">
+      <c r="AB4" s="2">
         <f t="shared" si="0"/>
         <v>835</v>
       </c>
-      <c r="AC4" s="3">
+      <c r="AC4" s="2">
         <f t="shared" si="0"/>
         <v>-200</v>
       </c>
-      <c r="AD4" s="3">
+      <c r="AD4" s="2">
         <f t="shared" si="0"/>
         <v>-200</v>
       </c>
-      <c r="AE4" s="3">
+      <c r="AE4" s="2">
         <f t="shared" si="0"/>
         <v>-200</v>
       </c>
@@ -24979,7 +27427,7 @@
       <c r="M5">
         <v>933</v>
       </c>
-      <c r="N5" s="4">
+      <c r="N5" s="3">
         <v>-500</v>
       </c>
       <c r="O5">
@@ -25074,7 +27522,7 @@
       <c r="M6">
         <v>-100</v>
       </c>
-      <c r="N6" s="4">
+      <c r="N6" s="3">
         <v>107</v>
       </c>
       <c r="O6">
@@ -25173,7 +27621,7 @@
       <c r="M7">
         <v>-200</v>
       </c>
-      <c r="N7" s="4">
+      <c r="N7" s="3">
         <v>125</v>
       </c>
       <c r="O7">
@@ -25272,7 +27720,7 @@
       <c r="M8">
         <v>-300</v>
       </c>
-      <c r="N8" s="4">
+      <c r="N8" s="3">
         <v>-400</v>
       </c>
       <c r="O8">
@@ -25371,7 +27819,7 @@
       <c r="M9">
         <v>320</v>
       </c>
-      <c r="N9" s="4">
+      <c r="N9" s="3">
         <v>-700</v>
       </c>
       <c r="O9">
@@ -25470,7 +27918,7 @@
       <c r="M10">
         <v>-200</v>
       </c>
-      <c r="N10" s="4">
+      <c r="N10" s="3">
         <v>223</v>
       </c>
       <c r="O10">
@@ -25569,7 +28017,7 @@
       <c r="M11">
         <v>-300</v>
       </c>
-      <c r="N11" s="4">
+      <c r="N11" s="3">
         <v>111</v>
       </c>
       <c r="O11">
@@ -25668,7 +28116,7 @@
       <c r="M12">
         <v>1347</v>
       </c>
-      <c r="N12" s="4">
+      <c r="N12" s="3">
         <v>-202</v>
       </c>
       <c r="O12">
@@ -25767,7 +28215,7 @@
       <c r="M13">
         <v>-200</v>
       </c>
-      <c r="N13" s="4">
+      <c r="N13" s="3">
         <v>-600</v>
       </c>
       <c r="O13">
@@ -25866,7 +28314,7 @@
       <c r="M14">
         <v>-500</v>
       </c>
-      <c r="N14" s="4">
+      <c r="N14" s="3">
         <v>-24</v>
       </c>
       <c r="O14">
@@ -25965,7 +28413,7 @@
       <c r="M15">
         <v>-295</v>
       </c>
-      <c r="N15" s="4">
+      <c r="N15" s="3">
         <v>147</v>
       </c>
       <c r="O15">
@@ -26064,7 +28512,7 @@
       <c r="M16">
         <v>533</v>
       </c>
-      <c r="N16" s="4">
+      <c r="N16" s="3">
         <v>-191</v>
       </c>
       <c r="O16">
@@ -26163,7 +28611,7 @@
       <c r="M17">
         <v>-300</v>
       </c>
-      <c r="N17" s="4">
+      <c r="N17" s="3">
         <v>-400</v>
       </c>
       <c r="O17">
@@ -26262,7 +28710,7 @@
       <c r="M18">
         <v>-200</v>
       </c>
-      <c r="N18" s="4">
+      <c r="N18" s="3">
         <v>95</v>
       </c>
       <c r="O18">
@@ -26361,7 +28809,7 @@
       <c r="M19">
         <v>-213</v>
       </c>
-      <c r="N19" s="4">
+      <c r="N19" s="3">
         <v>-202</v>
       </c>
       <c r="O19">
@@ -26460,7 +28908,7 @@
       <c r="M20">
         <v>210</v>
       </c>
-      <c r="N20" s="4">
+      <c r="N20" s="3">
         <v>-400</v>
       </c>
       <c r="O20">
@@ -26559,7 +29007,7 @@
       <c r="M21">
         <v>-400</v>
       </c>
-      <c r="N21" s="4">
+      <c r="N21" s="3">
         <v>-81</v>
       </c>
       <c r="O21">
@@ -26658,7 +29106,7 @@
       <c r="M22">
         <v>3606</v>
       </c>
-      <c r="N22" s="4">
+      <c r="N22" s="3">
         <v>-250</v>
       </c>
       <c r="O22">
@@ -26757,7 +29205,7 @@
       <c r="M23">
         <v>-191</v>
       </c>
-      <c r="N23" s="4">
+      <c r="N23" s="3">
         <v>681</v>
       </c>
       <c r="O23">
@@ -26856,7 +29304,7 @@
       <c r="M24">
         <v>-300</v>
       </c>
-      <c r="N24" s="4">
+      <c r="N24" s="3">
         <v>-300</v>
       </c>
       <c r="O24">
@@ -26955,7 +29403,7 @@
       <c r="M25">
         <v>277</v>
       </c>
-      <c r="N25" s="4">
+      <c r="N25" s="3">
         <v>-102</v>
       </c>
       <c r="O25">
@@ -27054,7 +29502,7 @@
       <c r="M26">
         <v>-500</v>
       </c>
-      <c r="N26" s="4">
+      <c r="N26" s="3">
         <v>92</v>
       </c>
       <c r="O26">
@@ -27153,7 +29601,7 @@
       <c r="M27">
         <v>-500</v>
       </c>
-      <c r="N27" s="4">
+      <c r="N27" s="3">
         <v>-300</v>
       </c>
       <c r="O27">
@@ -27252,7 +29700,7 @@
       <c r="M28">
         <v>565</v>
       </c>
-      <c r="N28" s="4">
+      <c r="N28" s="3">
         <v>-400</v>
       </c>
       <c r="O28">
@@ -27351,7 +29799,7 @@
       <c r="M29">
         <v>-322</v>
       </c>
-      <c r="N29" s="4">
+      <c r="N29" s="3">
         <v>-200</v>
       </c>
       <c r="O29">
@@ -27450,7 +29898,7 @@
       <c r="M30">
         <v>1138</v>
       </c>
-      <c r="N30" s="4">
+      <c r="N30" s="3">
         <v>205</v>
       </c>
       <c r="O30">
@@ -27549,7 +29997,7 @@
       <c r="M31">
         <v>-600</v>
       </c>
-      <c r="N31" s="4">
+      <c r="N31" s="3">
         <v>-300</v>
       </c>
       <c r="O31">
@@ -27648,7 +30096,7 @@
       <c r="M32">
         <v>-900</v>
       </c>
-      <c r="N32" s="4">
+      <c r="N32" s="3">
         <v>-200</v>
       </c>
       <c r="O32">
@@ -27747,7 +30195,7 @@
       <c r="M33">
         <v>-342</v>
       </c>
-      <c r="N33" s="4">
+      <c r="N33" s="3">
         <v>-200</v>
       </c>
       <c r="O33">
@@ -27846,7 +30294,7 @@
       <c r="M34">
         <v>-500</v>
       </c>
-      <c r="N34" s="4">
+      <c r="N34" s="3">
         <v>66</v>
       </c>
       <c r="O34">
@@ -27945,7 +30393,7 @@
       <c r="M35">
         <v>466</v>
       </c>
-      <c r="N35" s="4">
+      <c r="N35" s="3">
         <v>593</v>
       </c>
       <c r="O35">
@@ -28044,7 +30492,7 @@
       <c r="M36">
         <v>73</v>
       </c>
-      <c r="N36" s="4">
+      <c r="N36" s="3">
         <v>-50</v>
       </c>
       <c r="O36">
@@ -28143,7 +30591,7 @@
       <c r="M37">
         <v>949</v>
       </c>
-      <c r="N37" s="4">
+      <c r="N37" s="3">
         <v>-200</v>
       </c>
       <c r="O37">
@@ -28242,7 +30690,7 @@
       <c r="M38">
         <v>2115</v>
       </c>
-      <c r="N38" s="4">
+      <c r="N38" s="3">
         <v>-300</v>
       </c>
       <c r="O38">
@@ -28341,7 +30789,7 @@
       <c r="M39">
         <v>-900</v>
       </c>
-      <c r="N39" s="4">
+      <c r="N39" s="3">
         <v>-100</v>
       </c>
       <c r="O39">
@@ -28440,7 +30888,7 @@
       <c r="M40">
         <v>722</v>
       </c>
-      <c r="N40" s="4">
+      <c r="N40" s="3">
         <v>-400</v>
       </c>
       <c r="O40">
@@ -28539,7 +30987,7 @@
       <c r="M41">
         <v>1209</v>
       </c>
-      <c r="N41" s="4">
+      <c r="N41" s="3">
         <v>-200</v>
       </c>
       <c r="O41">
@@ -28638,7 +31086,7 @@
       <c r="M42">
         <v>-700</v>
       </c>
-      <c r="N42" s="4">
+      <c r="N42" s="3">
         <v>-200</v>
       </c>
       <c r="O42">
@@ -28737,7 +31185,7 @@
       <c r="M43">
         <v>-721</v>
       </c>
-      <c r="N43" s="4">
+      <c r="N43" s="3">
         <v>-300</v>
       </c>
       <c r="O43">
@@ -28836,7 +31284,7 @@
       <c r="M44">
         <v>207</v>
       </c>
-      <c r="N44" s="4">
+      <c r="N44" s="3">
         <v>-400</v>
       </c>
       <c r="O44">
@@ -28935,7 +31383,7 @@
       <c r="M45">
         <v>2769</v>
       </c>
-      <c r="N45" s="4">
+      <c r="N45" s="3">
         <v>794</v>
       </c>
       <c r="O45">
@@ -29034,7 +31482,7 @@
       <c r="M46">
         <v>-460</v>
       </c>
-      <c r="N46" s="4">
+      <c r="N46" s="3">
         <v>-65</v>
       </c>
       <c r="O46">
@@ -29133,7 +31581,7 @@
       <c r="M47">
         <v>1649</v>
       </c>
-      <c r="N47" s="4">
+      <c r="N47" s="3">
         <v>617</v>
       </c>
       <c r="O47">
@@ -29232,7 +31680,7 @@
       <c r="M48">
         <v>1048</v>
       </c>
-      <c r="N48" s="4">
+      <c r="N48" s="3">
         <v>194</v>
       </c>
       <c r="O48">
@@ -29331,7 +31779,7 @@
       <c r="M49">
         <v>-600</v>
       </c>
-      <c r="N49" s="4">
+      <c r="N49" s="3">
         <v>-311</v>
       </c>
       <c r="O49">
@@ -29430,7 +31878,7 @@
       <c r="M50">
         <v>-400</v>
       </c>
-      <c r="N50" s="4">
+      <c r="N50" s="3">
         <v>67</v>
       </c>
       <c r="O50">
@@ -29529,7 +31977,7 @@
       <c r="M51">
         <v>-500</v>
       </c>
-      <c r="N51" s="4">
+      <c r="N51" s="3">
         <v>622</v>
       </c>
       <c r="O51">
@@ -29628,7 +32076,7 @@
       <c r="M52">
         <v>603</v>
       </c>
-      <c r="N52" s="4">
+      <c r="N52" s="3">
         <v>48</v>
       </c>
       <c r="O52">
@@ -29727,7 +32175,7 @@
       <c r="M53">
         <v>0</v>
       </c>
-      <c r="N53" s="4">
+      <c r="N53" s="3">
         <v>0</v>
       </c>
       <c r="O53">
@@ -29789,7 +32237,7 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="A1:XFD1048576">
-    <cfRule type="expression" dxfId="20" priority="1">
+    <cfRule type="expression" dxfId="19" priority="1">
       <formula>A1&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -29818,7 +32266,7 @@
     <col min="11" max="11" width="6.25" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="6.5" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="5.5" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="6.25" style="4" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="6.25" style="3" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="5.5" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="6.5" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="6.25" bestFit="1" customWidth="1"/>
@@ -29846,7 +32294,7 @@
       <c r="K2">
         <v>1300</v>
       </c>
-      <c r="N2" s="4">
+      <c r="N2" s="3">
         <v>1400</v>
       </c>
       <c r="Q2">
@@ -29902,7 +32350,7 @@
       <c r="M3" t="s">
         <v>56</v>
       </c>
-      <c r="N3" s="4" t="s">
+      <c r="N3" s="3" t="s">
         <v>54</v>
       </c>
       <c r="O3" t="s">
@@ -29961,123 +32409,123 @@
       <c r="A4" t="s">
         <v>57</v>
       </c>
-      <c r="B4" s="3">
+      <c r="B4" s="2">
         <f>SUM(B5:B99)</f>
         <v>-4967</v>
       </c>
-      <c r="C4" s="3">
+      <c r="C4" s="2">
         <f>SUM(C5:C99)</f>
         <v>51354</v>
       </c>
-      <c r="D4" s="3">
+      <c r="D4" s="2">
         <f>SUM(D5:D99)</f>
         <v>13733</v>
       </c>
-      <c r="E4" s="3">
+      <c r="E4" s="2">
         <f t="shared" ref="E4:AE4" si="0">SUM(E5:E99)</f>
         <v>-2154</v>
       </c>
-      <c r="F4" s="3">
+      <c r="F4" s="2">
         <f t="shared" si="0"/>
         <v>6831</v>
       </c>
-      <c r="G4" s="3">
+      <c r="G4" s="2">
         <f t="shared" si="0"/>
         <v>4491</v>
       </c>
-      <c r="H4" s="3">
+      <c r="H4" s="2">
         <f t="shared" si="0"/>
         <v>5857</v>
       </c>
-      <c r="I4" s="3">
+      <c r="I4" s="2">
         <f t="shared" si="0"/>
         <v>15370</v>
       </c>
-      <c r="J4" s="3">
+      <c r="J4" s="2">
         <f t="shared" si="0"/>
         <v>-26</v>
       </c>
-      <c r="K4" s="3">
+      <c r="K4" s="2">
         <f t="shared" si="0"/>
         <v>1970</v>
       </c>
-      <c r="L4" s="3">
+      <c r="L4" s="2">
         <f t="shared" si="0"/>
         <v>16083</v>
       </c>
-      <c r="M4" s="3">
+      <c r="M4" s="2">
         <f t="shared" si="0"/>
         <v>3535</v>
       </c>
-      <c r="N4" s="5">
+      <c r="N4" s="4">
         <f t="shared" si="0"/>
         <v>-2167</v>
       </c>
-      <c r="O4" s="3">
+      <c r="O4" s="2">
         <f t="shared" si="0"/>
         <v>4730</v>
       </c>
-      <c r="P4" s="3">
+      <c r="P4" s="2">
         <f t="shared" si="0"/>
         <v>6365</v>
       </c>
-      <c r="Q4" s="3">
+      <c r="Q4" s="2">
         <f t="shared" si="0"/>
         <v>-3172</v>
       </c>
-      <c r="R4" s="3">
+      <c r="R4" s="2">
         <f t="shared" si="0"/>
         <v>4866</v>
       </c>
-      <c r="S4" s="3">
+      <c r="S4" s="2">
         <f t="shared" si="0"/>
         <v>880</v>
       </c>
-      <c r="T4" s="3">
+      <c r="T4" s="2">
         <f t="shared" si="0"/>
         <v>-3584</v>
       </c>
-      <c r="U4" s="3">
+      <c r="U4" s="2">
         <f t="shared" si="0"/>
         <v>5497</v>
       </c>
-      <c r="V4" s="3">
+      <c r="V4" s="2">
         <f t="shared" si="0"/>
         <v>-1815</v>
       </c>
-      <c r="W4" s="3">
+      <c r="W4" s="2">
         <f t="shared" si="0"/>
         <v>-821</v>
       </c>
-      <c r="X4" s="3">
+      <c r="X4" s="2">
         <f t="shared" si="0"/>
         <v>289</v>
       </c>
-      <c r="Y4" s="3">
+      <c r="Y4" s="2">
         <f t="shared" si="0"/>
         <v>-555</v>
       </c>
-      <c r="Z4" s="3">
+      <c r="Z4" s="2">
         <f t="shared" si="0"/>
         <v>-922</v>
       </c>
-      <c r="AA4" s="3">
+      <c r="AA4" s="2">
         <f t="shared" si="0"/>
         <v>-241</v>
       </c>
-      <c r="AB4" s="3">
+      <c r="AB4" s="2">
         <f t="shared" si="0"/>
         <v>1058</v>
       </c>
-      <c r="AC4" s="3">
+      <c r="AC4" s="2">
         <f t="shared" si="0"/>
         <v>-200</v>
       </c>
-      <c r="AD4" s="3">
+      <c r="AD4" s="2">
         <f t="shared" si="0"/>
         <v>454</v>
       </c>
-      <c r="AE4" s="3">
+      <c r="AE4" s="2">
         <f t="shared" si="0"/>
         <v>-200</v>
       </c>
@@ -30122,7 +32570,7 @@
       <c r="M5">
         <v>933</v>
       </c>
-      <c r="N5" s="4">
+      <c r="N5" s="3">
         <v>-500</v>
       </c>
       <c r="O5">
@@ -30217,7 +32665,7 @@
       <c r="M6">
         <v>-100</v>
       </c>
-      <c r="N6" s="4">
+      <c r="N6" s="3">
         <v>-122</v>
       </c>
       <c r="O6">
@@ -30312,7 +32760,7 @@
       <c r="M7">
         <v>-200</v>
       </c>
-      <c r="N7" s="4">
+      <c r="N7" s="3">
         <v>-182</v>
       </c>
       <c r="O7">
@@ -30407,7 +32855,7 @@
       <c r="M8">
         <v>-300</v>
       </c>
-      <c r="N8" s="4">
+      <c r="N8" s="3">
         <v>-74</v>
       </c>
       <c r="O8">
@@ -30502,7 +32950,7 @@
       <c r="M9">
         <v>1323</v>
       </c>
-      <c r="N9" s="4">
+      <c r="N9" s="3">
         <v>-432</v>
       </c>
       <c r="O9">
@@ -30597,7 +33045,7 @@
       <c r="M10">
         <v>-200</v>
       </c>
-      <c r="N10" s="4">
+      <c r="N10" s="3">
         <v>223</v>
       </c>
       <c r="O10">
@@ -30692,7 +33140,7 @@
       <c r="M11">
         <v>-300</v>
       </c>
-      <c r="N11" s="4">
+      <c r="N11" s="3">
         <v>-600</v>
       </c>
       <c r="O11">
@@ -30787,7 +33235,7 @@
       <c r="M12">
         <v>1347</v>
       </c>
-      <c r="N12" s="4">
+      <c r="N12" s="3">
         <v>-191</v>
       </c>
       <c r="O12">
@@ -30882,7 +33330,7 @@
       <c r="M13">
         <v>-200</v>
       </c>
-      <c r="N13" s="4">
+      <c r="N13" s="3">
         <v>-351</v>
       </c>
       <c r="O13">
@@ -30977,7 +33425,7 @@
       <c r="M14">
         <v>-500</v>
       </c>
-      <c r="N14" s="4">
+      <c r="N14" s="3">
         <v>-24</v>
       </c>
       <c r="O14">
@@ -31072,7 +33520,7 @@
       <c r="M15">
         <v>119</v>
       </c>
-      <c r="N15" s="4">
+      <c r="N15" s="3">
         <v>147</v>
       </c>
       <c r="O15">
@@ -31167,7 +33615,7 @@
       <c r="M16">
         <v>-600</v>
       </c>
-      <c r="N16" s="4">
+      <c r="N16" s="3">
         <v>-400</v>
       </c>
       <c r="O16">
@@ -31262,7 +33710,7 @@
       <c r="M17">
         <v>-300</v>
       </c>
-      <c r="N17" s="4">
+      <c r="N17" s="3">
         <v>456</v>
       </c>
       <c r="O17">
@@ -31357,7 +33805,7 @@
       <c r="M18">
         <v>-200</v>
       </c>
-      <c r="N18" s="4">
+      <c r="N18" s="3">
         <v>743</v>
       </c>
       <c r="O18">
@@ -31452,7 +33900,7 @@
       <c r="M19">
         <v>-500</v>
       </c>
-      <c r="N19" s="4">
+      <c r="N19" s="3">
         <v>1513</v>
       </c>
       <c r="O19">
@@ -31547,7 +33995,7 @@
       <c r="M20">
         <v>-28</v>
       </c>
-      <c r="N20" s="4">
+      <c r="N20" s="3">
         <v>310</v>
       </c>
       <c r="O20">
@@ -31642,7 +34090,7 @@
       <c r="M21">
         <v>-221</v>
       </c>
-      <c r="N21" s="4">
+      <c r="N21" s="3">
         <v>-81</v>
       </c>
       <c r="O21">
@@ -31737,7 +34185,7 @@
       <c r="M22">
         <v>289</v>
       </c>
-      <c r="N22" s="4">
+      <c r="N22" s="3">
         <v>-250</v>
       </c>
       <c r="O22">
@@ -31832,7 +34280,7 @@
       <c r="M23">
         <v>-400</v>
       </c>
-      <c r="N23" s="4">
+      <c r="N23" s="3">
         <v>334</v>
       </c>
       <c r="O23">
@@ -31927,7 +34375,7 @@
       <c r="M24">
         <v>-300</v>
       </c>
-      <c r="N24" s="4">
+      <c r="N24" s="3">
         <v>-300</v>
       </c>
       <c r="O24">
@@ -32022,7 +34470,7 @@
       <c r="M25">
         <v>564</v>
       </c>
-      <c r="N25" s="4">
+      <c r="N25" s="3">
         <v>-400</v>
       </c>
       <c r="O25">
@@ -32117,7 +34565,7 @@
       <c r="M26">
         <v>-500</v>
       </c>
-      <c r="N26" s="4">
+      <c r="N26" s="3">
         <v>400</v>
       </c>
       <c r="O26">
@@ -32212,7 +34660,7 @@
       <c r="M27">
         <v>-85</v>
       </c>
-      <c r="N27" s="4">
+      <c r="N27" s="3">
         <v>46</v>
       </c>
       <c r="O27">
@@ -32307,7 +34755,7 @@
       <c r="M28">
         <v>565</v>
       </c>
-      <c r="N28" s="4">
+      <c r="N28" s="3">
         <v>-400</v>
       </c>
       <c r="O28">
@@ -32402,7 +34850,7 @@
       <c r="M29">
         <v>-600</v>
       </c>
-      <c r="N29" s="4">
+      <c r="N29" s="3">
         <v>-200</v>
       </c>
       <c r="O29">
@@ -32497,7 +34945,7 @@
       <c r="M30">
         <v>743</v>
       </c>
-      <c r="N30" s="4">
+      <c r="N30" s="3">
         <v>301</v>
       </c>
       <c r="O30">
@@ -32592,7 +35040,7 @@
       <c r="M31">
         <v>-600</v>
       </c>
-      <c r="N31" s="4">
+      <c r="N31" s="3">
         <v>-300</v>
       </c>
       <c r="O31">
@@ -32687,7 +35135,7 @@
       <c r="M32">
         <v>-900</v>
       </c>
-      <c r="N32" s="4">
+      <c r="N32" s="3">
         <v>-200</v>
       </c>
       <c r="O32">
@@ -32782,7 +35230,7 @@
       <c r="M33">
         <v>-471</v>
       </c>
-      <c r="N33" s="4">
+      <c r="N33" s="3">
         <v>-200</v>
       </c>
       <c r="O33">
@@ -32877,7 +35325,7 @@
       <c r="M34">
         <v>-500</v>
       </c>
-      <c r="N34" s="4">
+      <c r="N34" s="3">
         <v>66</v>
       </c>
       <c r="O34">
@@ -32972,7 +35420,7 @@
       <c r="M35">
         <v>466</v>
       </c>
-      <c r="N35" s="4">
+      <c r="N35" s="3">
         <v>593</v>
       </c>
       <c r="O35">
@@ -33067,7 +35515,7 @@
       <c r="M36">
         <v>73</v>
       </c>
-      <c r="N36" s="4">
+      <c r="N36" s="3">
         <v>-200</v>
       </c>
       <c r="O36">
@@ -33162,7 +35610,7 @@
       <c r="M37">
         <v>755</v>
       </c>
-      <c r="N37" s="4">
+      <c r="N37" s="3">
         <v>-200</v>
       </c>
       <c r="O37">
@@ -33257,7 +35705,7 @@
       <c r="M38">
         <v>1101</v>
       </c>
-      <c r="N38" s="4">
+      <c r="N38" s="3">
         <v>-300</v>
       </c>
       <c r="O38">
@@ -33352,7 +35800,7 @@
       <c r="M39">
         <v>-426</v>
       </c>
-      <c r="N39" s="4">
+      <c r="N39" s="3">
         <v>-100</v>
       </c>
       <c r="O39">
@@ -33447,7 +35895,7 @@
       <c r="M40">
         <v>26</v>
       </c>
-      <c r="N40" s="4">
+      <c r="N40" s="3">
         <v>-400</v>
       </c>
       <c r="O40">
@@ -33542,7 +35990,7 @@
       <c r="M41">
         <v>1040</v>
       </c>
-      <c r="N41" s="4">
+      <c r="N41" s="3">
         <v>-200</v>
       </c>
       <c r="O41">
@@ -33637,7 +36085,7 @@
       <c r="M42">
         <v>-700</v>
       </c>
-      <c r="N42" s="4">
+      <c r="N42" s="3">
         <v>-200</v>
       </c>
       <c r="O42">
@@ -33732,7 +36180,7 @@
       <c r="M43">
         <v>-900</v>
       </c>
-      <c r="N43" s="4">
+      <c r="N43" s="3">
         <v>-121</v>
       </c>
       <c r="O43">
@@ -33827,7 +36275,7 @@
       <c r="M44">
         <v>1552</v>
       </c>
-      <c r="N44" s="4">
+      <c r="N44" s="3">
         <v>-400</v>
       </c>
       <c r="O44">
@@ -33922,7 +36370,7 @@
       <c r="M45">
         <v>1401</v>
       </c>
-      <c r="N45" s="4">
+      <c r="N45" s="3">
         <v>794</v>
       </c>
       <c r="O45">
@@ -34017,7 +36465,7 @@
       <c r="M46">
         <v>-600</v>
       </c>
-      <c r="N46" s="4">
+      <c r="N46" s="3">
         <v>-283</v>
       </c>
       <c r="O46">
@@ -34112,7 +36560,7 @@
       <c r="M47">
         <v>1205</v>
       </c>
-      <c r="N47" s="4">
+      <c r="N47" s="3">
         <v>-21</v>
       </c>
       <c r="O47">
@@ -34207,7 +36655,7 @@
       <c r="M48">
         <v>1273</v>
       </c>
-      <c r="N48" s="4">
+      <c r="N48" s="3">
         <v>-232</v>
       </c>
       <c r="O48">
@@ -34302,7 +36750,7 @@
       <c r="M49">
         <v>-312</v>
       </c>
-      <c r="N49" s="4">
+      <c r="N49" s="3">
         <v>-311</v>
       </c>
       <c r="O49">
@@ -34397,7 +36845,7 @@
       <c r="M50">
         <v>-400</v>
       </c>
-      <c r="N50" s="4">
+      <c r="N50" s="3">
         <v>67</v>
       </c>
       <c r="O50">
@@ -34492,7 +36940,7 @@
       <c r="M51">
         <v>-500</v>
       </c>
-      <c r="N51" s="4">
+      <c r="N51" s="3">
         <v>-33</v>
       </c>
       <c r="O51">
@@ -34587,7 +37035,7 @@
       <c r="M52">
         <v>603</v>
       </c>
-      <c r="N52" s="4">
+      <c r="N52" s="3">
         <v>48</v>
       </c>
       <c r="O52">
@@ -34682,7 +37130,7 @@
       <c r="M53">
         <v>0</v>
       </c>
-      <c r="N53" s="4">
+      <c r="N53" s="3">
         <v>0</v>
       </c>
       <c r="O53">
@@ -34740,7 +37188,7 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="A1:XFD1048576">
-    <cfRule type="expression" dxfId="19" priority="1">
+    <cfRule type="expression" dxfId="18" priority="1">
       <formula>A1&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -38231,7 +40679,7 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="A1:XFD1048576">
-    <cfRule type="expression" dxfId="18" priority="1">
+    <cfRule type="expression" dxfId="17" priority="1">
       <formula>A1&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -41580,27 +44028,27 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="A5:B52 D5:J52 T5:XFD52 A1:XFD4 A53:XFD1048576 L5:R52">
-    <cfRule type="expression" dxfId="17" priority="5">
+    <cfRule type="expression" dxfId="16" priority="5">
       <formula>A1&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C5">
-    <cfRule type="expression" dxfId="16" priority="4">
+    <cfRule type="expression" dxfId="15" priority="4">
       <formula>C5&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C6:C52">
-    <cfRule type="expression" dxfId="15" priority="3">
+    <cfRule type="expression" dxfId="14" priority="3">
       <formula>C6&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K5:K52">
-    <cfRule type="expression" dxfId="14" priority="2">
+    <cfRule type="expression" dxfId="13" priority="2">
       <formula>K5&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S5:S52">
-    <cfRule type="expression" dxfId="13" priority="1">
+    <cfRule type="expression" dxfId="12" priority="1">
       <formula>S5&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -45083,7 +47531,7 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="A1:XFD1048576">
-    <cfRule type="expression" dxfId="12" priority="1">
+    <cfRule type="expression" dxfId="11" priority="1">
       <formula>A1&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -52515,32 +54963,32 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="B53:C1048576 B1:C4 AH1:XFD1048576 S1:AE1048576 D1:P1048576 A1:A1048576">
-    <cfRule type="expression" dxfId="11" priority="11">
+    <cfRule type="expression" dxfId="10" priority="11">
       <formula>A1&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B5:C52">
-    <cfRule type="expression" dxfId="10" priority="5">
+    <cfRule type="expression" dxfId="9" priority="5">
       <formula>B5&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q53:R1048576 Q1:R4">
-    <cfRule type="expression" dxfId="9" priority="4">
+    <cfRule type="expression" dxfId="8" priority="4">
       <formula>Q1&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q5:R52">
-    <cfRule type="expression" dxfId="8" priority="3">
+    <cfRule type="expression" dxfId="7" priority="3">
       <formula>Q5&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AF53:AG1048576 AF1:AG4">
-    <cfRule type="expression" dxfId="7" priority="2">
+    <cfRule type="expression" dxfId="6" priority="2">
       <formula>AF1&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AF5:AG52">
-    <cfRule type="expression" dxfId="6" priority="1">
+    <cfRule type="expression" dxfId="5" priority="1">
       <formula>AF5&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -58992,12 +61440,12 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="A1:U1 W1:AC1 A2:AC1048576 AQ1:XFD1048576">
-    <cfRule type="expression" dxfId="5" priority="2">
+    <cfRule type="expression" dxfId="4" priority="2">
       <formula>A1&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AD1:AI1 AK1:AP1 AD2:AP1048576">
-    <cfRule type="expression" dxfId="4" priority="1">
+    <cfRule type="expression" dxfId="3" priority="1">
       <formula>AD1&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -59025,7 +61473,7 @@
     <col min="11" max="11" width="6.25" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="6.5" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="5.5" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="6.25" style="4" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="6.25" style="3" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="5.5" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="6.5" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="6.25" bestFit="1" customWidth="1"/>
@@ -59053,7 +61501,7 @@
       <c r="K2">
         <v>1300</v>
       </c>
-      <c r="N2" s="4">
+      <c r="N2" s="3">
         <v>1400</v>
       </c>
       <c r="Q2">
@@ -59109,7 +61557,7 @@
       <c r="M3" t="s">
         <v>56</v>
       </c>
-      <c r="N3" s="4" t="s">
+      <c r="N3" s="3" t="s">
         <v>54</v>
       </c>
       <c r="O3" t="s">
@@ -59168,123 +61616,123 @@
       <c r="A4" t="s">
         <v>57</v>
       </c>
-      <c r="B4" s="3">
+      <c r="B4" s="2">
         <f>SUM(B5:B99)</f>
         <v>0</v>
       </c>
-      <c r="C4" s="3">
+      <c r="C4" s="2">
         <f>SUM(C5:C99)</f>
         <v>0</v>
       </c>
-      <c r="D4" s="3">
+      <c r="D4" s="2">
         <f>SUM(D5:D99)</f>
         <v>0</v>
       </c>
-      <c r="E4" s="3">
+      <c r="E4" s="2">
         <f t="shared" ref="E4:AE4" si="0">SUM(E5:E99)</f>
         <v>0</v>
       </c>
-      <c r="F4" s="3">
+      <c r="F4" s="2">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G4" s="3">
+      <c r="G4" s="2">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H4" s="3">
+      <c r="H4" s="2">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I4" s="3">
+      <c r="I4" s="2">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="J4" s="3">
+      <c r="J4" s="2">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="K4" s="3">
+      <c r="K4" s="2">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="L4" s="3">
+      <c r="L4" s="2">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="M4" s="3">
+      <c r="M4" s="2">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="N4" s="5">
+      <c r="N4" s="4">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="O4" s="3">
+      <c r="O4" s="2">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="P4" s="3">
+      <c r="P4" s="2">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="Q4" s="3">
+      <c r="Q4" s="2">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="R4" s="3">
+      <c r="R4" s="2">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="S4" s="3">
+      <c r="S4" s="2">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="T4" s="3">
+      <c r="T4" s="2">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="U4" s="3">
+      <c r="U4" s="2">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="V4" s="3">
+      <c r="V4" s="2">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="W4" s="3">
+      <c r="W4" s="2">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="X4" s="3">
+      <c r="X4" s="2">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="Y4" s="3">
+      <c r="Y4" s="2">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="Z4" s="3">
+      <c r="Z4" s="2">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="AA4" s="3">
+      <c r="AA4" s="2">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="AB4" s="3">
+      <c r="AB4" s="2">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="AC4" s="3">
+      <c r="AC4" s="2">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="AD4" s="3">
+      <c r="AD4" s="2">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="AE4" s="3">
+      <c r="AE4" s="2">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>

--- a/result/back_testing_m1.xlsx
+++ b/result/back_testing_m1.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="11190" yWindow="45" windowWidth="21000" windowHeight="9915" activeTab="12"/>
+    <workbookView xWindow="11190" yWindow="45" windowWidth="21000" windowHeight="9915" activeTab="13"/>
   </bookViews>
   <sheets>
     <sheet name="y1_t0" sheetId="9" r:id="rId1"/>
@@ -308,7 +308,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="0_ "/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -325,6 +325,15 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="맑은 고딕"/>
@@ -355,7 +364,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -376,6 +385,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -13076,7 +13088,7 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="A1:XFD1048576">
-    <cfRule type="expression" dxfId="20" priority="1">
+    <cfRule type="expression" dxfId="19" priority="1">
       <formula>A1&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -23202,8 +23214,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T53"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J13" sqref="J13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J9" sqref="J9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -25347,12 +25359,12 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="B1:G1048576 H2:I2">
-    <cfRule type="expression" dxfId="2" priority="2">
+    <cfRule type="expression" dxfId="1" priority="2">
       <formula>B1&gt;20000</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H3">
-    <cfRule type="expression" dxfId="1" priority="1">
+    <cfRule type="expression" dxfId="0" priority="1">
       <formula>H3&gt;20000</formula>
     </cfRule>
   </conditionalFormatting>
@@ -25364,1731 +25376,554 @@
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="C3:AA24"/>
+  <dimension ref="C2:I24"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="L3" sqref="L3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="3" spans="3:27" x14ac:dyDescent="0.3">
+    <row r="2" spans="3:9" x14ac:dyDescent="0.3">
+      <c r="C2">
+        <v>123</v>
+      </c>
+      <c r="D2" s="7">
+        <v>1234</v>
+      </c>
+      <c r="E2">
+        <v>12345</v>
+      </c>
+      <c r="F2">
+        <v>234</v>
+      </c>
+      <c r="G2">
+        <v>2345</v>
+      </c>
+      <c r="H2">
+        <v>234</v>
+      </c>
+      <c r="I2">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="3" spans="3:9" x14ac:dyDescent="0.3">
       <c r="C3">
         <f>SUM(C4:C94)</f>
-        <v>-28762</v>
-      </c>
-      <c r="D3">
-        <f t="shared" ref="D3:AA3" si="0">SUM(D4:D94)</f>
-        <v>-22644</v>
+        <v>1643</v>
+      </c>
+      <c r="D3" s="7">
+        <f t="shared" ref="D3:I3" si="0">SUM(D4:D94)</f>
+        <v>56426</v>
       </c>
       <c r="E3">
         <f t="shared" si="0"/>
-        <v>-6100</v>
+        <v>29582</v>
       </c>
       <c r="F3">
         <f t="shared" si="0"/>
-        <v>-19579</v>
+        <v>-15512</v>
       </c>
       <c r="G3">
         <f t="shared" si="0"/>
-        <v>-13505</v>
+        <v>18058</v>
       </c>
       <c r="H3">
         <f t="shared" si="0"/>
-        <v>285384</v>
+        <v>-15512</v>
       </c>
       <c r="I3">
         <f t="shared" si="0"/>
-        <v>-8518</v>
-      </c>
-      <c r="J3">
-        <f t="shared" si="0"/>
-        <v>-33204</v>
-      </c>
-      <c r="K3">
-        <f t="shared" si="0"/>
-        <v>-24498</v>
-      </c>
-      <c r="L3">
-        <f t="shared" si="0"/>
-        <v>-43244</v>
-      </c>
-      <c r="M3">
-        <f t="shared" si="0"/>
-        <v>-7023</v>
-      </c>
-      <c r="N3">
-        <f t="shared" si="0"/>
-        <v>-33508</v>
-      </c>
-      <c r="O3">
-        <f t="shared" si="0"/>
-        <v>-29760</v>
-      </c>
-      <c r="P3">
-        <f t="shared" si="0"/>
-        <v>-45570</v>
-      </c>
-      <c r="Q3">
-        <f t="shared" si="0"/>
-        <v>82625</v>
-      </c>
-      <c r="R3">
-        <f t="shared" si="0"/>
-        <v>15562</v>
-      </c>
-      <c r="S3">
-        <f t="shared" si="0"/>
-        <v>1291</v>
-      </c>
-      <c r="T3">
-        <f t="shared" si="0"/>
-        <v>-28508</v>
-      </c>
-      <c r="U3">
-        <f t="shared" si="0"/>
-        <v>2715</v>
-      </c>
-      <c r="V3">
-        <f t="shared" si="0"/>
-        <v>-41356</v>
-      </c>
-      <c r="W3">
-        <f t="shared" si="0"/>
-        <v>1290153</v>
-      </c>
-      <c r="X3">
-        <f t="shared" si="0"/>
-        <v>-17420</v>
-      </c>
-      <c r="Y3">
-        <f t="shared" si="0"/>
-        <v>-26508</v>
-      </c>
-      <c r="Z3">
-        <f t="shared" si="0"/>
-        <v>1394</v>
-      </c>
-      <c r="AA3">
-        <f t="shared" si="0"/>
-        <v>-6016</v>
-      </c>
-    </row>
-    <row r="4" spans="3:27" x14ac:dyDescent="0.3">
+        <v>77981</v>
+      </c>
+    </row>
+    <row r="4" spans="3:9" x14ac:dyDescent="0.3">
       <c r="C4">
-        <v>-2100</v>
+        <v>424</v>
       </c>
       <c r="D4">
-        <v>296</v>
+        <v>-1287</v>
       </c>
       <c r="E4">
-        <v>-2100</v>
+        <v>-1000</v>
       </c>
       <c r="F4">
-        <v>-2100</v>
+        <v>-2016</v>
       </c>
       <c r="G4">
-        <v>-2100</v>
+        <v>-1706</v>
       </c>
       <c r="H4">
-        <v>-2100</v>
+        <v>-2016</v>
       </c>
       <c r="I4">
-        <v>-2100</v>
-      </c>
-      <c r="J4">
-        <v>-2100</v>
-      </c>
-      <c r="K4">
-        <v>696</v>
-      </c>
-      <c r="L4">
-        <v>-2100</v>
-      </c>
-      <c r="M4">
-        <v>-2100</v>
-      </c>
-      <c r="N4">
-        <v>-2100</v>
-      </c>
-      <c r="O4">
-        <v>5596</v>
-      </c>
-      <c r="P4">
-        <v>-2100</v>
-      </c>
-      <c r="Q4">
-        <v>-312</v>
-      </c>
-      <c r="R4">
-        <v>-2100</v>
-      </c>
-      <c r="S4">
-        <v>-2100</v>
-      </c>
-      <c r="T4">
-        <v>-2100</v>
-      </c>
-      <c r="U4">
-        <v>-2100</v>
-      </c>
-      <c r="V4">
-        <v>-2100</v>
-      </c>
-      <c r="W4">
-        <v>-2100</v>
-      </c>
-      <c r="X4">
-        <v>-2100</v>
-      </c>
-      <c r="Y4">
-        <v>-2100</v>
-      </c>
-      <c r="Z4">
-        <v>-2100</v>
-      </c>
-      <c r="AA4">
-        <v>-1287</v>
-      </c>
-    </row>
-    <row r="5" spans="3:27" x14ac:dyDescent="0.3">
+        <v>-2016</v>
+      </c>
+    </row>
+    <row r="5" spans="3:9" x14ac:dyDescent="0.3">
       <c r="C5">
-        <v>-1110</v>
+        <v>2584</v>
       </c>
       <c r="D5">
-        <v>-760</v>
+        <v>-598</v>
       </c>
       <c r="E5">
-        <v>-2200</v>
+        <v>-41</v>
       </c>
       <c r="F5">
-        <v>-2200</v>
+        <v>-1699</v>
       </c>
       <c r="G5">
-        <v>-2200</v>
+        <v>648</v>
       </c>
       <c r="H5">
-        <v>-2200</v>
+        <v>-1699</v>
       </c>
       <c r="I5">
-        <v>-2200</v>
-      </c>
-      <c r="J5">
-        <v>-2200</v>
-      </c>
-      <c r="K5">
-        <v>3468</v>
-      </c>
-      <c r="L5">
-        <v>-116</v>
-      </c>
-      <c r="M5">
-        <v>-2200</v>
-      </c>
-      <c r="N5">
-        <v>-2200</v>
-      </c>
-      <c r="O5">
-        <v>-2200</v>
-      </c>
-      <c r="P5">
-        <v>-2200</v>
-      </c>
-      <c r="Q5">
-        <v>18375</v>
-      </c>
-      <c r="R5">
-        <v>-2200</v>
-      </c>
-      <c r="S5">
-        <v>-2200</v>
-      </c>
-      <c r="T5">
-        <v>-2200</v>
-      </c>
-      <c r="U5">
-        <v>-2200</v>
-      </c>
-      <c r="V5">
-        <v>-2200</v>
-      </c>
-      <c r="W5">
-        <v>-2200</v>
-      </c>
-      <c r="X5">
-        <v>-2200</v>
-      </c>
-      <c r="Y5">
-        <v>-2200</v>
-      </c>
-      <c r="Z5">
-        <v>-2200</v>
-      </c>
-      <c r="AA5">
-        <v>-598</v>
-      </c>
-    </row>
-    <row r="6" spans="3:27" x14ac:dyDescent="0.3">
+        <v>1703</v>
+      </c>
+    </row>
+    <row r="6" spans="3:9" x14ac:dyDescent="0.3">
       <c r="C6">
-        <v>-2100</v>
+        <v>-864</v>
       </c>
       <c r="D6">
-        <v>5112</v>
+        <v>10459</v>
       </c>
       <c r="E6">
-        <v>-2100</v>
+        <v>1883</v>
       </c>
       <c r="F6">
-        <v>-2100</v>
+        <v>-294</v>
       </c>
       <c r="G6">
-        <v>24343</v>
+        <v>-1586</v>
       </c>
       <c r="H6">
-        <v>238824</v>
+        <v>-294</v>
       </c>
       <c r="I6">
-        <v>-2100</v>
-      </c>
-      <c r="J6">
-        <v>-2100</v>
-      </c>
-      <c r="K6">
-        <v>-2100</v>
-      </c>
-      <c r="L6">
-        <v>-2100</v>
-      </c>
-      <c r="M6">
-        <v>-2100</v>
-      </c>
-      <c r="N6">
-        <v>6528</v>
-      </c>
-      <c r="O6">
-        <v>3680</v>
-      </c>
-      <c r="P6">
-        <v>-2100</v>
-      </c>
-      <c r="Q6">
-        <v>-2100</v>
-      </c>
-      <c r="R6">
-        <v>-2100</v>
-      </c>
-      <c r="S6">
-        <v>-2100</v>
-      </c>
-      <c r="T6">
-        <v>-2100</v>
-      </c>
-      <c r="U6">
-        <v>-2100</v>
-      </c>
-      <c r="V6">
-        <v>-2100</v>
-      </c>
-      <c r="W6">
-        <v>-2100</v>
-      </c>
-      <c r="X6">
-        <v>-2100</v>
-      </c>
-      <c r="Y6">
-        <v>6632</v>
-      </c>
-      <c r="Z6">
-        <v>-2100</v>
-      </c>
-    </row>
-    <row r="7" spans="3:27" x14ac:dyDescent="0.3">
+        <v>-2016</v>
+      </c>
+    </row>
+    <row r="7" spans="3:9" x14ac:dyDescent="0.3">
       <c r="C7">
-        <v>2000</v>
+        <v>11111</v>
       </c>
       <c r="D7">
-        <v>-2000</v>
+        <v>1375</v>
       </c>
       <c r="E7">
-        <v>-2000</v>
+        <v>242</v>
       </c>
       <c r="F7">
-        <v>-2000</v>
+        <v>-1920</v>
       </c>
       <c r="G7">
-        <v>-2000</v>
+        <v>-1920</v>
       </c>
       <c r="H7">
-        <v>-2000</v>
+        <v>-1920</v>
       </c>
       <c r="I7">
-        <v>-2000</v>
-      </c>
-      <c r="J7">
-        <v>-2000</v>
-      </c>
-      <c r="K7">
-        <v>-910</v>
-      </c>
-      <c r="L7">
-        <v>-2000</v>
-      </c>
-      <c r="M7">
-        <v>-2000</v>
-      </c>
-      <c r="N7">
-        <v>-2000</v>
-      </c>
-      <c r="O7">
-        <v>180</v>
-      </c>
-      <c r="P7">
-        <v>-1060</v>
-      </c>
-      <c r="Q7">
-        <v>71191</v>
-      </c>
-      <c r="R7">
-        <v>-2000</v>
-      </c>
-      <c r="S7">
-        <v>-2000</v>
-      </c>
-      <c r="T7">
-        <v>-2000</v>
-      </c>
-      <c r="U7">
-        <v>-2000</v>
-      </c>
-      <c r="V7">
-        <v>-2000</v>
-      </c>
-      <c r="W7">
-        <v>-2000</v>
-      </c>
-      <c r="X7">
-        <v>-2000</v>
-      </c>
-      <c r="Y7">
-        <v>-2000</v>
-      </c>
-      <c r="Z7">
-        <v>-2000</v>
-      </c>
-      <c r="AA7">
-        <v>1375</v>
-      </c>
-    </row>
-    <row r="8" spans="3:27" x14ac:dyDescent="0.3">
+        <v>-1920</v>
+      </c>
+    </row>
+    <row r="8" spans="3:9" x14ac:dyDescent="0.3">
       <c r="C8">
-        <v>-2200</v>
+        <v>147</v>
       </c>
       <c r="D8">
-        <v>-2200</v>
+        <v>-1188</v>
       </c>
       <c r="E8">
-        <v>-1240</v>
+        <v>-1007</v>
       </c>
       <c r="F8">
-        <v>-2200</v>
+        <v>-2112</v>
       </c>
       <c r="G8">
-        <v>-2200</v>
+        <v>-2112</v>
       </c>
       <c r="H8">
-        <v>-2200</v>
+        <v>-2112</v>
       </c>
       <c r="I8">
-        <v>-1200</v>
-      </c>
-      <c r="J8">
-        <v>2588</v>
-      </c>
-      <c r="K8">
-        <v>-2200</v>
-      </c>
-      <c r="L8">
-        <v>-2200</v>
-      </c>
-      <c r="M8">
-        <v>-2200</v>
-      </c>
-      <c r="N8">
-        <v>-2200</v>
-      </c>
-      <c r="O8">
-        <v>-2200</v>
-      </c>
-      <c r="P8">
-        <v>-2200</v>
-      </c>
-      <c r="Q8">
-        <v>9956</v>
-      </c>
-      <c r="R8">
-        <v>-2200</v>
-      </c>
-      <c r="S8">
-        <v>-2200</v>
-      </c>
-      <c r="T8">
-        <v>-2200</v>
-      </c>
-      <c r="U8">
-        <v>-2200</v>
-      </c>
-      <c r="V8">
-        <v>-2200</v>
-      </c>
-      <c r="W8">
-        <v>-2200</v>
-      </c>
-      <c r="X8">
-        <v>-2200</v>
-      </c>
-      <c r="Y8">
-        <v>-2200</v>
-      </c>
-      <c r="Z8">
-        <v>-2200</v>
-      </c>
-      <c r="AA8">
-        <v>-1188</v>
-      </c>
-    </row>
-    <row r="9" spans="3:27" x14ac:dyDescent="0.3">
+        <v>-2112</v>
+      </c>
+    </row>
+    <row r="9" spans="3:9" x14ac:dyDescent="0.3">
       <c r="C9">
-        <v>-2200</v>
+        <v>-2112</v>
       </c>
       <c r="D9">
-        <v>-2200</v>
+        <v>-154</v>
       </c>
       <c r="E9">
-        <v>-2200</v>
+        <v>-635</v>
       </c>
       <c r="F9">
-        <v>-2200</v>
+        <v>-323</v>
       </c>
       <c r="G9">
-        <v>-2200</v>
+        <v>-1554</v>
       </c>
       <c r="H9">
-        <v>-2200</v>
+        <v>-323</v>
       </c>
       <c r="I9">
-        <v>-2200</v>
-      </c>
-      <c r="J9">
-        <v>-2200</v>
-      </c>
-      <c r="K9">
-        <v>-2200</v>
-      </c>
-      <c r="L9">
-        <v>-2200</v>
-      </c>
-      <c r="M9">
-        <v>-2200</v>
-      </c>
-      <c r="N9">
-        <v>-2200</v>
-      </c>
-      <c r="O9">
-        <v>-2200</v>
-      </c>
-      <c r="P9">
-        <v>-1010</v>
-      </c>
-      <c r="Q9">
-        <v>-2200</v>
-      </c>
-      <c r="R9">
-        <v>-2200</v>
-      </c>
-      <c r="S9">
-        <v>-2200</v>
-      </c>
-      <c r="T9">
-        <v>-2200</v>
-      </c>
-      <c r="U9">
-        <v>24867</v>
-      </c>
-      <c r="V9">
-        <v>-2200</v>
-      </c>
-      <c r="W9">
-        <v>-2200</v>
-      </c>
-      <c r="X9">
-        <v>-2200</v>
-      </c>
-      <c r="Y9">
-        <v>-2200</v>
-      </c>
-      <c r="Z9">
-        <v>8980</v>
-      </c>
-      <c r="AA9">
-        <v>-154</v>
-      </c>
-    </row>
-    <row r="10" spans="3:27" x14ac:dyDescent="0.3">
+        <v>-2112</v>
+      </c>
+    </row>
+    <row r="10" spans="3:9" x14ac:dyDescent="0.3">
       <c r="C10">
-        <v>-2500</v>
+        <v>-2400</v>
       </c>
       <c r="D10">
-        <v>-2500</v>
+        <v>-2213</v>
       </c>
       <c r="E10">
-        <v>-2500</v>
+        <v>44</v>
       </c>
       <c r="F10">
-        <v>-2500</v>
+        <v>-2400</v>
       </c>
       <c r="G10">
-        <v>-2500</v>
+        <v>-2400</v>
       </c>
       <c r="H10">
-        <v>1256</v>
+        <v>-2400</v>
       </c>
       <c r="I10">
-        <v>-2500</v>
-      </c>
-      <c r="J10">
-        <v>-2500</v>
-      </c>
-      <c r="K10">
-        <v>-2500</v>
-      </c>
-      <c r="L10">
-        <v>-2500</v>
-      </c>
-      <c r="M10">
-        <v>-2500</v>
-      </c>
-      <c r="N10">
-        <v>-2500</v>
-      </c>
-      <c r="O10">
-        <v>-2500</v>
-      </c>
-      <c r="P10">
-        <v>-2500</v>
-      </c>
-      <c r="Q10">
-        <v>-2500</v>
-      </c>
-      <c r="R10">
-        <v>-2500</v>
-      </c>
-      <c r="S10">
-        <v>-2500</v>
-      </c>
-      <c r="T10">
-        <v>-2500</v>
-      </c>
-      <c r="U10">
-        <v>-2500</v>
-      </c>
-      <c r="V10">
-        <v>-2500</v>
-      </c>
-      <c r="W10">
-        <v>-2500</v>
-      </c>
-      <c r="X10">
-        <v>-2500</v>
-      </c>
-      <c r="Y10">
-        <v>-2500</v>
-      </c>
-      <c r="Z10">
-        <v>-2500</v>
-      </c>
-      <c r="AA10">
-        <v>-2213</v>
-      </c>
-    </row>
-    <row r="11" spans="3:27" x14ac:dyDescent="0.3">
+        <v>-2400</v>
+      </c>
+    </row>
+    <row r="11" spans="3:9" x14ac:dyDescent="0.3">
       <c r="C11">
-        <v>-2600</v>
+        <v>795</v>
       </c>
       <c r="D11">
-        <v>-2600</v>
+        <v>1539</v>
       </c>
       <c r="E11">
-        <v>-2600</v>
+        <v>1867</v>
       </c>
       <c r="F11">
-        <v>-2600</v>
+        <v>-614</v>
       </c>
       <c r="G11">
-        <v>2508</v>
+        <v>2409</v>
       </c>
       <c r="H11">
-        <v>56297</v>
+        <v>-614</v>
       </c>
       <c r="I11">
-        <v>6636</v>
-      </c>
-      <c r="J11">
-        <v>-2600</v>
-      </c>
-      <c r="K11">
-        <v>2900</v>
-      </c>
-      <c r="L11">
-        <v>-2600</v>
-      </c>
-      <c r="M11">
-        <v>-2600</v>
-      </c>
-      <c r="N11">
-        <v>-2600</v>
-      </c>
-      <c r="O11">
-        <v>-2600</v>
-      </c>
-      <c r="P11">
-        <v>-2600</v>
-      </c>
-      <c r="Q11">
-        <v>-820</v>
-      </c>
-      <c r="R11">
-        <v>6828</v>
-      </c>
-      <c r="S11">
-        <v>-2600</v>
-      </c>
-      <c r="T11">
-        <v>-2600</v>
-      </c>
-      <c r="U11">
-        <v>-2600</v>
-      </c>
-      <c r="V11">
-        <v>-2600</v>
-      </c>
-      <c r="W11">
-        <v>-2600</v>
-      </c>
-      <c r="X11">
-        <v>-2600</v>
-      </c>
-      <c r="Y11">
-        <v>-2600</v>
-      </c>
-      <c r="Z11">
-        <v>-2600</v>
-      </c>
-      <c r="AA11">
-        <v>1539</v>
-      </c>
-    </row>
-    <row r="12" spans="3:27" x14ac:dyDescent="0.3">
+        <v>844</v>
+      </c>
+    </row>
+    <row r="12" spans="3:9" x14ac:dyDescent="0.3">
       <c r="C12">
-        <v>-2200</v>
+        <v>-662</v>
       </c>
       <c r="D12">
-        <v>-2200</v>
+        <v>210</v>
       </c>
       <c r="E12">
-        <v>-1650</v>
+        <v>499</v>
       </c>
       <c r="F12">
-        <v>-2200</v>
+        <v>-2112</v>
       </c>
       <c r="G12">
-        <v>-2200</v>
+        <v>-272</v>
       </c>
       <c r="H12">
-        <v>-2200</v>
+        <v>-2112</v>
       </c>
       <c r="I12">
-        <v>4628</v>
-      </c>
-      <c r="J12">
-        <v>-2200</v>
-      </c>
-      <c r="K12">
-        <v>-2200</v>
-      </c>
-      <c r="L12">
-        <v>-2200</v>
-      </c>
-      <c r="M12">
-        <v>-2200</v>
-      </c>
-      <c r="N12">
-        <v>-2200</v>
-      </c>
-      <c r="O12">
-        <v>-2200</v>
-      </c>
-      <c r="P12">
-        <v>-2200</v>
-      </c>
-      <c r="Q12">
-        <v>-2200</v>
-      </c>
-      <c r="R12">
-        <v>-2200</v>
-      </c>
-      <c r="S12">
-        <v>46791</v>
-      </c>
-      <c r="T12">
-        <v>-2200</v>
-      </c>
-      <c r="U12">
-        <v>-2200</v>
-      </c>
-      <c r="V12">
-        <v>-2200</v>
-      </c>
-      <c r="W12">
-        <v>-2200</v>
-      </c>
-      <c r="X12">
-        <v>-2200</v>
-      </c>
-      <c r="Y12">
-        <v>-2200</v>
-      </c>
-      <c r="Z12">
-        <v>-2200</v>
-      </c>
-      <c r="AA12">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="13" spans="3:27" x14ac:dyDescent="0.3">
+        <v>5250</v>
+      </c>
+    </row>
+    <row r="13" spans="3:9" x14ac:dyDescent="0.3">
       <c r="C13">
+        <v>-1166</v>
+      </c>
+      <c r="D13">
+        <v>-2020</v>
+      </c>
+      <c r="E13">
+        <v>481</v>
+      </c>
+      <c r="F13">
+        <v>-2304</v>
+      </c>
+      <c r="G13">
+        <v>3086</v>
+      </c>
+      <c r="H13">
+        <v>-2304</v>
+      </c>
+      <c r="I13">
+        <v>-2304</v>
+      </c>
+    </row>
+    <row r="14" spans="3:9" x14ac:dyDescent="0.3">
+      <c r="C14">
+        <v>4426</v>
+      </c>
+      <c r="D14">
+        <v>1815</v>
+      </c>
+      <c r="E14">
+        <v>8911</v>
+      </c>
+      <c r="F14">
+        <v>-2304</v>
+      </c>
+      <c r="G14">
+        <v>-2304</v>
+      </c>
+      <c r="H14">
+        <v>-2304</v>
+      </c>
+      <c r="I14">
+        <v>-2304</v>
+      </c>
+    </row>
+    <row r="15" spans="3:9" x14ac:dyDescent="0.3">
+      <c r="C15">
         <v>-2400</v>
       </c>
-      <c r="D13">
+      <c r="D15">
+        <v>205</v>
+      </c>
+      <c r="E15">
+        <v>1952</v>
+      </c>
+      <c r="F15">
+        <v>2241</v>
+      </c>
+      <c r="G15">
+        <v>6473</v>
+      </c>
+      <c r="H15">
+        <v>2241</v>
+      </c>
+      <c r="I15">
         <v>-2400</v>
       </c>
-      <c r="E13">
-        <v>-2400</v>
-      </c>
-      <c r="F13">
-        <v>-2400</v>
-      </c>
-      <c r="G13">
-        <v>-2400</v>
-      </c>
-      <c r="H13">
-        <v>-2400</v>
-      </c>
-      <c r="I13">
-        <v>-2400</v>
-      </c>
-      <c r="J13">
-        <v>-2400</v>
-      </c>
-      <c r="K13">
-        <v>-2400</v>
-      </c>
-      <c r="L13">
-        <v>-2400</v>
-      </c>
-      <c r="M13">
-        <v>-2400</v>
-      </c>
-      <c r="N13">
-        <v>-2400</v>
-      </c>
-      <c r="O13">
-        <v>-116</v>
-      </c>
-      <c r="P13">
-        <v>-2400</v>
-      </c>
-      <c r="Q13">
-        <v>1044</v>
-      </c>
-      <c r="R13">
-        <v>-2400</v>
-      </c>
-      <c r="S13">
-        <v>-2400</v>
-      </c>
-      <c r="T13">
-        <v>-2400</v>
-      </c>
-      <c r="U13">
-        <v>-2400</v>
-      </c>
-      <c r="V13">
-        <v>-2400</v>
-      </c>
-      <c r="W13">
-        <v>-2400</v>
-      </c>
-      <c r="X13">
-        <v>-2400</v>
-      </c>
-      <c r="Y13">
-        <v>-2400</v>
-      </c>
-      <c r="Z13">
-        <v>-2400</v>
-      </c>
-      <c r="AA13">
-        <v>-2020</v>
-      </c>
-    </row>
-    <row r="14" spans="3:27" x14ac:dyDescent="0.3">
-      <c r="C14">
-        <v>-2400</v>
-      </c>
-      <c r="D14">
-        <v>-2400</v>
-      </c>
-      <c r="E14">
-        <v>37690</v>
-      </c>
-      <c r="F14">
-        <v>-2400</v>
-      </c>
-      <c r="G14">
-        <v>-2400</v>
-      </c>
-      <c r="H14">
-        <v>27107</v>
-      </c>
-      <c r="I14">
-        <v>-2400</v>
-      </c>
-      <c r="J14">
-        <v>-2400</v>
-      </c>
-      <c r="K14">
-        <v>-2400</v>
-      </c>
-      <c r="L14">
-        <v>-2400</v>
-      </c>
-      <c r="M14">
-        <v>-2400</v>
-      </c>
-      <c r="N14">
-        <v>-2400</v>
-      </c>
-      <c r="O14">
-        <v>-2400</v>
-      </c>
-      <c r="P14">
-        <v>-2400</v>
-      </c>
-      <c r="Q14">
-        <v>-2400</v>
-      </c>
-      <c r="R14">
-        <v>-2400</v>
-      </c>
-      <c r="S14">
-        <v>-2400</v>
-      </c>
-      <c r="T14">
-        <v>-2400</v>
-      </c>
-      <c r="U14">
-        <v>10476</v>
-      </c>
-      <c r="V14">
-        <v>-2400</v>
-      </c>
-      <c r="W14">
-        <v>-2400</v>
-      </c>
-      <c r="X14">
-        <v>-2400</v>
-      </c>
-      <c r="Y14">
-        <v>-2400</v>
-      </c>
-      <c r="Z14">
-        <v>-2400</v>
-      </c>
-      <c r="AA14">
-        <v>1815</v>
-      </c>
-    </row>
-    <row r="15" spans="3:27" x14ac:dyDescent="0.3">
-      <c r="C15">
-        <v>-2500</v>
-      </c>
-      <c r="D15">
-        <v>-2500</v>
-      </c>
-      <c r="E15">
-        <v>-2500</v>
-      </c>
-      <c r="F15">
-        <v>-2500</v>
-      </c>
-      <c r="G15">
-        <v>-2500</v>
-      </c>
-      <c r="H15">
-        <v>-2500</v>
-      </c>
-      <c r="I15">
-        <v>-2500</v>
-      </c>
-      <c r="J15">
-        <v>-2500</v>
-      </c>
-      <c r="K15">
-        <v>-2500</v>
-      </c>
-      <c r="L15">
-        <v>-128</v>
-      </c>
-      <c r="M15">
-        <v>17359</v>
-      </c>
-      <c r="N15">
-        <v>-2500</v>
-      </c>
-      <c r="O15">
-        <v>-2500</v>
-      </c>
-      <c r="P15">
-        <v>-2500</v>
-      </c>
-      <c r="Q15">
-        <v>-2500</v>
-      </c>
-      <c r="R15">
-        <v>23567</v>
-      </c>
-      <c r="S15">
-        <v>-2500</v>
-      </c>
-      <c r="T15">
-        <v>-2500</v>
-      </c>
-      <c r="U15">
-        <v>1376</v>
-      </c>
-      <c r="V15">
-        <v>-2500</v>
-      </c>
-      <c r="W15">
-        <v>-2500</v>
-      </c>
-      <c r="X15">
-        <v>-2500</v>
-      </c>
-      <c r="Y15">
-        <v>-2500</v>
-      </c>
-      <c r="Z15">
-        <v>-2500</v>
-      </c>
-      <c r="AA15">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="16" spans="3:27" x14ac:dyDescent="0.3">
+    </row>
+    <row r="16" spans="3:9" x14ac:dyDescent="0.3">
       <c r="C16">
-        <v>-2400</v>
+        <v>-2304</v>
       </c>
       <c r="D16">
-        <v>-2400</v>
+        <v>-2050</v>
       </c>
       <c r="E16">
-        <v>-2400</v>
+        <v>930</v>
       </c>
       <c r="F16">
-        <v>-2400</v>
+        <v>-1290</v>
       </c>
       <c r="G16">
-        <v>-2400</v>
+        <v>3496</v>
       </c>
       <c r="H16">
-        <v>-2400</v>
+        <v>-1290</v>
       </c>
       <c r="I16">
-        <v>-2400</v>
-      </c>
-      <c r="J16">
-        <v>-2400</v>
-      </c>
-      <c r="K16">
-        <v>-2400</v>
-      </c>
-      <c r="L16">
-        <v>-2400</v>
-      </c>
-      <c r="M16">
-        <v>-2400</v>
-      </c>
-      <c r="N16">
-        <v>-2400</v>
-      </c>
-      <c r="O16">
-        <v>-2400</v>
-      </c>
-      <c r="P16">
-        <v>-2400</v>
-      </c>
-      <c r="Q16">
-        <v>-2400</v>
-      </c>
-      <c r="R16">
-        <v>-2400</v>
-      </c>
-      <c r="S16">
-        <v>-2400</v>
-      </c>
-      <c r="T16">
-        <v>2692</v>
-      </c>
-      <c r="U16">
-        <v>-2400</v>
-      </c>
-      <c r="V16">
-        <v>-2400</v>
-      </c>
-      <c r="W16">
-        <v>-2400</v>
-      </c>
-      <c r="X16">
-        <v>-2400</v>
-      </c>
-      <c r="Y16">
-        <v>-2400</v>
-      </c>
-      <c r="Z16">
-        <v>-2400</v>
-      </c>
-      <c r="AA16">
-        <v>-2050</v>
-      </c>
-    </row>
-    <row r="17" spans="3:27" x14ac:dyDescent="0.3">
+        <v>19882</v>
+      </c>
+    </row>
+    <row r="17" spans="3:9" x14ac:dyDescent="0.3">
       <c r="C17">
-        <v>6168</v>
+        <v>264</v>
       </c>
       <c r="D17">
-        <v>-2200</v>
+        <v>51983</v>
       </c>
       <c r="E17">
-        <v>-2200</v>
+        <v>13255</v>
       </c>
       <c r="F17">
-        <v>-2200</v>
+        <v>-2112</v>
       </c>
       <c r="G17">
-        <v>-2200</v>
+        <v>1006</v>
       </c>
       <c r="H17">
-        <v>-2200</v>
+        <v>-2112</v>
       </c>
       <c r="I17">
-        <v>-1000</v>
-      </c>
-      <c r="J17">
-        <v>-2200</v>
-      </c>
-      <c r="K17">
-        <v>764</v>
-      </c>
-      <c r="L17">
-        <v>-2200</v>
-      </c>
-      <c r="M17">
-        <v>-2200</v>
-      </c>
-      <c r="N17">
-        <v>-2200</v>
-      </c>
-      <c r="O17">
-        <v>-2200</v>
-      </c>
-      <c r="P17">
-        <v>-2200</v>
-      </c>
-      <c r="Q17">
-        <v>-2200</v>
-      </c>
-      <c r="R17">
-        <v>-2200</v>
-      </c>
-      <c r="S17">
-        <v>-2200</v>
-      </c>
-      <c r="T17">
-        <v>-2200</v>
-      </c>
-      <c r="U17">
-        <v>-2200</v>
-      </c>
-      <c r="V17">
-        <v>-2200</v>
-      </c>
-      <c r="W17">
-        <v>1316858</v>
-      </c>
-      <c r="X17">
-        <v>-2200</v>
-      </c>
-      <c r="Y17">
-        <v>10260</v>
-      </c>
-      <c r="Z17">
-        <v>-2200</v>
-      </c>
-    </row>
-    <row r="18" spans="3:27" x14ac:dyDescent="0.3">
+        <v>10358</v>
+      </c>
+    </row>
+    <row r="18" spans="3:9" x14ac:dyDescent="0.3">
       <c r="C18">
-        <v>-2200</v>
+        <v>906</v>
       </c>
       <c r="D18">
-        <v>-2200</v>
+        <v>-947</v>
       </c>
       <c r="E18">
-        <v>-2200</v>
+        <v>1545</v>
       </c>
       <c r="F18">
-        <v>-2200</v>
+        <v>-1600</v>
       </c>
       <c r="G18">
-        <v>444</v>
+        <v>5062</v>
       </c>
       <c r="H18">
-        <v>-2200</v>
+        <v>-1600</v>
       </c>
       <c r="I18">
-        <v>740</v>
-      </c>
-      <c r="J18">
-        <v>-2200</v>
-      </c>
-      <c r="K18">
-        <v>-2200</v>
-      </c>
-      <c r="L18">
-        <v>-2200</v>
-      </c>
-      <c r="M18">
-        <v>-2200</v>
-      </c>
-      <c r="N18">
-        <v>-2200</v>
-      </c>
-      <c r="O18">
-        <v>-2200</v>
-      </c>
-      <c r="P18">
-        <v>-2200</v>
-      </c>
-      <c r="Q18">
-        <v>13011</v>
-      </c>
-      <c r="R18">
-        <v>380</v>
-      </c>
-      <c r="S18">
-        <v>-2200</v>
-      </c>
-      <c r="T18">
-        <v>-2200</v>
-      </c>
-      <c r="U18">
-        <v>-2200</v>
-      </c>
-      <c r="V18">
-        <v>-2200</v>
-      </c>
-      <c r="W18">
-        <v>-2200</v>
-      </c>
-      <c r="X18">
-        <v>-2200</v>
-      </c>
-      <c r="Y18">
-        <v>-2200</v>
-      </c>
-      <c r="Z18">
-        <v>-2200</v>
-      </c>
-      <c r="AA18">
-        <v>-947</v>
-      </c>
-    </row>
-    <row r="19" spans="3:27" x14ac:dyDescent="0.3">
+        <v>18372</v>
+      </c>
+    </row>
+    <row r="19" spans="3:9" x14ac:dyDescent="0.3">
       <c r="C19">
-        <v>-2200</v>
+        <v>-1747</v>
       </c>
       <c r="D19">
-        <v>-1080</v>
+        <v>-1520</v>
       </c>
       <c r="E19">
-        <v>-2200</v>
+        <v>-824</v>
       </c>
       <c r="F19">
-        <v>364</v>
+        <v>-2112</v>
       </c>
       <c r="G19">
-        <v>-2200</v>
+        <v>-1716</v>
       </c>
       <c r="H19">
-        <v>-2200</v>
+        <v>-2112</v>
       </c>
       <c r="I19">
-        <v>-2200</v>
-      </c>
-      <c r="J19">
-        <v>-2200</v>
-      </c>
-      <c r="K19">
-        <v>-356</v>
-      </c>
-      <c r="L19">
-        <v>-2200</v>
-      </c>
-      <c r="M19">
-        <v>-2200</v>
-      </c>
-      <c r="N19">
-        <v>-2200</v>
-      </c>
-      <c r="O19">
-        <v>-2200</v>
-      </c>
-      <c r="P19">
-        <v>-2200</v>
-      </c>
-      <c r="Q19">
-        <v>-2200</v>
-      </c>
-      <c r="R19">
-        <v>-2200</v>
-      </c>
-      <c r="S19">
-        <v>-2200</v>
-      </c>
-      <c r="T19">
-        <v>-2200</v>
-      </c>
-      <c r="U19">
-        <v>4396</v>
-      </c>
-      <c r="V19">
-        <v>-2200</v>
-      </c>
-      <c r="W19">
-        <v>-2200</v>
-      </c>
-      <c r="X19">
-        <v>-2200</v>
-      </c>
-      <c r="Y19">
-        <v>-2200</v>
-      </c>
-      <c r="Z19">
-        <v>-2200</v>
-      </c>
-      <c r="AA19">
-        <v>-1520</v>
-      </c>
-    </row>
-    <row r="20" spans="3:27" x14ac:dyDescent="0.3">
+        <v>-2112</v>
+      </c>
+    </row>
+    <row r="20" spans="3:9" x14ac:dyDescent="0.3">
       <c r="C20">
-        <v>396</v>
+        <v>-981</v>
       </c>
       <c r="D20">
-        <v>-2200</v>
+        <v>809</v>
       </c>
       <c r="E20">
-        <v>-2200</v>
+        <v>-432</v>
       </c>
       <c r="F20">
-        <v>21947</v>
+        <v>-2112</v>
       </c>
       <c r="G20">
-        <v>-2200</v>
+        <v>-2112</v>
       </c>
       <c r="H20">
-        <v>-2200</v>
+        <v>-2112</v>
       </c>
       <c r="I20">
-        <v>1650</v>
-      </c>
-      <c r="J20">
-        <v>-2200</v>
-      </c>
-      <c r="K20">
-        <v>-2200</v>
-      </c>
-      <c r="L20">
-        <v>-2200</v>
-      </c>
-      <c r="M20">
-        <v>7684</v>
-      </c>
-      <c r="N20">
-        <v>-2200</v>
-      </c>
-      <c r="O20">
-        <v>-2200</v>
-      </c>
-      <c r="P20">
-        <v>-2200</v>
-      </c>
-      <c r="Q20">
-        <v>-2200</v>
-      </c>
-      <c r="R20">
-        <v>-2200</v>
-      </c>
-      <c r="S20">
-        <v>-2200</v>
-      </c>
-      <c r="T20">
-        <v>-2200</v>
-      </c>
-      <c r="U20">
-        <v>-2200</v>
-      </c>
-      <c r="V20">
-        <v>-2200</v>
-      </c>
-      <c r="W20">
-        <v>16595</v>
-      </c>
-      <c r="X20">
-        <v>-2200</v>
-      </c>
-      <c r="Y20">
-        <v>-2200</v>
-      </c>
-      <c r="Z20">
-        <v>-2200</v>
-      </c>
-      <c r="AA20">
-        <v>809</v>
-      </c>
-    </row>
-    <row r="21" spans="3:27" x14ac:dyDescent="0.3">
+        <v>-2112</v>
+      </c>
+    </row>
+    <row r="21" spans="3:9" x14ac:dyDescent="0.3">
       <c r="C21">
-        <v>-2200</v>
+        <v>-1827</v>
       </c>
       <c r="D21">
-        <v>-540</v>
+        <v>1845</v>
       </c>
       <c r="E21">
-        <v>-2200</v>
+        <v>-316</v>
       </c>
       <c r="F21">
-        <v>-2200</v>
+        <v>6705</v>
       </c>
       <c r="G21">
-        <v>-2200</v>
+        <v>702</v>
       </c>
       <c r="H21">
-        <v>-2200</v>
+        <v>6705</v>
       </c>
       <c r="I21">
-        <v>-2200</v>
-      </c>
-      <c r="J21">
-        <v>7508</v>
-      </c>
-      <c r="K21">
-        <v>-420</v>
-      </c>
-      <c r="L21">
-        <v>-2200</v>
-      </c>
-      <c r="M21">
-        <v>6684</v>
-      </c>
-      <c r="N21">
-        <v>-2200</v>
-      </c>
-      <c r="O21">
-        <v>-2200</v>
-      </c>
-      <c r="P21">
-        <v>-2200</v>
-      </c>
-      <c r="Q21">
-        <v>-2200</v>
-      </c>
-      <c r="R21">
-        <v>-2200</v>
-      </c>
-      <c r="S21">
-        <v>-2200</v>
-      </c>
-      <c r="T21">
-        <v>-2200</v>
-      </c>
-      <c r="U21">
-        <v>-2200</v>
-      </c>
-      <c r="V21">
-        <v>588</v>
-      </c>
-      <c r="W21">
-        <v>-2200</v>
-      </c>
-      <c r="X21">
-        <v>14988</v>
-      </c>
-      <c r="Y21">
-        <v>-2200</v>
-      </c>
-      <c r="Z21">
-        <v>35714</v>
-      </c>
-      <c r="AA21">
-        <v>1845</v>
-      </c>
-    </row>
-    <row r="22" spans="3:27" x14ac:dyDescent="0.3">
+        <v>-2112</v>
+      </c>
+    </row>
+    <row r="22" spans="3:9" x14ac:dyDescent="0.3">
       <c r="C22">
-        <v>584</v>
+        <v>-1635</v>
       </c>
       <c r="D22">
-        <v>-2300</v>
+        <v>-1411</v>
       </c>
       <c r="E22">
-        <v>-2300</v>
+        <v>67</v>
       </c>
       <c r="F22">
-        <v>-2300</v>
+        <v>-113</v>
       </c>
       <c r="G22">
-        <v>-2300</v>
+        <v>1996</v>
       </c>
       <c r="H22">
-        <v>-2300</v>
+        <v>-113</v>
       </c>
       <c r="I22">
-        <v>-2300</v>
-      </c>
-      <c r="J22">
-        <v>-2300</v>
-      </c>
-      <c r="K22">
-        <v>-2300</v>
-      </c>
-      <c r="L22">
-        <v>-2300</v>
-      </c>
-      <c r="M22">
-        <v>-2300</v>
-      </c>
-      <c r="N22">
-        <v>-2300</v>
-      </c>
-      <c r="O22">
-        <v>-2300</v>
-      </c>
-      <c r="P22">
-        <v>-2300</v>
-      </c>
-      <c r="Q22">
-        <v>-2300</v>
-      </c>
-      <c r="R22">
-        <v>-2300</v>
-      </c>
-      <c r="S22">
-        <v>-2300</v>
-      </c>
-      <c r="T22">
-        <v>-2300</v>
-      </c>
-      <c r="U22">
-        <v>-2300</v>
-      </c>
-      <c r="V22">
-        <v>-2300</v>
-      </c>
-      <c r="W22">
-        <v>-2300</v>
-      </c>
-      <c r="X22">
-        <v>10792</v>
-      </c>
-      <c r="Y22">
-        <v>-2300</v>
-      </c>
-      <c r="Z22">
-        <v>-2300</v>
-      </c>
-      <c r="AA22">
-        <v>-1411</v>
-      </c>
-    </row>
-    <row r="23" spans="3:27" x14ac:dyDescent="0.3">
+        <v>11993</v>
+      </c>
+    </row>
+    <row r="23" spans="3:9" x14ac:dyDescent="0.3">
       <c r="C23">
-        <v>-2300</v>
+        <v>-1398</v>
       </c>
       <c r="D23">
-        <v>-2300</v>
+        <v>-886</v>
       </c>
       <c r="E23">
-        <v>-2300</v>
+        <v>-536</v>
       </c>
       <c r="F23">
-        <v>-890</v>
+        <v>1157</v>
       </c>
       <c r="G23">
-        <v>-2300</v>
+        <v>-1227</v>
       </c>
       <c r="H23">
-        <v>-2300</v>
+        <v>1157</v>
       </c>
       <c r="I23">
-        <v>1768</v>
-      </c>
-      <c r="J23">
-        <v>-2300</v>
-      </c>
-      <c r="K23">
-        <v>-2300</v>
-      </c>
-      <c r="L23">
-        <v>-2300</v>
-      </c>
-      <c r="M23">
-        <v>-250</v>
-      </c>
-      <c r="N23">
-        <v>3264</v>
-      </c>
-      <c r="O23">
-        <v>-2300</v>
-      </c>
-      <c r="P23">
-        <v>-2300</v>
-      </c>
-      <c r="Q23">
-        <v>-2300</v>
-      </c>
-      <c r="R23">
-        <v>-2300</v>
-      </c>
-      <c r="S23">
-        <v>-2300</v>
-      </c>
-      <c r="T23">
-        <v>11800</v>
-      </c>
-      <c r="U23">
-        <v>-2300</v>
-      </c>
-      <c r="V23">
-        <v>-2300</v>
-      </c>
-      <c r="W23">
-        <v>-2300</v>
-      </c>
-      <c r="X23">
-        <v>-2300</v>
-      </c>
-      <c r="Y23">
-        <v>-2300</v>
-      </c>
-      <c r="Z23">
-        <v>-2300</v>
-      </c>
-      <c r="AA23">
-        <v>-886</v>
-      </c>
-    </row>
-    <row r="24" spans="3:27" x14ac:dyDescent="0.3">
+        <v>-2208</v>
+      </c>
+    </row>
+    <row r="24" spans="3:9" x14ac:dyDescent="0.3">
       <c r="C24">
-        <v>-2300</v>
+        <v>482</v>
       </c>
       <c r="D24">
-        <v>8928</v>
+        <v>460</v>
       </c>
       <c r="E24">
-        <v>-2300</v>
+        <v>2697</v>
       </c>
       <c r="F24">
-        <v>-2300</v>
+        <v>1822</v>
       </c>
       <c r="G24">
-        <v>-2300</v>
+        <v>12089</v>
       </c>
       <c r="H24">
-        <v>-2300</v>
+        <v>1822</v>
       </c>
       <c r="I24">
-        <v>7760</v>
-      </c>
-      <c r="J24">
-        <v>-2300</v>
-      </c>
-      <c r="K24">
-        <v>-740</v>
-      </c>
-      <c r="L24">
-        <v>-2300</v>
-      </c>
-      <c r="M24">
-        <v>-2300</v>
-      </c>
-      <c r="N24">
-        <v>-2300</v>
-      </c>
-      <c r="O24">
-        <v>-2300</v>
-      </c>
-      <c r="P24">
-        <v>-2300</v>
-      </c>
-      <c r="Q24">
-        <v>-120</v>
-      </c>
-      <c r="R24">
-        <v>22887</v>
-      </c>
-      <c r="S24">
-        <v>-2300</v>
-      </c>
-      <c r="T24">
-        <v>-2300</v>
-      </c>
-      <c r="U24">
-        <v>-2300</v>
-      </c>
-      <c r="V24">
-        <v>1256</v>
-      </c>
-      <c r="W24">
-        <v>-2300</v>
-      </c>
-      <c r="X24">
-        <v>-2300</v>
-      </c>
-      <c r="Y24">
-        <v>-2300</v>
-      </c>
-      <c r="Z24">
-        <v>-2300</v>
-      </c>
-      <c r="AA24">
-        <v>460</v>
+        <v>37707</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="C4:Z25">
-    <cfRule type="colorScale" priority="1">
+  <conditionalFormatting sqref="C4:I25">
+    <cfRule type="colorScale" priority="12">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -32237,7 +31072,7 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="A1:XFD1048576">
-    <cfRule type="expression" dxfId="19" priority="1">
+    <cfRule type="expression" dxfId="18" priority="1">
       <formula>A1&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -37188,7 +36023,7 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="A1:XFD1048576">
-    <cfRule type="expression" dxfId="18" priority="1">
+    <cfRule type="expression" dxfId="17" priority="1">
       <formula>A1&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -40679,7 +39514,7 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="A1:XFD1048576">
-    <cfRule type="expression" dxfId="17" priority="1">
+    <cfRule type="expression" dxfId="16" priority="1">
       <formula>A1&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -44028,27 +42863,27 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="A5:B52 D5:J52 T5:XFD52 A1:XFD4 A53:XFD1048576 L5:R52">
-    <cfRule type="expression" dxfId="16" priority="5">
+    <cfRule type="expression" dxfId="15" priority="5">
       <formula>A1&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C5">
-    <cfRule type="expression" dxfId="15" priority="4">
+    <cfRule type="expression" dxfId="14" priority="4">
       <formula>C5&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C6:C52">
-    <cfRule type="expression" dxfId="14" priority="3">
+    <cfRule type="expression" dxfId="13" priority="3">
       <formula>C6&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K5:K52">
-    <cfRule type="expression" dxfId="13" priority="2">
+    <cfRule type="expression" dxfId="12" priority="2">
       <formula>K5&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S5:S52">
-    <cfRule type="expression" dxfId="12" priority="1">
+    <cfRule type="expression" dxfId="11" priority="1">
       <formula>S5&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -47531,7 +46366,7 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="A1:XFD1048576">
-    <cfRule type="expression" dxfId="11" priority="1">
+    <cfRule type="expression" dxfId="10" priority="1">
       <formula>A1&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -54963,32 +53798,32 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="B53:C1048576 B1:C4 AH1:XFD1048576 S1:AE1048576 D1:P1048576 A1:A1048576">
-    <cfRule type="expression" dxfId="10" priority="11">
+    <cfRule type="expression" dxfId="9" priority="11">
       <formula>A1&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B5:C52">
-    <cfRule type="expression" dxfId="9" priority="5">
+    <cfRule type="expression" dxfId="8" priority="5">
       <formula>B5&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q53:R1048576 Q1:R4">
-    <cfRule type="expression" dxfId="8" priority="4">
+    <cfRule type="expression" dxfId="7" priority="4">
       <formula>Q1&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q5:R52">
-    <cfRule type="expression" dxfId="7" priority="3">
+    <cfRule type="expression" dxfId="6" priority="3">
       <formula>Q5&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AF53:AG1048576 AF1:AG4">
-    <cfRule type="expression" dxfId="6" priority="2">
+    <cfRule type="expression" dxfId="5" priority="2">
       <formula>AF1&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AF5:AG52">
-    <cfRule type="expression" dxfId="5" priority="1">
+    <cfRule type="expression" dxfId="4" priority="1">
       <formula>AF5&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -61440,12 +60275,12 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="A1:U1 W1:AC1 A2:AC1048576 AQ1:XFD1048576">
-    <cfRule type="expression" dxfId="4" priority="2">
+    <cfRule type="expression" dxfId="3" priority="2">
       <formula>A1&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AD1:AI1 AK1:AP1 AD2:AP1048576">
-    <cfRule type="expression" dxfId="3" priority="1">
+    <cfRule type="expression" dxfId="2" priority="1">
       <formula>AD1&gt;0</formula>
     </cfRule>
   </conditionalFormatting>

--- a/result/back_testing_m1.xlsx
+++ b/result/back_testing_m1.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr codeName="현재_통합_문서" defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\study\kra\result\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="21900" yWindow="45" windowWidth="21000" windowHeight="9915" firstSheet="12" activeTab="30"/>
+    <workbookView xWindow="21900" yWindow="45" windowWidth="21000" windowHeight="9915" firstSheet="19" activeTab="30"/>
   </bookViews>
   <sheets>
     <sheet name="0" sheetId="56" r:id="rId1"/>
@@ -539,12 +534,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="12">
@@ -678,7 +679,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -751,53 +752,29 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="147">
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-    </dxf>
+  <dxfs count="140">
     <dxf>
       <font>
         <b/>
@@ -1694,7 +1671,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1729,7 +1706,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -3264,12 +3241,12 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="B1:I1">
-    <cfRule type="expression" dxfId="146" priority="2">
+    <cfRule type="expression" dxfId="139" priority="2">
       <formula>B1&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J1">
-    <cfRule type="expression" dxfId="145" priority="1">
+    <cfRule type="expression" dxfId="138" priority="1">
       <formula>J1&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5403,12 +5380,12 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="B1:I1">
-    <cfRule type="expression" dxfId="116" priority="4">
+    <cfRule type="expression" dxfId="109" priority="4">
       <formula>B1&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M1:U1">
-    <cfRule type="expression" dxfId="115" priority="3">
+    <cfRule type="expression" dxfId="108" priority="3">
       <formula>M1&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5425,7 +5402,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J1">
-    <cfRule type="expression" dxfId="114" priority="1">
+    <cfRule type="expression" dxfId="107" priority="1">
       <formula>J1&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -8752,12 +8729,12 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="B1:I1">
-    <cfRule type="expression" dxfId="113" priority="4">
+    <cfRule type="expression" dxfId="106" priority="4">
       <formula>B1&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M1:U1">
-    <cfRule type="expression" dxfId="112" priority="3">
+    <cfRule type="expression" dxfId="105" priority="3">
       <formula>M1&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -8774,7 +8751,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J1">
-    <cfRule type="expression" dxfId="111" priority="1">
+    <cfRule type="expression" dxfId="104" priority="1">
       <formula>J1&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -12108,12 +12085,12 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="B1:I1">
-    <cfRule type="expression" dxfId="110" priority="4">
+    <cfRule type="expression" dxfId="103" priority="4">
       <formula>B1&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M1:U1">
-    <cfRule type="expression" dxfId="109" priority="3">
+    <cfRule type="expression" dxfId="102" priority="3">
       <formula>M1&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -12130,7 +12107,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J1">
-    <cfRule type="expression" dxfId="108" priority="1">
+    <cfRule type="expression" dxfId="101" priority="1">
       <formula>J1&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -15463,12 +15440,12 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="B1:I1">
-    <cfRule type="expression" dxfId="107" priority="4">
+    <cfRule type="expression" dxfId="100" priority="4">
       <formula>B1&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M1:U1">
-    <cfRule type="expression" dxfId="106" priority="3">
+    <cfRule type="expression" dxfId="99" priority="3">
       <formula>M1&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -15485,7 +15462,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J1">
-    <cfRule type="expression" dxfId="105" priority="1">
+    <cfRule type="expression" dxfId="98" priority="1">
       <formula>J1&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -17612,12 +17589,12 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="B1:I1">
-    <cfRule type="expression" dxfId="104" priority="4">
+    <cfRule type="expression" dxfId="97" priority="4">
       <formula>B1&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M1:U1">
-    <cfRule type="expression" dxfId="103" priority="3">
+    <cfRule type="expression" dxfId="96" priority="3">
       <formula>M1&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -17634,7 +17611,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J1">
-    <cfRule type="expression" dxfId="102" priority="1">
+    <cfRule type="expression" dxfId="95" priority="1">
       <formula>J1&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -19761,12 +19738,12 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="B1:I1">
-    <cfRule type="expression" dxfId="101" priority="4">
+    <cfRule type="expression" dxfId="94" priority="4">
       <formula>B1&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M1:U1">
-    <cfRule type="expression" dxfId="100" priority="3">
+    <cfRule type="expression" dxfId="93" priority="3">
       <formula>M1&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -19783,7 +19760,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J1">
-    <cfRule type="expression" dxfId="99" priority="1">
+    <cfRule type="expression" dxfId="92" priority="1">
       <formula>J1&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -21909,12 +21886,12 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="B1:I1">
-    <cfRule type="expression" dxfId="98" priority="4">
+    <cfRule type="expression" dxfId="91" priority="4">
       <formula>B1&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M1:U1">
-    <cfRule type="expression" dxfId="97" priority="3">
+    <cfRule type="expression" dxfId="90" priority="3">
       <formula>M1&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -21931,7 +21908,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J1">
-    <cfRule type="expression" dxfId="96" priority="1">
+    <cfRule type="expression" dxfId="89" priority="1">
       <formula>J1&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -24784,12 +24761,12 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="B1:I1">
-    <cfRule type="expression" dxfId="95" priority="4">
+    <cfRule type="expression" dxfId="88" priority="4">
       <formula>B1&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M1:U1">
-    <cfRule type="expression" dxfId="94" priority="3">
+    <cfRule type="expression" dxfId="87" priority="3">
       <formula>M1&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -24806,7 +24783,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J1">
-    <cfRule type="expression" dxfId="93" priority="1">
+    <cfRule type="expression" dxfId="86" priority="1">
       <formula>J1&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -27659,12 +27636,12 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="B1:I1">
-    <cfRule type="expression" dxfId="92" priority="4">
+    <cfRule type="expression" dxfId="85" priority="4">
       <formula>B1&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M1:U1">
-    <cfRule type="expression" dxfId="91" priority="3">
+    <cfRule type="expression" dxfId="84" priority="3">
       <formula>M1&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -27681,7 +27658,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J1">
-    <cfRule type="expression" dxfId="90" priority="1">
+    <cfRule type="expression" dxfId="83" priority="1">
       <formula>J1&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -30533,12 +30510,12 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="B1:I1">
-    <cfRule type="expression" dxfId="89" priority="4">
+    <cfRule type="expression" dxfId="82" priority="4">
       <formula>B1&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M1:U1">
-    <cfRule type="expression" dxfId="88" priority="3">
+    <cfRule type="expression" dxfId="81" priority="3">
       <formula>M1&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -30555,7 +30532,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J1">
-    <cfRule type="expression" dxfId="87" priority="1">
+    <cfRule type="expression" dxfId="80" priority="1">
       <formula>J1&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -32683,12 +32660,12 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="B1:I1">
-    <cfRule type="expression" dxfId="144" priority="4">
+    <cfRule type="expression" dxfId="137" priority="4">
       <formula>B1&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M1:U1">
-    <cfRule type="expression" dxfId="143" priority="3">
+    <cfRule type="expression" dxfId="136" priority="3">
       <formula>M1&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -32705,7 +32682,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J1">
-    <cfRule type="expression" dxfId="142" priority="1">
+    <cfRule type="expression" dxfId="135" priority="1">
       <formula>J1&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -51701,202 +51678,202 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="E68:K68 E70:K72">
-    <cfRule type="expression" dxfId="86" priority="41">
+    <cfRule type="expression" dxfId="79" priority="41">
       <formula>E68&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E67:K67">
-    <cfRule type="expression" dxfId="85" priority="40">
+    <cfRule type="expression" dxfId="78" priority="40">
       <formula>E67&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E69:K69">
-    <cfRule type="expression" dxfId="84" priority="39">
+    <cfRule type="expression" dxfId="77" priority="39">
       <formula>E69&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E65:K66">
-    <cfRule type="expression" dxfId="83" priority="38">
+    <cfRule type="expression" dxfId="76" priority="38">
       <formula>E65&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E62:K62">
-    <cfRule type="expression" dxfId="82" priority="37">
+    <cfRule type="expression" dxfId="75" priority="37">
       <formula>E62&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E58:K58 E60:K60">
-    <cfRule type="expression" dxfId="81" priority="35">
+    <cfRule type="expression" dxfId="74" priority="35">
       <formula>E58&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E57:K57">
-    <cfRule type="expression" dxfId="80" priority="34">
+    <cfRule type="expression" dxfId="73" priority="34">
       <formula>E57&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E59:K59">
-    <cfRule type="expression" dxfId="79" priority="33">
+    <cfRule type="expression" dxfId="72" priority="33">
       <formula>E59&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E61:K61">
-    <cfRule type="expression" dxfId="78" priority="32">
+    <cfRule type="expression" dxfId="71" priority="32">
       <formula>E61&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E63:K64">
-    <cfRule type="expression" dxfId="77" priority="31">
+    <cfRule type="expression" dxfId="70" priority="31">
       <formula>E63&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E53:K53 E55:K56">
-    <cfRule type="expression" dxfId="76" priority="30">
+    <cfRule type="expression" dxfId="69" priority="30">
       <formula>E53&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E52:K52">
-    <cfRule type="expression" dxfId="75" priority="29">
+    <cfRule type="expression" dxfId="68" priority="29">
       <formula>E52&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E54:K54">
-    <cfRule type="expression" dxfId="74" priority="28">
+    <cfRule type="expression" dxfId="67" priority="28">
       <formula>E54&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E50:K51">
-    <cfRule type="expression" dxfId="73" priority="27">
+    <cfRule type="expression" dxfId="66" priority="27">
       <formula>E50&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E47:K47">
-    <cfRule type="expression" dxfId="72" priority="26">
+    <cfRule type="expression" dxfId="65" priority="26">
       <formula>E47&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E43:K43 E45:K45">
-    <cfRule type="expression" dxfId="71" priority="25">
+    <cfRule type="expression" dxfId="64" priority="25">
       <formula>E43&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E42:K42">
-    <cfRule type="expression" dxfId="70" priority="24">
+    <cfRule type="expression" dxfId="63" priority="24">
       <formula>E42&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E44:K44">
-    <cfRule type="expression" dxfId="69" priority="23">
+    <cfRule type="expression" dxfId="62" priority="23">
       <formula>E44&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E46:K46">
-    <cfRule type="expression" dxfId="68" priority="22">
+    <cfRule type="expression" dxfId="61" priority="22">
       <formula>E46&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E48:K49">
-    <cfRule type="expression" dxfId="67" priority="21">
+    <cfRule type="expression" dxfId="60" priority="21">
       <formula>E48&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E38:K38 E40:K41">
-    <cfRule type="expression" dxfId="66" priority="20">
+    <cfRule type="expression" dxfId="59" priority="20">
       <formula>E38&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E37:K37">
-    <cfRule type="expression" dxfId="65" priority="19">
+    <cfRule type="expression" dxfId="58" priority="19">
       <formula>E37&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E39:K39">
-    <cfRule type="expression" dxfId="64" priority="18">
+    <cfRule type="expression" dxfId="57" priority="18">
       <formula>E39&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E35:K36">
-    <cfRule type="expression" dxfId="63" priority="17">
+    <cfRule type="expression" dxfId="56" priority="17">
       <formula>E35&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E32:K32">
-    <cfRule type="expression" dxfId="62" priority="16">
+    <cfRule type="expression" dxfId="55" priority="16">
       <formula>E32&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E28:K28 E30:K30">
-    <cfRule type="expression" dxfId="61" priority="15">
+    <cfRule type="expression" dxfId="54" priority="15">
       <formula>E28&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E27:K27">
-    <cfRule type="expression" dxfId="60" priority="14">
+    <cfRule type="expression" dxfId="53" priority="14">
       <formula>E27&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E29:K29">
-    <cfRule type="expression" dxfId="59" priority="13">
+    <cfRule type="expression" dxfId="52" priority="13">
       <formula>E29&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E31:K31">
-    <cfRule type="expression" dxfId="58" priority="12">
+    <cfRule type="expression" dxfId="51" priority="12">
       <formula>E31&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E33:K34">
-    <cfRule type="expression" dxfId="57" priority="11">
+    <cfRule type="expression" dxfId="50" priority="11">
       <formula>E33&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E23:K23 E25:K26">
-    <cfRule type="expression" dxfId="56" priority="10">
+    <cfRule type="expression" dxfId="49" priority="10">
       <formula>E23&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E22:K22">
-    <cfRule type="expression" dxfId="55" priority="9">
+    <cfRule type="expression" dxfId="48" priority="9">
       <formula>E22&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E24:K24">
-    <cfRule type="expression" dxfId="54" priority="8">
+    <cfRule type="expression" dxfId="47" priority="8">
       <formula>E24&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E20:K21">
-    <cfRule type="expression" dxfId="53" priority="7">
+    <cfRule type="expression" dxfId="46" priority="7">
       <formula>E20&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E17:K17">
-    <cfRule type="expression" dxfId="52" priority="6">
+    <cfRule type="expression" dxfId="45" priority="6">
       <formula>E17&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E13:K13 E15:K15">
-    <cfRule type="expression" dxfId="51" priority="5">
+    <cfRule type="expression" dxfId="44" priority="5">
       <formula>E13&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E12:K12">
-    <cfRule type="expression" dxfId="50" priority="4">
+    <cfRule type="expression" dxfId="43" priority="4">
       <formula>E12&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E14:K14">
-    <cfRule type="expression" dxfId="49" priority="3">
+    <cfRule type="expression" dxfId="42" priority="3">
       <formula>E14&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E16:K16">
-    <cfRule type="expression" dxfId="48" priority="2">
+    <cfRule type="expression" dxfId="41" priority="2">
       <formula>E16&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E18:K19">
-    <cfRule type="expression" dxfId="47" priority="1">
+    <cfRule type="expression" dxfId="40" priority="1">
       <formula>E18&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -54025,12 +54002,12 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="B1:I1">
-    <cfRule type="expression" dxfId="141" priority="4">
+    <cfRule type="expression" dxfId="134" priority="4">
       <formula>B1&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M1:U1">
-    <cfRule type="expression" dxfId="140" priority="3">
+    <cfRule type="expression" dxfId="133" priority="3">
       <formula>M1&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -54047,7 +54024,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J1">
-    <cfRule type="expression" dxfId="139" priority="1">
+    <cfRule type="expression" dxfId="132" priority="1">
       <formula>J1&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -57857,8 +57834,8 @@
   <sheetPr codeName="Sheet8"/>
   <dimension ref="A1:M78"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A36" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H53" sqref="H53"/>
+    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="L37" sqref="L37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -58191,7 +58168,7 @@
       <c r="F17" s="19">
         <v>-318</v>
       </c>
-      <c r="G17" s="19">
+      <c r="G17" s="27">
         <v>-1100</v>
       </c>
       <c r="H17" s="19">
@@ -58228,7 +58205,7 @@
       <c r="F18" s="13">
         <v>2395</v>
       </c>
-      <c r="G18" s="13">
+      <c r="G18" s="28">
         <v>-1160</v>
       </c>
       <c r="H18" s="13">
@@ -58265,7 +58242,7 @@
       <c r="F19" s="13">
         <v>-265</v>
       </c>
-      <c r="G19" s="13">
+      <c r="G19" s="28">
         <v>-824</v>
       </c>
       <c r="H19" s="13">
@@ -58302,7 +58279,7 @@
       <c r="F20" s="13">
         <v>76</v>
       </c>
-      <c r="G20" s="13">
+      <c r="G20" s="28">
         <v>5962</v>
       </c>
       <c r="H20" s="13">
@@ -58339,7 +58316,7 @@
       <c r="F21" s="10">
         <v>-4</v>
       </c>
-      <c r="G21" s="10">
+      <c r="G21" s="29">
         <v>9882</v>
       </c>
       <c r="H21" s="10">
@@ -58371,7 +58348,7 @@
       <c r="E22" s="6">
         <v>536</v>
       </c>
-      <c r="F22" s="7">
+      <c r="F22" s="28">
         <v>741</v>
       </c>
       <c r="G22" s="7">
@@ -58406,7 +58383,7 @@
       <c r="E23" s="6">
         <v>1975</v>
       </c>
-      <c r="F23" s="7">
+      <c r="F23" s="28">
         <v>3085</v>
       </c>
       <c r="G23" s="7">
@@ -58441,7 +58418,7 @@
       <c r="E24" s="6">
         <v>1026</v>
       </c>
-      <c r="F24" s="7">
+      <c r="F24" s="28">
         <v>20</v>
       </c>
       <c r="G24" s="7">
@@ -58476,7 +58453,7 @@
       <c r="E25" s="6">
         <v>-214</v>
       </c>
-      <c r="F25" s="7">
+      <c r="F25" s="28">
         <v>-79</v>
       </c>
       <c r="G25" s="7">
@@ -58511,7 +58488,7 @@
       <c r="E26" s="6">
         <v>167</v>
       </c>
-      <c r="F26" s="7">
+      <c r="F26" s="28">
         <v>380</v>
       </c>
       <c r="G26" s="7">
@@ -58734,7 +58711,7 @@
       <c r="F32" s="13">
         <v>-15</v>
       </c>
-      <c r="G32" s="13">
+      <c r="G32" s="28">
         <v>-1100</v>
       </c>
       <c r="H32" s="13">
@@ -58771,7 +58748,7 @@
       <c r="F33" s="13">
         <v>-291</v>
       </c>
-      <c r="G33" s="13">
+      <c r="G33" s="28">
         <v>13244</v>
       </c>
       <c r="H33" s="13">
@@ -58808,7 +58785,7 @@
       <c r="F34" s="13">
         <v>2526</v>
       </c>
-      <c r="G34" s="13">
+      <c r="G34" s="28">
         <v>-1550</v>
       </c>
       <c r="H34" s="13">
@@ -58845,7 +58822,7 @@
       <c r="F35" s="13">
         <v>-268</v>
       </c>
-      <c r="G35" s="13">
+      <c r="G35" s="28">
         <v>-102</v>
       </c>
       <c r="H35" s="13">
@@ -58882,7 +58859,7 @@
       <c r="F36" s="7">
         <v>-139</v>
       </c>
-      <c r="G36" s="7">
+      <c r="G36" s="28">
         <v>-350</v>
       </c>
       <c r="H36" s="7">
@@ -58920,7 +58897,7 @@
       <c r="G37" s="4">
         <v>-127</v>
       </c>
-      <c r="H37" s="4">
+      <c r="H37" s="27">
         <v>3677</v>
       </c>
       <c r="I37" s="4">
@@ -58955,7 +58932,7 @@
       <c r="G38" s="7">
         <v>1241</v>
       </c>
-      <c r="H38" s="7">
+      <c r="H38" s="28">
         <v>-879</v>
       </c>
       <c r="I38" s="7">
@@ -58990,7 +58967,7 @@
       <c r="G39" s="7">
         <v>-1550</v>
       </c>
-      <c r="H39" s="7">
+      <c r="H39" s="28">
         <v>951</v>
       </c>
       <c r="I39" s="7">
@@ -59025,7 +59002,7 @@
       <c r="G40" s="7">
         <v>-710</v>
       </c>
-      <c r="H40" s="7">
+      <c r="H40" s="28">
         <v>1910</v>
       </c>
       <c r="I40" s="7">
@@ -59060,7 +59037,7 @@
       <c r="G41" s="10">
         <v>-350</v>
       </c>
-      <c r="H41" s="10">
+      <c r="H41" s="29">
         <v>-142</v>
       </c>
       <c r="I41" s="10">
@@ -59308,13 +59285,13 @@
       <c r="D48" s="19" t="s">
         <v>133</v>
       </c>
-      <c r="E48" s="18">
+      <c r="E48" s="24">
         <v>4448</v>
       </c>
       <c r="F48" s="19">
         <v>3574</v>
       </c>
-      <c r="G48" s="19">
+      <c r="G48" s="27">
         <v>8170</v>
       </c>
       <c r="H48" s="19">
@@ -59345,13 +59322,13 @@
       <c r="D49" s="13" t="s">
         <v>133</v>
       </c>
-      <c r="E49" s="12">
+      <c r="E49" s="25">
         <v>639</v>
       </c>
       <c r="F49" s="13">
         <v>480</v>
       </c>
-      <c r="G49" s="13">
+      <c r="G49" s="28">
         <v>-1100</v>
       </c>
       <c r="H49" s="13">
@@ -59382,13 +59359,13 @@
       <c r="D50" s="13" t="s">
         <v>133</v>
       </c>
-      <c r="E50" s="12">
+      <c r="E50" s="25">
         <v>2631</v>
       </c>
       <c r="F50" s="13">
         <v>2471</v>
       </c>
-      <c r="G50" s="13">
+      <c r="G50" s="28">
         <v>5548</v>
       </c>
       <c r="H50" s="13">
@@ -59419,13 +59396,13 @@
       <c r="D51" s="13" t="s">
         <v>133</v>
       </c>
-      <c r="E51" s="12">
+      <c r="E51" s="25">
         <v>546</v>
       </c>
       <c r="F51" s="13">
         <v>687</v>
       </c>
-      <c r="G51" s="13">
+      <c r="G51" s="28">
         <v>-1550</v>
       </c>
       <c r="H51" s="13">
@@ -59456,13 +59433,13 @@
       <c r="D52" s="13" t="s">
         <v>133</v>
       </c>
-      <c r="E52" s="12">
+      <c r="E52" s="25">
         <v>-270</v>
       </c>
       <c r="F52" s="13">
         <v>-114</v>
       </c>
-      <c r="G52" s="13">
+      <c r="G52" s="28">
         <v>5962</v>
       </c>
       <c r="H52" s="13">
@@ -59493,13 +59470,13 @@
       <c r="D53" s="10" t="s">
         <v>133</v>
       </c>
-      <c r="E53" s="9">
+      <c r="E53" s="26">
         <v>1114</v>
       </c>
       <c r="F53" s="10">
         <v>144</v>
       </c>
-      <c r="G53" s="10">
+      <c r="G53" s="29">
         <v>-350</v>
       </c>
       <c r="H53" s="10">
@@ -59744,7 +59721,7 @@
       <c r="F60" s="4">
         <v>58</v>
       </c>
-      <c r="G60" s="4">
+      <c r="G60" s="27">
         <v>9392</v>
       </c>
       <c r="H60" s="4">
@@ -59779,7 +59756,7 @@
       <c r="F61" s="13">
         <v>191</v>
       </c>
-      <c r="G61" s="13">
+      <c r="G61" s="28">
         <v>-1100</v>
       </c>
       <c r="H61" s="13">
@@ -59816,7 +59793,7 @@
       <c r="F62" s="13">
         <v>299</v>
       </c>
-      <c r="G62" s="13">
+      <c r="G62" s="28">
         <v>12873</v>
       </c>
       <c r="H62" s="13">
@@ -59853,7 +59830,7 @@
       <c r="F63" s="13">
         <v>-42</v>
       </c>
-      <c r="G63" s="13">
+      <c r="G63" s="28">
         <v>-1550</v>
       </c>
       <c r="H63" s="13">
@@ -59890,7 +59867,7 @@
       <c r="F64" s="13">
         <v>-342</v>
       </c>
-      <c r="G64" s="13">
+      <c r="G64" s="28">
         <v>-142</v>
       </c>
       <c r="H64" s="13">
@@ -59927,7 +59904,7 @@
       <c r="F65" s="22">
         <v>-142</v>
       </c>
-      <c r="G65" s="22">
+      <c r="G65" s="29">
         <v>-350</v>
       </c>
       <c r="H65" s="22">
@@ -60381,202 +60358,202 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="E74:K74 E76:K78">
-    <cfRule type="expression" dxfId="46" priority="44">
+    <cfRule type="expression" dxfId="39" priority="44">
       <formula>E74&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E73:K73">
-    <cfRule type="expression" dxfId="45" priority="43">
+    <cfRule type="expression" dxfId="38" priority="43">
       <formula>E73&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E75:K75">
-    <cfRule type="expression" dxfId="44" priority="42">
+    <cfRule type="expression" dxfId="37" priority="42">
       <formula>E75&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E70:K72">
-    <cfRule type="expression" dxfId="43" priority="41">
+    <cfRule type="expression" dxfId="36" priority="41">
       <formula>E70&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E67:K67">
-    <cfRule type="expression" dxfId="42" priority="40">
+    <cfRule type="expression" dxfId="35" priority="40">
       <formula>E67&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E62:K62 E64:K64">
-    <cfRule type="expression" dxfId="41" priority="39">
+    <cfRule type="expression" dxfId="34" priority="39">
       <formula>E62&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E61:K61">
-    <cfRule type="expression" dxfId="40" priority="38">
+    <cfRule type="expression" dxfId="33" priority="38">
       <formula>E61&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E63:K63">
-    <cfRule type="expression" dxfId="39" priority="37">
+    <cfRule type="expression" dxfId="32" priority="37">
       <formula>E63&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E65:K66">
-    <cfRule type="expression" dxfId="38" priority="36">
+    <cfRule type="expression" dxfId="31" priority="36">
       <formula>E65&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E68:K69">
-    <cfRule type="expression" dxfId="37" priority="35">
+    <cfRule type="expression" dxfId="30" priority="35">
       <formula>E68&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E38:K38 E40:K41">
-    <cfRule type="expression" dxfId="32" priority="30">
+    <cfRule type="expression" dxfId="29" priority="30">
       <formula>E38&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E37:K37">
-    <cfRule type="expression" dxfId="31" priority="29">
+    <cfRule type="expression" dxfId="28" priority="29">
       <formula>E37&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E39:K39">
-    <cfRule type="expression" dxfId="30" priority="28">
+    <cfRule type="expression" dxfId="27" priority="28">
       <formula>E39&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E35:K36">
-    <cfRule type="expression" dxfId="29" priority="27">
+    <cfRule type="expression" dxfId="26" priority="27">
       <formula>E35&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E33:K34">
-    <cfRule type="expression" dxfId="28" priority="26">
+    <cfRule type="expression" dxfId="25" priority="26">
       <formula>E33&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E32:K32">
-    <cfRule type="expression" dxfId="27" priority="25">
+    <cfRule type="expression" dxfId="24" priority="25">
       <formula>E32&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E56:K56 E58:K60">
-    <cfRule type="expression" dxfId="26" priority="24">
+    <cfRule type="expression" dxfId="23" priority="24">
       <formula>E56&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E55:K55">
-    <cfRule type="expression" dxfId="25" priority="23">
+    <cfRule type="expression" dxfId="22" priority="23">
       <formula>E55&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E57:K57">
-    <cfRule type="expression" dxfId="24" priority="22">
+    <cfRule type="expression" dxfId="21" priority="22">
       <formula>E57&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E52:K54">
-    <cfRule type="expression" dxfId="23" priority="21">
+    <cfRule type="expression" dxfId="20" priority="21">
       <formula>E52&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E49:K49">
-    <cfRule type="expression" dxfId="22" priority="20">
+    <cfRule type="expression" dxfId="19" priority="20">
       <formula>E49&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E44:K44 E46:K46">
-    <cfRule type="expression" dxfId="21" priority="19">
+    <cfRule type="expression" dxfId="18" priority="19">
       <formula>E44&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E43:K43">
-    <cfRule type="expression" dxfId="20" priority="18">
+    <cfRule type="expression" dxfId="17" priority="18">
       <formula>E43&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E45:K45">
-    <cfRule type="expression" dxfId="19" priority="17">
+    <cfRule type="expression" dxfId="16" priority="17">
       <formula>E45&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E47:K48">
-    <cfRule type="expression" dxfId="18" priority="16">
+    <cfRule type="expression" dxfId="15" priority="16">
       <formula>E47&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E50:K51">
-    <cfRule type="expression" dxfId="17" priority="15">
+    <cfRule type="expression" dxfId="14" priority="15">
       <formula>E50&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E13:K13 E15:K15">
-    <cfRule type="expression" dxfId="16" priority="14">
+    <cfRule type="expression" dxfId="13" priority="14">
       <formula>E13&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E12:K12">
-    <cfRule type="expression" dxfId="15" priority="13">
+    <cfRule type="expression" dxfId="12" priority="13">
       <formula>E12&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E14:K14">
-    <cfRule type="expression" dxfId="14" priority="12">
+    <cfRule type="expression" dxfId="11" priority="12">
       <formula>E14&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E16:K16">
-    <cfRule type="expression" dxfId="13" priority="11">
+    <cfRule type="expression" dxfId="10" priority="11">
       <formula>E16&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E23:K23 E25:K26">
-    <cfRule type="expression" dxfId="12" priority="10">
+    <cfRule type="expression" dxfId="9" priority="10">
       <formula>E23&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E22:K22">
-    <cfRule type="expression" dxfId="11" priority="9">
+    <cfRule type="expression" dxfId="8" priority="9">
       <formula>E22&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E24:K24">
-    <cfRule type="expression" dxfId="10" priority="8">
+    <cfRule type="expression" dxfId="7" priority="8">
       <formula>E24&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E20:K21">
-    <cfRule type="expression" dxfId="9" priority="7">
+    <cfRule type="expression" dxfId="6" priority="7">
       <formula>E20&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E18:K19">
-    <cfRule type="expression" dxfId="8" priority="6">
+    <cfRule type="expression" dxfId="5" priority="6">
       <formula>E18&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E17:K17">
-    <cfRule type="expression" dxfId="7" priority="5">
+    <cfRule type="expression" dxfId="4" priority="5">
       <formula>E17&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E42:K42">
-    <cfRule type="expression" dxfId="6" priority="4">
+    <cfRule type="expression" dxfId="3" priority="4">
       <formula>E42&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E28:K28 E30:K31">
-    <cfRule type="expression" dxfId="5" priority="3">
+    <cfRule type="expression" dxfId="2" priority="3">
       <formula>E28&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E27:K27">
-    <cfRule type="expression" dxfId="3" priority="2">
+    <cfRule type="expression" dxfId="1" priority="2">
       <formula>E27&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E29:K29">
-    <cfRule type="expression" dxfId="1" priority="1">
+    <cfRule type="expression" dxfId="0" priority="1">
       <formula>E29&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -64062,12 +64039,12 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="B1:I1">
-    <cfRule type="expression" dxfId="138" priority="5">
+    <cfRule type="expression" dxfId="131" priority="5">
       <formula>B1&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M1:U1">
-    <cfRule type="expression" dxfId="137" priority="4">
+    <cfRule type="expression" dxfId="130" priority="4">
       <formula>M1&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -64084,7 +64061,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J1">
-    <cfRule type="expression" dxfId="136" priority="2">
+    <cfRule type="expression" dxfId="129" priority="2">
       <formula>J1&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -68847,12 +68824,12 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="B1:I1">
-    <cfRule type="expression" dxfId="135" priority="5">
+    <cfRule type="expression" dxfId="128" priority="5">
       <formula>B1&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M1:U1">
-    <cfRule type="expression" dxfId="134" priority="4">
+    <cfRule type="expression" dxfId="127" priority="4">
       <formula>M1&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -68869,12 +68846,12 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J1">
-    <cfRule type="expression" dxfId="133" priority="2">
+    <cfRule type="expression" dxfId="126" priority="2">
       <formula>J1&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="X1:AF1">
-    <cfRule type="expression" dxfId="132" priority="1">
+    <cfRule type="expression" dxfId="125" priority="1">
       <formula>X1&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -76882,12 +76859,12 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="B1:I1">
-    <cfRule type="expression" dxfId="131" priority="6">
+    <cfRule type="expression" dxfId="124" priority="6">
       <formula>B1&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M1:U1">
-    <cfRule type="expression" dxfId="130" priority="5">
+    <cfRule type="expression" dxfId="123" priority="5">
       <formula>M1&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -76904,17 +76881,17 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J1">
-    <cfRule type="expression" dxfId="129" priority="3">
+    <cfRule type="expression" dxfId="122" priority="3">
       <formula>J1&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W1:AE1">
-    <cfRule type="expression" dxfId="128" priority="2">
+    <cfRule type="expression" dxfId="121" priority="2">
       <formula>W1&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AG1:AO1">
-    <cfRule type="expression" dxfId="127" priority="1">
+    <cfRule type="expression" dxfId="120" priority="1">
       <formula>AG1&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -81250,12 +81227,12 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="B1:I1">
-    <cfRule type="expression" dxfId="126" priority="5">
+    <cfRule type="expression" dxfId="119" priority="5">
       <formula>B1&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M1:U1">
-    <cfRule type="expression" dxfId="125" priority="4">
+    <cfRule type="expression" dxfId="118" priority="4">
       <formula>M1&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -81272,12 +81249,12 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J1">
-    <cfRule type="expression" dxfId="124" priority="2">
+    <cfRule type="expression" dxfId="117" priority="2">
       <formula>J1&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W1:AE1">
-    <cfRule type="expression" dxfId="123" priority="1">
+    <cfRule type="expression" dxfId="116" priority="1">
       <formula>W1&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -83404,12 +83381,12 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="B1:I1">
-    <cfRule type="expression" dxfId="122" priority="4">
+    <cfRule type="expression" dxfId="115" priority="4">
       <formula>B1&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M1:U1">
-    <cfRule type="expression" dxfId="121" priority="3">
+    <cfRule type="expression" dxfId="114" priority="3">
       <formula>M1&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -83426,7 +83403,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J1">
-    <cfRule type="expression" dxfId="120" priority="1">
+    <cfRule type="expression" dxfId="113" priority="1">
       <formula>J1&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -85554,12 +85531,12 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="B1:I1">
-    <cfRule type="expression" dxfId="119" priority="4">
+    <cfRule type="expression" dxfId="112" priority="4">
       <formula>B1&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M1:U1">
-    <cfRule type="expression" dxfId="118" priority="3">
+    <cfRule type="expression" dxfId="111" priority="3">
       <formula>M1&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -85576,7 +85553,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J1">
-    <cfRule type="expression" dxfId="117" priority="1">
+    <cfRule type="expression" dxfId="110" priority="1">
       <formula>J1&gt;0</formula>
     </cfRule>
   </conditionalFormatting>

--- a/result/back_testing_m1.xlsx
+++ b/result/back_testing_m1.xlsx
@@ -40,12 +40,12 @@
     <sheet name="ss" sheetId="23" r:id="rId31"/>
     <sheet name="dt" sheetId="55" r:id="rId32"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3018" uniqueCount="146">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3131" uniqueCount="147">
   <si>
     <t>2016-01-09 - 2016-01-10</t>
   </si>
@@ -477,10 +477,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>2016년</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>2015년</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -508,6 +504,14 @@
   </si>
   <si>
     <t>[[5,6,7,8,9,10],[5,6,7,8,9,10],[5,6,7,8,9,10]]</t>
+  </si>
+  <si>
+    <t>~2016년 11월 30일</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>~2016년 12월 24일</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -774,7 +778,487 @@
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="140">
+  <dxfs count="220">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+    </dxf>
     <dxf>
       <font>
         <b/>
@@ -3241,12 +3725,12 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="B1:I1">
-    <cfRule type="expression" dxfId="139" priority="2">
+    <cfRule type="expression" dxfId="219" priority="2">
       <formula>B1&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J1">
-    <cfRule type="expression" dxfId="138" priority="1">
+    <cfRule type="expression" dxfId="218" priority="1">
       <formula>J1&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5380,12 +5864,12 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="B1:I1">
-    <cfRule type="expression" dxfId="109" priority="4">
+    <cfRule type="expression" dxfId="189" priority="4">
       <formula>B1&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M1:U1">
-    <cfRule type="expression" dxfId="108" priority="3">
+    <cfRule type="expression" dxfId="188" priority="3">
       <formula>M1&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5402,7 +5886,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J1">
-    <cfRule type="expression" dxfId="107" priority="1">
+    <cfRule type="expression" dxfId="187" priority="1">
       <formula>J1&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -8729,12 +9213,12 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="B1:I1">
-    <cfRule type="expression" dxfId="106" priority="4">
+    <cfRule type="expression" dxfId="186" priority="4">
       <formula>B1&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M1:U1">
-    <cfRule type="expression" dxfId="105" priority="3">
+    <cfRule type="expression" dxfId="185" priority="3">
       <formula>M1&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -8751,7 +9235,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J1">
-    <cfRule type="expression" dxfId="104" priority="1">
+    <cfRule type="expression" dxfId="184" priority="1">
       <formula>J1&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -12085,12 +12569,12 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="B1:I1">
-    <cfRule type="expression" dxfId="103" priority="4">
+    <cfRule type="expression" dxfId="183" priority="4">
       <formula>B1&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M1:U1">
-    <cfRule type="expression" dxfId="102" priority="3">
+    <cfRule type="expression" dxfId="182" priority="3">
       <formula>M1&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -12107,7 +12591,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J1">
-    <cfRule type="expression" dxfId="101" priority="1">
+    <cfRule type="expression" dxfId="181" priority="1">
       <formula>J1&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -15440,12 +15924,12 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="B1:I1">
-    <cfRule type="expression" dxfId="100" priority="4">
+    <cfRule type="expression" dxfId="180" priority="4">
       <formula>B1&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M1:U1">
-    <cfRule type="expression" dxfId="99" priority="3">
+    <cfRule type="expression" dxfId="179" priority="3">
       <formula>M1&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -15462,7 +15946,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J1">
-    <cfRule type="expression" dxfId="98" priority="1">
+    <cfRule type="expression" dxfId="178" priority="1">
       <formula>J1&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -17589,12 +18073,12 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="B1:I1">
-    <cfRule type="expression" dxfId="97" priority="4">
+    <cfRule type="expression" dxfId="177" priority="4">
       <formula>B1&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M1:U1">
-    <cfRule type="expression" dxfId="96" priority="3">
+    <cfRule type="expression" dxfId="176" priority="3">
       <formula>M1&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -17611,7 +18095,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J1">
-    <cfRule type="expression" dxfId="95" priority="1">
+    <cfRule type="expression" dxfId="175" priority="1">
       <formula>J1&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -19738,12 +20222,12 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="B1:I1">
-    <cfRule type="expression" dxfId="94" priority="4">
+    <cfRule type="expression" dxfId="174" priority="4">
       <formula>B1&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M1:U1">
-    <cfRule type="expression" dxfId="93" priority="3">
+    <cfRule type="expression" dxfId="173" priority="3">
       <formula>M1&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -19760,7 +20244,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J1">
-    <cfRule type="expression" dxfId="92" priority="1">
+    <cfRule type="expression" dxfId="172" priority="1">
       <formula>J1&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -21886,12 +22370,12 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="B1:I1">
-    <cfRule type="expression" dxfId="91" priority="4">
+    <cfRule type="expression" dxfId="171" priority="4">
       <formula>B1&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M1:U1">
-    <cfRule type="expression" dxfId="90" priority="3">
+    <cfRule type="expression" dxfId="170" priority="3">
       <formula>M1&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -21908,7 +22392,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J1">
-    <cfRule type="expression" dxfId="89" priority="1">
+    <cfRule type="expression" dxfId="169" priority="1">
       <formula>J1&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -24761,12 +25245,12 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="B1:I1">
-    <cfRule type="expression" dxfId="88" priority="4">
+    <cfRule type="expression" dxfId="168" priority="4">
       <formula>B1&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M1:U1">
-    <cfRule type="expression" dxfId="87" priority="3">
+    <cfRule type="expression" dxfId="167" priority="3">
       <formula>M1&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -24783,7 +25267,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J1">
-    <cfRule type="expression" dxfId="86" priority="1">
+    <cfRule type="expression" dxfId="166" priority="1">
       <formula>J1&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -27636,12 +28120,12 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="B1:I1">
-    <cfRule type="expression" dxfId="85" priority="4">
+    <cfRule type="expression" dxfId="165" priority="4">
       <formula>B1&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M1:U1">
-    <cfRule type="expression" dxfId="84" priority="3">
+    <cfRule type="expression" dxfId="164" priority="3">
       <formula>M1&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -27658,7 +28142,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J1">
-    <cfRule type="expression" dxfId="83" priority="1">
+    <cfRule type="expression" dxfId="163" priority="1">
       <formula>J1&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -30510,12 +30994,12 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="B1:I1">
-    <cfRule type="expression" dxfId="82" priority="4">
+    <cfRule type="expression" dxfId="162" priority="4">
       <formula>B1&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M1:U1">
-    <cfRule type="expression" dxfId="81" priority="3">
+    <cfRule type="expression" dxfId="161" priority="3">
       <formula>M1&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -30532,7 +31016,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J1">
-    <cfRule type="expression" dxfId="80" priority="1">
+    <cfRule type="expression" dxfId="160" priority="1">
       <formula>J1&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -32660,12 +33144,12 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="B1:I1">
-    <cfRule type="expression" dxfId="137" priority="4">
+    <cfRule type="expression" dxfId="217" priority="4">
       <formula>B1&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M1:U1">
-    <cfRule type="expression" dxfId="136" priority="3">
+    <cfRule type="expression" dxfId="216" priority="3">
       <formula>M1&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -32682,7 +33166,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J1">
-    <cfRule type="expression" dxfId="135" priority="1">
+    <cfRule type="expression" dxfId="215" priority="1">
       <formula>J1&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -48984,10 +49468,10 @@
     </row>
     <row r="10" spans="1:20" x14ac:dyDescent="0.3">
       <c r="E10" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="M10" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="11" spans="1:20" x14ac:dyDescent="0.3">
@@ -51678,202 +52162,202 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="E68:K68 E70:K72">
-    <cfRule type="expression" dxfId="79" priority="41">
+    <cfRule type="expression" dxfId="159" priority="41">
       <formula>E68&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E67:K67">
-    <cfRule type="expression" dxfId="78" priority="40">
+    <cfRule type="expression" dxfId="158" priority="40">
       <formula>E67&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E69:K69">
-    <cfRule type="expression" dxfId="77" priority="39">
+    <cfRule type="expression" dxfId="157" priority="39">
       <formula>E69&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E65:K66">
-    <cfRule type="expression" dxfId="76" priority="38">
+    <cfRule type="expression" dxfId="156" priority="38">
       <formula>E65&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E62:K62">
-    <cfRule type="expression" dxfId="75" priority="37">
+    <cfRule type="expression" dxfId="155" priority="37">
       <formula>E62&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E58:K58 E60:K60">
-    <cfRule type="expression" dxfId="74" priority="35">
+    <cfRule type="expression" dxfId="154" priority="35">
       <formula>E58&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E57:K57">
-    <cfRule type="expression" dxfId="73" priority="34">
+    <cfRule type="expression" dxfId="153" priority="34">
       <formula>E57&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E59:K59">
-    <cfRule type="expression" dxfId="72" priority="33">
+    <cfRule type="expression" dxfId="152" priority="33">
       <formula>E59&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E61:K61">
-    <cfRule type="expression" dxfId="71" priority="32">
+    <cfRule type="expression" dxfId="151" priority="32">
       <formula>E61&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E63:K64">
-    <cfRule type="expression" dxfId="70" priority="31">
+    <cfRule type="expression" dxfId="150" priority="31">
       <formula>E63&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E53:K53 E55:K56">
-    <cfRule type="expression" dxfId="69" priority="30">
+    <cfRule type="expression" dxfId="149" priority="30">
       <formula>E53&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E52:K52">
-    <cfRule type="expression" dxfId="68" priority="29">
+    <cfRule type="expression" dxfId="148" priority="29">
       <formula>E52&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E54:K54">
-    <cfRule type="expression" dxfId="67" priority="28">
+    <cfRule type="expression" dxfId="147" priority="28">
       <formula>E54&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E50:K51">
-    <cfRule type="expression" dxfId="66" priority="27">
+    <cfRule type="expression" dxfId="146" priority="27">
       <formula>E50&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E47:K47">
-    <cfRule type="expression" dxfId="65" priority="26">
+    <cfRule type="expression" dxfId="145" priority="26">
       <formula>E47&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E43:K43 E45:K45">
-    <cfRule type="expression" dxfId="64" priority="25">
+    <cfRule type="expression" dxfId="144" priority="25">
       <formula>E43&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E42:K42">
-    <cfRule type="expression" dxfId="63" priority="24">
+    <cfRule type="expression" dxfId="143" priority="24">
       <formula>E42&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E44:K44">
-    <cfRule type="expression" dxfId="62" priority="23">
+    <cfRule type="expression" dxfId="142" priority="23">
       <formula>E44&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E46:K46">
-    <cfRule type="expression" dxfId="61" priority="22">
+    <cfRule type="expression" dxfId="141" priority="22">
       <formula>E46&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E48:K49">
-    <cfRule type="expression" dxfId="60" priority="21">
+    <cfRule type="expression" dxfId="140" priority="21">
       <formula>E48&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E38:K38 E40:K41">
-    <cfRule type="expression" dxfId="59" priority="20">
+    <cfRule type="expression" dxfId="139" priority="20">
       <formula>E38&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E37:K37">
-    <cfRule type="expression" dxfId="58" priority="19">
+    <cfRule type="expression" dxfId="138" priority="19">
       <formula>E37&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E39:K39">
-    <cfRule type="expression" dxfId="57" priority="18">
+    <cfRule type="expression" dxfId="137" priority="18">
       <formula>E39&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E35:K36">
-    <cfRule type="expression" dxfId="56" priority="17">
+    <cfRule type="expression" dxfId="136" priority="17">
       <formula>E35&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E32:K32">
-    <cfRule type="expression" dxfId="55" priority="16">
+    <cfRule type="expression" dxfId="135" priority="16">
       <formula>E32&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E28:K28 E30:K30">
-    <cfRule type="expression" dxfId="54" priority="15">
+    <cfRule type="expression" dxfId="134" priority="15">
       <formula>E28&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E27:K27">
-    <cfRule type="expression" dxfId="53" priority="14">
+    <cfRule type="expression" dxfId="133" priority="14">
       <formula>E27&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E29:K29">
-    <cfRule type="expression" dxfId="52" priority="13">
+    <cfRule type="expression" dxfId="132" priority="13">
       <formula>E29&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E31:K31">
-    <cfRule type="expression" dxfId="51" priority="12">
+    <cfRule type="expression" dxfId="131" priority="12">
       <formula>E31&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E33:K34">
-    <cfRule type="expression" dxfId="50" priority="11">
+    <cfRule type="expression" dxfId="130" priority="11">
       <formula>E33&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E23:K23 E25:K26">
-    <cfRule type="expression" dxfId="49" priority="10">
+    <cfRule type="expression" dxfId="129" priority="10">
       <formula>E23&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E22:K22">
-    <cfRule type="expression" dxfId="48" priority="9">
+    <cfRule type="expression" dxfId="128" priority="9">
       <formula>E22&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E24:K24">
-    <cfRule type="expression" dxfId="47" priority="8">
+    <cfRule type="expression" dxfId="127" priority="8">
       <formula>E24&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E20:K21">
-    <cfRule type="expression" dxfId="46" priority="7">
+    <cfRule type="expression" dxfId="126" priority="7">
       <formula>E20&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E17:K17">
-    <cfRule type="expression" dxfId="45" priority="6">
+    <cfRule type="expression" dxfId="125" priority="6">
       <formula>E17&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E13:K13 E15:K15">
-    <cfRule type="expression" dxfId="44" priority="5">
+    <cfRule type="expression" dxfId="124" priority="5">
       <formula>E13&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E12:K12">
-    <cfRule type="expression" dxfId="43" priority="4">
+    <cfRule type="expression" dxfId="123" priority="4">
       <formula>E12&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E14:K14">
-    <cfRule type="expression" dxfId="42" priority="3">
+    <cfRule type="expression" dxfId="122" priority="3">
       <formula>E14&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E16:K16">
-    <cfRule type="expression" dxfId="41" priority="2">
+    <cfRule type="expression" dxfId="121" priority="2">
       <formula>E16&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E18:K19">
-    <cfRule type="expression" dxfId="40" priority="1">
+    <cfRule type="expression" dxfId="120" priority="1">
       <formula>E18&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -54002,12 +54486,12 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="B1:I1">
-    <cfRule type="expression" dxfId="134" priority="4">
+    <cfRule type="expression" dxfId="214" priority="4">
       <formula>B1&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M1:U1">
-    <cfRule type="expression" dxfId="133" priority="3">
+    <cfRule type="expression" dxfId="213" priority="3">
       <formula>M1&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -54024,7 +54508,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J1">
-    <cfRule type="expression" dxfId="132" priority="1">
+    <cfRule type="expression" dxfId="212" priority="1">
       <formula>J1&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -57832,10 +58316,10 @@
 <file path=xl/worksheets/sheet31.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet8"/>
-  <dimension ref="A1:M78"/>
+  <dimension ref="A1:W78"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="L37" sqref="L37"/>
+    <sheetView tabSelected="1" topLeftCell="B22" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="S40" sqref="S40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -57843,13 +58327,12 @@
     <col min="1" max="1" width="8.75" style="1"/>
     <col min="2" max="3" width="7.125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="6.375" bestFit="1" customWidth="1"/>
-    <col min="5" max="12" width="7.125" customWidth="1"/>
-    <col min="13" max="14" width="6.375" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="7.125" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="6.375" bestFit="1" customWidth="1"/>
-    <col min="18" max="20" width="7.125" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="6.375" bestFit="1" customWidth="1"/>
-    <col min="22" max="23" width="7.125" bestFit="1" customWidth="1"/>
+    <col min="5" max="11" width="7.125" customWidth="1"/>
+    <col min="12" max="12" width="7.125" hidden="1" customWidth="1"/>
+    <col min="13" max="13" width="0" style="1" hidden="1" customWidth="1"/>
+    <col min="14" max="15" width="7.125" hidden="1" customWidth="1"/>
+    <col min="16" max="16" width="6.375" hidden="1" customWidth="1"/>
+    <col min="17" max="23" width="7.125" customWidth="1"/>
     <col min="24" max="25" width="6.375" bestFit="1" customWidth="1"/>
     <col min="26" max="26" width="7.125" bestFit="1" customWidth="1"/>
     <col min="27" max="27" width="6.375" bestFit="1" customWidth="1"/>
@@ -57863,75 +58346,123 @@
     <col min="40" max="41" width="7.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A1"/>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="M1"/>
+    </row>
+    <row r="2" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
+        <v>137</v>
+      </c>
+      <c r="M2">
+        <v>1</v>
+      </c>
+      <c r="N2" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="3" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
+        <v>140</v>
+      </c>
+      <c r="M3">
+        <v>2</v>
+      </c>
+      <c r="N3" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="4" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
+        <v>141</v>
+      </c>
+      <c r="M4">
+        <v>3</v>
+      </c>
+      <c r="N4" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="5" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
+        <v>138</v>
+      </c>
+      <c r="M5">
+        <v>4</v>
+      </c>
+      <c r="N5" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="6" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
+        <v>142</v>
+      </c>
+      <c r="M6">
+        <v>5</v>
+      </c>
+      <c r="N6" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="7" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
+        <v>143</v>
+      </c>
+      <c r="M7">
+        <v>6</v>
+      </c>
+      <c r="N7" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="8" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
+        <v>144</v>
+      </c>
+      <c r="M8">
+        <v>7</v>
+      </c>
+      <c r="N8" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="9" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A9"/>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="M9"/>
+    </row>
+    <row r="10" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A10"/>
       <c r="E10" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
+        <v>145</v>
+      </c>
+      <c r="M10"/>
+      <c r="Q10" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="11" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A11" s="15" t="s">
         <v>131</v>
       </c>
@@ -57963,8 +58494,39 @@
       <c r="K11" s="17">
         <v>7</v>
       </c>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="M11" s="15" t="s">
+        <v>131</v>
+      </c>
+      <c r="N11" s="16" t="s">
+        <v>129</v>
+      </c>
+      <c r="O11" s="16" t="s">
+        <v>130</v>
+      </c>
+      <c r="P11" s="16"/>
+      <c r="Q11" s="15">
+        <v>1</v>
+      </c>
+      <c r="R11" s="16">
+        <v>2</v>
+      </c>
+      <c r="S11" s="16">
+        <v>3</v>
+      </c>
+      <c r="T11" s="16">
+        <v>4</v>
+      </c>
+      <c r="U11" s="16">
+        <v>5</v>
+      </c>
+      <c r="V11" s="16">
+        <v>6</v>
+      </c>
+      <c r="W11" s="17">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A12" s="12">
         <v>47</v>
       </c>
@@ -57999,9 +58561,41 @@
         <v>-939</v>
       </c>
       <c r="L12" s="2"/>
-      <c r="M12" s="2"/>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="M12" s="12">
+        <v>47</v>
+      </c>
+      <c r="N12" s="13">
+        <v>1000</v>
+      </c>
+      <c r="O12" s="13">
+        <v>1000</v>
+      </c>
+      <c r="P12" s="13" t="s">
+        <v>135</v>
+      </c>
+      <c r="Q12" s="12">
+        <v>-609</v>
+      </c>
+      <c r="R12" s="13">
+        <v>-263</v>
+      </c>
+      <c r="S12" s="13">
+        <v>-1027</v>
+      </c>
+      <c r="T12" s="13">
+        <v>-1052</v>
+      </c>
+      <c r="U12" s="13">
+        <v>-734</v>
+      </c>
+      <c r="V12" s="13">
+        <v>-1221</v>
+      </c>
+      <c r="W12" s="14">
+        <v>-1140</v>
+      </c>
+    </row>
+    <row r="13" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A13" s="12">
         <v>47</v>
       </c>
@@ -58036,9 +58630,41 @@
         <v>28</v>
       </c>
       <c r="L13" s="2"/>
-      <c r="M13" s="2"/>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="M13" s="12">
+        <v>47</v>
+      </c>
+      <c r="N13" s="13">
+        <v>1200</v>
+      </c>
+      <c r="O13" s="13">
+        <v>1200</v>
+      </c>
+      <c r="P13" s="13" t="s">
+        <v>135</v>
+      </c>
+      <c r="Q13" s="12">
+        <v>-602</v>
+      </c>
+      <c r="R13" s="13">
+        <v>-346</v>
+      </c>
+      <c r="S13" s="13">
+        <v>-620</v>
+      </c>
+      <c r="T13" s="13">
+        <v>16</v>
+      </c>
+      <c r="U13" s="13">
+        <v>-68</v>
+      </c>
+      <c r="V13" s="13">
+        <v>80</v>
+      </c>
+      <c r="W13" s="14">
+        <v>-989</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A14" s="12">
         <v>47</v>
       </c>
@@ -58073,9 +58699,41 @@
         <v>-616</v>
       </c>
       <c r="L14" s="2"/>
-      <c r="M14" s="2"/>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="M14" s="12">
+        <v>47</v>
+      </c>
+      <c r="N14" s="13">
+        <v>1300</v>
+      </c>
+      <c r="O14" s="13">
+        <v>1300</v>
+      </c>
+      <c r="P14" s="13" t="s">
+        <v>135</v>
+      </c>
+      <c r="Q14" s="12">
+        <v>284</v>
+      </c>
+      <c r="R14" s="13">
+        <v>30</v>
+      </c>
+      <c r="S14" s="13">
+        <v>-1078</v>
+      </c>
+      <c r="T14" s="13">
+        <v>-1304</v>
+      </c>
+      <c r="U14" s="13">
+        <v>-582</v>
+      </c>
+      <c r="V14" s="13">
+        <v>-705</v>
+      </c>
+      <c r="W14" s="14">
+        <v>-801</v>
+      </c>
+    </row>
+    <row r="15" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A15" s="12">
         <v>47</v>
       </c>
@@ -58110,9 +58768,41 @@
         <v>-555</v>
       </c>
       <c r="L15" s="2"/>
-      <c r="M15" s="2"/>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="M15" s="12">
+        <v>47</v>
+      </c>
+      <c r="N15" s="13">
+        <v>1400</v>
+      </c>
+      <c r="O15" s="13">
+        <v>1400</v>
+      </c>
+      <c r="P15" s="13" t="s">
+        <v>135</v>
+      </c>
+      <c r="Q15" s="12">
+        <v>67</v>
+      </c>
+      <c r="R15" s="13">
+        <v>383</v>
+      </c>
+      <c r="S15" s="13">
+        <v>-750</v>
+      </c>
+      <c r="T15" s="13">
+        <v>-397</v>
+      </c>
+      <c r="U15" s="13">
+        <v>-318</v>
+      </c>
+      <c r="V15" s="13">
+        <v>-726</v>
+      </c>
+      <c r="W15" s="14">
+        <v>-581</v>
+      </c>
+    </row>
+    <row r="16" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A16" s="12">
         <v>47</v>
       </c>
@@ -58147,9 +58837,41 @@
         <v>-248</v>
       </c>
       <c r="L16" s="2"/>
-      <c r="M16" s="2"/>
-    </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="M16" s="12">
+        <v>47</v>
+      </c>
+      <c r="N16" s="13">
+        <v>1700</v>
+      </c>
+      <c r="O16" s="13">
+        <v>1700</v>
+      </c>
+      <c r="P16" s="13" t="s">
+        <v>135</v>
+      </c>
+      <c r="Q16" s="12">
+        <v>-86</v>
+      </c>
+      <c r="R16" s="13">
+        <v>-23</v>
+      </c>
+      <c r="S16" s="13">
+        <v>-420</v>
+      </c>
+      <c r="T16" s="13">
+        <v>-320</v>
+      </c>
+      <c r="U16" s="13">
+        <v>-251</v>
+      </c>
+      <c r="V16" s="13">
+        <v>-257</v>
+      </c>
+      <c r="W16" s="14">
+        <v>-243</v>
+      </c>
+    </row>
+    <row r="17" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A17" s="18">
         <v>47</v>
       </c>
@@ -58184,9 +58906,41 @@
         <v>-786</v>
       </c>
       <c r="L17" s="2"/>
-      <c r="M17" s="2"/>
-    </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="M17" s="18">
+        <v>47</v>
+      </c>
+      <c r="N17" s="19">
+        <v>1000</v>
+      </c>
+      <c r="O17" s="19">
+        <v>1000</v>
+      </c>
+      <c r="P17" s="19" t="s">
+        <v>133</v>
+      </c>
+      <c r="Q17" s="18">
+        <v>-877</v>
+      </c>
+      <c r="R17" s="19">
+        <v>-599</v>
+      </c>
+      <c r="S17" s="27">
+        <v>-1340</v>
+      </c>
+      <c r="T17" s="19">
+        <v>-680</v>
+      </c>
+      <c r="U17" s="19">
+        <v>-223</v>
+      </c>
+      <c r="V17" s="19">
+        <v>665</v>
+      </c>
+      <c r="W17" s="20">
+        <v>-625</v>
+      </c>
+    </row>
+    <row r="18" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A18" s="12">
         <v>47</v>
       </c>
@@ -58221,9 +58975,41 @@
         <v>-232</v>
       </c>
       <c r="L18" s="2"/>
-      <c r="M18" s="2"/>
-    </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="M18" s="12">
+        <v>47</v>
+      </c>
+      <c r="N18" s="13">
+        <v>1200</v>
+      </c>
+      <c r="O18" s="13">
+        <v>1200</v>
+      </c>
+      <c r="P18" s="13" t="s">
+        <v>133</v>
+      </c>
+      <c r="Q18" s="12">
+        <v>-796</v>
+      </c>
+      <c r="R18" s="13">
+        <v>-778</v>
+      </c>
+      <c r="S18" s="28">
+        <v>2656</v>
+      </c>
+      <c r="T18" s="13">
+        <v>-860</v>
+      </c>
+      <c r="U18" s="13">
+        <v>-448</v>
+      </c>
+      <c r="V18" s="13">
+        <v>-121</v>
+      </c>
+      <c r="W18" s="14">
+        <v>-769</v>
+      </c>
+    </row>
+    <row r="19" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A19" s="12">
         <v>47</v>
       </c>
@@ -58258,9 +59044,41 @@
         <v>-520</v>
       </c>
       <c r="L19" s="2"/>
-      <c r="M19" s="2"/>
-    </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="M19" s="12">
+        <v>47</v>
+      </c>
+      <c r="N19" s="13">
+        <v>1300</v>
+      </c>
+      <c r="O19" s="13">
+        <v>1300</v>
+      </c>
+      <c r="P19" s="13" t="s">
+        <v>133</v>
+      </c>
+      <c r="Q19" s="12">
+        <v>-388</v>
+      </c>
+      <c r="R19" s="13">
+        <v>-59</v>
+      </c>
+      <c r="S19" s="28">
+        <v>-1750</v>
+      </c>
+      <c r="T19" s="13">
+        <v>-434</v>
+      </c>
+      <c r="U19" s="13">
+        <v>-653</v>
+      </c>
+      <c r="V19" s="13">
+        <v>-456</v>
+      </c>
+      <c r="W19" s="14">
+        <v>-373</v>
+      </c>
+    </row>
+    <row r="20" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A20" s="12">
         <v>47</v>
       </c>
@@ -58295,9 +59113,41 @@
         <v>-579</v>
       </c>
       <c r="L20" s="2"/>
-      <c r="M20" s="2"/>
-    </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="M20" s="12">
+        <v>47</v>
+      </c>
+      <c r="N20" s="13">
+        <v>1400</v>
+      </c>
+      <c r="O20" s="13">
+        <v>1400</v>
+      </c>
+      <c r="P20" s="13" t="s">
+        <v>133</v>
+      </c>
+      <c r="Q20" s="12">
+        <v>-557</v>
+      </c>
+      <c r="R20" s="13">
+        <v>-349</v>
+      </c>
+      <c r="S20" s="28">
+        <v>5922</v>
+      </c>
+      <c r="T20" s="13">
+        <v>-573</v>
+      </c>
+      <c r="U20" s="13">
+        <v>-632</v>
+      </c>
+      <c r="V20" s="13">
+        <v>-59</v>
+      </c>
+      <c r="W20" s="14">
+        <v>-414</v>
+      </c>
+    </row>
+    <row r="21" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A21" s="9">
         <v>47</v>
       </c>
@@ -58331,8 +59181,41 @@
       <c r="K21" s="11">
         <v>63</v>
       </c>
-    </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="M21" s="9">
+        <v>47</v>
+      </c>
+      <c r="N21" s="10">
+        <v>1700</v>
+      </c>
+      <c r="O21" s="10">
+        <v>1700</v>
+      </c>
+      <c r="P21" s="10" t="s">
+        <v>133</v>
+      </c>
+      <c r="Q21" s="9">
+        <v>926</v>
+      </c>
+      <c r="R21" s="10">
+        <v>-6</v>
+      </c>
+      <c r="S21" s="29">
+        <v>-420</v>
+      </c>
+      <c r="T21" s="10">
+        <v>-265</v>
+      </c>
+      <c r="U21" s="10">
+        <v>-237</v>
+      </c>
+      <c r="V21" s="10">
+        <v>-408</v>
+      </c>
+      <c r="W21" s="11">
+        <v>-318</v>
+      </c>
+    </row>
+    <row r="22" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A22" s="6">
         <v>47</v>
       </c>
@@ -58366,8 +59249,41 @@
       <c r="K22" s="8">
         <v>-735</v>
       </c>
-    </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="M22" s="6">
+        <v>47</v>
+      </c>
+      <c r="N22" s="7">
+        <v>1000</v>
+      </c>
+      <c r="O22" s="7">
+        <v>1000</v>
+      </c>
+      <c r="P22" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="Q22" s="6">
+        <v>-485</v>
+      </c>
+      <c r="R22" s="28">
+        <v>-502</v>
+      </c>
+      <c r="S22" s="7">
+        <v>-1340</v>
+      </c>
+      <c r="T22" s="7">
+        <v>-1228</v>
+      </c>
+      <c r="U22" s="7">
+        <v>-765</v>
+      </c>
+      <c r="V22" s="7">
+        <v>-1277</v>
+      </c>
+      <c r="W22" s="8">
+        <v>-963</v>
+      </c>
+    </row>
+    <row r="23" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A23" s="6">
         <v>47</v>
       </c>
@@ -58401,8 +59317,41 @@
       <c r="K23" s="8">
         <v>-703</v>
       </c>
-    </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="M23" s="6">
+        <v>47</v>
+      </c>
+      <c r="N23" s="7">
+        <v>1200</v>
+      </c>
+      <c r="O23" s="7">
+        <v>1200</v>
+      </c>
+      <c r="P23" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="Q23" s="6">
+        <v>-520</v>
+      </c>
+      <c r="R23" s="28">
+        <v>-442</v>
+      </c>
+      <c r="S23" s="7">
+        <v>-1019</v>
+      </c>
+      <c r="T23" s="7">
+        <v>-234</v>
+      </c>
+      <c r="U23" s="7">
+        <v>-490</v>
+      </c>
+      <c r="V23" s="7">
+        <v>143</v>
+      </c>
+      <c r="W23" s="8">
+        <v>-386</v>
+      </c>
+    </row>
+    <row r="24" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A24" s="6">
         <v>47</v>
       </c>
@@ -58436,8 +59385,41 @@
       <c r="K24" s="8">
         <v>-1102</v>
       </c>
-    </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="M24" s="6">
+        <v>47</v>
+      </c>
+      <c r="N24" s="7">
+        <v>1300</v>
+      </c>
+      <c r="O24" s="7">
+        <v>1300</v>
+      </c>
+      <c r="P24" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="Q24" s="6">
+        <v>-80</v>
+      </c>
+      <c r="R24" s="28">
+        <v>-312</v>
+      </c>
+      <c r="S24" s="7">
+        <v>-1356</v>
+      </c>
+      <c r="T24" s="7">
+        <v>1097</v>
+      </c>
+      <c r="U24" s="7">
+        <v>1692</v>
+      </c>
+      <c r="V24" s="7">
+        <v>-1064</v>
+      </c>
+      <c r="W24" s="8">
+        <v>-1127</v>
+      </c>
+    </row>
+    <row r="25" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A25" s="6">
         <v>47</v>
       </c>
@@ -58471,8 +59453,41 @@
       <c r="K25" s="8">
         <v>-230</v>
       </c>
-    </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="M25" s="6">
+        <v>47</v>
+      </c>
+      <c r="N25" s="7">
+        <v>1400</v>
+      </c>
+      <c r="O25" s="7">
+        <v>1400</v>
+      </c>
+      <c r="P25" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="Q25" s="6">
+        <v>-264</v>
+      </c>
+      <c r="R25" s="28">
+        <v>-254</v>
+      </c>
+      <c r="S25" s="7">
+        <v>-750</v>
+      </c>
+      <c r="T25" s="7">
+        <v>-417</v>
+      </c>
+      <c r="U25" s="7">
+        <v>-1</v>
+      </c>
+      <c r="V25" s="7">
+        <v>-726</v>
+      </c>
+      <c r="W25" s="8">
+        <v>-464</v>
+      </c>
+    </row>
+    <row r="26" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A26" s="6">
         <v>47</v>
       </c>
@@ -58506,8 +59521,41 @@
       <c r="K26" s="8">
         <v>300</v>
       </c>
-    </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="M26" s="6">
+        <v>47</v>
+      </c>
+      <c r="N26" s="7">
+        <v>1700</v>
+      </c>
+      <c r="O26" s="7">
+        <v>1700</v>
+      </c>
+      <c r="P26" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="Q26" s="6">
+        <v>-170</v>
+      </c>
+      <c r="R26" s="28">
+        <v>-9</v>
+      </c>
+      <c r="S26" s="7">
+        <v>-420</v>
+      </c>
+      <c r="T26" s="7">
+        <v>-265</v>
+      </c>
+      <c r="U26" s="7">
+        <v>750</v>
+      </c>
+      <c r="V26" s="7">
+        <v>689</v>
+      </c>
+      <c r="W26" s="8">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="27" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A27" s="18">
         <v>69</v>
       </c>
@@ -58542,9 +59590,41 @@
         <v>-935</v>
       </c>
       <c r="L27" s="2"/>
-      <c r="M27" s="2"/>
-    </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="M27" s="18">
+        <v>69</v>
+      </c>
+      <c r="N27" s="19">
+        <v>1000</v>
+      </c>
+      <c r="O27" s="19">
+        <v>1000</v>
+      </c>
+      <c r="P27" s="19" t="s">
+        <v>135</v>
+      </c>
+      <c r="Q27" s="3">
+        <v>442</v>
+      </c>
+      <c r="R27" s="4">
+        <v>813</v>
+      </c>
+      <c r="S27" s="4">
+        <v>-367</v>
+      </c>
+      <c r="T27" s="4">
+        <v>-1263</v>
+      </c>
+      <c r="U27" s="4">
+        <v>621</v>
+      </c>
+      <c r="V27" s="27">
+        <v>2647</v>
+      </c>
+      <c r="W27" s="5">
+        <v>-1111</v>
+      </c>
+    </row>
+    <row r="28" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A28" s="12">
         <v>69</v>
       </c>
@@ -58579,9 +59659,41 @@
         <v>-574</v>
       </c>
       <c r="L28" s="2"/>
-      <c r="M28" s="2"/>
-    </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="M28" s="12">
+        <v>69</v>
+      </c>
+      <c r="N28" s="13">
+        <v>1200</v>
+      </c>
+      <c r="O28" s="13">
+        <v>1200</v>
+      </c>
+      <c r="P28" s="13" t="s">
+        <v>135</v>
+      </c>
+      <c r="Q28" s="6">
+        <v>300</v>
+      </c>
+      <c r="R28" s="7">
+        <v>197</v>
+      </c>
+      <c r="S28" s="7">
+        <v>2535</v>
+      </c>
+      <c r="T28" s="7">
+        <v>-896</v>
+      </c>
+      <c r="U28" s="7">
+        <v>-740</v>
+      </c>
+      <c r="V28" s="28">
+        <v>3004</v>
+      </c>
+      <c r="W28" s="8">
+        <v>-593</v>
+      </c>
+    </row>
+    <row r="29" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A29" s="12">
         <v>69</v>
       </c>
@@ -58616,9 +59728,41 @@
         <v>-916</v>
       </c>
       <c r="L29" s="2"/>
-      <c r="M29" s="2"/>
-    </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="M29" s="12">
+        <v>69</v>
+      </c>
+      <c r="N29" s="13">
+        <v>1300</v>
+      </c>
+      <c r="O29" s="13">
+        <v>1300</v>
+      </c>
+      <c r="P29" s="13" t="s">
+        <v>135</v>
+      </c>
+      <c r="Q29" s="6">
+        <v>108</v>
+      </c>
+      <c r="R29" s="7">
+        <v>-10</v>
+      </c>
+      <c r="S29" s="7">
+        <v>-1542</v>
+      </c>
+      <c r="T29" s="7">
+        <v>875</v>
+      </c>
+      <c r="U29" s="7">
+        <v>-184</v>
+      </c>
+      <c r="V29" s="28">
+        <v>729</v>
+      </c>
+      <c r="W29" s="8">
+        <v>-404</v>
+      </c>
+    </row>
+    <row r="30" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A30" s="12">
         <v>69</v>
       </c>
@@ -58653,9 +59797,41 @@
         <v>-577</v>
       </c>
       <c r="L30" s="2"/>
-      <c r="M30" s="2"/>
-    </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="M30" s="12">
+        <v>69</v>
+      </c>
+      <c r="N30" s="13">
+        <v>1400</v>
+      </c>
+      <c r="O30" s="13">
+        <v>1400</v>
+      </c>
+      <c r="P30" s="13" t="s">
+        <v>135</v>
+      </c>
+      <c r="Q30" s="6">
+        <v>447</v>
+      </c>
+      <c r="R30" s="7">
+        <v>319</v>
+      </c>
+      <c r="S30" s="7">
+        <v>-750</v>
+      </c>
+      <c r="T30" s="7">
+        <v>-750</v>
+      </c>
+      <c r="U30" s="7">
+        <v>-657</v>
+      </c>
+      <c r="V30" s="28">
+        <v>-564</v>
+      </c>
+      <c r="W30" s="8">
+        <v>-542</v>
+      </c>
+    </row>
+    <row r="31" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A31" s="21">
         <v>69</v>
       </c>
@@ -58690,9 +59866,41 @@
         <v>812</v>
       </c>
       <c r="L31" s="2"/>
-      <c r="M31" s="2"/>
-    </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="M31" s="21">
+        <v>69</v>
+      </c>
+      <c r="N31" s="22">
+        <v>1700</v>
+      </c>
+      <c r="O31" s="22">
+        <v>1700</v>
+      </c>
+      <c r="P31" s="22" t="s">
+        <v>135</v>
+      </c>
+      <c r="Q31" s="9">
+        <v>-54</v>
+      </c>
+      <c r="R31" s="10">
+        <v>-202</v>
+      </c>
+      <c r="S31" s="10">
+        <v>1030</v>
+      </c>
+      <c r="T31" s="10">
+        <v>-320</v>
+      </c>
+      <c r="U31" s="10">
+        <v>-295</v>
+      </c>
+      <c r="V31" s="29">
+        <v>-227</v>
+      </c>
+      <c r="W31" s="11">
+        <v>817</v>
+      </c>
+    </row>
+    <row r="32" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A32" s="12">
         <v>69</v>
       </c>
@@ -58727,9 +59935,41 @@
         <v>-30</v>
       </c>
       <c r="L32" s="2"/>
-      <c r="M32" s="2"/>
-    </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="M32" s="12">
+        <v>69</v>
+      </c>
+      <c r="N32" s="13">
+        <v>1000</v>
+      </c>
+      <c r="O32" s="13">
+        <v>1000</v>
+      </c>
+      <c r="P32" s="13" t="s">
+        <v>133</v>
+      </c>
+      <c r="Q32" s="12">
+        <v>521</v>
+      </c>
+      <c r="R32" s="13">
+        <v>945</v>
+      </c>
+      <c r="S32" s="28">
+        <v>-1340</v>
+      </c>
+      <c r="T32" s="13">
+        <v>-1099</v>
+      </c>
+      <c r="U32" s="13">
+        <v>-5</v>
+      </c>
+      <c r="V32" s="13">
+        <v>-1087</v>
+      </c>
+      <c r="W32" s="14">
+        <v>-238</v>
+      </c>
+    </row>
+    <row r="33" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A33" s="12">
         <v>69</v>
       </c>
@@ -58764,9 +60004,41 @@
         <v>-330</v>
       </c>
       <c r="L33" s="2"/>
-      <c r="M33" s="2"/>
-    </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="M33" s="12">
+        <v>69</v>
+      </c>
+      <c r="N33" s="13">
+        <v>1200</v>
+      </c>
+      <c r="O33" s="13">
+        <v>1200</v>
+      </c>
+      <c r="P33" s="13" t="s">
+        <v>133</v>
+      </c>
+      <c r="Q33" s="12">
+        <v>846</v>
+      </c>
+      <c r="R33" s="13">
+        <v>-348</v>
+      </c>
+      <c r="S33" s="28">
+        <v>12386</v>
+      </c>
+      <c r="T33" s="13">
+        <v>-534</v>
+      </c>
+      <c r="U33" s="13">
+        <v>-645</v>
+      </c>
+      <c r="V33" s="13">
+        <v>875</v>
+      </c>
+      <c r="W33" s="14">
+        <v>-459</v>
+      </c>
+    </row>
+    <row r="34" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A34" s="12">
         <v>69</v>
       </c>
@@ -58801,9 +60073,41 @@
         <v>-440</v>
       </c>
       <c r="L34" s="2"/>
-      <c r="M34" s="2"/>
-    </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="M34" s="12">
+        <v>69</v>
+      </c>
+      <c r="N34" s="13">
+        <v>1300</v>
+      </c>
+      <c r="O34" s="13">
+        <v>1300</v>
+      </c>
+      <c r="P34" s="13" t="s">
+        <v>133</v>
+      </c>
+      <c r="Q34" s="12">
+        <v>2276</v>
+      </c>
+      <c r="R34" s="13">
+        <v>2442</v>
+      </c>
+      <c r="S34" s="28">
+        <v>-1750</v>
+      </c>
+      <c r="T34" s="13">
+        <v>-391</v>
+      </c>
+      <c r="U34" s="13">
+        <v>1066</v>
+      </c>
+      <c r="V34" s="13">
+        <v>-1173</v>
+      </c>
+      <c r="W34" s="14">
+        <v>-622</v>
+      </c>
+    </row>
+    <row r="35" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A35" s="12">
         <v>69</v>
       </c>
@@ -58838,9 +60142,41 @@
         <v>-549</v>
       </c>
       <c r="L35" s="2"/>
-      <c r="M35" s="2"/>
-    </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="M35" s="12">
+        <v>69</v>
+      </c>
+      <c r="N35" s="13">
+        <v>1400</v>
+      </c>
+      <c r="O35" s="13">
+        <v>1400</v>
+      </c>
+      <c r="P35" s="13" t="s">
+        <v>133</v>
+      </c>
+      <c r="Q35" s="12">
+        <v>-126</v>
+      </c>
+      <c r="R35" s="13">
+        <v>-267</v>
+      </c>
+      <c r="S35" s="28">
+        <v>-750</v>
+      </c>
+      <c r="T35" s="13">
+        <v>-630</v>
+      </c>
+      <c r="U35" s="13">
+        <v>-183</v>
+      </c>
+      <c r="V35" s="13">
+        <v>-643</v>
+      </c>
+      <c r="W35" s="14">
+        <v>-589</v>
+      </c>
+    </row>
+    <row r="36" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A36" s="6">
         <v>69</v>
       </c>
@@ -58874,8 +60210,41 @@
       <c r="K36" s="8">
         <v>350</v>
       </c>
-    </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="M36" s="6">
+        <v>69</v>
+      </c>
+      <c r="N36" s="7">
+        <v>1700</v>
+      </c>
+      <c r="O36" s="7">
+        <v>1700</v>
+      </c>
+      <c r="P36" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="Q36" s="6">
+        <v>-297</v>
+      </c>
+      <c r="R36" s="7">
+        <v>-236</v>
+      </c>
+      <c r="S36" s="28">
+        <v>-420</v>
+      </c>
+      <c r="T36" s="7">
+        <v>-192</v>
+      </c>
+      <c r="U36" s="7">
+        <v>-142</v>
+      </c>
+      <c r="V36" s="7">
+        <v>-5</v>
+      </c>
+      <c r="W36" s="8">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="37" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A37" s="3">
         <v>69</v>
       </c>
@@ -58909,8 +60278,27 @@
       <c r="K37" s="5">
         <v>-479</v>
       </c>
-    </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="M37" s="3">
+        <v>69</v>
+      </c>
+      <c r="N37" s="4">
+        <v>1000</v>
+      </c>
+      <c r="O37" s="4">
+        <v>1000</v>
+      </c>
+      <c r="P37" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="Q37" s="3"/>
+      <c r="R37" s="4"/>
+      <c r="S37" s="4"/>
+      <c r="T37" s="27"/>
+      <c r="U37" s="4"/>
+      <c r="V37" s="4"/>
+      <c r="W37" s="5"/>
+    </row>
+    <row r="38" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A38" s="6">
         <v>69</v>
       </c>
@@ -58944,8 +60332,27 @@
       <c r="K38" s="8">
         <v>-352</v>
       </c>
-    </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="M38" s="6">
+        <v>69</v>
+      </c>
+      <c r="N38" s="7">
+        <v>1200</v>
+      </c>
+      <c r="O38" s="7">
+        <v>1200</v>
+      </c>
+      <c r="P38" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="Q38" s="6"/>
+      <c r="R38" s="7"/>
+      <c r="S38" s="7"/>
+      <c r="T38" s="28"/>
+      <c r="U38" s="7"/>
+      <c r="V38" s="7"/>
+      <c r="W38" s="8"/>
+    </row>
+    <row r="39" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A39" s="6">
         <v>69</v>
       </c>
@@ -58979,8 +60386,27 @@
       <c r="K39" s="8">
         <v>-1093</v>
       </c>
-    </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="M39" s="6">
+        <v>69</v>
+      </c>
+      <c r="N39" s="7">
+        <v>1300</v>
+      </c>
+      <c r="O39" s="7">
+        <v>1300</v>
+      </c>
+      <c r="P39" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="Q39" s="6"/>
+      <c r="R39" s="7"/>
+      <c r="S39" s="7"/>
+      <c r="T39" s="28"/>
+      <c r="U39" s="7"/>
+      <c r="V39" s="7"/>
+      <c r="W39" s="8"/>
+    </row>
+    <row r="40" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A40" s="6">
         <v>69</v>
       </c>
@@ -59014,8 +60440,27 @@
       <c r="K40" s="8">
         <v>-448</v>
       </c>
-    </row>
-    <row r="41" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="M40" s="6">
+        <v>69</v>
+      </c>
+      <c r="N40" s="7">
+        <v>1400</v>
+      </c>
+      <c r="O40" s="7">
+        <v>1400</v>
+      </c>
+      <c r="P40" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="Q40" s="6"/>
+      <c r="R40" s="7"/>
+      <c r="S40" s="7"/>
+      <c r="T40" s="28"/>
+      <c r="U40" s="7"/>
+      <c r="V40" s="7"/>
+      <c r="W40" s="8"/>
+    </row>
+    <row r="41" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A41" s="9">
         <v>69</v>
       </c>
@@ -59049,8 +60494,27 @@
       <c r="K41" s="11">
         <v>300</v>
       </c>
-    </row>
-    <row r="42" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="M41" s="9">
+        <v>69</v>
+      </c>
+      <c r="N41" s="10">
+        <v>1700</v>
+      </c>
+      <c r="O41" s="10">
+        <v>1700</v>
+      </c>
+      <c r="P41" s="10" t="s">
+        <v>134</v>
+      </c>
+      <c r="Q41" s="9"/>
+      <c r="R41" s="10"/>
+      <c r="S41" s="10"/>
+      <c r="T41" s="29"/>
+      <c r="U41" s="10"/>
+      <c r="V41" s="10"/>
+      <c r="W41" s="11"/>
+    </row>
+    <row r="42" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A42" s="12">
         <v>47</v>
       </c>
@@ -59085,9 +60549,41 @@
         <v>-2609</v>
       </c>
       <c r="L42" s="2"/>
-      <c r="M42" s="2"/>
-    </row>
-    <row r="43" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="M42" s="12">
+        <v>47</v>
+      </c>
+      <c r="N42" s="13" t="s">
+        <v>132</v>
+      </c>
+      <c r="O42" s="13">
+        <v>0</v>
+      </c>
+      <c r="P42" s="13" t="s">
+        <v>135</v>
+      </c>
+      <c r="Q42" s="12">
+        <v>-1387</v>
+      </c>
+      <c r="R42" s="13">
+        <v>-1311</v>
+      </c>
+      <c r="S42" s="13">
+        <v>-3512</v>
+      </c>
+      <c r="T42" s="13">
+        <v>-4730</v>
+      </c>
+      <c r="U42" s="13">
+        <v>-1901</v>
+      </c>
+      <c r="V42" s="13">
+        <v>-814</v>
+      </c>
+      <c r="W42" s="14">
+        <v>-2816</v>
+      </c>
+    </row>
+    <row r="43" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A43" s="12">
         <v>47</v>
       </c>
@@ -59122,9 +60618,41 @@
         <v>-515</v>
       </c>
       <c r="L43" s="2"/>
-      <c r="M43" s="2"/>
-    </row>
-    <row r="44" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="M43" s="12">
+        <v>47</v>
+      </c>
+      <c r="N43" s="13" t="s">
+        <v>132</v>
+      </c>
+      <c r="O43" s="13">
+        <v>1000</v>
+      </c>
+      <c r="P43" s="13" t="s">
+        <v>135</v>
+      </c>
+      <c r="Q43" s="12">
+        <v>-531</v>
+      </c>
+      <c r="R43" s="13">
+        <v>-340</v>
+      </c>
+      <c r="S43" s="13">
+        <v>-1036</v>
+      </c>
+      <c r="T43" s="13">
+        <v>-866</v>
+      </c>
+      <c r="U43" s="13">
+        <v>-414</v>
+      </c>
+      <c r="V43" s="13">
+        <v>-184</v>
+      </c>
+      <c r="W43" s="14">
+        <v>-522</v>
+      </c>
+    </row>
+    <row r="44" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A44" s="12">
         <v>47</v>
       </c>
@@ -59159,9 +60687,41 @@
         <v>-473</v>
       </c>
       <c r="L44" s="2"/>
-      <c r="M44" s="2"/>
-    </row>
-    <row r="45" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="M44" s="12">
+        <v>47</v>
+      </c>
+      <c r="N44" s="13" t="s">
+        <v>132</v>
+      </c>
+      <c r="O44" s="13">
+        <v>1200</v>
+      </c>
+      <c r="P44" s="13" t="s">
+        <v>135</v>
+      </c>
+      <c r="Q44" s="12">
+        <v>-430</v>
+      </c>
+      <c r="R44" s="13">
+        <v>-259</v>
+      </c>
+      <c r="S44" s="13">
+        <v>-319</v>
+      </c>
+      <c r="T44" s="13">
+        <v>-695</v>
+      </c>
+      <c r="U44" s="13">
+        <v>-302</v>
+      </c>
+      <c r="V44" s="13">
+        <v>83</v>
+      </c>
+      <c r="W44" s="14">
+        <v>-580</v>
+      </c>
+    </row>
+    <row r="45" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A45" s="12">
         <v>47</v>
       </c>
@@ -59196,9 +60756,41 @@
         <v>-835</v>
       </c>
       <c r="L45" s="2"/>
-      <c r="M45" s="2"/>
-    </row>
-    <row r="46" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="M45" s="12">
+        <v>47</v>
+      </c>
+      <c r="N45" s="13" t="s">
+        <v>132</v>
+      </c>
+      <c r="O45" s="13">
+        <v>1300</v>
+      </c>
+      <c r="P45" s="13" t="s">
+        <v>135</v>
+      </c>
+      <c r="Q45" s="12">
+        <v>-360</v>
+      </c>
+      <c r="R45" s="13">
+        <v>-410</v>
+      </c>
+      <c r="S45" s="13">
+        <v>-637</v>
+      </c>
+      <c r="T45" s="13">
+        <v>-1750</v>
+      </c>
+      <c r="U45" s="13">
+        <v>-617</v>
+      </c>
+      <c r="V45" s="13">
+        <v>-804</v>
+      </c>
+      <c r="W45" s="14">
+        <v>-1017</v>
+      </c>
+    </row>
+    <row r="46" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A46" s="12">
         <v>47</v>
       </c>
@@ -59233,9 +60825,41 @@
         <v>-582</v>
       </c>
       <c r="L46" s="2"/>
-      <c r="M46" s="2"/>
-    </row>
-    <row r="47" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="M46" s="12">
+        <v>47</v>
+      </c>
+      <c r="N46" s="13" t="s">
+        <v>132</v>
+      </c>
+      <c r="O46" s="13">
+        <v>1400</v>
+      </c>
+      <c r="P46" s="13" t="s">
+        <v>135</v>
+      </c>
+      <c r="Q46" s="12">
+        <v>160</v>
+      </c>
+      <c r="R46" s="13">
+        <v>71</v>
+      </c>
+      <c r="S46" s="13">
+        <v>-750</v>
+      </c>
+      <c r="T46" s="13">
+        <v>-750</v>
+      </c>
+      <c r="U46" s="13">
+        <v>-8</v>
+      </c>
+      <c r="V46" s="13">
+        <v>-658</v>
+      </c>
+      <c r="W46" s="14">
+        <v>-547</v>
+      </c>
+    </row>
+    <row r="47" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A47" s="12">
         <v>47</v>
       </c>
@@ -59270,9 +60894,41 @@
         <v>63</v>
       </c>
       <c r="L47" s="2"/>
-      <c r="M47" s="2"/>
-    </row>
-    <row r="48" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="M47" s="12">
+        <v>47</v>
+      </c>
+      <c r="N47" s="13" t="s">
+        <v>132</v>
+      </c>
+      <c r="O47" s="13">
+        <v>1700</v>
+      </c>
+      <c r="P47" s="13" t="s">
+        <v>135</v>
+      </c>
+      <c r="Q47" s="12">
+        <v>-96</v>
+      </c>
+      <c r="R47" s="13">
+        <v>-110</v>
+      </c>
+      <c r="S47" s="13">
+        <v>-420</v>
+      </c>
+      <c r="T47" s="13">
+        <v>-320</v>
+      </c>
+      <c r="U47" s="13">
+        <v>-238</v>
+      </c>
+      <c r="V47" s="13">
+        <v>964</v>
+      </c>
+      <c r="W47" s="14">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="48" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A48" s="18">
         <v>47</v>
       </c>
@@ -59307,9 +60963,41 @@
         <v>-2569</v>
       </c>
       <c r="L48" s="2"/>
-      <c r="M48" s="2"/>
-    </row>
-    <row r="49" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="M48" s="18">
+        <v>47</v>
+      </c>
+      <c r="N48" s="19" t="s">
+        <v>132</v>
+      </c>
+      <c r="O48" s="19">
+        <v>0</v>
+      </c>
+      <c r="P48" s="19" t="s">
+        <v>133</v>
+      </c>
+      <c r="Q48" s="24">
+        <v>4070</v>
+      </c>
+      <c r="R48" s="19">
+        <v>3035</v>
+      </c>
+      <c r="S48" s="27">
+        <v>7522</v>
+      </c>
+      <c r="T48" s="19">
+        <v>-1594</v>
+      </c>
+      <c r="U48" s="19">
+        <v>-822</v>
+      </c>
+      <c r="V48" s="19">
+        <v>-424</v>
+      </c>
+      <c r="W48" s="20">
+        <v>-2904</v>
+      </c>
+    </row>
+    <row r="49" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A49" s="12">
         <v>47</v>
       </c>
@@ -59344,9 +61032,41 @@
         <v>-732</v>
       </c>
       <c r="L49" s="2"/>
-      <c r="M49" s="2"/>
-    </row>
-    <row r="50" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="M49" s="12">
+        <v>47</v>
+      </c>
+      <c r="N49" s="13" t="s">
+        <v>132</v>
+      </c>
+      <c r="O49" s="13">
+        <v>1000</v>
+      </c>
+      <c r="P49" s="13" t="s">
+        <v>133</v>
+      </c>
+      <c r="Q49" s="25">
+        <v>556</v>
+      </c>
+      <c r="R49" s="13">
+        <v>334</v>
+      </c>
+      <c r="S49" s="28">
+        <v>-1298</v>
+      </c>
+      <c r="T49" s="13">
+        <v>-1080</v>
+      </c>
+      <c r="U49" s="13">
+        <v>-762</v>
+      </c>
+      <c r="V49" s="13">
+        <v>-712</v>
+      </c>
+      <c r="W49" s="14">
+        <v>-933</v>
+      </c>
+    </row>
+    <row r="50" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A50" s="12">
         <v>47</v>
       </c>
@@ -59381,9 +61101,41 @@
         <v>-661</v>
       </c>
       <c r="L50" s="2"/>
-      <c r="M50" s="2"/>
-    </row>
-    <row r="51" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="M50" s="12">
+        <v>47</v>
+      </c>
+      <c r="N50" s="13" t="s">
+        <v>132</v>
+      </c>
+      <c r="O50" s="13">
+        <v>1200</v>
+      </c>
+      <c r="P50" s="13" t="s">
+        <v>133</v>
+      </c>
+      <c r="Q50" s="25">
+        <v>2509</v>
+      </c>
+      <c r="R50" s="13">
+        <v>2369</v>
+      </c>
+      <c r="S50" s="28">
+        <v>5418</v>
+      </c>
+      <c r="T50" s="13">
+        <v>-763</v>
+      </c>
+      <c r="U50" s="13">
+        <v>-329</v>
+      </c>
+      <c r="V50" s="13">
+        <v>827</v>
+      </c>
+      <c r="W50" s="14">
+        <v>-769</v>
+      </c>
+    </row>
+    <row r="51" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A51" s="12">
         <v>47</v>
       </c>
@@ -59418,9 +61170,41 @@
         <v>-226</v>
       </c>
       <c r="L51" s="2"/>
-      <c r="M51" s="2"/>
-    </row>
-    <row r="52" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="M51" s="12">
+        <v>47</v>
+      </c>
+      <c r="N51" s="13" t="s">
+        <v>132</v>
+      </c>
+      <c r="O51" s="13">
+        <v>1300</v>
+      </c>
+      <c r="P51" s="13" t="s">
+        <v>133</v>
+      </c>
+      <c r="Q51" s="25">
+        <v>434</v>
+      </c>
+      <c r="R51" s="13">
+        <v>515</v>
+      </c>
+      <c r="S51" s="28">
+        <v>-1750</v>
+      </c>
+      <c r="T51" s="13">
+        <v>1492</v>
+      </c>
+      <c r="U51" s="13">
+        <v>-20</v>
+      </c>
+      <c r="V51" s="13">
+        <v>-618</v>
+      </c>
+      <c r="W51" s="14">
+        <v>-342</v>
+      </c>
+    </row>
+    <row r="52" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A52" s="12">
         <v>47</v>
       </c>
@@ -59455,9 +61239,41 @@
         <v>-482</v>
       </c>
       <c r="L52" s="2"/>
-      <c r="M52" s="2"/>
-    </row>
-    <row r="53" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="M52" s="12">
+        <v>47</v>
+      </c>
+      <c r="N52" s="13" t="s">
+        <v>132</v>
+      </c>
+      <c r="O52" s="13">
+        <v>1400</v>
+      </c>
+      <c r="P52" s="13" t="s">
+        <v>133</v>
+      </c>
+      <c r="Q52" s="25">
+        <v>-310</v>
+      </c>
+      <c r="R52" s="13">
+        <v>-154</v>
+      </c>
+      <c r="S52" s="28">
+        <v>5922</v>
+      </c>
+      <c r="T52" s="13">
+        <v>-573</v>
+      </c>
+      <c r="U52" s="13">
+        <v>-549</v>
+      </c>
+      <c r="V52" s="13">
+        <v>452</v>
+      </c>
+      <c r="W52" s="14">
+        <v>-447</v>
+      </c>
+    </row>
+    <row r="53" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A53" s="9">
         <v>47</v>
       </c>
@@ -59491,8 +61307,41 @@
       <c r="K53" s="11">
         <v>-228</v>
       </c>
-    </row>
-    <row r="54" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="M53" s="9">
+        <v>47</v>
+      </c>
+      <c r="N53" s="10" t="s">
+        <v>132</v>
+      </c>
+      <c r="O53" s="10">
+        <v>1700</v>
+      </c>
+      <c r="P53" s="10" t="s">
+        <v>133</v>
+      </c>
+      <c r="Q53" s="26">
+        <v>1102</v>
+      </c>
+      <c r="R53" s="10">
+        <v>74</v>
+      </c>
+      <c r="S53" s="29">
+        <v>-420</v>
+      </c>
+      <c r="T53" s="10">
+        <v>-320</v>
+      </c>
+      <c r="U53" s="10">
+        <v>824</v>
+      </c>
+      <c r="V53" s="10">
+        <v>-369</v>
+      </c>
+      <c r="W53" s="11">
+        <v>-164</v>
+      </c>
+    </row>
+    <row r="54" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A54" s="12">
         <v>47</v>
       </c>
@@ -59526,8 +61375,41 @@
       <c r="K54" s="8">
         <v>-2579</v>
       </c>
-    </row>
-    <row r="55" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="M54" s="12">
+        <v>47</v>
+      </c>
+      <c r="N54" s="13" t="s">
+        <v>132</v>
+      </c>
+      <c r="O54" s="13">
+        <v>0</v>
+      </c>
+      <c r="P54" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="Q54" s="6">
+        <v>-1255</v>
+      </c>
+      <c r="R54" s="7">
+        <v>-1002</v>
+      </c>
+      <c r="S54" s="7">
+        <v>-5746</v>
+      </c>
+      <c r="T54" s="7">
+        <v>-3385</v>
+      </c>
+      <c r="U54" s="7">
+        <v>-2148</v>
+      </c>
+      <c r="V54" s="7">
+        <v>-1839</v>
+      </c>
+      <c r="W54" s="8">
+        <v>-2738</v>
+      </c>
+    </row>
+    <row r="55" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A55" s="6">
         <v>47</v>
       </c>
@@ -59561,8 +61443,41 @@
       <c r="K55" s="8">
         <v>-618</v>
       </c>
-    </row>
-    <row r="56" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="M55" s="6">
+        <v>47</v>
+      </c>
+      <c r="N55" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="O55" s="7">
+        <v>1000</v>
+      </c>
+      <c r="P55" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="Q55" s="6">
+        <v>335</v>
+      </c>
+      <c r="R55" s="7">
+        <v>-464</v>
+      </c>
+      <c r="S55" s="7">
+        <v>-1340</v>
+      </c>
+      <c r="T55" s="7">
+        <v>-323</v>
+      </c>
+      <c r="U55" s="7">
+        <v>-776</v>
+      </c>
+      <c r="V55" s="7">
+        <v>35</v>
+      </c>
+      <c r="W55" s="8">
+        <v>-690</v>
+      </c>
+    </row>
+    <row r="56" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A56" s="6">
         <v>47</v>
       </c>
@@ -59596,8 +61511,41 @@
       <c r="K56" s="8">
         <v>-965</v>
       </c>
-    </row>
-    <row r="57" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="M56" s="6">
+        <v>47</v>
+      </c>
+      <c r="N56" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="O56" s="7">
+        <v>1200</v>
+      </c>
+      <c r="P56" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="Q56" s="6">
+        <v>-746</v>
+      </c>
+      <c r="R56" s="7">
+        <v>-242</v>
+      </c>
+      <c r="S56" s="7">
+        <v>-1290</v>
+      </c>
+      <c r="T56" s="7">
+        <v>-568</v>
+      </c>
+      <c r="U56" s="7">
+        <v>-411</v>
+      </c>
+      <c r="V56" s="7">
+        <v>-1088</v>
+      </c>
+      <c r="W56" s="8">
+        <v>-1034</v>
+      </c>
+    </row>
+    <row r="57" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A57" s="6">
         <v>47</v>
       </c>
@@ -59631,8 +61579,41 @@
       <c r="K57" s="8">
         <v>-863</v>
       </c>
-    </row>
-    <row r="58" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="M57" s="6">
+        <v>47</v>
+      </c>
+      <c r="N57" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="O57" s="7">
+        <v>1300</v>
+      </c>
+      <c r="P57" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="Q57" s="6">
+        <v>-159</v>
+      </c>
+      <c r="R57" s="7">
+        <v>67</v>
+      </c>
+      <c r="S57" s="7">
+        <v>-1750</v>
+      </c>
+      <c r="T57" s="7">
+        <v>-1029</v>
+      </c>
+      <c r="U57" s="7">
+        <v>-1151</v>
+      </c>
+      <c r="V57" s="7">
+        <v>-1316</v>
+      </c>
+      <c r="W57" s="8">
+        <v>-1045</v>
+      </c>
+    </row>
+    <row r="58" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A58" s="6">
         <v>47</v>
       </c>
@@ -59666,8 +61647,41 @@
       <c r="K58" s="8">
         <v>-186</v>
       </c>
-    </row>
-    <row r="59" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="M58" s="6">
+        <v>47</v>
+      </c>
+      <c r="N58" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="O58" s="7">
+        <v>1400</v>
+      </c>
+      <c r="P58" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="Q58" s="6">
+        <v>-552</v>
+      </c>
+      <c r="R58" s="7">
+        <v>-383</v>
+      </c>
+      <c r="S58" s="7">
+        <v>-750</v>
+      </c>
+      <c r="T58" s="7">
+        <v>-750</v>
+      </c>
+      <c r="U58" s="7">
+        <v>-238</v>
+      </c>
+      <c r="V58" s="7">
+        <v>61</v>
+      </c>
+      <c r="W58" s="8">
+        <v>-150</v>
+      </c>
+    </row>
+    <row r="59" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A59" s="6">
         <v>47</v>
       </c>
@@ -59701,8 +61715,41 @@
       <c r="K59" s="8">
         <v>320</v>
       </c>
-    </row>
-    <row r="60" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="M59" s="6">
+        <v>47</v>
+      </c>
+      <c r="N59" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="O59" s="7">
+        <v>1700</v>
+      </c>
+      <c r="P59" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="Q59" s="6">
+        <v>10</v>
+      </c>
+      <c r="R59" s="7">
+        <v>-56</v>
+      </c>
+      <c r="S59" s="7">
+        <v>-420</v>
+      </c>
+      <c r="T59" s="7">
+        <v>-365</v>
+      </c>
+      <c r="U59" s="7">
+        <v>750</v>
+      </c>
+      <c r="V59" s="7">
+        <v>689</v>
+      </c>
+      <c r="W59" s="8">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="60" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A60" s="18">
         <v>69</v>
       </c>
@@ -59736,8 +61783,41 @@
       <c r="K60" s="5">
         <v>-118</v>
       </c>
-    </row>
-    <row r="61" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="M60" s="18">
+        <v>69</v>
+      </c>
+      <c r="N60" s="19" t="s">
+        <v>132</v>
+      </c>
+      <c r="O60" s="4">
+        <v>0</v>
+      </c>
+      <c r="P60" s="19" t="s">
+        <v>135</v>
+      </c>
+      <c r="Q60" s="3">
+        <v>-1135</v>
+      </c>
+      <c r="R60" s="4">
+        <v>-129</v>
+      </c>
+      <c r="S60" s="27">
+        <v>8702</v>
+      </c>
+      <c r="T60" s="4">
+        <v>2189</v>
+      </c>
+      <c r="U60" s="4">
+        <v>-222</v>
+      </c>
+      <c r="V60" s="4">
+        <v>1599</v>
+      </c>
+      <c r="W60" s="5">
+        <v>-596</v>
+      </c>
+    </row>
+    <row r="61" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A61" s="12">
         <v>69</v>
       </c>
@@ -59772,9 +61852,41 @@
         <v>-868</v>
       </c>
       <c r="L61" s="2"/>
-      <c r="M61" s="2"/>
-    </row>
-    <row r="62" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="M61" s="12">
+        <v>69</v>
+      </c>
+      <c r="N61" s="13" t="s">
+        <v>132</v>
+      </c>
+      <c r="O61" s="13">
+        <v>1000</v>
+      </c>
+      <c r="P61" s="13" t="s">
+        <v>135</v>
+      </c>
+      <c r="Q61" s="12">
+        <v>-512</v>
+      </c>
+      <c r="R61" s="13">
+        <v>157</v>
+      </c>
+      <c r="S61" s="28">
+        <v>-1340</v>
+      </c>
+      <c r="T61" s="13">
+        <v>-694</v>
+      </c>
+      <c r="U61" s="13">
+        <v>-644</v>
+      </c>
+      <c r="V61" s="13">
+        <v>-73</v>
+      </c>
+      <c r="W61" s="14">
+        <v>-1044</v>
+      </c>
+    </row>
+    <row r="62" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A62" s="12">
         <v>69</v>
       </c>
@@ -59809,9 +61921,41 @@
         <v>1561</v>
       </c>
       <c r="L62" s="2"/>
-      <c r="M62" s="2"/>
-    </row>
-    <row r="63" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="M62" s="12">
+        <v>69</v>
+      </c>
+      <c r="N62" s="13" t="s">
+        <v>132</v>
+      </c>
+      <c r="O62" s="13">
+        <v>1200</v>
+      </c>
+      <c r="P62" s="13" t="s">
+        <v>135</v>
+      </c>
+      <c r="Q62" s="12">
+        <v>-6</v>
+      </c>
+      <c r="R62" s="13">
+        <v>399</v>
+      </c>
+      <c r="S62" s="28">
+        <v>12743</v>
+      </c>
+      <c r="T62" s="13">
+        <v>2994</v>
+      </c>
+      <c r="U62" s="13">
+        <v>570</v>
+      </c>
+      <c r="V62" s="13">
+        <v>2811</v>
+      </c>
+      <c r="W62" s="14">
+        <v>1454</v>
+      </c>
+    </row>
+    <row r="63" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A63" s="12">
         <v>69</v>
       </c>
@@ -59846,9 +61990,41 @@
         <v>-740</v>
       </c>
       <c r="L63" s="2"/>
-      <c r="M63" s="2"/>
-    </row>
-    <row r="64" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="M63" s="12">
+        <v>69</v>
+      </c>
+      <c r="N63" s="13" t="s">
+        <v>132</v>
+      </c>
+      <c r="O63" s="13">
+        <v>1300</v>
+      </c>
+      <c r="P63" s="13" t="s">
+        <v>135</v>
+      </c>
+      <c r="Q63" s="12">
+        <v>-151</v>
+      </c>
+      <c r="R63" s="13">
+        <v>-193</v>
+      </c>
+      <c r="S63" s="28">
+        <v>-1750</v>
+      </c>
+      <c r="T63" s="13">
+        <v>798</v>
+      </c>
+      <c r="U63" s="13">
+        <v>-364</v>
+      </c>
+      <c r="V63" s="13">
+        <v>-1231</v>
+      </c>
+      <c r="W63" s="14">
+        <v>-890</v>
+      </c>
+    </row>
+    <row r="64" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A64" s="12">
         <v>69</v>
       </c>
@@ -59883,9 +62059,41 @@
         <v>-616</v>
       </c>
       <c r="L64" s="2"/>
-      <c r="M64" s="2"/>
-    </row>
-    <row r="65" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="M64" s="12">
+        <v>69</v>
+      </c>
+      <c r="N64" s="13" t="s">
+        <v>132</v>
+      </c>
+      <c r="O64" s="13">
+        <v>1400</v>
+      </c>
+      <c r="P64" s="13" t="s">
+        <v>135</v>
+      </c>
+      <c r="Q64" s="12">
+        <v>-224</v>
+      </c>
+      <c r="R64" s="13">
+        <v>-382</v>
+      </c>
+      <c r="S64" s="28">
+        <v>-182</v>
+      </c>
+      <c r="T64" s="13">
+        <v>-239</v>
+      </c>
+      <c r="U64" s="13">
+        <v>-343</v>
+      </c>
+      <c r="V64" s="13">
+        <v>-404</v>
+      </c>
+      <c r="W64" s="14">
+        <v>-581</v>
+      </c>
+    </row>
+    <row r="65" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A65" s="21">
         <v>69</v>
       </c>
@@ -59920,9 +62128,41 @@
         <v>812</v>
       </c>
       <c r="L65" s="2"/>
-      <c r="M65" s="2"/>
-    </row>
-    <row r="66" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="M65" s="21">
+        <v>69</v>
+      </c>
+      <c r="N65" s="22" t="s">
+        <v>132</v>
+      </c>
+      <c r="O65" s="22">
+        <v>1700</v>
+      </c>
+      <c r="P65" s="22" t="s">
+        <v>135</v>
+      </c>
+      <c r="Q65" s="21">
+        <v>-292</v>
+      </c>
+      <c r="R65" s="22">
+        <v>-195</v>
+      </c>
+      <c r="S65" s="29">
+        <v>-420</v>
+      </c>
+      <c r="T65" s="22">
+        <v>-320</v>
+      </c>
+      <c r="U65" s="22">
+        <v>-69</v>
+      </c>
+      <c r="V65" s="22">
+        <v>822</v>
+      </c>
+      <c r="W65" s="23">
+        <v>742</v>
+      </c>
+    </row>
+    <row r="66" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A66" s="12">
         <v>69</v>
       </c>
@@ -59957,9 +62197,41 @@
         <v>-56</v>
       </c>
       <c r="L66" s="2"/>
-      <c r="M66" s="2"/>
-    </row>
-    <row r="67" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="M66" s="12">
+        <v>69</v>
+      </c>
+      <c r="N66" s="13" t="s">
+        <v>132</v>
+      </c>
+      <c r="O66" s="7">
+        <v>0</v>
+      </c>
+      <c r="P66" s="13" t="s">
+        <v>133</v>
+      </c>
+      <c r="Q66" s="12">
+        <v>-1159</v>
+      </c>
+      <c r="R66" s="13">
+        <v>-1302</v>
+      </c>
+      <c r="S66" s="13">
+        <v>3924</v>
+      </c>
+      <c r="T66" s="13">
+        <v>-3578</v>
+      </c>
+      <c r="U66" s="13">
+        <v>-50</v>
+      </c>
+      <c r="V66" s="13">
+        <v>-2045</v>
+      </c>
+      <c r="W66" s="14">
+        <v>-463</v>
+      </c>
+    </row>
+    <row r="67" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A67" s="12">
         <v>69</v>
       </c>
@@ -59994,9 +62266,41 @@
         <v>-30</v>
       </c>
       <c r="L67" s="2"/>
-      <c r="M67" s="2"/>
-    </row>
-    <row r="68" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="M67" s="12">
+        <v>69</v>
+      </c>
+      <c r="N67" s="13" t="s">
+        <v>132</v>
+      </c>
+      <c r="O67" s="13">
+        <v>1000</v>
+      </c>
+      <c r="P67" s="13" t="s">
+        <v>133</v>
+      </c>
+      <c r="Q67" s="12">
+        <v>-529</v>
+      </c>
+      <c r="R67" s="13">
+        <v>-403</v>
+      </c>
+      <c r="S67" s="13">
+        <v>7814</v>
+      </c>
+      <c r="T67" s="13">
+        <v>-814</v>
+      </c>
+      <c r="U67" s="13">
+        <v>16</v>
+      </c>
+      <c r="V67" s="13">
+        <v>-24</v>
+      </c>
+      <c r="W67" s="14">
+        <v>-238</v>
+      </c>
+    </row>
+    <row r="68" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A68" s="12">
         <v>69</v>
       </c>
@@ -60031,9 +62335,41 @@
         <v>540</v>
       </c>
       <c r="L68" s="2"/>
-      <c r="M68" s="2"/>
-    </row>
-    <row r="69" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="M68" s="12">
+        <v>69</v>
+      </c>
+      <c r="N68" s="13" t="s">
+        <v>132</v>
+      </c>
+      <c r="O68" s="13">
+        <v>1200</v>
+      </c>
+      <c r="P68" s="13" t="s">
+        <v>133</v>
+      </c>
+      <c r="Q68" s="12">
+        <v>-227</v>
+      </c>
+      <c r="R68" s="13">
+        <v>24</v>
+      </c>
+      <c r="S68" s="13">
+        <v>-620</v>
+      </c>
+      <c r="T68" s="13">
+        <v>-216</v>
+      </c>
+      <c r="U68" s="13">
+        <v>-643</v>
+      </c>
+      <c r="V68" s="13">
+        <v>-421</v>
+      </c>
+      <c r="W68" s="14">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="69" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A69" s="12">
         <v>69</v>
       </c>
@@ -60068,9 +62404,41 @@
         <v>-163</v>
       </c>
       <c r="L69" s="2"/>
-      <c r="M69" s="2"/>
-    </row>
-    <row r="70" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="M69" s="12">
+        <v>69</v>
+      </c>
+      <c r="N69" s="13" t="s">
+        <v>132</v>
+      </c>
+      <c r="O69" s="13">
+        <v>1300</v>
+      </c>
+      <c r="P69" s="13" t="s">
+        <v>133</v>
+      </c>
+      <c r="Q69" s="12">
+        <v>-58</v>
+      </c>
+      <c r="R69" s="13">
+        <v>-375</v>
+      </c>
+      <c r="S69" s="13">
+        <v>-1750</v>
+      </c>
+      <c r="T69" s="13">
+        <v>-1256</v>
+      </c>
+      <c r="U69" s="13">
+        <v>1084</v>
+      </c>
+      <c r="V69" s="13">
+        <v>-762</v>
+      </c>
+      <c r="W69" s="14">
+        <v>-345</v>
+      </c>
+    </row>
+    <row r="70" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A70" s="12">
         <v>69</v>
       </c>
@@ -60105,9 +62473,41 @@
         <v>-504</v>
       </c>
       <c r="L70" s="2"/>
-      <c r="M70" s="2"/>
-    </row>
-    <row r="71" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="M70" s="12">
+        <v>69</v>
+      </c>
+      <c r="N70" s="13" t="s">
+        <v>132</v>
+      </c>
+      <c r="O70" s="13">
+        <v>1400</v>
+      </c>
+      <c r="P70" s="13" t="s">
+        <v>133</v>
+      </c>
+      <c r="Q70" s="12">
+        <v>39</v>
+      </c>
+      <c r="R70" s="13">
+        <v>-149</v>
+      </c>
+      <c r="S70" s="13">
+        <v>-750</v>
+      </c>
+      <c r="T70" s="13">
+        <v>-750</v>
+      </c>
+      <c r="U70" s="13">
+        <v>-266</v>
+      </c>
+      <c r="V70" s="13">
+        <v>-568</v>
+      </c>
+      <c r="W70" s="14">
+        <v>-544</v>
+      </c>
+    </row>
+    <row r="71" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A71" s="6">
         <v>69</v>
       </c>
@@ -60141,8 +62541,41 @@
       <c r="K71" s="8">
         <v>370</v>
       </c>
-    </row>
-    <row r="72" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="M71" s="6">
+        <v>69</v>
+      </c>
+      <c r="N71" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="O71" s="7">
+        <v>1700</v>
+      </c>
+      <c r="P71" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="Q71" s="6">
+        <v>-189</v>
+      </c>
+      <c r="R71" s="7">
+        <v>-169</v>
+      </c>
+      <c r="S71" s="7">
+        <v>-420</v>
+      </c>
+      <c r="T71" s="7">
+        <v>-192</v>
+      </c>
+      <c r="U71" s="7">
+        <v>-237</v>
+      </c>
+      <c r="V71" s="7">
+        <v>-3</v>
+      </c>
+      <c r="W71" s="8">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="72" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A72" s="18">
         <v>69</v>
       </c>
@@ -60176,8 +62609,27 @@
       <c r="K72" s="5">
         <v>588</v>
       </c>
-    </row>
-    <row r="73" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="M72" s="18">
+        <v>69</v>
+      </c>
+      <c r="N72" s="19" t="s">
+        <v>132</v>
+      </c>
+      <c r="O72" s="4">
+        <v>0</v>
+      </c>
+      <c r="P72" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="Q72" s="3"/>
+      <c r="R72" s="4"/>
+      <c r="S72" s="4"/>
+      <c r="T72" s="4"/>
+      <c r="U72" s="4"/>
+      <c r="V72" s="4"/>
+      <c r="W72" s="5"/>
+    </row>
+    <row r="73" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A73" s="6">
         <v>69</v>
       </c>
@@ -60211,8 +62663,27 @@
       <c r="K73" s="8">
         <v>-30</v>
       </c>
-    </row>
-    <row r="74" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="M73" s="6">
+        <v>69</v>
+      </c>
+      <c r="N73" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="O73" s="7">
+        <v>1000</v>
+      </c>
+      <c r="P73" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="Q73" s="6"/>
+      <c r="R73" s="7"/>
+      <c r="S73" s="7"/>
+      <c r="T73" s="7"/>
+      <c r="U73" s="7"/>
+      <c r="V73" s="7"/>
+      <c r="W73" s="8"/>
+    </row>
+    <row r="74" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A74" s="6">
         <v>69</v>
       </c>
@@ -60246,8 +62717,27 @@
       <c r="K74" s="8">
         <v>325</v>
       </c>
-    </row>
-    <row r="75" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="M74" s="6">
+        <v>69</v>
+      </c>
+      <c r="N74" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="O74" s="7">
+        <v>1200</v>
+      </c>
+      <c r="P74" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="Q74" s="6"/>
+      <c r="R74" s="7"/>
+      <c r="S74" s="7"/>
+      <c r="T74" s="7"/>
+      <c r="U74" s="7"/>
+      <c r="V74" s="7"/>
+      <c r="W74" s="8"/>
+    </row>
+    <row r="75" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A75" s="6">
         <v>69</v>
       </c>
@@ -60281,8 +62771,27 @@
       <c r="K75" s="8">
         <v>-980</v>
       </c>
-    </row>
-    <row r="76" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="M75" s="6">
+        <v>69</v>
+      </c>
+      <c r="N75" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="O75" s="7">
+        <v>1300</v>
+      </c>
+      <c r="P75" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="Q75" s="6"/>
+      <c r="R75" s="7"/>
+      <c r="S75" s="7"/>
+      <c r="T75" s="7"/>
+      <c r="U75" s="7"/>
+      <c r="V75" s="7"/>
+      <c r="W75" s="8"/>
+    </row>
+    <row r="76" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A76" s="6">
         <v>69</v>
       </c>
@@ -60316,8 +62825,27 @@
       <c r="K76" s="8">
         <v>-575</v>
       </c>
-    </row>
-    <row r="77" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="M76" s="6">
+        <v>69</v>
+      </c>
+      <c r="N76" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="O76" s="7">
+        <v>1400</v>
+      </c>
+      <c r="P76" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="Q76" s="6"/>
+      <c r="R76" s="7"/>
+      <c r="S76" s="7"/>
+      <c r="T76" s="7"/>
+      <c r="U76" s="7"/>
+      <c r="V76" s="7"/>
+      <c r="W76" s="8"/>
+    </row>
+    <row r="77" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A77" s="9">
         <v>69</v>
       </c>
@@ -60351,210 +62879,430 @@
       <c r="K77" s="11">
         <v>1410</v>
       </c>
-    </row>
-    <row r="78" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="M77" s="9">
+        <v>69</v>
+      </c>
+      <c r="N77" s="10" t="s">
+        <v>132</v>
+      </c>
+      <c r="O77" s="10">
+        <v>1700</v>
+      </c>
+      <c r="P77" s="10" t="s">
+        <v>134</v>
+      </c>
+      <c r="Q77" s="9"/>
+      <c r="R77" s="10"/>
+      <c r="S77" s="10"/>
+      <c r="T77" s="10"/>
+      <c r="U77" s="10"/>
+      <c r="V77" s="10"/>
+      <c r="W77" s="11"/>
+    </row>
+    <row r="78" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A78"/>
+      <c r="M78"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="E74:K74 E76:K78">
-    <cfRule type="expression" dxfId="39" priority="44">
+    <cfRule type="expression" dxfId="119" priority="84">
       <formula>E74&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E73:K73">
-    <cfRule type="expression" dxfId="38" priority="43">
+    <cfRule type="expression" dxfId="118" priority="83">
       <formula>E73&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E75:K75">
-    <cfRule type="expression" dxfId="37" priority="42">
+    <cfRule type="expression" dxfId="117" priority="82">
       <formula>E75&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E70:K72">
-    <cfRule type="expression" dxfId="36" priority="41">
+    <cfRule type="expression" dxfId="116" priority="81">
       <formula>E70&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E67:K67">
-    <cfRule type="expression" dxfId="35" priority="40">
+    <cfRule type="expression" dxfId="115" priority="80">
       <formula>E67&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E62:K62 E64:K64">
-    <cfRule type="expression" dxfId="34" priority="39">
+    <cfRule type="expression" dxfId="114" priority="79">
       <formula>E62&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E61:K61">
-    <cfRule type="expression" dxfId="33" priority="38">
+    <cfRule type="expression" dxfId="113" priority="78">
       <formula>E61&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E63:K63">
-    <cfRule type="expression" dxfId="32" priority="37">
+    <cfRule type="expression" dxfId="112" priority="77">
       <formula>E63&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E65:K66">
-    <cfRule type="expression" dxfId="31" priority="36">
+    <cfRule type="expression" dxfId="111" priority="76">
       <formula>E65&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E68:K69">
-    <cfRule type="expression" dxfId="30" priority="35">
+    <cfRule type="expression" dxfId="110" priority="75">
       <formula>E68&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E38:K38 E40:K41">
-    <cfRule type="expression" dxfId="29" priority="30">
+    <cfRule type="expression" dxfId="109" priority="70">
       <formula>E38&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E37:K37">
-    <cfRule type="expression" dxfId="28" priority="29">
+    <cfRule type="expression" dxfId="108" priority="69">
       <formula>E37&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E39:K39">
-    <cfRule type="expression" dxfId="27" priority="28">
+    <cfRule type="expression" dxfId="107" priority="68">
       <formula>E39&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E35:K36">
-    <cfRule type="expression" dxfId="26" priority="27">
+    <cfRule type="expression" dxfId="106" priority="67">
       <formula>E35&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E33:K34">
-    <cfRule type="expression" dxfId="25" priority="26">
+    <cfRule type="expression" dxfId="105" priority="66">
       <formula>E33&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E32:K32">
-    <cfRule type="expression" dxfId="24" priority="25">
+    <cfRule type="expression" dxfId="104" priority="65">
       <formula>E32&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E56:K56 E58:K60">
-    <cfRule type="expression" dxfId="23" priority="24">
+    <cfRule type="expression" dxfId="103" priority="64">
       <formula>E56&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E55:K55">
-    <cfRule type="expression" dxfId="22" priority="23">
+    <cfRule type="expression" dxfId="102" priority="63">
       <formula>E55&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E57:K57">
-    <cfRule type="expression" dxfId="21" priority="22">
+    <cfRule type="expression" dxfId="101" priority="62">
       <formula>E57&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E52:K54">
-    <cfRule type="expression" dxfId="20" priority="21">
+    <cfRule type="expression" dxfId="100" priority="61">
       <formula>E52&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E49:K49">
-    <cfRule type="expression" dxfId="19" priority="20">
+    <cfRule type="expression" dxfId="99" priority="60">
       <formula>E49&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E44:K44 E46:K46">
-    <cfRule type="expression" dxfId="18" priority="19">
+    <cfRule type="expression" dxfId="98" priority="59">
       <formula>E44&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E43:K43">
-    <cfRule type="expression" dxfId="17" priority="18">
+    <cfRule type="expression" dxfId="97" priority="58">
       <formula>E43&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E45:K45">
-    <cfRule type="expression" dxfId="16" priority="17">
+    <cfRule type="expression" dxfId="96" priority="57">
       <formula>E45&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E47:K48">
-    <cfRule type="expression" dxfId="15" priority="16">
+    <cfRule type="expression" dxfId="95" priority="56">
       <formula>E47&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E50:K51">
-    <cfRule type="expression" dxfId="14" priority="15">
+    <cfRule type="expression" dxfId="94" priority="55">
       <formula>E50&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E13:K13 E15:K15">
-    <cfRule type="expression" dxfId="13" priority="14">
+    <cfRule type="expression" dxfId="93" priority="54">
       <formula>E13&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E12:K12">
-    <cfRule type="expression" dxfId="12" priority="13">
+    <cfRule type="expression" dxfId="92" priority="53">
       <formula>E12&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E14:K14">
-    <cfRule type="expression" dxfId="11" priority="12">
+    <cfRule type="expression" dxfId="91" priority="52">
       <formula>E14&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E16:K16">
-    <cfRule type="expression" dxfId="10" priority="11">
+    <cfRule type="expression" dxfId="90" priority="51">
       <formula>E16&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E23:K23 E25:K26">
-    <cfRule type="expression" dxfId="9" priority="10">
+    <cfRule type="expression" dxfId="89" priority="50">
       <formula>E23&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E22:K22">
-    <cfRule type="expression" dxfId="8" priority="9">
+    <cfRule type="expression" dxfId="88" priority="49">
       <formula>E22&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E24:K24">
-    <cfRule type="expression" dxfId="7" priority="8">
+    <cfRule type="expression" dxfId="87" priority="48">
       <formula>E24&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E20:K21">
-    <cfRule type="expression" dxfId="6" priority="7">
+    <cfRule type="expression" dxfId="86" priority="47">
       <formula>E20&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E18:K19">
-    <cfRule type="expression" dxfId="5" priority="6">
+    <cfRule type="expression" dxfId="85" priority="46">
       <formula>E18&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E17:K17">
-    <cfRule type="expression" dxfId="4" priority="5">
+    <cfRule type="expression" dxfId="84" priority="45">
       <formula>E17&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E42:K42">
-    <cfRule type="expression" dxfId="3" priority="4">
+    <cfRule type="expression" dxfId="83" priority="44">
       <formula>E42&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E28:K28 E30:K31">
-    <cfRule type="expression" dxfId="2" priority="3">
+    <cfRule type="expression" dxfId="82" priority="43">
       <formula>E28&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E27:K27">
-    <cfRule type="expression" dxfId="1" priority="2">
+    <cfRule type="expression" dxfId="81" priority="42">
       <formula>E27&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E29:K29">
-    <cfRule type="expression" dxfId="0" priority="1">
+    <cfRule type="expression" dxfId="80" priority="41">
       <formula>E29&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Q74:W74 Q76:W78">
+    <cfRule type="expression" dxfId="79" priority="40">
+      <formula>Q74&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Q73:W73">
+    <cfRule type="expression" dxfId="77" priority="39">
+      <formula>Q73&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Q75:W75">
+    <cfRule type="expression" dxfId="75" priority="38">
+      <formula>Q75&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Q70:W72">
+    <cfRule type="expression" dxfId="73" priority="37">
+      <formula>Q70&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Q67:W67">
+    <cfRule type="expression" dxfId="71" priority="36">
+      <formula>Q67&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Q62:W62 Q64:W64">
+    <cfRule type="expression" dxfId="69" priority="35">
+      <formula>Q62&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Q61:W61">
+    <cfRule type="expression" dxfId="67" priority="34">
+      <formula>Q61&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Q63:W63">
+    <cfRule type="expression" dxfId="65" priority="33">
+      <formula>Q63&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Q65:W66">
+    <cfRule type="expression" dxfId="63" priority="32">
+      <formula>Q65&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Q68:W69">
+    <cfRule type="expression" dxfId="61" priority="31">
+      <formula>Q68&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Q38:W38 Q40:W41">
+    <cfRule type="expression" dxfId="59" priority="30">
+      <formula>Q38&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Q37:W37">
+    <cfRule type="expression" dxfId="57" priority="29">
+      <formula>Q37&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Q39:W39">
+    <cfRule type="expression" dxfId="55" priority="28">
+      <formula>Q39&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Q35:W36">
+    <cfRule type="expression" dxfId="53" priority="27">
+      <formula>Q35&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Q33:W34">
+    <cfRule type="expression" dxfId="51" priority="26">
+      <formula>Q33&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Q32:W32">
+    <cfRule type="expression" dxfId="49" priority="25">
+      <formula>Q32&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Q56:W56 Q58:W60">
+    <cfRule type="expression" dxfId="47" priority="24">
+      <formula>Q56&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Q55:W55">
+    <cfRule type="expression" dxfId="45" priority="23">
+      <formula>Q55&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Q57:W57">
+    <cfRule type="expression" dxfId="43" priority="22">
+      <formula>Q57&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Q52:W54">
+    <cfRule type="expression" dxfId="41" priority="21">
+      <formula>Q52&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Q49:W49">
+    <cfRule type="expression" dxfId="39" priority="20">
+      <formula>Q49&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Q44:W44 Q46:W46">
+    <cfRule type="expression" dxfId="37" priority="19">
+      <formula>Q44&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Q43:W43">
+    <cfRule type="expression" dxfId="35" priority="18">
+      <formula>Q43&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Q45:W45">
+    <cfRule type="expression" dxfId="33" priority="17">
+      <formula>Q45&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Q47:W48">
+    <cfRule type="expression" dxfId="31" priority="16">
+      <formula>Q47&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Q50:W51">
+    <cfRule type="expression" dxfId="29" priority="15">
+      <formula>Q50&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Q13:W13 Q15:W15">
+    <cfRule type="expression" dxfId="27" priority="14">
+      <formula>Q13&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Q12:W12">
+    <cfRule type="expression" dxfId="25" priority="13">
+      <formula>Q12&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Q14:W14">
+    <cfRule type="expression" dxfId="23" priority="12">
+      <formula>Q14&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Q16:W16">
+    <cfRule type="expression" dxfId="21" priority="11">
+      <formula>Q16&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Q23:W23 Q25:W26">
+    <cfRule type="expression" dxfId="19" priority="10">
+      <formula>Q23&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Q22:W22">
+    <cfRule type="expression" dxfId="17" priority="9">
+      <formula>Q22&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Q24:W24">
+    <cfRule type="expression" dxfId="15" priority="8">
+      <formula>Q24&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Q20:W21">
+    <cfRule type="expression" dxfId="13" priority="7">
+      <formula>Q20&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Q18:W19">
+    <cfRule type="expression" dxfId="11" priority="6">
+      <formula>Q18&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Q17:W17">
+    <cfRule type="expression" dxfId="9" priority="5">
+      <formula>Q17&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Q42:W42">
+    <cfRule type="expression" dxfId="7" priority="4">
+      <formula>Q42&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Q28:W28 Q30:W31">
+    <cfRule type="expression" dxfId="5" priority="3">
+      <formula>Q28&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Q27:W27">
+    <cfRule type="expression" dxfId="3" priority="2">
+      <formula>Q27&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Q29:W29">
+    <cfRule type="expression" dxfId="1" priority="1">
+      <formula>Q29&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -64039,12 +66787,12 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="B1:I1">
-    <cfRule type="expression" dxfId="131" priority="5">
+    <cfRule type="expression" dxfId="211" priority="5">
       <formula>B1&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M1:U1">
-    <cfRule type="expression" dxfId="130" priority="4">
+    <cfRule type="expression" dxfId="210" priority="4">
       <formula>M1&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -64061,7 +66809,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J1">
-    <cfRule type="expression" dxfId="129" priority="2">
+    <cfRule type="expression" dxfId="209" priority="2">
       <formula>J1&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -68824,12 +71572,12 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="B1:I1">
-    <cfRule type="expression" dxfId="128" priority="5">
+    <cfRule type="expression" dxfId="208" priority="5">
       <formula>B1&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M1:U1">
-    <cfRule type="expression" dxfId="127" priority="4">
+    <cfRule type="expression" dxfId="207" priority="4">
       <formula>M1&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -68846,12 +71594,12 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J1">
-    <cfRule type="expression" dxfId="126" priority="2">
+    <cfRule type="expression" dxfId="206" priority="2">
       <formula>J1&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="X1:AF1">
-    <cfRule type="expression" dxfId="125" priority="1">
+    <cfRule type="expression" dxfId="205" priority="1">
       <formula>X1&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -76859,12 +79607,12 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="B1:I1">
-    <cfRule type="expression" dxfId="124" priority="6">
+    <cfRule type="expression" dxfId="204" priority="6">
       <formula>B1&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M1:U1">
-    <cfRule type="expression" dxfId="123" priority="5">
+    <cfRule type="expression" dxfId="203" priority="5">
       <formula>M1&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -76881,17 +79629,17 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J1">
-    <cfRule type="expression" dxfId="122" priority="3">
+    <cfRule type="expression" dxfId="202" priority="3">
       <formula>J1&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W1:AE1">
-    <cfRule type="expression" dxfId="121" priority="2">
+    <cfRule type="expression" dxfId="201" priority="2">
       <formula>W1&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AG1:AO1">
-    <cfRule type="expression" dxfId="120" priority="1">
+    <cfRule type="expression" dxfId="200" priority="1">
       <formula>AG1&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -81227,12 +83975,12 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="B1:I1">
-    <cfRule type="expression" dxfId="119" priority="5">
+    <cfRule type="expression" dxfId="199" priority="5">
       <formula>B1&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M1:U1">
-    <cfRule type="expression" dxfId="118" priority="4">
+    <cfRule type="expression" dxfId="198" priority="4">
       <formula>M1&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -81249,12 +83997,12 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J1">
-    <cfRule type="expression" dxfId="117" priority="2">
+    <cfRule type="expression" dxfId="197" priority="2">
       <formula>J1&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W1:AE1">
-    <cfRule type="expression" dxfId="116" priority="1">
+    <cfRule type="expression" dxfId="196" priority="1">
       <formula>W1&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -83381,12 +86129,12 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="B1:I1">
-    <cfRule type="expression" dxfId="115" priority="4">
+    <cfRule type="expression" dxfId="195" priority="4">
       <formula>B1&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M1:U1">
-    <cfRule type="expression" dxfId="114" priority="3">
+    <cfRule type="expression" dxfId="194" priority="3">
       <formula>M1&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -83403,7 +86151,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J1">
-    <cfRule type="expression" dxfId="113" priority="1">
+    <cfRule type="expression" dxfId="193" priority="1">
       <formula>J1&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -85531,12 +88279,12 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="B1:I1">
-    <cfRule type="expression" dxfId="112" priority="4">
+    <cfRule type="expression" dxfId="192" priority="4">
       <formula>B1&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M1:U1">
-    <cfRule type="expression" dxfId="111" priority="3">
+    <cfRule type="expression" dxfId="191" priority="3">
       <formula>M1&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -85553,7 +88301,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J1">
-    <cfRule type="expression" dxfId="110" priority="1">
+    <cfRule type="expression" dxfId="190" priority="1">
       <formula>J1&gt;0</formula>
     </cfRule>
   </conditionalFormatting>

--- a/result/back_testing_m1.xlsx
+++ b/result/back_testing_m1.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr codeName="현재_통합_문서" defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\study\kra\result\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="23685" yWindow="45" windowWidth="21000" windowHeight="9915" firstSheet="19" activeTab="30"/>
+    <workbookView xWindow="27255" yWindow="45" windowWidth="21000" windowHeight="9915" firstSheet="19" activeTab="30"/>
   </bookViews>
   <sheets>
     <sheet name="0" sheetId="56" r:id="rId1"/>
@@ -40,12 +45,12 @@
     <sheet name="ss" sheetId="23" r:id="rId31"/>
     <sheet name="dt" sheetId="55" r:id="rId32"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3132" uniqueCount="148">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3132" uniqueCount="149">
   <si>
     <t>2016-01-09 - 2016-01-10</t>
   </si>
@@ -517,6 +522,10 @@
     <t>~2016년 12월 17일</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>[[4,5,6,7,8],[4,5,6,7,8],[4,5,6,7,8]]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -542,7 +551,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -552,6 +561,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -687,7 +702,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -776,6 +791,15 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -2159,7 +2183,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2194,7 +2218,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -58322,8 +58346,8 @@
   <sheetPr codeName="Sheet8"/>
   <dimension ref="A1:AD78"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="Q77" sqref="Q77:W77"/>
+    <sheetView tabSelected="1" topLeftCell="A41" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="Z62" sqref="Z62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -58426,7 +58450,7 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>143</v>
+        <v>148</v>
       </c>
       <c r="M7">
         <v>6</v>
@@ -59020,7 +59044,7 @@
       <c r="F17" s="19">
         <v>-318</v>
       </c>
-      <c r="G17" s="27">
+      <c r="G17" s="31">
         <v>-1100</v>
       </c>
       <c r="H17" s="19">
@@ -59054,7 +59078,7 @@
       <c r="R17" s="19">
         <v>-599</v>
       </c>
-      <c r="S17" s="27">
+      <c r="S17" s="31">
         <v>-1340</v>
       </c>
       <c r="T17" s="19">
@@ -59075,7 +59099,7 @@
       <c r="Y17" s="19">
         <v>-622</v>
       </c>
-      <c r="Z17" s="27">
+      <c r="Z17" s="31">
         <v>-1310</v>
       </c>
       <c r="AA17" s="19">
@@ -59110,7 +59134,7 @@
       <c r="F18" s="13">
         <v>2395</v>
       </c>
-      <c r="G18" s="28">
+      <c r="G18" s="30">
         <v>-1160</v>
       </c>
       <c r="H18" s="13">
@@ -59144,7 +59168,7 @@
       <c r="R18" s="13">
         <v>-778</v>
       </c>
-      <c r="S18" s="28">
+      <c r="S18" s="30">
         <v>2656</v>
       </c>
       <c r="T18" s="13">
@@ -59165,7 +59189,7 @@
       <c r="Y18" s="13">
         <v>-748</v>
       </c>
-      <c r="Z18" s="28">
+      <c r="Z18" s="30">
         <v>2686</v>
       </c>
       <c r="AA18" s="13">
@@ -59200,7 +59224,7 @@
       <c r="F19" s="13">
         <v>-265</v>
       </c>
-      <c r="G19" s="28">
+      <c r="G19" s="30">
         <v>-824</v>
       </c>
       <c r="H19" s="13">
@@ -59234,7 +59258,7 @@
       <c r="R19" s="13">
         <v>-59</v>
       </c>
-      <c r="S19" s="28">
+      <c r="S19" s="30">
         <v>-1750</v>
       </c>
       <c r="T19" s="13">
@@ -59255,7 +59279,7 @@
       <c r="Y19" s="13">
         <v>-10</v>
       </c>
-      <c r="Z19" s="28">
+      <c r="Z19" s="30">
         <v>-1690</v>
       </c>
       <c r="AA19" s="13">
@@ -59290,7 +59314,7 @@
       <c r="F20" s="13">
         <v>76</v>
       </c>
-      <c r="G20" s="28">
+      <c r="G20" s="30">
         <v>5962</v>
       </c>
       <c r="H20" s="13">
@@ -59324,7 +59348,7 @@
       <c r="R20" s="13">
         <v>-349</v>
       </c>
-      <c r="S20" s="28">
+      <c r="S20" s="30">
         <v>5922</v>
       </c>
       <c r="T20" s="13">
@@ -59345,7 +59369,7 @@
       <c r="Y20" s="13">
         <v>-339</v>
       </c>
-      <c r="Z20" s="28">
+      <c r="Z20" s="30">
         <v>5932</v>
       </c>
       <c r="AA20" s="13">
@@ -59380,7 +59404,7 @@
       <c r="F21" s="10">
         <v>-4</v>
       </c>
-      <c r="G21" s="29">
+      <c r="G21" s="32">
         <v>9882</v>
       </c>
       <c r="H21" s="10">
@@ -59413,7 +59437,7 @@
       <c r="R21" s="10">
         <v>-6</v>
       </c>
-      <c r="S21" s="29">
+      <c r="S21" s="32">
         <v>-420</v>
       </c>
       <c r="T21" s="10">
@@ -59434,7 +59458,7 @@
       <c r="Y21" s="10">
         <v>-54</v>
       </c>
-      <c r="Z21" s="29">
+      <c r="Z21" s="32">
         <v>-400</v>
       </c>
       <c r="AA21" s="10">
@@ -59466,7 +59490,7 @@
       <c r="E22" s="6">
         <v>536</v>
       </c>
-      <c r="F22" s="28">
+      <c r="F22" s="30">
         <v>741</v>
       </c>
       <c r="G22" s="7">
@@ -59499,7 +59523,7 @@
       <c r="Q22" s="6">
         <v>-485</v>
       </c>
-      <c r="R22" s="28">
+      <c r="R22" s="30">
         <v>-502</v>
       </c>
       <c r="S22" s="7">
@@ -59520,7 +59544,7 @@
       <c r="X22" s="6">
         <v>-501</v>
       </c>
-      <c r="Y22" s="28">
+      <c r="Y22" s="30">
         <v>-472</v>
       </c>
       <c r="Z22" s="7">
@@ -59555,7 +59579,7 @@
       <c r="E23" s="6">
         <v>1975</v>
       </c>
-      <c r="F23" s="28">
+      <c r="F23" s="30">
         <v>3085</v>
       </c>
       <c r="G23" s="7">
@@ -59588,7 +59612,7 @@
       <c r="Q23" s="6">
         <v>-520</v>
       </c>
-      <c r="R23" s="28">
+      <c r="R23" s="30">
         <v>-442</v>
       </c>
       <c r="S23" s="7">
@@ -59609,7 +59633,7 @@
       <c r="X23" s="6">
         <v>-490</v>
       </c>
-      <c r="Y23" s="28">
+      <c r="Y23" s="30">
         <v>-412</v>
       </c>
       <c r="Z23" s="7">
@@ -59644,7 +59668,7 @@
       <c r="E24" s="6">
         <v>1026</v>
       </c>
-      <c r="F24" s="28">
+      <c r="F24" s="30">
         <v>20</v>
       </c>
       <c r="G24" s="7">
@@ -59677,7 +59701,7 @@
       <c r="Q24" s="6">
         <v>-80</v>
       </c>
-      <c r="R24" s="28">
+      <c r="R24" s="30">
         <v>-312</v>
       </c>
       <c r="S24" s="7">
@@ -59698,7 +59722,7 @@
       <c r="X24" s="6">
         <v>-61</v>
       </c>
-      <c r="Y24" s="28">
+      <c r="Y24" s="30">
         <v>-283</v>
       </c>
       <c r="Z24" s="7">
@@ -59733,7 +59757,7 @@
       <c r="E25" s="6">
         <v>-214</v>
       </c>
-      <c r="F25" s="28">
+      <c r="F25" s="30">
         <v>-79</v>
       </c>
       <c r="G25" s="7">
@@ -59766,7 +59790,7 @@
       <c r="Q25" s="6">
         <v>-264</v>
       </c>
-      <c r="R25" s="28">
+      <c r="R25" s="30">
         <v>-254</v>
       </c>
       <c r="S25" s="7">
@@ -59787,7 +59811,7 @@
       <c r="X25" s="6">
         <v>-254</v>
       </c>
-      <c r="Y25" s="28">
+      <c r="Y25" s="30">
         <v>-244</v>
       </c>
       <c r="Z25" s="7">
@@ -59822,7 +59846,7 @@
       <c r="E26" s="6">
         <v>167</v>
       </c>
-      <c r="F26" s="28">
+      <c r="F26" s="30">
         <v>380</v>
       </c>
       <c r="G26" s="7">
@@ -59855,7 +59879,7 @@
       <c r="Q26" s="6">
         <v>-170</v>
       </c>
-      <c r="R26" s="28">
+      <c r="R26" s="30">
         <v>-9</v>
       </c>
       <c r="S26" s="7">
@@ -59876,7 +59900,7 @@
       <c r="X26" s="6">
         <v>-208</v>
       </c>
-      <c r="Y26" s="28">
+      <c r="Y26" s="30">
         <v>-57</v>
       </c>
       <c r="Z26" s="7">
@@ -60364,7 +60388,7 @@
       <c r="F32" s="13">
         <v>-15</v>
       </c>
-      <c r="G32" s="28">
+      <c r="G32" s="30">
         <v>-1100</v>
       </c>
       <c r="H32" s="13">
@@ -60398,7 +60422,7 @@
       <c r="R32" s="13">
         <v>945</v>
       </c>
-      <c r="S32" s="28">
+      <c r="S32" s="30">
         <v>-1340</v>
       </c>
       <c r="T32" s="13">
@@ -60419,7 +60443,7 @@
       <c r="Y32" s="13">
         <v>975</v>
       </c>
-      <c r="Z32" s="28">
+      <c r="Z32" s="30">
         <v>-1310</v>
       </c>
       <c r="AA32" s="13">
@@ -60454,7 +60478,7 @@
       <c r="F33" s="13">
         <v>-291</v>
       </c>
-      <c r="G33" s="28">
+      <c r="G33" s="30">
         <v>13244</v>
       </c>
       <c r="H33" s="13">
@@ -60488,7 +60512,7 @@
       <c r="R33" s="13">
         <v>-348</v>
       </c>
-      <c r="S33" s="28">
+      <c r="S33" s="30">
         <v>12386</v>
       </c>
       <c r="T33" s="13">
@@ -60509,7 +60533,7 @@
       <c r="Y33" s="13">
         <v>-413</v>
       </c>
-      <c r="Z33" s="28">
+      <c r="Z33" s="30">
         <v>12416</v>
       </c>
       <c r="AA33" s="13">
@@ -60544,7 +60568,7 @@
       <c r="F34" s="13">
         <v>2526</v>
       </c>
-      <c r="G34" s="28">
+      <c r="G34" s="30">
         <v>-1550</v>
       </c>
       <c r="H34" s="13">
@@ -60578,7 +60602,7 @@
       <c r="R34" s="13">
         <v>2442</v>
       </c>
-      <c r="S34" s="28">
+      <c r="S34" s="30">
         <v>-1750</v>
       </c>
       <c r="T34" s="13">
@@ -60599,7 +60623,7 @@
       <c r="Y34" s="13">
         <v>2495</v>
       </c>
-      <c r="Z34" s="28">
+      <c r="Z34" s="30">
         <v>-1690</v>
       </c>
       <c r="AA34" s="13">
@@ -60634,7 +60658,7 @@
       <c r="F35" s="13">
         <v>-268</v>
       </c>
-      <c r="G35" s="28">
+      <c r="G35" s="30">
         <v>-102</v>
       </c>
       <c r="H35" s="13">
@@ -60668,7 +60692,7 @@
       <c r="R35" s="13">
         <v>-267</v>
       </c>
-      <c r="S35" s="28">
+      <c r="S35" s="30">
         <v>-750</v>
       </c>
       <c r="T35" s="13">
@@ -60689,7 +60713,7 @@
       <c r="Y35" s="13">
         <v>-257</v>
       </c>
-      <c r="Z35" s="28">
+      <c r="Z35" s="30">
         <v>-740</v>
       </c>
       <c r="AA35" s="13">
@@ -60724,7 +60748,7 @@
       <c r="F36" s="7">
         <v>-139</v>
       </c>
-      <c r="G36" s="28">
+      <c r="G36" s="30">
         <v>-350</v>
       </c>
       <c r="H36" s="7">
@@ -60757,7 +60781,7 @@
       <c r="R36" s="7">
         <v>-236</v>
       </c>
-      <c r="S36" s="28">
+      <c r="S36" s="30">
         <v>-420</v>
       </c>
       <c r="T36" s="7">
@@ -60778,7 +60802,7 @@
       <c r="Y36" s="7">
         <v>-216</v>
       </c>
-      <c r="Z36" s="28">
+      <c r="Z36" s="30">
         <v>-400</v>
       </c>
       <c r="AA36" s="7">
@@ -61307,13 +61331,27 @@
       <c r="W42" s="14">
         <v>-2816</v>
       </c>
-      <c r="X42" s="12"/>
-      <c r="Y42" s="13"/>
-      <c r="Z42" s="13"/>
-      <c r="AA42" s="13"/>
-      <c r="AB42" s="13"/>
-      <c r="AC42" s="13"/>
-      <c r="AD42" s="14"/>
+      <c r="X42" s="12">
+        <v>-1295</v>
+      </c>
+      <c r="Y42" s="13">
+        <v>-1214</v>
+      </c>
+      <c r="Z42" s="13">
+        <v>-4032</v>
+      </c>
+      <c r="AA42" s="13">
+        <v>-4580</v>
+      </c>
+      <c r="AB42" s="13">
+        <v>-1751</v>
+      </c>
+      <c r="AC42" s="13">
+        <v>-747</v>
+      </c>
+      <c r="AD42" s="14">
+        <v>-2741</v>
+      </c>
     </row>
     <row r="43" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A43" s="12">
@@ -61383,13 +61421,27 @@
       <c r="W43" s="14">
         <v>-522</v>
       </c>
-      <c r="X43" s="12"/>
-      <c r="Y43" s="13"/>
-      <c r="Z43" s="13"/>
-      <c r="AA43" s="13"/>
-      <c r="AB43" s="13"/>
-      <c r="AC43" s="13"/>
-      <c r="AD43" s="14"/>
+      <c r="X43" s="12">
+        <v>-501</v>
+      </c>
+      <c r="Y43" s="13">
+        <v>-363</v>
+      </c>
+      <c r="Z43" s="13">
+        <v>-1006</v>
+      </c>
+      <c r="AA43" s="13">
+        <v>-836</v>
+      </c>
+      <c r="AB43" s="13">
+        <v>-384</v>
+      </c>
+      <c r="AC43" s="13">
+        <v>-154</v>
+      </c>
+      <c r="AD43" s="14">
+        <v>-492</v>
+      </c>
     </row>
     <row r="44" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A44" s="12">
@@ -61459,13 +61511,27 @@
       <c r="W44" s="14">
         <v>-580</v>
       </c>
-      <c r="X44" s="12"/>
-      <c r="Y44" s="13"/>
-      <c r="Z44" s="13"/>
-      <c r="AA44" s="13"/>
-      <c r="AB44" s="13"/>
-      <c r="AC44" s="13"/>
-      <c r="AD44" s="14"/>
+      <c r="X44" s="12">
+        <v>-400</v>
+      </c>
+      <c r="Y44" s="13">
+        <v>-229</v>
+      </c>
+      <c r="Z44" s="13">
+        <v>-959</v>
+      </c>
+      <c r="AA44" s="13">
+        <v>-665</v>
+      </c>
+      <c r="AB44" s="13">
+        <v>-272</v>
+      </c>
+      <c r="AC44" s="13">
+        <v>29</v>
+      </c>
+      <c r="AD44" s="14">
+        <v>-550</v>
+      </c>
     </row>
     <row r="45" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A45" s="12">
@@ -61535,13 +61601,27 @@
       <c r="W45" s="14">
         <v>-1017</v>
       </c>
-      <c r="X45" s="12"/>
-      <c r="Y45" s="13"/>
-      <c r="Z45" s="13"/>
-      <c r="AA45" s="13"/>
-      <c r="AB45" s="13"/>
-      <c r="AC45" s="13"/>
-      <c r="AD45" s="14"/>
+      <c r="X45" s="12">
+        <v>-300</v>
+      </c>
+      <c r="Y45" s="13">
+        <v>-350</v>
+      </c>
+      <c r="Z45" s="13">
+        <v>-577</v>
+      </c>
+      <c r="AA45" s="13">
+        <v>-1690</v>
+      </c>
+      <c r="AB45" s="13">
+        <v>-557</v>
+      </c>
+      <c r="AC45" s="13">
+        <v>-744</v>
+      </c>
+      <c r="AD45" s="14">
+        <v>-957</v>
+      </c>
     </row>
     <row r="46" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A46" s="12">
@@ -61611,13 +61691,27 @@
       <c r="W46" s="14">
         <v>-547</v>
       </c>
-      <c r="X46" s="12"/>
-      <c r="Y46" s="13"/>
-      <c r="Z46" s="13"/>
-      <c r="AA46" s="13"/>
-      <c r="AB46" s="13"/>
-      <c r="AC46" s="13"/>
-      <c r="AD46" s="14"/>
+      <c r="X46" s="12">
+        <v>170</v>
+      </c>
+      <c r="Y46" s="13">
+        <v>81</v>
+      </c>
+      <c r="Z46" s="13">
+        <v>-740</v>
+      </c>
+      <c r="AA46" s="13">
+        <v>-740</v>
+      </c>
+      <c r="AB46" s="13">
+        <v>2</v>
+      </c>
+      <c r="AC46" s="13">
+        <v>-648</v>
+      </c>
+      <c r="AD46" s="14">
+        <v>-612</v>
+      </c>
     </row>
     <row r="47" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A47" s="12">
@@ -61687,13 +61781,27 @@
       <c r="W47" s="14">
         <v>128</v>
       </c>
-      <c r="X47" s="12"/>
-      <c r="Y47" s="13"/>
-      <c r="Z47" s="13"/>
-      <c r="AA47" s="13"/>
-      <c r="AB47" s="13"/>
-      <c r="AC47" s="13"/>
-      <c r="AD47" s="14"/>
+      <c r="X47" s="12">
+        <v>-134</v>
+      </c>
+      <c r="Y47" s="13">
+        <v>-90</v>
+      </c>
+      <c r="Z47" s="13">
+        <v>-400</v>
+      </c>
+      <c r="AA47" s="13">
+        <v>-300</v>
+      </c>
+      <c r="AB47" s="13">
+        <v>-218</v>
+      </c>
+      <c r="AC47" s="13">
+        <v>984</v>
+      </c>
+      <c r="AD47" s="14">
+        <v>148</v>
+      </c>
     </row>
     <row r="48" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A48" s="18">
@@ -61853,13 +61961,27 @@
       <c r="W49" s="14">
         <v>-933</v>
       </c>
-      <c r="X49" s="25"/>
-      <c r="Y49" s="13"/>
-      <c r="Z49" s="28"/>
-      <c r="AA49" s="13"/>
-      <c r="AB49" s="13"/>
-      <c r="AC49" s="13"/>
-      <c r="AD49" s="14"/>
+      <c r="X49" s="25">
+        <v>541</v>
+      </c>
+      <c r="Y49" s="13">
+        <v>311</v>
+      </c>
+      <c r="Z49" s="28">
+        <v>-1268</v>
+      </c>
+      <c r="AA49" s="13">
+        <v>-1050</v>
+      </c>
+      <c r="AB49" s="13">
+        <v>-732</v>
+      </c>
+      <c r="AC49" s="13">
+        <v>-682</v>
+      </c>
+      <c r="AD49" s="14">
+        <v>-903</v>
+      </c>
     </row>
     <row r="50" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A50" s="12">
@@ -61929,13 +62051,27 @@
       <c r="W50" s="14">
         <v>-769</v>
       </c>
-      <c r="X50" s="25"/>
-      <c r="Y50" s="13"/>
-      <c r="Z50" s="28"/>
-      <c r="AA50" s="13"/>
-      <c r="AB50" s="13"/>
-      <c r="AC50" s="13"/>
-      <c r="AD50" s="14"/>
+      <c r="X50" s="25">
+        <v>2539</v>
+      </c>
+      <c r="Y50" s="13">
+        <v>2399</v>
+      </c>
+      <c r="Z50" s="28">
+        <v>5448</v>
+      </c>
+      <c r="AA50" s="13">
+        <v>-733</v>
+      </c>
+      <c r="AB50" s="13">
+        <v>-299</v>
+      </c>
+      <c r="AC50" s="13">
+        <v>857</v>
+      </c>
+      <c r="AD50" s="14">
+        <v>-739</v>
+      </c>
     </row>
     <row r="51" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A51" s="12">
@@ -62005,13 +62141,27 @@
       <c r="W51" s="14">
         <v>-342</v>
       </c>
-      <c r="X51" s="25"/>
-      <c r="Y51" s="13"/>
-      <c r="Z51" s="28"/>
-      <c r="AA51" s="13"/>
-      <c r="AB51" s="13"/>
-      <c r="AC51" s="13"/>
-      <c r="AD51" s="14"/>
+      <c r="X51" s="25">
+        <v>479</v>
+      </c>
+      <c r="Y51" s="13">
+        <v>575</v>
+      </c>
+      <c r="Z51" s="28">
+        <v>-1690</v>
+      </c>
+      <c r="AA51" s="13">
+        <v>1552</v>
+      </c>
+      <c r="AB51" s="13">
+        <v>40</v>
+      </c>
+      <c r="AC51" s="13">
+        <v>-558</v>
+      </c>
+      <c r="AD51" s="14">
+        <v>-295</v>
+      </c>
     </row>
     <row r="52" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A52" s="12">
@@ -62081,13 +62231,27 @@
       <c r="W52" s="14">
         <v>-447</v>
       </c>
-      <c r="X52" s="25"/>
-      <c r="Y52" s="13"/>
-      <c r="Z52" s="28"/>
-      <c r="AA52" s="13"/>
-      <c r="AB52" s="13"/>
-      <c r="AC52" s="13"/>
-      <c r="AD52" s="14"/>
+      <c r="X52" s="25">
+        <v>-300</v>
+      </c>
+      <c r="Y52" s="13">
+        <v>-144</v>
+      </c>
+      <c r="Z52" s="28">
+        <v>5932</v>
+      </c>
+      <c r="AA52" s="13">
+        <v>-563</v>
+      </c>
+      <c r="AB52" s="13">
+        <v>-539</v>
+      </c>
+      <c r="AC52" s="13">
+        <v>462</v>
+      </c>
+      <c r="AD52" s="14">
+        <v>-512</v>
+      </c>
     </row>
     <row r="53" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A53" s="9">
@@ -62156,13 +62320,27 @@
       <c r="W53" s="11">
         <v>-164</v>
       </c>
-      <c r="X53" s="26"/>
-      <c r="Y53" s="10"/>
-      <c r="Z53" s="29"/>
-      <c r="AA53" s="10"/>
-      <c r="AB53" s="10"/>
-      <c r="AC53" s="10"/>
-      <c r="AD53" s="11"/>
+      <c r="X53" s="26">
+        <v>1064</v>
+      </c>
+      <c r="Y53" s="10">
+        <v>94</v>
+      </c>
+      <c r="Z53" s="29">
+        <v>-400</v>
+      </c>
+      <c r="AA53" s="10">
+        <v>-300</v>
+      </c>
+      <c r="AB53" s="10">
+        <v>844</v>
+      </c>
+      <c r="AC53" s="10">
+        <v>-349</v>
+      </c>
+      <c r="AD53" s="11">
+        <v>-144</v>
+      </c>
     </row>
     <row r="54" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A54" s="12">
@@ -62231,13 +62409,27 @@
       <c r="W54" s="8">
         <v>-2738</v>
       </c>
-      <c r="X54" s="6"/>
-      <c r="Y54" s="7"/>
-      <c r="Z54" s="7"/>
-      <c r="AA54" s="7"/>
-      <c r="AB54" s="7"/>
-      <c r="AC54" s="7"/>
-      <c r="AD54" s="8"/>
+      <c r="X54" s="6">
+        <v>-1164</v>
+      </c>
+      <c r="Y54" s="7">
+        <v>-936</v>
+      </c>
+      <c r="Z54" s="7">
+        <v>-5596</v>
+      </c>
+      <c r="AA54" s="7">
+        <v>-3235</v>
+      </c>
+      <c r="AB54" s="7">
+        <v>-1998</v>
+      </c>
+      <c r="AC54" s="7">
+        <v>-1791</v>
+      </c>
+      <c r="AD54" s="8">
+        <v>-2701</v>
+      </c>
     </row>
     <row r="55" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A55" s="6">
@@ -62306,13 +62498,27 @@
       <c r="W55" s="8">
         <v>-690</v>
       </c>
-      <c r="X55" s="6"/>
-      <c r="Y55" s="7"/>
-      <c r="Z55" s="7"/>
-      <c r="AA55" s="7"/>
-      <c r="AB55" s="7"/>
-      <c r="AC55" s="7"/>
-      <c r="AD55" s="8"/>
+      <c r="X55" s="6">
+        <v>365</v>
+      </c>
+      <c r="Y55" s="7">
+        <v>-434</v>
+      </c>
+      <c r="Z55" s="7">
+        <v>-1310</v>
+      </c>
+      <c r="AA55" s="7">
+        <v>-293</v>
+      </c>
+      <c r="AB55" s="7">
+        <v>-746</v>
+      </c>
+      <c r="AC55" s="7">
+        <v>65</v>
+      </c>
+      <c r="AD55" s="8">
+        <v>-660</v>
+      </c>
     </row>
     <row r="56" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A56" s="6">
@@ -62381,13 +62587,27 @@
       <c r="W56" s="8">
         <v>-1034</v>
       </c>
-      <c r="X56" s="6"/>
-      <c r="Y56" s="7"/>
-      <c r="Z56" s="7"/>
-      <c r="AA56" s="7"/>
-      <c r="AB56" s="7"/>
-      <c r="AC56" s="7"/>
-      <c r="AD56" s="8"/>
+      <c r="X56" s="6">
+        <v>-716</v>
+      </c>
+      <c r="Y56" s="7">
+        <v>-212</v>
+      </c>
+      <c r="Z56" s="7">
+        <v>-1260</v>
+      </c>
+      <c r="AA56" s="7">
+        <v>-538</v>
+      </c>
+      <c r="AB56" s="7">
+        <v>-381</v>
+      </c>
+      <c r="AC56" s="7">
+        <v>-1134</v>
+      </c>
+      <c r="AD56" s="8">
+        <v>-1042</v>
+      </c>
     </row>
     <row r="57" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A57" s="6">
@@ -62456,13 +62676,27 @@
       <c r="W57" s="8">
         <v>-1045</v>
       </c>
-      <c r="X57" s="6"/>
-      <c r="Y57" s="7"/>
-      <c r="Z57" s="7"/>
-      <c r="AA57" s="7"/>
-      <c r="AB57" s="7"/>
-      <c r="AC57" s="7"/>
-      <c r="AD57" s="8"/>
+      <c r="X57" s="6">
+        <v>-99</v>
+      </c>
+      <c r="Y57" s="7">
+        <v>111</v>
+      </c>
+      <c r="Z57" s="7">
+        <v>-1690</v>
+      </c>
+      <c r="AA57" s="7">
+        <v>-969</v>
+      </c>
+      <c r="AB57" s="7">
+        <v>-1091</v>
+      </c>
+      <c r="AC57" s="7">
+        <v>-1281</v>
+      </c>
+      <c r="AD57" s="8">
+        <v>-985</v>
+      </c>
     </row>
     <row r="58" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A58" s="6">
@@ -62531,13 +62765,27 @@
       <c r="W58" s="8">
         <v>-150</v>
       </c>
-      <c r="X58" s="6"/>
-      <c r="Y58" s="7"/>
-      <c r="Z58" s="7"/>
-      <c r="AA58" s="7"/>
-      <c r="AB58" s="7"/>
-      <c r="AC58" s="7"/>
-      <c r="AD58" s="8"/>
+      <c r="X58" s="6">
+        <v>-542</v>
+      </c>
+      <c r="Y58" s="7">
+        <v>-373</v>
+      </c>
+      <c r="Z58" s="7">
+        <v>-740</v>
+      </c>
+      <c r="AA58" s="7">
+        <v>-740</v>
+      </c>
+      <c r="AB58" s="7">
+        <v>-228</v>
+      </c>
+      <c r="AC58" s="7">
+        <v>71</v>
+      </c>
+      <c r="AD58" s="8">
+        <v>-216</v>
+      </c>
     </row>
     <row r="59" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A59" s="6">
@@ -62606,13 +62854,27 @@
       <c r="W59" s="8">
         <v>460</v>
       </c>
-      <c r="X59" s="6"/>
-      <c r="Y59" s="7"/>
-      <c r="Z59" s="7"/>
-      <c r="AA59" s="7"/>
-      <c r="AB59" s="7"/>
-      <c r="AC59" s="7"/>
-      <c r="AD59" s="8"/>
+      <c r="X59" s="6">
+        <v>-28</v>
+      </c>
+      <c r="Y59" s="7">
+        <v>-104</v>
+      </c>
+      <c r="Z59" s="7">
+        <v>-400</v>
+      </c>
+      <c r="AA59" s="7">
+        <v>-345</v>
+      </c>
+      <c r="AB59" s="7">
+        <v>770</v>
+      </c>
+      <c r="AC59" s="7">
+        <v>709</v>
+      </c>
+      <c r="AD59" s="8">
+        <v>480</v>
+      </c>
     </row>
     <row r="60" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A60" s="18">
@@ -62771,13 +63033,27 @@
       <c r="W61" s="14">
         <v>-1044</v>
       </c>
-      <c r="X61" s="12"/>
-      <c r="Y61" s="13"/>
-      <c r="Z61" s="28"/>
-      <c r="AA61" s="13"/>
-      <c r="AB61" s="13"/>
-      <c r="AC61" s="13"/>
-      <c r="AD61" s="14"/>
+      <c r="X61" s="12">
+        <v>-482</v>
+      </c>
+      <c r="Y61" s="13">
+        <v>187</v>
+      </c>
+      <c r="Z61" s="28">
+        <v>-1310</v>
+      </c>
+      <c r="AA61" s="13">
+        <v>-664</v>
+      </c>
+      <c r="AB61" s="13">
+        <v>-614</v>
+      </c>
+      <c r="AC61" s="13">
+        <v>-43</v>
+      </c>
+      <c r="AD61" s="14">
+        <v>-1014</v>
+      </c>
     </row>
     <row r="62" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A62" s="12">
@@ -62937,13 +63213,27 @@
       <c r="W63" s="14">
         <v>-890</v>
       </c>
-      <c r="X63" s="12"/>
-      <c r="Y63" s="13"/>
-      <c r="Z63" s="28"/>
-      <c r="AA63" s="13"/>
-      <c r="AB63" s="13"/>
-      <c r="AC63" s="13"/>
-      <c r="AD63" s="14"/>
+      <c r="X63" s="12">
+        <v>-98</v>
+      </c>
+      <c r="Y63" s="13">
+        <v>-157</v>
+      </c>
+      <c r="Z63" s="28">
+        <v>-1690</v>
+      </c>
+      <c r="AA63" s="13">
+        <v>858</v>
+      </c>
+      <c r="AB63" s="13">
+        <v>-587</v>
+      </c>
+      <c r="AC63" s="13">
+        <v>-1179</v>
+      </c>
+      <c r="AD63" s="14">
+        <v>-862</v>
+      </c>
     </row>
     <row r="64" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A64" s="12">
@@ -63013,13 +63303,27 @@
       <c r="W64" s="14">
         <v>-581</v>
       </c>
-      <c r="X64" s="12"/>
-      <c r="Y64" s="13"/>
-      <c r="Z64" s="28"/>
-      <c r="AA64" s="13"/>
-      <c r="AB64" s="13"/>
-      <c r="AC64" s="13"/>
-      <c r="AD64" s="14"/>
+      <c r="X64" s="12">
+        <v>-214</v>
+      </c>
+      <c r="Y64" s="13">
+        <v>-372</v>
+      </c>
+      <c r="Z64" s="28">
+        <v>-172</v>
+      </c>
+      <c r="AA64" s="13">
+        <v>-229</v>
+      </c>
+      <c r="AB64" s="13">
+        <v>-333</v>
+      </c>
+      <c r="AC64" s="13">
+        <v>-545</v>
+      </c>
+      <c r="AD64" s="14">
+        <v>-646</v>
+      </c>
     </row>
     <row r="65" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A65" s="21">
@@ -63089,13 +63393,27 @@
       <c r="W65" s="23">
         <v>742</v>
       </c>
-      <c r="X65" s="21"/>
-      <c r="Y65" s="22"/>
-      <c r="Z65" s="29"/>
-      <c r="AA65" s="22"/>
-      <c r="AB65" s="22"/>
-      <c r="AC65" s="22"/>
-      <c r="AD65" s="23"/>
+      <c r="X65" s="21">
+        <v>-272</v>
+      </c>
+      <c r="Y65" s="22">
+        <v>-175</v>
+      </c>
+      <c r="Z65" s="29">
+        <v>-400</v>
+      </c>
+      <c r="AA65" s="22">
+        <v>-300</v>
+      </c>
+      <c r="AB65" s="22">
+        <v>-49</v>
+      </c>
+      <c r="AC65" s="22">
+        <v>842</v>
+      </c>
+      <c r="AD65" s="23">
+        <v>762</v>
+      </c>
     </row>
     <row r="66" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A66" s="12">
@@ -63165,13 +63483,27 @@
       <c r="W66" s="14">
         <v>-463</v>
       </c>
-      <c r="X66" s="12"/>
-      <c r="Y66" s="13"/>
-      <c r="Z66" s="13"/>
-      <c r="AA66" s="13"/>
-      <c r="AB66" s="13"/>
-      <c r="AC66" s="13"/>
-      <c r="AD66" s="14"/>
+      <c r="X66" s="12">
+        <v>-1156</v>
+      </c>
+      <c r="Y66" s="13">
+        <v>-1323</v>
+      </c>
+      <c r="Z66" s="13">
+        <v>3404</v>
+      </c>
+      <c r="AA66" s="13">
+        <v>-3428</v>
+      </c>
+      <c r="AB66" s="13">
+        <v>100</v>
+      </c>
+      <c r="AC66" s="13">
+        <v>-2043</v>
+      </c>
+      <c r="AD66" s="14">
+        <v>-313</v>
+      </c>
     </row>
     <row r="67" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A67" s="12">
@@ -63241,13 +63573,27 @@
       <c r="W67" s="14">
         <v>-238</v>
       </c>
-      <c r="X67" s="12"/>
-      <c r="Y67" s="13"/>
-      <c r="Z67" s="13"/>
-      <c r="AA67" s="13"/>
-      <c r="AB67" s="13"/>
-      <c r="AC67" s="13"/>
-      <c r="AD67" s="14"/>
+      <c r="X67" s="12">
+        <v>-499</v>
+      </c>
+      <c r="Y67" s="13">
+        <v>-373</v>
+      </c>
+      <c r="Z67" s="13">
+        <v>7844</v>
+      </c>
+      <c r="AA67" s="13">
+        <v>-784</v>
+      </c>
+      <c r="AB67" s="13">
+        <v>46</v>
+      </c>
+      <c r="AC67" s="13">
+        <v>6</v>
+      </c>
+      <c r="AD67" s="14">
+        <v>-208</v>
+      </c>
     </row>
     <row r="68" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A68" s="12">
@@ -63317,13 +63663,27 @@
       <c r="W68" s="14">
         <v>433</v>
       </c>
-      <c r="X68" s="12"/>
-      <c r="Y68" s="13"/>
-      <c r="Z68" s="13"/>
-      <c r="AA68" s="13"/>
-      <c r="AB68" s="13"/>
-      <c r="AC68" s="13"/>
-      <c r="AD68" s="14"/>
+      <c r="X68" s="12">
+        <v>-278</v>
+      </c>
+      <c r="Y68" s="13">
+        <v>-41</v>
+      </c>
+      <c r="Z68" s="13">
+        <v>-1260</v>
+      </c>
+      <c r="AA68" s="13">
+        <v>-186</v>
+      </c>
+      <c r="AB68" s="13">
+        <v>-613</v>
+      </c>
+      <c r="AC68" s="13">
+        <v>-475</v>
+      </c>
+      <c r="AD68" s="14">
+        <v>463</v>
+      </c>
     </row>
     <row r="69" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A69" s="12">
@@ -63393,13 +63753,27 @@
       <c r="W69" s="14">
         <v>-345</v>
       </c>
-      <c r="X69" s="12"/>
-      <c r="Y69" s="13"/>
-      <c r="Z69" s="13"/>
-      <c r="AA69" s="13"/>
-      <c r="AB69" s="13"/>
-      <c r="AC69" s="13"/>
-      <c r="AD69" s="14"/>
+      <c r="X69" s="12">
+        <v>-5</v>
+      </c>
+      <c r="Y69" s="13">
+        <v>-323</v>
+      </c>
+      <c r="Z69" s="13">
+        <v>-1690</v>
+      </c>
+      <c r="AA69" s="13">
+        <v>-1196</v>
+      </c>
+      <c r="AB69" s="13">
+        <v>1144</v>
+      </c>
+      <c r="AC69" s="13">
+        <v>-766</v>
+      </c>
+      <c r="AD69" s="14">
+        <v>-285</v>
+      </c>
     </row>
     <row r="70" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A70" s="12">
@@ -63469,13 +63843,27 @@
       <c r="W70" s="14">
         <v>-544</v>
       </c>
-      <c r="X70" s="12"/>
-      <c r="Y70" s="13"/>
-      <c r="Z70" s="13"/>
-      <c r="AA70" s="13"/>
-      <c r="AB70" s="13"/>
-      <c r="AC70" s="13"/>
-      <c r="AD70" s="14"/>
+      <c r="X70" s="12">
+        <v>49</v>
+      </c>
+      <c r="Y70" s="13">
+        <v>-139</v>
+      </c>
+      <c r="Z70" s="13">
+        <v>-740</v>
+      </c>
+      <c r="AA70" s="13">
+        <v>-740</v>
+      </c>
+      <c r="AB70" s="13">
+        <v>-256</v>
+      </c>
+      <c r="AC70" s="13">
+        <v>-558</v>
+      </c>
+      <c r="AD70" s="14">
+        <v>-534</v>
+      </c>
     </row>
     <row r="71" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A71" s="6">
@@ -63544,13 +63932,27 @@
       <c r="W71" s="8">
         <v>510</v>
       </c>
-      <c r="X71" s="6"/>
-      <c r="Y71" s="7"/>
-      <c r="Z71" s="7"/>
-      <c r="AA71" s="7"/>
-      <c r="AB71" s="7"/>
-      <c r="AC71" s="7"/>
-      <c r="AD71" s="8"/>
+      <c r="X71" s="6">
+        <v>-227</v>
+      </c>
+      <c r="Y71" s="7">
+        <v>-217</v>
+      </c>
+      <c r="Z71" s="7">
+        <v>-400</v>
+      </c>
+      <c r="AA71" s="7">
+        <v>-172</v>
+      </c>
+      <c r="AB71" s="7">
+        <v>-217</v>
+      </c>
+      <c r="AC71" s="7">
+        <v>17</v>
+      </c>
+      <c r="AD71" s="8">
+        <v>530</v>
+      </c>
     </row>
     <row r="72" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A72" s="18">
@@ -63619,13 +64021,27 @@
       <c r="W72" s="5">
         <v>179</v>
       </c>
-      <c r="X72" s="3"/>
-      <c r="Y72" s="4"/>
-      <c r="Z72" s="4"/>
-      <c r="AA72" s="4"/>
-      <c r="AB72" s="4"/>
-      <c r="AC72" s="4"/>
-      <c r="AD72" s="5"/>
+      <c r="X72" s="3">
+        <v>-2022</v>
+      </c>
+      <c r="Y72" s="4">
+        <v>-1059</v>
+      </c>
+      <c r="Z72" s="4">
+        <v>-4187</v>
+      </c>
+      <c r="AA72" s="4">
+        <v>-3030</v>
+      </c>
+      <c r="AB72" s="4">
+        <v>65</v>
+      </c>
+      <c r="AC72" s="4">
+        <v>-349</v>
+      </c>
+      <c r="AD72" s="5">
+        <v>329</v>
+      </c>
     </row>
     <row r="73" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A73" s="6">
@@ -63694,13 +64110,27 @@
       <c r="W73" s="8">
         <v>-103</v>
       </c>
-      <c r="X73" s="6"/>
-      <c r="Y73" s="7"/>
-      <c r="Z73" s="7"/>
-      <c r="AA73" s="7"/>
-      <c r="AB73" s="7"/>
-      <c r="AC73" s="7"/>
-      <c r="AD73" s="8"/>
+      <c r="X73" s="6">
+        <v>-138</v>
+      </c>
+      <c r="Y73" s="7">
+        <v>-550</v>
+      </c>
+      <c r="Z73" s="7">
+        <v>-337</v>
+      </c>
+      <c r="AA73" s="7">
+        <v>-992</v>
+      </c>
+      <c r="AB73" s="7">
+        <v>270</v>
+      </c>
+      <c r="AC73" s="7">
+        <v>-54</v>
+      </c>
+      <c r="AD73" s="8">
+        <v>-73</v>
+      </c>
     </row>
     <row r="74" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A74" s="6">
@@ -63769,13 +64199,27 @@
       <c r="W74" s="8">
         <v>218</v>
       </c>
-      <c r="X74" s="6"/>
-      <c r="Y74" s="7"/>
-      <c r="Z74" s="7"/>
-      <c r="AA74" s="7"/>
-      <c r="AB74" s="7"/>
-      <c r="AC74" s="7"/>
-      <c r="AD74" s="8"/>
+      <c r="X74" s="6">
+        <v>-488</v>
+      </c>
+      <c r="Y74" s="7">
+        <v>-401</v>
+      </c>
+      <c r="Z74" s="7">
+        <v>-988</v>
+      </c>
+      <c r="AA74" s="7">
+        <v>-310</v>
+      </c>
+      <c r="AB74" s="7">
+        <v>-428</v>
+      </c>
+      <c r="AC74" s="7">
+        <v>1891</v>
+      </c>
+      <c r="AD74" s="8">
+        <v>248</v>
+      </c>
     </row>
     <row r="75" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A75" s="6">
@@ -63844,13 +64288,27 @@
       <c r="W75" s="8">
         <v>-1089</v>
       </c>
-      <c r="X75" s="6"/>
-      <c r="Y75" s="7"/>
-      <c r="Z75" s="7"/>
-      <c r="AA75" s="7"/>
-      <c r="AB75" s="7"/>
-      <c r="AC75" s="7"/>
-      <c r="AD75" s="8"/>
+      <c r="X75" s="6">
+        <v>-848</v>
+      </c>
+      <c r="Y75" s="7">
+        <v>188</v>
+      </c>
+      <c r="Z75" s="7">
+        <v>-1372</v>
+      </c>
+      <c r="AA75" s="7">
+        <v>-631</v>
+      </c>
+      <c r="AB75" s="7">
+        <v>673</v>
+      </c>
+      <c r="AC75" s="7">
+        <v>-945</v>
+      </c>
+      <c r="AD75" s="8">
+        <v>-1029</v>
+      </c>
     </row>
     <row r="76" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A76" s="6">
@@ -63919,13 +64377,27 @@
       <c r="W76" s="8">
         <v>-615</v>
       </c>
-      <c r="X76" s="6"/>
-      <c r="Y76" s="7"/>
-      <c r="Z76" s="7"/>
-      <c r="AA76" s="7"/>
-      <c r="AB76" s="7"/>
-      <c r="AC76" s="7"/>
-      <c r="AD76" s="8"/>
+      <c r="X76" s="6">
+        <v>-73</v>
+      </c>
+      <c r="Y76" s="7">
+        <v>-118</v>
+      </c>
+      <c r="Z76" s="7">
+        <v>-740</v>
+      </c>
+      <c r="AA76" s="7">
+        <v>-740</v>
+      </c>
+      <c r="AB76" s="7">
+        <v>-485</v>
+      </c>
+      <c r="AC76" s="7">
+        <v>-625</v>
+      </c>
+      <c r="AD76" s="8">
+        <v>-605</v>
+      </c>
     </row>
     <row r="77" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A77" s="9">
@@ -63994,13 +64466,27 @@
       <c r="W77" s="11">
         <v>1340</v>
       </c>
-      <c r="X77" s="9"/>
-      <c r="Y77" s="10"/>
-      <c r="Z77" s="10"/>
-      <c r="AA77" s="10"/>
-      <c r="AB77" s="10"/>
-      <c r="AC77" s="10"/>
-      <c r="AD77" s="11"/>
+      <c r="X77" s="9">
+        <v>-300</v>
+      </c>
+      <c r="Y77" s="10">
+        <v>-192</v>
+      </c>
+      <c r="Z77" s="10">
+        <v>-400</v>
+      </c>
+      <c r="AA77" s="10">
+        <v>-117</v>
+      </c>
+      <c r="AB77" s="10">
+        <v>309</v>
+      </c>
+      <c r="AC77" s="10">
+        <v>-349</v>
+      </c>
+      <c r="AD77" s="11">
+        <v>1360</v>
+      </c>
     </row>
     <row r="78" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A78"/>
